--- a/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
+++ b/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\Škola Mgr\Praktikum plazma\PraktikaPlazma\04_RozpadPlazmatu\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAF29FE-AA9E-45D2-9AC8-86A8C8A04C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15315" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="13">
   <si>
     <t>RozpadPlazmatu</t>
   </si>
@@ -41,11 +59,29 @@
   <si>
     <t>drbnuli jsme do proudu</t>
   </si>
+  <si>
+    <t>delta f [GHz]</t>
+  </si>
+  <si>
+    <t>n (t)</t>
+  </si>
+  <si>
+    <t>1/n</t>
+  </si>
+  <si>
+    <t>čas s</t>
+  </si>
+  <si>
+    <t>ln n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,12 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -98,12 +135,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,9 +218,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +270,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,25 +462,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" customWidth="1"/>
+    <col min="30" max="31" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -414,31 +495,139 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>900</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U5" s="1">
+        <v>50</v>
+      </c>
+      <c r="V5">
+        <v>90</v>
+      </c>
+      <c r="W5">
+        <v>900</v>
+      </c>
+      <c r="X5">
+        <v>2.7309800000000002</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <f>V5</f>
+        <v>90</v>
+      </c>
+      <c r="AA5">
+        <v>2.7722600000000002</v>
+      </c>
+      <c r="AB5">
+        <f>Z5/1000000</f>
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="AC5">
+        <f>AA5-$X$5</f>
+        <v>4.1279999999999983E-2</v>
+      </c>
+      <c r="AD5">
+        <f>(0.271*0.04^2*AC5*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z5/1000000))</f>
+        <v>95170208977.755737</v>
+      </c>
+      <c r="AE5">
+        <f>1/AD5</f>
+        <v>1.0507489798974082E-11</v>
+      </c>
+      <c r="AF5">
+        <f>LN(AD5)</f>
+        <v>25.278932798864712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2.7309800000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <f>Z5+5</f>
+        <v>95</v>
+      </c>
+      <c r="AA6">
+        <v>2.7713399999999999</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB37" si="0">Z6/1000000</f>
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC19" si="1">AA6-$X$5</f>
+        <v>4.0359999999999729E-2</v>
+      </c>
+      <c r="AD6">
+        <f>(0.271*0.04^2*AC6*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z6/1000000))</f>
+        <v>88151842893.410309</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ref="AE6:AE69" si="2">1/AD6</f>
+        <v>1.1344062326741826E-11</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ref="AF6:AF19" si="3">LN(AD6)</f>
+        <v>25.202326651906528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -484,8 +673,38 @@
       <c r="P7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <f>Z6+10</f>
+        <v>105</v>
+      </c>
+      <c r="AA7">
+        <v>2.7690399999999999</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>1.05E-4</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>3.8059999999999761E-2</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" ref="AD6:AD37" si="4">(0.271*0.04^2*AC7*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z7/1000000))</f>
+        <v>75211340400.609711</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="2"/>
+        <v>1.3295867281098123E-11</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="3"/>
+        <v>25.043567859732143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -549,8 +768,38 @@
         <f>O8+120</f>
         <v>890</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <f>Z7+15</f>
+        <v>120</v>
+      </c>
+      <c r="AA8">
+        <v>2.7663000000000002</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>1.2E-4</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>3.5320000000000018E-2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="4"/>
+        <v>61072161720.463974</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>1.6374072438718366E-11</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="3"/>
+        <v>24.835321980975383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -599,40 +848,222 @@
       <c r="P9">
         <v>2.7332399999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <f>Z8+20</f>
+        <v>140</v>
+      </c>
+      <c r="AA9">
+        <v>2.7634099999999999</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="1"/>
+        <v>3.2429999999999737E-2</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="4"/>
+        <v>48064314947.289185</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>2.0805456212091498E-11</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="3"/>
+        <v>24.595805845731583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>6</v>
+      </c>
+      <c r="Z10">
+        <f>Z9+30</f>
+        <v>170</v>
+      </c>
+      <c r="AA10">
+        <v>2.7594599999999998</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="1"/>
+        <v>2.8479999999999617E-2</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="4"/>
+        <v>34761211760.684616</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>2.8767696790450012E-11</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="3"/>
+        <v>24.27176799751517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <f>Z10+40</f>
+        <v>210</v>
+      </c>
+      <c r="AA11">
+        <v>2.7549199999999998</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="1"/>
+        <v>2.3939999999999628E-2</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="4"/>
+        <v>23654223452.319756</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>4.2275748430960669E-11</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="3"/>
+        <v>23.886807517434011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>8</v>
+      </c>
+      <c r="Z12">
+        <f>Z11+50</f>
+        <v>260</v>
+      </c>
+      <c r="AA12">
+        <v>2.7506300000000001</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="1"/>
+        <v>1.9649999999999945E-2</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="4"/>
+        <v>15681696721.932833</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="2"/>
+        <v>6.3768609847005503E-11</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="3"/>
+        <v>23.475760055321409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
         <v>880</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>9</v>
+      </c>
+      <c r="Z13">
+        <f>Z12+60</f>
+        <v>320</v>
+      </c>
+      <c r="AA13">
+        <v>2.7464599999999999</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="1"/>
+        <v>1.5479999999999716E-2</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="4"/>
+        <v>10037482978.122498</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="2"/>
+        <v>9.9626569945830094E-11</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="3"/>
+        <v>23.029592220389461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
         <v>2.7313700000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
+        <f>Z13+72</f>
+        <v>392</v>
+      </c>
+      <c r="AA14">
+        <v>2.7425099999999998</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>3.9199999999999999E-4</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="1"/>
+        <v>1.1529999999999596E-2</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="4"/>
+        <v>6103052193.0997467</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="2"/>
+        <v>1.6385244109998327E-10</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="3"/>
+        <v>22.532054842512139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -678,8 +1109,38 @@
       <c r="P15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>11</v>
+      </c>
+      <c r="Z15">
+        <f>Z14+80</f>
+        <v>472</v>
+      </c>
+      <c r="AA15">
+        <v>2.7396099999999999</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>4.7199999999999998E-4</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>8.6299999999996935E-3</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="4"/>
+        <v>3793784351.6487403</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>2.6358904653223375E-10</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="3"/>
+        <v>22.056629867531417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -743,8 +1204,38 @@
         <f>O16+120</f>
         <v>810</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>12</v>
+      </c>
+      <c r="Z16">
+        <f>Z15+88</f>
+        <v>560</v>
+      </c>
+      <c r="AA16">
+        <v>2.7371400000000001</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="1"/>
+        <v>6.1599999999999433E-3</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="4"/>
+        <v>2282425069.9606929</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>4.3813048373904412E-10</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="3"/>
+        <v>21.548504341837894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -793,8 +1284,102 @@
       <c r="P17">
         <v>2.7329400000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>13</v>
+      </c>
+      <c r="Z17">
+        <f>Z16+100</f>
+        <v>660</v>
+      </c>
+      <c r="AA17">
+        <v>2.7352500000000002</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="0"/>
+        <v>6.6E-4</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="1"/>
+        <v>4.269999999999996E-3</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>1342418050.7895644</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="2"/>
+        <v>7.4492442902703391E-10</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="3"/>
+        <v>21.017738340241731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>14</v>
+      </c>
+      <c r="Z18">
+        <f>Z17+110</f>
+        <v>770</v>
+      </c>
+      <c r="AA18">
+        <v>2.73393</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="1"/>
+        <v>2.9499999999997861E-3</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="4"/>
+        <v>794941435.22828996</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="2"/>
+        <v>1.2579543041593016E-9</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="3"/>
+        <v>20.493779003525596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>15</v>
+      </c>
+      <c r="Z19">
+        <f>Z18+120</f>
+        <v>890</v>
+      </c>
+      <c r="AA19">
+        <v>2.7332399999999999</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" ref="AB19:AB82" si="5">Z19/1000000</f>
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" ref="AC19:AC82" si="6">AA19-$X$5</f>
+        <v>2.2599999999997067E-3</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" ref="AD19:AD82" si="7">(0.271*0.04^2*AC19*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z19/1000000))</f>
+        <v>526892814.92446816</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="2"/>
+        <v>1.8979192193830794E-9</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" ref="AF19:AF82" si="8">LN(AD19)</f>
+        <v>20.082507698579548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -802,7 +1387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -810,23 +1395,98 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22">
         <v>940</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
         <v>2.7316099999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U23" s="1">
+        <v>20</v>
+      </c>
+      <c r="V23">
+        <v>16</v>
+      </c>
+      <c r="W23">
+        <v>880</v>
+      </c>
+      <c r="X23">
+        <v>2.7313700000000001</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <f>V23</f>
+        <v>16</v>
+      </c>
+      <c r="AA23">
+        <v>2.77251</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="5"/>
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="6"/>
+        <v>4.1529999999999845E-2</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="7"/>
+        <v>538574506565.15948</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="2"/>
+        <v>1.8567533141842371E-12</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="8"/>
+        <v>27.012191683424547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -875,8 +1535,38 @@
       <c r="Q24">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <f>Z23+4</f>
+        <v>20</v>
+      </c>
+      <c r="AA24">
+        <v>2.7698299999999998</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="6"/>
+        <v>3.8849999999999607E-2</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="7"/>
+        <v>403055518036.24011</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="2"/>
+        <v>2.4810477843652461E-12</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="8"/>
+        <v>26.722340151281326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -944,8 +1634,38 @@
         <f>P25+130</f>
         <v>950</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <f>Z24+10</f>
+        <v>30</v>
+      </c>
+      <c r="AA25">
+        <v>2.7686199999999999</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="6"/>
+        <v>3.7639999999999674E-2</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="7"/>
+        <v>260334786767.63788</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="2"/>
+        <v>3.8412077479778034E-12</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="8"/>
+        <v>26.285234281076683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -997,40 +1717,254 @@
       <c r="Q26">
         <v>2.7322000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>4</v>
+      </c>
+      <c r="Z26">
+        <f>Z25+15</f>
+        <v>45</v>
+      </c>
+      <c r="AA26">
+        <v>2.7656499999999999</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="5"/>
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="6"/>
+        <v>3.4669999999999757E-2</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="7"/>
+        <v>159861974091.99472</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="2"/>
+        <v>6.2553962922072797E-12</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="8"/>
+        <v>25.797576617948273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>5</v>
+      </c>
+      <c r="Z27">
+        <f>Z26+20</f>
+        <v>65</v>
+      </c>
+      <c r="AA27">
+        <v>2.7625600000000001</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="5"/>
+        <v>6.4999999999999994E-5</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="6"/>
+        <v>3.1579999999999941E-2</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="7"/>
+        <v>100809767425.67722</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="2"/>
+        <v>9.9196737135343328E-12</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="8"/>
+        <v>25.336501086953525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <v>6</v>
+      </c>
+      <c r="Z28">
+        <f>Z27+30</f>
+        <v>95</v>
+      </c>
+      <c r="AA28">
+        <v>2.7574800000000002</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="5"/>
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="6"/>
+        <v>2.6499999999999968E-2</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="7"/>
+        <v>57879678807.616104</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="2"/>
+        <v>1.7277220962539532E-11</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="8"/>
+        <v>24.781632189413305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <v>7</v>
+      </c>
+      <c r="Z29">
+        <f>Z28+39</f>
+        <v>134</v>
+      </c>
+      <c r="AA29">
+        <v>2.75237</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="5"/>
+        <v>1.34E-4</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="6"/>
+        <v>2.1389999999999798E-2</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="7"/>
+        <v>33121487277.10936</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="2"/>
+        <v>3.0191880927131903E-11</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="8"/>
+        <v>24.223448071165063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <v>8</v>
+      </c>
+      <c r="Z30">
+        <f>Z29+50</f>
+        <v>184</v>
+      </c>
+      <c r="AA30">
+        <v>2.7461700000000002</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="5"/>
+        <v>1.84E-4</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="6"/>
+        <v>1.5190000000000037E-2</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="7"/>
+        <v>17129464828.410736</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="2"/>
+        <v>5.8378940032114219E-11</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="8"/>
+        <v>23.564065907020368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31">
         <v>920</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>9</v>
+      </c>
+      <c r="Z31">
+        <f>Z30+60</f>
+        <v>244</v>
+      </c>
+      <c r="AA31">
+        <v>2.7423600000000001</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="5"/>
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="6"/>
+        <v>1.1379999999999946E-2</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="7"/>
+        <v>9677346235.5263767</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="2"/>
+        <v>1.0333411409100083E-10</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="8"/>
+        <v>22.993053551426648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32">
         <v>2.7310400000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <v>10</v>
+      </c>
+      <c r="Z32">
+        <f>Z31+72</f>
+        <v>316</v>
+      </c>
+      <c r="AA32">
+        <v>2.73874</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="5"/>
+        <v>3.1599999999999998E-4</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="6"/>
+        <v>7.7599999999997671E-3</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="7"/>
+        <v>5095402342.6048899</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="2"/>
+        <v>1.9625535586043171E-10</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="8"/>
+        <v>22.351604468629855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
@@ -1076,8 +2010,38 @@
       <c r="P33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <v>11</v>
+      </c>
+      <c r="Z33">
+        <f>Z32+80</f>
+        <v>396</v>
+      </c>
+      <c r="AA33">
+        <v>2.7366700000000002</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="5"/>
+        <v>3.9599999999999998E-4</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="6"/>
+        <v>5.6899999999999729E-3</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="7"/>
+        <v>2981404648.3187323</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="2"/>
+        <v>3.3541237032816663E-10</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="8"/>
+        <v>21.815660384905424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1141,8 +2105,38 @@
         <f>O34+120</f>
         <v>920</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>12</v>
+      </c>
+      <c r="Z34">
+        <f>Z33+88</f>
+        <v>484</v>
+      </c>
+      <c r="AA34">
+        <v>2.7353499999999999</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="5"/>
+        <v>4.84E-4</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="6"/>
+        <v>4.369999999999763E-3</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="7"/>
+        <v>1873440562.6836548</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="2"/>
+        <v>5.3377727584136754E-10</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="8"/>
+        <v>21.351042450412482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1191,8 +2185,102 @@
       <c r="P35">
         <v>2.7365400000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>13</v>
+      </c>
+      <c r="Z35">
+        <f>Z34+96</f>
+        <v>580</v>
+      </c>
+      <c r="AA35">
+        <v>2.7343500000000001</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="5"/>
+        <v>5.8E-4</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="6"/>
+        <v>3.3699999999998731E-3</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="7"/>
+        <v>1205606972.6908014</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="2"/>
+        <v>8.2945771105495026E-10</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="8"/>
+        <v>20.910248988845435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <v>14</v>
+      </c>
+      <c r="Z36">
+        <f>Z35+110</f>
+        <v>690</v>
+      </c>
+      <c r="AA36">
+        <v>2.7335799999999999</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="5"/>
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="6"/>
+        <v>2.5999999999997137E-3</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="7"/>
+        <v>781858390.23678553</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="2"/>
+        <v>1.2790039890691079E-9</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="8"/>
+        <v>20.477184195457692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <v>15</v>
+      </c>
+      <c r="Z37">
+        <f>Z36+120</f>
+        <v>810</v>
+      </c>
+      <c r="AA37">
+        <v>2.7329400000000001</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="5"/>
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="6"/>
+        <v>1.9599999999999618E-3</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="7"/>
+        <v>502082282.50537735</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="2"/>
+        <v>1.9917054133239405E-9</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="8"/>
+        <v>20.034274573597592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1200,7 +2288,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1208,23 +2296,98 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40">
         <v>1600</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>2</v>
+      </c>
+      <c r="W40" t="s">
+        <v>3</v>
+      </c>
+      <c r="X40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41">
         <v>2.7311299999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U41" s="1">
+        <v>10</v>
+      </c>
+      <c r="V41">
+        <v>22</v>
+      </c>
+      <c r="W41">
+        <v>940</v>
+      </c>
+      <c r="X41">
+        <v>2.7316099999999999</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <f>V41</f>
+        <v>22</v>
+      </c>
+      <c r="AA41">
+        <v>2.7619600000000002</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="5"/>
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="6"/>
+        <v>3.0980000000000008E-2</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="7"/>
+        <v>292188134989.18567</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="2"/>
+        <v>3.4224524552888212E-12</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="8"/>
+        <v>26.400663729652077</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1</v>
       </c>
@@ -1270,8 +2433,38 @@
       <c r="P42">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <f>Z41+5</f>
+        <v>27</v>
+      </c>
+      <c r="AA42">
+        <v>2.7546900000000001</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="5"/>
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="6"/>
+        <v>2.3709999999999898E-2</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="7"/>
+        <v>182209758952.08176</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="2"/>
+        <v>5.4881802475957615E-12</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="8"/>
+        <v>25.928424382094651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1335,8 +2528,38 @@
         <f>O43+100</f>
         <v>1600</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <f>Z42+10</f>
+        <v>37</v>
+      </c>
+      <c r="AA43">
+        <v>2.7551899999999998</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="5"/>
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="6"/>
+        <v>2.4209999999999621E-2</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="7"/>
+        <v>135767840156.62904</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="2"/>
+        <v>7.3655145345639034E-12</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="8"/>
+        <v>25.634212206327398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +2608,102 @@
       <c r="P44">
         <v>2.7348300000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <v>4</v>
+      </c>
+      <c r="Z44">
+        <f>Z43+15</f>
+        <v>52</v>
+      </c>
+      <c r="AA44">
+        <v>2.7525200000000001</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="5"/>
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="6"/>
+        <v>2.1539999999999893E-2</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="7"/>
+        <v>85950062949.219452</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="2"/>
+        <v>1.1634662799384039E-11</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="8"/>
+        <v>25.177032301168481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <v>5</v>
+      </c>
+      <c r="Z45">
+        <f>Z44+20</f>
+        <v>72</v>
+      </c>
+      <c r="AA45">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="5"/>
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="6"/>
+        <v>1.8019999999999925E-2</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="7"/>
+        <v>51930934041.277634</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="2"/>
+        <v>1.9256345345245351E-11</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="8"/>
+        <v>24.673180481185803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <v>6</v>
+      </c>
+      <c r="Z46">
+        <f>Z45+30</f>
+        <v>102</v>
+      </c>
+      <c r="AA46">
+        <v>2.7454900000000002</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="5"/>
+        <v>1.02E-4</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="6"/>
+        <v>1.4510000000000023E-2</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="7"/>
+        <v>29516923141.827091</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="2"/>
+        <v>3.3878869934886453E-11</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="8"/>
+        <v>24.108229601633496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1396,32 +2713,152 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <v>7</v>
+      </c>
+      <c r="Z47">
+        <f>Z46+40</f>
+        <v>142</v>
+      </c>
+      <c r="AA47">
+        <v>2.7423299999999999</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="5"/>
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="6"/>
+        <v>1.1349999999999749E-2</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="7"/>
+        <v>16584842857.908787</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="2"/>
+        <v>6.0296018995629588E-11</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="8"/>
+        <v>23.5317550343478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48">
         <v>280</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <v>8</v>
+      </c>
+      <c r="Z48">
+        <f>Z47+50</f>
+        <v>192</v>
+      </c>
+      <c r="AA48">
+        <v>2.7395700000000001</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="5"/>
+        <v>1.92E-4</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="6"/>
+        <v>8.5899999999998755E-3</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="7"/>
+        <v>9283158783.5995483</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="2"/>
+        <v>1.0772195362710899E-10</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="8"/>
+        <v>22.951467711990038</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y49">
+        <v>9</v>
+      </c>
+      <c r="Z49">
+        <f>Z48+60</f>
+        <v>252</v>
+      </c>
+      <c r="AA49">
+        <v>2.7378200000000001</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="5"/>
+        <v>2.52E-4</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="6"/>
+        <v>6.8399999999999572E-3</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="7"/>
+        <v>5631957964.838089</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="2"/>
+        <v>1.7755814341003317E-10</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="8"/>
+        <v>22.451722992144699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50">
         <v>2.7315200000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y50">
+        <v>10</v>
+      </c>
+      <c r="Z50">
+        <f>Z49+72</f>
+        <v>324</v>
+      </c>
+      <c r="AA50">
+        <v>2.7361800000000001</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="5"/>
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="6"/>
+        <v>5.1999999999998714E-3</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="7"/>
+        <v>3330137588.0458527</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="2"/>
+        <v>3.0028789308576493E-10</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="8"/>
+        <v>21.926279457816698</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
@@ -1467,8 +2904,38 @@
       <c r="P51">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <v>11</v>
+      </c>
+      <c r="Z51">
+        <f>Z50+80</f>
+        <v>404</v>
+      </c>
+      <c r="AA51">
+        <v>2.7351999999999999</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="5"/>
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="6"/>
+        <v>4.2199999999996685E-3</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="7"/>
+        <v>2167379341.8617129</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="2"/>
+        <v>4.6138669898967961E-10</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="8"/>
+        <v>21.496784598108359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1532,8 +2999,38 @@
         <f>B49</f>
         <v>2400</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y52">
+        <v>12</v>
+      </c>
+      <c r="Z52">
+        <f>Z51+86</f>
+        <v>490</v>
+      </c>
+      <c r="AA52">
+        <v>2.7343000000000002</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="5"/>
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="6"/>
+        <v>3.3199999999999896E-3</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="7"/>
+        <v>1405872213.7791362</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="2"/>
+        <v>7.1130220101007055E-10</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="8"/>
+        <v>21.063923739845389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1582,16 +3079,140 @@
       <c r="P53">
         <v>2.73448</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y53">
+        <v>13</v>
+      </c>
+      <c r="Z53">
+        <f>Z52+100</f>
+        <v>590</v>
+      </c>
+      <c r="AA53">
+        <v>2.7336200000000002</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="5"/>
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="6"/>
+        <v>2.6399999999999757E-3</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="7"/>
+        <v>928444096.25519705</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="2"/>
+        <v>1.0770707725251502E-9</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="8"/>
+        <v>20.649020728280121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y54">
+        <v>14</v>
+      </c>
+      <c r="Z54">
+        <f>Z53+110</f>
+        <v>700</v>
+      </c>
+      <c r="AA54">
+        <v>2.7330399999999999</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="6"/>
+        <v>2.0599999999997287E-3</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="7"/>
+        <v>610622810.92447412</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="2"/>
+        <v>1.6376721965005114E-9</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="8"/>
+        <v>20.229989995779622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y55">
+        <v>15</v>
+      </c>
+      <c r="Z55">
+        <f>Z54+120</f>
+        <v>820</v>
+      </c>
+      <c r="AA55">
+        <v>2.7325699999999999</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="5"/>
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="6"/>
+        <v>1.5899999999997583E-3</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="7"/>
+        <v>402334352.68702698</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="2"/>
+        <v>2.4854949454885174E-9</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="8"/>
+        <v>19.812794023995359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <v>16</v>
+      </c>
+      <c r="Z56">
+        <f>Z55+130</f>
+        <v>950</v>
+      </c>
+      <c r="AA56">
+        <v>2.7322000000000002</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="5"/>
+        <v>9.5E-4</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="6"/>
+        <v>1.2199999999999989E-3</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="7"/>
+        <v>266464936.3973271</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="2"/>
+        <v>3.7528389795680108E-9</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="8"/>
+        <v>19.400753222172249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +3220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1607,15 +3228,48 @@
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59">
         <v>2.7314699999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U59" t="s">
+        <v>1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>2</v>
+      </c>
+      <c r="W59" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1</v>
       </c>
@@ -1661,8 +3315,50 @@
       <c r="P60">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U60" s="1">
+        <v>100</v>
+      </c>
+      <c r="V60">
+        <v>116</v>
+      </c>
+      <c r="W60">
+        <v>920</v>
+      </c>
+      <c r="X60">
+        <v>2.7310400000000001</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <f>V60</f>
+        <v>116</v>
+      </c>
+      <c r="AA60">
+        <v>2.7751399999999999</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="5"/>
+        <v>1.16E-4</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="6"/>
+        <v>4.4159999999999755E-2</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="7"/>
+        <v>78990510258.20105</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="2"/>
+        <v>1.265974857905386E-11</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="8"/>
+        <v>25.09259355888414</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1726,8 +3422,38 @@
         <f>B58</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y61">
+        <v>2</v>
+      </c>
+      <c r="Z61">
+        <f>Z60+6</f>
+        <v>122</v>
+      </c>
+      <c r="AA61">
+        <v>2.77413</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="5"/>
+        <v>1.22E-4</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="6"/>
+        <v>4.31499999999998E-2</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="7"/>
+        <v>73387959589.27298</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="2"/>
+        <v>1.3626213422428612E-11</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="8"/>
+        <v>25.019025720817844</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1775,6 +3501,2004 @@
       </c>
       <c r="P62">
         <v>2.7319900000000001</v>
+      </c>
+      <c r="Y62">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <f>Z61+10</f>
+        <v>132</v>
+      </c>
+      <c r="AA62">
+        <v>2.7735099999999999</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="5"/>
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="6"/>
+        <v>4.2529999999999735E-2</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="7"/>
+        <v>66853676463.793755</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="2"/>
+        <v>1.495804049821515E-11</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="8"/>
+        <v>24.925772134700836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y63">
+        <v>4</v>
+      </c>
+      <c r="Z63">
+        <f>Z62+16</f>
+        <v>148</v>
+      </c>
+      <c r="AA63">
+        <v>2.7711100000000002</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="5"/>
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="6"/>
+        <v>4.0129999999999999E-2</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="7"/>
+        <v>56261497578.331345</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="2"/>
+        <v>1.7774144717845936E-11</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="8"/>
+        <v>24.753276258536378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y64">
+        <v>5</v>
+      </c>
+      <c r="Z64">
+        <f>Z63+20</f>
+        <v>168</v>
+      </c>
+      <c r="AA64">
+        <v>2.7686700000000002</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="5"/>
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="6"/>
+        <v>3.7690000000000001E-2</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="7"/>
+        <v>46550108704.9888</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="2"/>
+        <v>2.1482226955419107E-11</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="8"/>
+        <v>24.563795175897454</v>
+      </c>
+    </row>
+    <row r="65" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <v>6</v>
+      </c>
+      <c r="Z65">
+        <f>Z64+30</f>
+        <v>198</v>
+      </c>
+      <c r="AA65">
+        <v>2.7652600000000001</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="5"/>
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="6"/>
+        <v>3.4279999999999866E-2</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="7"/>
+        <v>35923568135.102371</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="2"/>
+        <v>2.7836878459265842E-11</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="8"/>
+        <v>24.304659411056708</v>
+      </c>
+    </row>
+    <row r="66" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y66">
+        <v>7</v>
+      </c>
+      <c r="Z66">
+        <f>Z65+42</f>
+        <v>240</v>
+      </c>
+      <c r="AA66">
+        <v>2.7614000000000001</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="5"/>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="6"/>
+        <v>3.0419999999999892E-2</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="7"/>
+        <v>26299761601.592667</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="2"/>
+        <v>3.8023158352106193E-11</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="8"/>
+        <v>23.992825711510822</v>
+      </c>
+    </row>
+    <row r="67" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <v>8</v>
+      </c>
+      <c r="Z67">
+        <f>Z66+52</f>
+        <v>292</v>
+      </c>
+      <c r="AA67">
+        <v>2.7567900000000001</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="5"/>
+        <v>2.92E-4</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="6"/>
+        <v>2.5809999999999889E-2</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="7"/>
+        <v>18340408174.248367</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="2"/>
+        <v>5.4524413551716516E-11</v>
+      </c>
+      <c r="AF67">
+        <f t="shared" si="8"/>
+        <v>23.632372559483905</v>
+      </c>
+    </row>
+    <row r="68" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y68">
+        <v>9</v>
+      </c>
+      <c r="Z68">
+        <f>Z67+60</f>
+        <v>352</v>
+      </c>
+      <c r="AA68">
+        <v>2.7533300000000001</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="5"/>
+        <v>3.5199999999999999E-4</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="6"/>
+        <v>2.234999999999987E-2</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="7"/>
+        <v>13174638510.749393</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="2"/>
+        <v>7.590341087416435E-11</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="8"/>
+        <v>23.301559493483143</v>
+      </c>
+    </row>
+    <row r="69" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y69">
+        <v>10</v>
+      </c>
+      <c r="Z69">
+        <f>Z68+72</f>
+        <v>424</v>
+      </c>
+      <c r="AA69">
+        <v>2.7495500000000002</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="5"/>
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="6"/>
+        <v>1.8569999999999975E-2</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="7"/>
+        <v>9087614397.3349895</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="2"/>
+        <v>1.1003988024549737E-10</v>
+      </c>
+      <c r="AF69">
+        <f t="shared" si="8"/>
+        <v>22.930178268154325</v>
+      </c>
+    </row>
+    <row r="70" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y70">
+        <v>11</v>
+      </c>
+      <c r="Z70">
+        <f>Z69+76</f>
+        <v>500</v>
+      </c>
+      <c r="AA70">
+        <v>2.7464900000000001</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="6"/>
+        <v>1.5509999999999913E-2</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="7"/>
+        <v>6436438697.289176</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" ref="AE70:AE128" si="9">1/AD70</f>
+        <v>1.5536541976561795E-10</v>
+      </c>
+      <c r="AF70">
+        <f t="shared" si="8"/>
+        <v>22.585241226787918</v>
+      </c>
+    </row>
+    <row r="71" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y71">
+        <v>12</v>
+      </c>
+      <c r="Z71">
+        <f>Z70+90</f>
+        <v>590</v>
+      </c>
+      <c r="AA71">
+        <v>2.74316</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="5"/>
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="6"/>
+        <v>1.2179999999999858E-2</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="7"/>
+        <v>4283503444.0864658</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="9"/>
+        <v>2.3345376350298882E-10</v>
+      </c>
+      <c r="AF71">
+        <f t="shared" si="8"/>
+        <v>22.178037073403644</v>
+      </c>
+    </row>
+    <row r="72" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y72">
+        <v>13</v>
+      </c>
+      <c r="Z72">
+        <f>Z71+100</f>
+        <v>690</v>
+      </c>
+      <c r="AA72">
+        <v>2.7406700000000002</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="5"/>
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="6"/>
+        <v>9.6899999999999764E-3</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="7"/>
+        <v>2913926077.4597187</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="9"/>
+        <v>3.4317960491014678E-10</v>
+      </c>
+      <c r="AF72">
+        <f t="shared" si="8"/>
+        <v>21.792767176333037</v>
+      </c>
+    </row>
+    <row r="73" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y73">
+        <v>14</v>
+      </c>
+      <c r="Z73">
+        <f>Z72+110</f>
+        <v>800</v>
+      </c>
+      <c r="AA73">
+        <v>2.7385700000000002</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="6"/>
+        <v>7.5899999999999856E-3</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="7"/>
+        <v>1968591622.8411114</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="9"/>
+        <v>5.079773724510621E-10</v>
+      </c>
+      <c r="AF73">
+        <f t="shared" si="8"/>
+        <v>21.400584211761277</v>
+      </c>
+    </row>
+    <row r="74" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y74">
+        <v>15</v>
+      </c>
+      <c r="Z74">
+        <f>Z73+120</f>
+        <v>920</v>
+      </c>
+      <c r="AA74">
+        <v>2.7365400000000002</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="5"/>
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="6"/>
+        <v>5.5600000000000094E-3</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="7"/>
+        <v>1253980572.0337536</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="9"/>
+        <v>7.9746052076242436E-10</v>
+      </c>
+      <c r="AF74">
+        <f t="shared" si="8"/>
+        <v>20.949588786241076</v>
+      </c>
+    </row>
+    <row r="77" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U77" t="s">
+        <v>1</v>
+      </c>
+      <c r="V77" t="s">
+        <v>2</v>
+      </c>
+      <c r="W77" t="s">
+        <v>3</v>
+      </c>
+      <c r="X77" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U78" s="1">
+        <v>200</v>
+      </c>
+      <c r="V78">
+        <v>200</v>
+      </c>
+      <c r="W78">
+        <v>1600</v>
+      </c>
+      <c r="X78">
+        <v>2.7311299999999998</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <f>V78</f>
+        <v>200</v>
+      </c>
+      <c r="AA78">
+        <v>2.7715999999999998</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="6"/>
+        <v>4.0619999999999656E-2</v>
+      </c>
+      <c r="AD78">
+        <f t="shared" si="7"/>
+        <v>42141866519.001541</v>
+      </c>
+      <c r="AE78">
+        <f t="shared" si="9"/>
+        <v>2.3729371349726651E-11</v>
+      </c>
+      <c r="AF78">
+        <f t="shared" si="8"/>
+        <v>24.464307537625864</v>
+      </c>
+    </row>
+    <row r="79" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y79">
+        <v>2</v>
+      </c>
+      <c r="Z79">
+        <f>Z78+12</f>
+        <v>212</v>
+      </c>
+      <c r="AA79">
+        <v>2.7696999999999998</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="5"/>
+        <v>2.12E-4</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="6"/>
+        <v>3.8719999999999644E-2</v>
+      </c>
+      <c r="AD79">
+        <f t="shared" si="7"/>
+        <v>37896869086.139793</v>
+      </c>
+      <c r="AE79">
+        <f t="shared" si="9"/>
+        <v>2.638740413428335E-11</v>
+      </c>
+      <c r="AF79">
+        <f t="shared" si="8"/>
+        <v>24.358134335758024</v>
+      </c>
+    </row>
+    <row r="80" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y80">
+        <v>3</v>
+      </c>
+      <c r="Z80">
+        <f>Z79+20</f>
+        <v>232</v>
+      </c>
+      <c r="AA80">
+        <v>2.7667999999999999</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="5"/>
+        <v>2.32E-4</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="6"/>
+        <v>3.5819999999999741E-2</v>
+      </c>
+      <c r="AD80">
+        <f t="shared" si="7"/>
+        <v>32036232760.968712</v>
+      </c>
+      <c r="AE80">
+        <f t="shared" si="9"/>
+        <v>3.1214656462926823E-11</v>
+      </c>
+      <c r="AF80">
+        <f t="shared" si="8"/>
+        <v>24.190133372987919</v>
+      </c>
+    </row>
+    <row r="81" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y81">
+        <v>4</v>
+      </c>
+      <c r="Z81">
+        <f>Z80+32</f>
+        <v>264</v>
+      </c>
+      <c r="AA81">
+        <v>2.76491</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="5"/>
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" si="6"/>
+        <v>3.3929999999999794E-2</v>
+      </c>
+      <c r="AD81">
+        <f t="shared" si="7"/>
+        <v>26667590435.181313</v>
+      </c>
+      <c r="AE81">
+        <f t="shared" si="9"/>
+        <v>3.7498700995525508E-11</v>
+      </c>
+      <c r="AF81">
+        <f t="shared" si="8"/>
+        <v>24.006714823671487</v>
+      </c>
+    </row>
+    <row r="82" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y82">
+        <v>5</v>
+      </c>
+      <c r="Z82">
+        <f>Z81+48</f>
+        <v>312</v>
+      </c>
+      <c r="AA82">
+        <v>2.7613699999999999</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" si="5"/>
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="AC82">
+        <f t="shared" si="6"/>
+        <v>3.0389999999999695E-2</v>
+      </c>
+      <c r="AD82">
+        <f t="shared" si="7"/>
+        <v>20210634579.28479</v>
+      </c>
+      <c r="AE82">
+        <f t="shared" si="9"/>
+        <v>4.9478901618703542E-11</v>
+      </c>
+      <c r="AF82">
+        <f t="shared" si="8"/>
+        <v>23.729474767140879</v>
+      </c>
+    </row>
+    <row r="83" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y83">
+        <v>6</v>
+      </c>
+      <c r="Z83">
+        <f>Z82+68</f>
+        <v>380</v>
+      </c>
+      <c r="AA83">
+        <v>2.7570100000000002</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" ref="AB83:AB128" si="10">Z83/1000000</f>
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="AC83">
+        <f t="shared" ref="AC83:AC128" si="11">AA83-$X$5</f>
+        <v>2.6029999999999998E-2</v>
+      </c>
+      <c r="AD83">
+        <f t="shared" ref="AD83:AD128" si="12">(0.271*0.04^2*AC83*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z83/1000000))</f>
+        <v>14213283390.209896</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" si="9"/>
+        <v>7.0356720016488214E-11</v>
+      </c>
+      <c r="AF83">
+        <f t="shared" ref="AF83:AF128" si="13">LN(AD83)</f>
+        <v>23.377442814307713</v>
+      </c>
+    </row>
+    <row r="84" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y84">
+        <v>7</v>
+      </c>
+      <c r="Z84">
+        <f>Z83+96</f>
+        <v>476</v>
+      </c>
+      <c r="AA84">
+        <v>2.7521599999999999</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="10"/>
+        <v>4.7600000000000002E-4</v>
+      </c>
+      <c r="AC84">
+        <f t="shared" si="11"/>
+        <v>2.1179999999999755E-2</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" si="12"/>
+        <v>9232575053.8134747</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="9"/>
+        <v>1.0831214413869881E-10</v>
+      </c>
+      <c r="AF84">
+        <f t="shared" si="13"/>
+        <v>22.946003833963498</v>
+      </c>
+    </row>
+    <row r="85" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y85">
+        <v>8</v>
+      </c>
+      <c r="Z85">
+        <f>Z84+124</f>
+        <v>600</v>
+      </c>
+      <c r="AA85">
+        <v>2.7478699999999998</v>
+      </c>
+      <c r="AB85">
+        <f t="shared" si="10"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AC85">
+        <f t="shared" si="11"/>
+        <v>1.6889999999999628E-2</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" si="12"/>
+        <v>5840933247.217515</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="9"/>
+        <v>1.712055176244955E-10</v>
+      </c>
+      <c r="AF85">
+        <f t="shared" si="13"/>
+        <v>22.48815642362521</v>
+      </c>
+    </row>
+    <row r="86" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y86">
+        <v>9</v>
+      </c>
+      <c r="Z86">
+        <f>Z85+120</f>
+        <v>720</v>
+      </c>
+      <c r="AA86">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="AB86">
+        <f t="shared" si="10"/>
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="AC86">
+        <f t="shared" si="11"/>
+        <v>1.3519999999999754E-2</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="12"/>
+        <v>3896260978.0136719</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="9"/>
+        <v>2.5665631887672054E-10</v>
+      </c>
+      <c r="AF86">
+        <f t="shared" si="13"/>
+        <v>22.083283206626369</v>
+      </c>
+    </row>
+    <row r="87" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y87">
+        <v>10</v>
+      </c>
+      <c r="Z87">
+        <f>Z86+140</f>
+        <v>860</v>
+      </c>
+      <c r="AA87">
+        <v>2.7416999999999998</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="10"/>
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="AC87">
+        <f t="shared" si="11"/>
+        <v>1.0719999999999619E-2</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="12"/>
+        <v>2586426717.7566571</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="9"/>
+        <v>3.8663380374733839E-10</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="13"/>
+        <v>21.673543114416734</v>
+      </c>
+    </row>
+    <row r="88" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y88">
+        <v>11</v>
+      </c>
+      <c r="Z88">
+        <f>Z87+190</f>
+        <v>1050</v>
+      </c>
+      <c r="AA88">
+        <v>2.7394699999999998</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="10"/>
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="AC88">
+        <f t="shared" si="11"/>
+        <v>8.4899999999996645E-3</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="12"/>
+        <v>1677730635.8411851</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="9"/>
+        <v>5.9604323759553764E-10</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="13"/>
+        <v>21.240707905193318</v>
+      </c>
+    </row>
+    <row r="89" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y89">
+        <v>12</v>
+      </c>
+      <c r="Z89">
+        <f>Z88+190</f>
+        <v>1240</v>
+      </c>
+      <c r="AA89">
+        <v>2.7374800000000001</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="10"/>
+        <v>1.24E-3</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="11"/>
+        <v>6.4999999999999503E-3</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="12"/>
+        <v>1087665905.7730587</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="9"/>
+        <v>9.193999689539316E-10</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="13"/>
+        <v>20.807299866324168</v>
+      </c>
+    </row>
+    <row r="90" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y90">
+        <v>13</v>
+      </c>
+      <c r="Z90">
+        <f>Z89+160</f>
+        <v>1400</v>
+      </c>
+      <c r="AA90">
+        <v>2.7359100000000001</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" si="10"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="AC90">
+        <f t="shared" si="11"/>
+        <v>4.9299999999998789E-3</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="12"/>
+        <v>730672441.22766495</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="9"/>
+        <v>1.3686023224303011E-9</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="13"/>
+        <v>20.409475820472892</v>
+      </c>
+    </row>
+    <row r="91" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y91">
+        <v>14</v>
+      </c>
+      <c r="Z91">
+        <f>Z90+100</f>
+        <v>1500</v>
+      </c>
+      <c r="AA91">
+        <v>2.7353999999999998</v>
+      </c>
+      <c r="AB91">
+        <f t="shared" si="10"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC91">
+        <f t="shared" si="11"/>
+        <v>4.4199999999996464E-3</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="12"/>
+        <v>611413261.16518462</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="9"/>
+        <v>1.6355549732341044E-9</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="13"/>
+        <v>20.231283657020896</v>
+      </c>
+    </row>
+    <row r="92" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y92">
+        <v>15</v>
+      </c>
+      <c r="Z92">
+        <f>Z91+100</f>
+        <v>1600</v>
+      </c>
+      <c r="AA92">
+        <v>2.7348300000000001</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AC92">
+        <f t="shared" si="11"/>
+        <v>3.8499999999999091E-3</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="12"/>
+        <v>499280484.05389428</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="9"/>
+        <v>2.0028822113785165E-9</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="13"/>
+        <v>20.028678588093467</v>
+      </c>
+    </row>
+    <row r="95" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U95" t="s">
+        <v>1</v>
+      </c>
+      <c r="V95" t="s">
+        <v>2</v>
+      </c>
+      <c r="W95" t="s">
+        <v>3</v>
+      </c>
+      <c r="X95" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U96" s="1">
+        <v>450</v>
+      </c>
+      <c r="V96">
+        <v>280</v>
+      </c>
+      <c r="W96">
+        <v>2400</v>
+      </c>
+      <c r="X96">
+        <v>2.7315200000000002</v>
+      </c>
+      <c r="Y96">
+        <v>1</v>
+      </c>
+      <c r="Z96">
+        <f>V96</f>
+        <v>280</v>
+      </c>
+      <c r="AA96">
+        <v>2.7692899999999998</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="10"/>
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AC96">
+        <f t="shared" si="11"/>
+        <v>3.8309999999999622E-2</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="12"/>
+        <v>28389514425.387684</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="9"/>
+        <v>3.5224272772546515E-11</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="13"/>
+        <v>24.069285703564969</v>
+      </c>
+    </row>
+    <row r="97" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U97" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y97">
+        <v>2</v>
+      </c>
+      <c r="Z97">
+        <f>Z96+20</f>
+        <v>300</v>
+      </c>
+      <c r="AA97">
+        <v>2.7662800000000001</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="10"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AC97">
+        <f t="shared" si="11"/>
+        <v>3.5299999999999887E-2</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="12"/>
+        <v>24415031808.973614</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="9"/>
+        <v>4.0958373833961398E-11</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="13"/>
+        <v>23.918464837304715</v>
+      </c>
+    </row>
+    <row r="98" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y98">
+        <v>3</v>
+      </c>
+      <c r="Z98">
+        <f>Z97+30</f>
+        <v>330</v>
+      </c>
+      <c r="AA98">
+        <v>2.7647300000000001</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="10"/>
+        <v>3.3E-4</v>
+      </c>
+      <c r="AC98">
+        <f t="shared" si="11"/>
+        <v>3.3749999999999947E-2</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="12"/>
+        <v>21220894245.50246</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="9"/>
+        <v>4.7123367584376859E-11</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="13"/>
+        <v>23.778252110879681</v>
+      </c>
+    </row>
+    <row r="99" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y99">
+        <v>4</v>
+      </c>
+      <c r="Z99">
+        <f>Z98+50</f>
+        <v>380</v>
+      </c>
+      <c r="AA99">
+        <v>2.7596799999999999</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="10"/>
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="AC99">
+        <f t="shared" si="11"/>
+        <v>2.8699999999999726E-2</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="12"/>
+        <v>15671196054.514793</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="9"/>
+        <v>6.3811338746662226E-11</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="13"/>
+        <v>23.475090218066804</v>
+      </c>
+    </row>
+    <row r="100" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <v>5</v>
+      </c>
+      <c r="Z100">
+        <f>Z99+60</f>
+        <v>440</v>
+      </c>
+      <c r="AA100">
+        <v>2.7560899999999999</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="10"/>
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="11"/>
+        <v>2.5109999999999744E-2</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="12"/>
+        <v>11841258988.990278</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="9"/>
+        <v>8.4450479541894681E-11</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="13"/>
+        <v>23.194855794278848</v>
+      </c>
+    </row>
+    <row r="101" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y101">
+        <v>6</v>
+      </c>
+      <c r="Z101">
+        <f>Z100+70</f>
+        <v>510</v>
+      </c>
+      <c r="AA101">
+        <v>2.75359</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="10"/>
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" si="11"/>
+        <v>2.2609999999999797E-2</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="12"/>
+        <v>9198864675.9021854</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="9"/>
+        <v>1.0870906739389818E-10</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="13"/>
+        <v>22.942345908593168</v>
+      </c>
+    </row>
+    <row r="102" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y102">
+        <v>7</v>
+      </c>
+      <c r="Z102">
+        <f>Z101+110</f>
+        <v>620</v>
+      </c>
+      <c r="AA102">
+        <v>2.7495799999999999</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="10"/>
+        <v>6.2E-4</v>
+      </c>
+      <c r="AC102">
+        <f t="shared" si="11"/>
+        <v>1.8599999999999728E-2</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="12"/>
+        <v>6224795645.3473082</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="9"/>
+        <v>1.6064784403765045E-10</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="13"/>
+        <v>22.551806450701672</v>
+      </c>
+    </row>
+    <row r="103" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y103">
+        <v>8</v>
+      </c>
+      <c r="Z103">
+        <f>Z102+150</f>
+        <v>770</v>
+      </c>
+      <c r="AA103">
+        <v>2.74593</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" si="10"/>
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="AC103">
+        <f t="shared" si="11"/>
+        <v>1.4949999999999797E-2</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="12"/>
+        <v>4028601510.7334356</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="9"/>
+        <v>2.4822509680733918E-10</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="13"/>
+        <v>22.11668513301062</v>
+      </c>
+    </row>
+    <row r="104" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y104">
+        <v>9</v>
+      </c>
+      <c r="Z104">
+        <f>Z103+200</f>
+        <v>970</v>
+      </c>
+      <c r="AA104">
+        <v>2.7421199999999999</v>
+      </c>
+      <c r="AB104">
+        <f t="shared" si="10"/>
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="AC104">
+        <f t="shared" si="11"/>
+        <v>1.1139999999999706E-2</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="12"/>
+        <v>2382963006.5006251</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="9"/>
+        <v>4.1964562490984589E-10</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="13"/>
+        <v>21.591610511023351</v>
+      </c>
+    </row>
+    <row r="105" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y105">
+        <v>10</v>
+      </c>
+      <c r="Z105">
+        <f>Z104+250</f>
+        <v>1220</v>
+      </c>
+      <c r="AA105">
+        <v>2.7396400000000001</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" si="10"/>
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="AC105">
+        <f t="shared" si="11"/>
+        <v>8.65999999999989E-3</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="12"/>
+        <v>1472861483.2980278</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="9"/>
+        <v>6.7895047249168498E-10</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="13"/>
+        <v>21.110472932868699</v>
+      </c>
+    </row>
+    <row r="106" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y106">
+        <v>11</v>
+      </c>
+      <c r="Z106">
+        <f>Z105+240</f>
+        <v>1460</v>
+      </c>
+      <c r="AA106">
+        <v>2.7378999999999998</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" si="10"/>
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="AC106">
+        <f t="shared" si="11"/>
+        <v>6.9199999999995931E-3</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="12"/>
+        <v>983460864.51601553</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="9"/>
+        <v>1.0168172787354622E-9</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="13"/>
+        <v>20.706588402948807</v>
+      </c>
+    </row>
+    <row r="107" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y107">
+        <v>12</v>
+      </c>
+      <c r="Z107">
+        <f>Z106+300</f>
+        <v>1760</v>
+      </c>
+      <c r="AA107">
+        <v>2.73672</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" si="10"/>
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="AC107">
+        <f t="shared" si="11"/>
+        <v>5.7399999999998563E-3</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="12"/>
+        <v>676710738.7176739</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="9"/>
+        <v>1.4777362657122004E-9</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="13"/>
+        <v>20.332754470320921</v>
+      </c>
+    </row>
+    <row r="108" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y108">
+        <v>13</v>
+      </c>
+      <c r="Z108">
+        <f>Z107+320</f>
+        <v>2080</v>
+      </c>
+      <c r="AA108">
+        <v>2.7351399999999999</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="10"/>
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="AC108">
+        <f t="shared" si="11"/>
+        <v>4.1599999999997195E-3</v>
+      </c>
+      <c r="AD108">
+        <f t="shared" si="12"/>
+        <v>414986376.3564654</v>
+      </c>
+      <c r="AE108">
+        <f t="shared" si="9"/>
+        <v>2.4097176605648834E-9</v>
+      </c>
+      <c r="AF108">
+        <f t="shared" si="13"/>
+        <v>19.843756249599409</v>
+      </c>
+    </row>
+    <row r="109" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y109">
+        <v>14</v>
+      </c>
+      <c r="Z109">
+        <f>Z108+200</f>
+        <v>2280</v>
+      </c>
+      <c r="AA109">
+        <v>2.73489</v>
+      </c>
+      <c r="AB109">
+        <f t="shared" si="10"/>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="AC109">
+        <f t="shared" si="11"/>
+        <v>3.909999999999858E-3</v>
+      </c>
+      <c r="AD109">
+        <f t="shared" si="12"/>
+        <v>355832616.56882244</v>
+      </c>
+      <c r="AE109">
+        <f t="shared" si="9"/>
+        <v>2.8103101105308248E-9</v>
+      </c>
+      <c r="AF109">
+        <f t="shared" si="13"/>
+        <v>19.689971000070422</v>
+      </c>
+    </row>
+    <row r="110" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y110">
+        <v>15</v>
+      </c>
+      <c r="Z110">
+        <f>W96</f>
+        <v>2400</v>
+      </c>
+      <c r="AA110">
+        <v>2.73448</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="10"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC110">
+        <f t="shared" si="11"/>
+        <v>3.4999999999998366E-3</v>
+      </c>
+      <c r="AD110">
+        <f t="shared" si="12"/>
+        <v>302594232.75992894</v>
+      </c>
+      <c r="AE110">
+        <f t="shared" si="9"/>
+        <v>3.3047556487746286E-9</v>
+      </c>
+      <c r="AF110">
+        <f t="shared" si="13"/>
+        <v>19.527903300180952</v>
+      </c>
+    </row>
+    <row r="113" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U113" t="s">
+        <v>1</v>
+      </c>
+      <c r="V113" t="s">
+        <v>2</v>
+      </c>
+      <c r="W113" t="s">
+        <v>3</v>
+      </c>
+      <c r="X113" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U114" s="1">
+        <v>5</v>
+      </c>
+      <c r="V114">
+        <v>43</v>
+      </c>
+      <c r="W114">
+        <v>800</v>
+      </c>
+      <c r="X114">
+        <v>2.7314699999999998</v>
+      </c>
+      <c r="Y114">
+        <v>1</v>
+      </c>
+      <c r="Z114">
+        <f>V114</f>
+        <v>43</v>
+      </c>
+      <c r="AA114">
+        <v>2.7519200000000001</v>
+      </c>
+      <c r="AB114">
+        <f t="shared" si="10"/>
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="AC114">
+        <f t="shared" si="11"/>
+        <v>2.0939999999999959E-2</v>
+      </c>
+      <c r="AD114">
+        <f t="shared" si="12"/>
+        <v>101044357219.82504</v>
+      </c>
+      <c r="AE114">
+        <f t="shared" si="9"/>
+        <v>9.8966436871330673E-12</v>
+      </c>
+      <c r="AF114">
+        <f t="shared" si="13"/>
+        <v>25.338825437770495</v>
+      </c>
+    </row>
+    <row r="115" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y115">
+        <v>2</v>
+      </c>
+      <c r="Z115">
+        <f>Z114+7</f>
+        <v>50</v>
+      </c>
+      <c r="AA115">
+        <v>2.7504200000000001</v>
+      </c>
+      <c r="AB115">
+        <f t="shared" si="10"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AC115">
+        <f t="shared" si="11"/>
+        <v>1.9439999999999902E-2</v>
+      </c>
+      <c r="AD115">
+        <f t="shared" si="12"/>
+        <v>80673351563.701904</v>
+      </c>
+      <c r="AE115">
+        <f t="shared" si="9"/>
+        <v>1.2395666978213648E-11</v>
+      </c>
+      <c r="AF115">
+        <f t="shared" si="13"/>
+        <v>25.113674141625811</v>
+      </c>
+    </row>
+    <row r="116" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y116">
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <f>Z115+10</f>
+        <v>60</v>
+      </c>
+      <c r="AA116">
+        <v>2.7496399999999999</v>
+      </c>
+      <c r="AB116">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="AC116">
+        <f t="shared" si="11"/>
+        <v>1.8659999999999677E-2</v>
+      </c>
+      <c r="AD116">
+        <f t="shared" si="12"/>
+        <v>64530381523.433601</v>
+      </c>
+      <c r="AE116">
+        <f t="shared" si="9"/>
+        <v>1.5496576595271787E-11</v>
+      </c>
+      <c r="AF116">
+        <f t="shared" si="13"/>
+        <v>24.890401981218748</v>
+      </c>
+    </row>
+    <row r="117" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y117">
+        <v>4</v>
+      </c>
+      <c r="Z117">
+        <f>Z116+14</f>
+        <v>74</v>
+      </c>
+      <c r="AA117">
+        <v>2.7479499999999999</v>
+      </c>
+      <c r="AB117">
+        <f t="shared" si="10"/>
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="AC117">
+        <f t="shared" si="11"/>
+        <v>1.6969999999999708E-2</v>
+      </c>
+      <c r="AD117">
+        <f t="shared" si="12"/>
+        <v>47583235180.875496</v>
+      </c>
+      <c r="AE117">
+        <f t="shared" si="9"/>
+        <v>2.1015805171690319E-11</v>
+      </c>
+      <c r="AF117">
+        <f t="shared" si="13"/>
+        <v>24.585746334063618</v>
+      </c>
+    </row>
+    <row r="118" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y118">
+        <v>5</v>
+      </c>
+      <c r="Z118">
+        <f>Z117+18</f>
+        <v>92</v>
+      </c>
+      <c r="AA118">
+        <v>2.7452899999999998</v>
+      </c>
+      <c r="AB118">
+        <f t="shared" si="10"/>
+        <v>9.2E-5</v>
+      </c>
+      <c r="AC118">
+        <f t="shared" si="11"/>
+        <v>1.4309999999999601E-2</v>
+      </c>
+      <c r="AD118">
+        <f t="shared" si="12"/>
+        <v>32274212204.680729</v>
+      </c>
+      <c r="AE118">
+        <f t="shared" si="9"/>
+        <v>3.0984489835354371E-11</v>
+      </c>
+      <c r="AF118">
+        <f t="shared" si="13"/>
+        <v>24.19753436454096</v>
+      </c>
+    </row>
+    <row r="119" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y119">
+        <v>6</v>
+      </c>
+      <c r="Z119">
+        <f>Z118+23</f>
+        <v>115</v>
+      </c>
+      <c r="AA119">
+        <v>2.7431100000000002</v>
+      </c>
+      <c r="AB119">
+        <f t="shared" si="10"/>
+        <v>1.15E-4</v>
+      </c>
+      <c r="AC119">
+        <f t="shared" si="11"/>
+        <v>1.2129999999999974E-2</v>
+      </c>
+      <c r="AD119">
+        <f t="shared" si="12"/>
+        <v>21886020631.322842</v>
+      </c>
+      <c r="AE119">
+        <f t="shared" si="9"/>
+        <v>4.5691266441045917E-11</v>
+      </c>
+      <c r="AF119">
+        <f t="shared" si="13"/>
+        <v>23.809113942614374</v>
+      </c>
+    </row>
+    <row r="120" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y120">
+        <v>7</v>
+      </c>
+      <c r="Z120">
+        <f>Z119+29</f>
+        <v>144</v>
+      </c>
+      <c r="AA120">
+        <v>2.7412299999999998</v>
+      </c>
+      <c r="AB120">
+        <f t="shared" si="10"/>
+        <v>1.44E-4</v>
+      </c>
+      <c r="AC120">
+        <f t="shared" si="11"/>
+        <v>1.0249999999999648E-2</v>
+      </c>
+      <c r="AD120">
+        <f t="shared" si="12"/>
+        <v>14769480408.520527</v>
+      </c>
+      <c r="AE120">
+        <f t="shared" si="9"/>
+        <v>6.7707188901723257E-11</v>
+      </c>
+      <c r="AF120">
+        <f t="shared" si="13"/>
+        <v>23.415828754030052</v>
+      </c>
+    </row>
+    <row r="121" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y121">
+        <v>8</v>
+      </c>
+      <c r="Z121">
+        <f>Z120+46</f>
+        <v>190</v>
+      </c>
+      <c r="AA121">
+        <v>2.7386599999999999</v>
+      </c>
+      <c r="AB121">
+        <f t="shared" si="10"/>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="AC121">
+        <f t="shared" si="11"/>
+        <v>7.6799999999996871E-3</v>
+      </c>
+      <c r="AD121">
+        <f t="shared" si="12"/>
+        <v>8387093080.0466805</v>
+      </c>
+      <c r="AE121">
+        <f t="shared" si="9"/>
+        <v>1.1923082174669681E-10</v>
+      </c>
+      <c r="AF121">
+        <f t="shared" si="13"/>
+        <v>22.849959823020722</v>
+      </c>
+    </row>
+    <row r="122" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y122">
+        <v>9</v>
+      </c>
+      <c r="Z122">
+        <f>Z121+58</f>
+        <v>248</v>
+      </c>
+      <c r="AA122">
+        <v>2.73672</v>
+      </c>
+      <c r="AB122">
+        <f t="shared" si="10"/>
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="AC122">
+        <f t="shared" si="11"/>
+        <v>5.7399999999998563E-3</v>
+      </c>
+      <c r="AD122">
+        <f t="shared" si="12"/>
+        <v>4802463307.0286531</v>
+      </c>
+      <c r="AE122">
+        <f t="shared" si="9"/>
+        <v>2.0822647380490098E-10</v>
+      </c>
+      <c r="AF122">
+        <f t="shared" si="13"/>
+        <v>22.292394812188135</v>
+      </c>
+    </row>
+    <row r="123" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y123">
+        <v>10</v>
+      </c>
+      <c r="Z123">
+        <f>Z122+76</f>
+        <v>324</v>
+      </c>
+      <c r="AA123">
+        <v>2.7351100000000002</v>
+      </c>
+      <c r="AB123">
+        <f t="shared" si="10"/>
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="AC123">
+        <f t="shared" si="11"/>
+        <v>4.129999999999967E-3</v>
+      </c>
+      <c r="AD123">
+        <f t="shared" si="12"/>
+        <v>2644897738.198</v>
+      </c>
+      <c r="AE123">
+        <f t="shared" si="9"/>
+        <v>3.7808645134284541E-10</v>
+      </c>
+      <c r="AF123">
+        <f t="shared" si="13"/>
+        <v>21.695898239202272</v>
+      </c>
+    </row>
+    <row r="124" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y124">
+        <v>11</v>
+      </c>
+      <c r="Z124">
+        <f>Z123+92</f>
+        <v>416</v>
+      </c>
+      <c r="AA124">
+        <v>2.7339000000000002</v>
+      </c>
+      <c r="AB124">
+        <f t="shared" si="10"/>
+        <v>4.1599999999999997E-4</v>
+      </c>
+      <c r="AC124">
+        <f t="shared" si="11"/>
+        <v>2.9200000000000337E-3</v>
+      </c>
+      <c r="AD124">
+        <f t="shared" si="12"/>
+        <v>1456442570.8665562</v>
+      </c>
+      <c r="AE124">
+        <f t="shared" si="9"/>
+        <v>6.8660448410610428E-10</v>
+      </c>
+      <c r="AF124">
+        <f t="shared" si="13"/>
+        <v>21.099262704040608</v>
+      </c>
+    </row>
+    <row r="125" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y125">
+        <v>12</v>
+      </c>
+      <c r="Z125">
+        <f>Z124+84</f>
+        <v>500</v>
+      </c>
+      <c r="AA125">
+        <v>2.73325</v>
+      </c>
+      <c r="AB125">
+        <f t="shared" si="10"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AC125">
+        <f t="shared" si="11"/>
+        <v>2.2699999999997722E-3</v>
+      </c>
+      <c r="AD125">
+        <f t="shared" si="12"/>
+        <v>942019074.32914531</v>
+      </c>
+      <c r="AE125">
+        <f t="shared" si="9"/>
+        <v>1.0615496302048295E-9</v>
+      </c>
+      <c r="AF125">
+        <f t="shared" si="13"/>
+        <v>20.663536081092687</v>
+      </c>
+    </row>
+    <row r="126" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y126">
+        <v>13</v>
+      </c>
+      <c r="Z126">
+        <f>Z125+100</f>
+        <v>600</v>
+      </c>
+      <c r="AA126">
+        <v>2.7326800000000002</v>
+      </c>
+      <c r="AB126">
+        <f t="shared" si="10"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AC126">
+        <f t="shared" si="11"/>
+        <v>1.7000000000000348E-3</v>
+      </c>
+      <c r="AD126">
+        <f t="shared" si="12"/>
+        <v>587897366.50504434</v>
+      </c>
+      <c r="AE126">
+        <f t="shared" si="9"/>
+        <v>1.7009771721632974E-9</v>
+      </c>
+      <c r="AF126">
+        <f t="shared" si="13"/>
+        <v>20.192062943867715</v>
+      </c>
+    </row>
+    <row r="127" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y127">
+        <v>14</v>
+      </c>
+      <c r="Z127">
+        <f>Z126+100</f>
+        <v>700</v>
+      </c>
+      <c r="AA127">
+        <v>2.7322799999999998</v>
+      </c>
+      <c r="AB127">
+        <f t="shared" si="10"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AC127">
+        <f t="shared" si="11"/>
+        <v>1.2999999999996348E-3</v>
+      </c>
+      <c r="AD127">
+        <f t="shared" si="12"/>
+        <v>385344492.33092141</v>
+      </c>
+      <c r="AE127">
+        <f t="shared" si="9"/>
+        <v>2.5950805575319661E-9</v>
+      </c>
+      <c r="AF127">
+        <f t="shared" si="13"/>
+        <v>19.769648277445476</v>
+      </c>
+    </row>
+    <row r="128" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y128">
+        <v>15</v>
+      </c>
+      <c r="Z128">
+        <f>W114</f>
+        <v>800</v>
+      </c>
+      <c r="AA128">
+        <v>2.7319900000000001</v>
+      </c>
+      <c r="AB128">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AC128">
+        <f t="shared" si="11"/>
+        <v>1.0099999999999554E-3</v>
+      </c>
+      <c r="AD128">
+        <f t="shared" si="12"/>
+        <v>261960150.07502484</v>
+      </c>
+      <c r="AE128">
+        <f t="shared" si="9"/>
+        <v>3.8173745117858652E-9</v>
+      </c>
+      <c r="AF128">
+        <f t="shared" si="13"/>
+        <v>19.383702951206867</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +5508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1796,7 +5520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
+++ b/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\Škola Mgr\Praktikum plazma\PraktikaPlazma\04_RozpadPlazmatu\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAF29FE-AA9E-45D2-9AC8-86A8C8A04C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="19">
   <si>
     <t>RozpadPlazmatu</t>
   </si>
@@ -74,13 +68,31 @@
   <si>
     <t>ln n</t>
   </si>
+  <si>
+    <t>R [m]</t>
+  </si>
+  <si>
+    <t>R' [m]</t>
+  </si>
+  <si>
+    <t>V/V'</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>e0</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,13 +133,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -185,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,26 +231,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,23 +266,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,32 +441,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ39" sqref="AJ39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -495,7 +475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -538,8 +518,11 @@
       <c r="AF4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -588,8 +571,12 @@
         <f>LN(AD5)</f>
         <v>25.278932798864712</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH5" s="3">
+        <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>23391714.358266436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -607,11 +594,11 @@
         <v>2.7713399999999999</v>
       </c>
       <c r="AB6">
-        <f t="shared" ref="AB6:AB37" si="0">Z6/1000000</f>
+        <f t="shared" ref="AB6:AB18" si="0">Z6/1000000</f>
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="AC6">
-        <f t="shared" ref="AC6:AC19" si="1">AA6-$X$5</f>
+        <f t="shared" ref="AC6:AC18" si="1">AA6-$X$5</f>
         <v>4.0359999999999729E-2</v>
       </c>
       <c r="AD6">
@@ -623,11 +610,15 @@
         <v>1.1344062326741826E-11</v>
       </c>
       <c r="AF6">
-        <f t="shared" ref="AF6:AF19" si="3">LN(AD6)</f>
+        <f t="shared" ref="AF6:AF18" si="3">LN(AD6)</f>
         <v>25.202326651906528</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH6" s="3">
+        <f t="shared" ref="AH6:AH19" si="4">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>22870387.390979342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -692,7 +683,7 @@
         <v>3.8059999999999761E-2</v>
       </c>
       <c r="AD7">
-        <f t="shared" ref="AD6:AD37" si="4">(0.271*0.04^2*AC7*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z7/1000000))</f>
+        <f t="shared" ref="AD7:AD18" si="5">(0.271*0.04^2*AC7*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z7/1000000))</f>
         <v>75211340400.609711</v>
       </c>
       <c r="AE7">
@@ -703,8 +694,12 @@
         <f t="shared" si="3"/>
         <v>25.043567859732143</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH7" s="3">
+        <f t="shared" si="4"/>
+        <v>21567069.972761996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -768,6 +763,12 @@
         <f>O8+120</f>
         <v>890</v>
       </c>
+      <c r="U8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" t="s">
+        <v>14</v>
+      </c>
       <c r="Y8">
         <v>4</v>
       </c>
@@ -787,7 +788,7 @@
         <v>3.5320000000000018E-2</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61072161720.463974</v>
       </c>
       <c r="AE8">
@@ -798,8 +799,12 @@
         <f t="shared" si="3"/>
         <v>24.835321980975383</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH8" s="3">
+        <f t="shared" si="4"/>
+        <v>20014422.265842322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -847,6 +852,14 @@
       </c>
       <c r="P9">
         <v>2.7332399999999999</v>
+      </c>
+      <c r="U9">
+        <f>0.04</f>
+        <v>0.04</v>
+      </c>
+      <c r="V9">
+        <f>0.009</f>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -867,7 +880,7 @@
         <v>3.2429999999999737E-2</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48064314947.289185</v>
       </c>
       <c r="AE9">
@@ -878,8 +891,21 @@
         <f t="shared" si="3"/>
         <v>24.595805845731583</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH9" s="3">
+        <f t="shared" si="4"/>
+        <v>18376775.596864697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" t="s">
+        <v>18</v>
+      </c>
       <c r="Y10">
         <v>6</v>
       </c>
@@ -899,7 +925,7 @@
         <v>2.8479999999999617E-2</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34761211760.684616</v>
       </c>
       <c r="AE10">
@@ -910,13 +936,27 @@
         <f t="shared" si="3"/>
         <v>24.27176799751517</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH10" s="3">
+        <f t="shared" si="4"/>
+        <v>16138469.596013067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
+      </c>
+      <c r="U11">
+        <f>U9^2/V9^2</f>
+        <v>19.753086419753089</v>
+      </c>
+      <c r="V11" s="3">
+        <v>8.8539999999999992E-12</v>
+      </c>
+      <c r="W11" s="3">
+        <v>9.1070000000000006E-31</v>
       </c>
       <c r="Y11">
         <v>7</v>
@@ -937,7 +977,7 @@
         <v>2.3939999999999628E-2</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23654223452.319756</v>
       </c>
       <c r="AE11">
@@ -948,12 +988,19 @@
         <f t="shared" si="3"/>
         <v>23.886807517434011</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH11" s="3">
+        <f t="shared" si="4"/>
+        <v>13565834.344401404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="U12" t="s">
         <v>16</v>
       </c>
       <c r="Y12">
@@ -975,7 +1022,7 @@
         <v>1.9649999999999945E-2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15681696721.932833</v>
       </c>
       <c r="AE12">
@@ -986,13 +1033,20 @@
         <f t="shared" si="3"/>
         <v>23.475760055321409</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH12" s="3">
+        <f t="shared" si="4"/>
+        <v>11134864.029552674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
         <v>880</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1.602E-19</v>
       </c>
       <c r="Y13">
         <v>9</v>
@@ -1013,7 +1067,7 @@
         <v>1.5479999999999716E-2</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10037482978.122498</v>
       </c>
       <c r="AE13">
@@ -1024,8 +1078,12 @@
         <f t="shared" si="3"/>
         <v>23.029592220389461</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH13" s="3">
+        <f t="shared" si="4"/>
+        <v>8771892.8843497559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1109,7 @@
         <v>1.1529999999999596E-2</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6103052193.0997467</v>
       </c>
       <c r="AE14">
@@ -1062,8 +1120,12 @@
         <f t="shared" si="3"/>
         <v>22.532054842512139</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH14" s="3">
+        <f t="shared" si="4"/>
+        <v>6533586.8834981276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1128,7 +1190,7 @@
         <v>8.6299999999996935E-3</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3793784351.6487403</v>
       </c>
       <c r="AE15">
@@ -1139,8 +1201,12 @@
         <f t="shared" si="3"/>
         <v>22.056629867531417</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH15" s="3">
+        <f t="shared" si="4"/>
+        <v>4890273.6170502007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +1289,7 @@
         <v>6.1599999999999433E-3</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2282425069.9606929</v>
       </c>
       <c r="AE16">
@@ -1234,8 +1300,12 @@
         <f t="shared" si="3"/>
         <v>21.548504341837894</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH16" s="3">
+        <f t="shared" si="4"/>
+        <v>3490624.0418343013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1373,7 @@
         <v>4.269999999999996E-3</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1342418050.7895644</v>
       </c>
       <c r="AE17">
@@ -1314,8 +1384,12 @@
         <f t="shared" si="3"/>
         <v>21.017738340241731</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH17" s="3">
+        <f t="shared" si="4"/>
+        <v>2419637.1199078881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y18">
         <v>14</v>
       </c>
@@ -1335,7 +1409,7 @@
         <v>2.9499999999997861E-3</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>794941435.22828996</v>
       </c>
       <c r="AE18">
@@ -1346,8 +1420,12 @@
         <f t="shared" si="3"/>
         <v>20.493779003525596</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH18" s="3">
+        <f t="shared" si="4"/>
+        <v>1671646.2538004122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y19">
         <v>15</v>
       </c>
@@ -1359,15 +1437,15 @@
         <v>2.7332399999999999</v>
       </c>
       <c r="AB19">
-        <f t="shared" ref="AB19:AB82" si="5">Z19/1000000</f>
+        <f t="shared" ref="AB19:AB82" si="6">Z19/1000000</f>
         <v>8.8999999999999995E-4</v>
       </c>
       <c r="AC19">
-        <f t="shared" ref="AC19:AC82" si="6">AA19-$X$5</f>
+        <f t="shared" ref="AC19:AC82" si="7">AA19-$X$5</f>
         <v>2.2599999999997067E-3</v>
       </c>
       <c r="AD19">
-        <f t="shared" ref="AD19:AD82" si="7">(0.271*0.04^2*AC19*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z19/1000000))</f>
+        <f t="shared" ref="AD19:AD82" si="8">(0.271*0.04^2*AC19*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z19/1000000))</f>
         <v>526892814.92446816</v>
       </c>
       <c r="AE19">
@@ -1375,11 +1453,15 @@
         <v>1.8979192193830794E-9</v>
       </c>
       <c r="AF19">
-        <f t="shared" ref="AF19:AF82" si="8">LN(AD19)</f>
+        <f t="shared" ref="AF19:AF82" si="9">LN(AD19)</f>
         <v>20.082507698579548</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH19" s="3">
+        <f t="shared" si="4"/>
+        <v>1280651.0283351575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1387,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1395,7 +1477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1435,8 +1517,11 @@
       <c r="AF22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1466,15 +1551,15 @@
         <v>2.77251</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1529999999999845E-2</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>538574506565.15948</v>
       </c>
       <c r="AE23">
@@ -1482,11 +1567,15 @@
         <v>1.8567533141842371E-12</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27.012191683424547</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH23" s="3">
+        <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>23533379.295029119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1546,15 +1635,15 @@
         <v>2.7698299999999998</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8849999999999607E-2</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>403055518036.24011</v>
       </c>
       <c r="AE24">
@@ -1562,11 +1651,15 @@
         <v>2.4810477843652461E-12</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26.722340151281326</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH24" s="3">
+        <f t="shared" ref="AH24:AH37" si="10">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>22014731.172932219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1645,15 +1738,15 @@
         <v>2.7686199999999999</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7639999999999674E-2</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>260334786767.63788</v>
       </c>
       <c r="AE25">
@@ -1661,11 +1754,15 @@
         <v>3.8412077479778034E-12</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26.285234281076683</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH25" s="3">
+        <f t="shared" si="10"/>
+        <v>21329072.879000518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1728,15 +1825,15 @@
         <v>2.7656499999999999</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4669999999999757E-2</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>159861974091.99472</v>
       </c>
       <c r="AE26">
@@ -1744,11 +1841,15 @@
         <v>6.2553962922072797E-12</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.797576617948273</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH26" s="3">
+        <f t="shared" si="10"/>
+        <v>19646093.430259012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y27">
         <v>5</v>
       </c>
@@ -1760,15 +1861,15 @@
         <v>2.7625600000000001</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1579999999999941E-2</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100809767425.67722</v>
       </c>
       <c r="AE27">
@@ -1776,11 +1877,15 @@
         <v>9.9196737135343328E-12</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.336501086953525</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH27" s="3">
+        <f t="shared" si="10"/>
+        <v>17895114.811871435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y28">
         <v>6</v>
       </c>
@@ -1792,15 +1897,15 @@
         <v>2.7574800000000002</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6499999999999968E-2</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57879678807.616104</v>
       </c>
       <c r="AE28">
@@ -1808,11 +1913,15 @@
         <v>1.7277220962539532E-11</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.781632189413305</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH28" s="3">
+        <f t="shared" si="10"/>
+        <v>15016483.296852231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1830,15 +1939,15 @@
         <v>2.75237</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.34E-4</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1389999999999798E-2</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33121487277.10936</v>
       </c>
       <c r="AE29">
@@ -1846,11 +1955,15 @@
         <v>3.0191880927131903E-11</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.223448071165063</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH29" s="3">
+        <f t="shared" si="10"/>
+        <v>12120851.989421375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1868,15 +1981,15 @@
         <v>2.7461700000000002</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.84E-4</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5190000000000037E-2</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17129464828.410736</v>
       </c>
       <c r="AE30">
@@ -1884,11 +1997,15 @@
         <v>5.8378940032114219E-11</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.564065907020368</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH30" s="3">
+        <f t="shared" si="10"/>
+        <v>8607561.5577051379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1906,15 +2023,15 @@
         <v>2.7423600000000001</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4399999999999999E-4</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1379999999999946E-2</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9677346235.5263767</v>
       </c>
       <c r="AE31">
@@ -1922,11 +2039,15 @@
         <v>1.0333411409100083E-10</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.993053551426648</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH31" s="3">
+        <f t="shared" si="10"/>
+        <v>6448587.9214406693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1944,15 +2065,15 @@
         <v>2.73874</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1599999999999998E-4</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7599999999997671E-3</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5095402342.6048899</v>
       </c>
       <c r="AE32">
@@ -1960,11 +2081,15 @@
         <v>1.9625535586043171E-10</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.351604468629855</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH32" s="3">
+        <f t="shared" si="10"/>
+        <v>4397279.6371158464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
@@ -2021,15 +2146,15 @@
         <v>2.7366700000000002</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9599999999999998E-4</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.6899999999999729E-3</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2981404648.3187323</v>
       </c>
       <c r="AE33">
@@ -2037,11 +2162,15 @@
         <v>3.3541237032816663E-10</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.815660384905424</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH33" s="3">
+        <f t="shared" si="10"/>
+        <v>3224293.9607203347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2116,15 +2245,15 @@
         <v>2.7353499999999999</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.84E-4</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.369999999999763E-3</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1873440562.6836548</v>
       </c>
       <c r="AE34">
@@ -2132,11 +2261,15 @@
         <v>5.3377727584136754E-10</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.351042450412482</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH34" s="3">
+        <f t="shared" si="10"/>
+        <v>2476303.0946128592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2196,15 +2329,15 @@
         <v>2.7343500000000001</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.8E-4</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3699999999998731E-3</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1205606972.6908014</v>
       </c>
       <c r="AE35">
@@ -2212,11 +2345,15 @@
         <v>8.2945771105495026E-10</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.910248988845435</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH35" s="3">
+        <f t="shared" si="10"/>
+        <v>1909643.3475618931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y36">
         <v>14</v>
       </c>
@@ -2228,15 +2365,15 @@
         <v>2.7335799999999999</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5999999999997137E-3</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>781858390.23678553</v>
       </c>
       <c r="AE36">
@@ -2244,11 +2381,15 @@
         <v>1.2790039890691079E-9</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.477184195457692</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH36" s="3">
+        <f t="shared" si="10"/>
+        <v>1473315.342332511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y37">
         <v>15</v>
       </c>
@@ -2260,15 +2401,15 @@
         <v>2.7329400000000001</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0999999999999996E-4</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9599999999999618E-3</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>502082282.50537735</v>
       </c>
       <c r="AE37">
@@ -2276,11 +2417,15 @@
         <v>1.9917054133239405E-9</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.034274573597592</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH37" s="3">
+        <f t="shared" si="10"/>
+        <v>1110653.1042199936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2288,7 +2433,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2296,7 +2441,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2481,11 @@
       <c r="AF40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2367,15 +2515,15 @@
         <v>2.7619600000000002</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0980000000000008E-2</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>292188134989.18567</v>
       </c>
       <c r="AE41">
@@ -2383,11 +2531,15 @@
         <v>3.4224524552888212E-12</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26.400663729652077</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH41" s="3">
+        <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>17555118.963640861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1</v>
       </c>
@@ -2444,15 +2596,15 @@
         <v>2.7546900000000001</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3709999999999898E-2</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>182209758952.08176</v>
       </c>
       <c r="AE42">
@@ -2460,11 +2612,15 @@
         <v>5.4881802475957615E-12</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.928424382094651</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH42" s="3">
+        <f t="shared" ref="AH42:AH55" si="11">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>13435502.602579821</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2539,15 +2695,15 @@
         <v>2.7551899999999998</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4209999999999621E-2</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>135767840156.62904</v>
       </c>
       <c r="AE43">
@@ -2555,11 +2711,15 @@
         <v>7.3655145345639034E-12</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.634212206327398</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH43" s="3">
+        <f t="shared" si="11"/>
+        <v>13718832.476105176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2619,15 +2779,15 @@
         <v>2.7525200000000001</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1999999999999997E-5</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1539999999999893E-2</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>85950062949.219452</v>
       </c>
       <c r="AE44">
@@ -2635,11 +2795,15 @@
         <v>1.1634662799384039E-11</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.177032301168481</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH44" s="3">
+        <f t="shared" si="11"/>
+        <v>12205850.951479087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y45">
         <v>5</v>
       </c>
@@ -2651,15 +2815,15 @@
         <v>2.7490000000000001</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2000000000000002E-5</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8019999999999925E-2</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51930934041.277634</v>
       </c>
       <c r="AE45">
@@ -2667,11 +2831,15 @@
         <v>1.9256345345245351E-11</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.673180481185803</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH45" s="3">
+        <f t="shared" si="11"/>
+        <v>10211208.641859485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y46">
         <v>6</v>
       </c>
@@ -2683,15 +2851,15 @@
         <v>2.7454900000000002</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.02E-4</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4510000000000023E-2</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29516923141.827091</v>
       </c>
       <c r="AE46">
@@ -2699,11 +2867,15 @@
         <v>3.3878869934886453E-11</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.108229601633496</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH46" s="3">
+        <f t="shared" si="11"/>
+        <v>8222232.929710432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2724,15 +2896,15 @@
         <v>2.7423299999999999</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4200000000000001E-4</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1349999999999749E-2</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16584842857.908787</v>
       </c>
       <c r="AE47">
@@ -2740,11 +2912,15 @@
         <v>6.0296018995629588E-11</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.5317550343478</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH47" s="3">
+        <f t="shared" si="11"/>
+        <v>6431588.12902903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2762,15 +2938,15 @@
         <v>2.7395700000000001</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.92E-4</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.5899999999998755E-3</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9283158783.5995483</v>
       </c>
       <c r="AE48">
@@ -2778,11 +2954,15 @@
         <v>1.0772195362710899E-10</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.951467711990038</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH48" s="3">
+        <f t="shared" si="11"/>
+        <v>4867607.227168262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2800,15 +2980,15 @@
         <v>2.7378200000000001</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.52E-4</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.8399999999999572E-3</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5631957964.838089</v>
       </c>
       <c r="AE49">
@@ -2816,11 +2996,15 @@
         <v>1.7755814341003317E-10</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.451722992144699</v>
       </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH49" s="3">
+        <f t="shared" si="11"/>
+        <v>3875952.6698290082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2838,15 +3022,15 @@
         <v>2.7361800000000001</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2400000000000001E-4</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1999999999998714E-3</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3330137588.0458527</v>
       </c>
       <c r="AE50">
@@ -2854,11 +3038,15 @@
         <v>3.0028789308576493E-10</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.926279457816698</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH50" s="3">
+        <f t="shared" si="11"/>
+        <v>2946630.6846652734</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
@@ -2915,15 +3103,15 @@
         <v>2.7351999999999999</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0400000000000001E-4</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2199999999996685E-3</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2167379341.8617129</v>
       </c>
       <c r="AE51">
@@ -2931,11 +3119,15 @@
         <v>4.6138669898967961E-10</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.496784598108359</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH51" s="3">
+        <f t="shared" si="11"/>
+        <v>2391304.1325551514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -3010,15 +3202,15 @@
         <v>2.7343000000000002</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8999999999999998E-4</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3199999999999896E-3</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1405872213.7791362</v>
       </c>
       <c r="AE52">
@@ -3026,11 +3218,15 @@
         <v>7.1130220101007055E-10</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.063923739845389</v>
       </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH52" s="3">
+        <f t="shared" si="11"/>
+        <v>1881310.3602094075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3090,15 +3286,15 @@
         <v>2.7336200000000002</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6399999999999757E-3</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>928444096.25519705</v>
       </c>
       <c r="AE53">
@@ -3106,11 +3302,15 @@
         <v>1.0770707725251502E-9</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.649020728280121</v>
       </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH53" s="3">
+        <f t="shared" si="11"/>
+        <v>1495981.7322147004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y54">
         <v>14</v>
       </c>
@@ -3122,15 +3322,15 @@
         <v>2.7330399999999999</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0599999999997287E-3</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>610622810.92447412</v>
       </c>
       <c r="AE54">
@@ -3138,11 +3338,15 @@
         <v>1.6376721965005114E-9</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.229989995779622</v>
       </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH54" s="3">
+        <f t="shared" si="11"/>
+        <v>1167319.0789249642</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y55">
         <v>15</v>
       </c>
@@ -3154,15 +3358,15 @@
         <v>2.7325699999999999</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1999999999999998E-4</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5899999999997583E-3</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>402334352.68702698</v>
       </c>
       <c r="AE55">
@@ -3170,11 +3374,15 @@
         <v>2.4854949454885174E-9</v>
       </c>
       <c r="AF55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.812794023995359</v>
       </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH55" s="3">
+        <f t="shared" si="11"/>
+        <v>900988.99781099788</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -3192,15 +3400,15 @@
         <v>2.7322000000000002</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5E-4</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2199999999999989E-3</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>266464936.3973271</v>
       </c>
       <c r="AE56">
@@ -3208,11 +3416,11 @@
         <v>3.7528389795680108E-9</v>
       </c>
       <c r="AF56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.400753222172249</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3220,7 +3428,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +3436,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3268,8 +3476,11 @@
       <c r="AF59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1</v>
       </c>
@@ -3338,15 +3549,15 @@
         <v>2.7751399999999999</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.16E-4</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4159999999999755E-2</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>78990510258.20105</v>
       </c>
       <c r="AE60">
@@ -3354,11 +3565,15 @@
         <v>1.265974857905386E-11</v>
       </c>
       <c r="AF60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.09259355888414</v>
       </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH60" s="3">
+        <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>25023694.429773264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -3433,15 +3648,15 @@
         <v>2.77413</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.22E-4</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.31499999999998E-2</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73387959589.27298</v>
       </c>
       <c r="AE61">
@@ -3449,11 +3664,15 @@
         <v>1.3626213422428612E-11</v>
       </c>
       <c r="AF61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25.019025720817844</v>
       </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH61" s="3">
+        <f t="shared" ref="AH61:AH74" si="12">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>24451368.085251752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -3513,15 +3732,15 @@
         <v>2.7735099999999999</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2529999999999735E-2</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66853676463.793755</v>
       </c>
       <c r="AE62">
@@ -3529,11 +3748,15 @@
         <v>1.495804049821515E-11</v>
       </c>
       <c r="AF62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.925772134700836</v>
       </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH62" s="3">
+        <f t="shared" si="12"/>
+        <v>24100039.042080078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y63">
         <v>4</v>
       </c>
@@ -3545,15 +3768,15 @@
         <v>2.7711100000000002</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4799999999999999E-4</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0129999999999999E-2</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56261497578.331345</v>
       </c>
       <c r="AE63">
@@ -3561,11 +3784,15 @@
         <v>1.7774144717845936E-11</v>
       </c>
       <c r="AF63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.753276258536378</v>
       </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH63" s="3">
+        <f t="shared" si="12"/>
+        <v>22740055.649157763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y64">
         <v>5</v>
       </c>
@@ -3577,15 +3804,15 @@
         <v>2.7686700000000002</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6799999999999999E-4</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7690000000000001E-2</v>
       </c>
       <c r="AD64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46550108704.9888</v>
       </c>
       <c r="AE64">
@@ -3593,11 +3820,15 @@
         <v>2.1482226955419107E-11</v>
       </c>
       <c r="AF64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.563795175897454</v>
       </c>
-    </row>
-    <row r="65" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH64" s="3">
+        <f t="shared" si="12"/>
+        <v>21357405.866353251</v>
+      </c>
+    </row>
+    <row r="65" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y65">
         <v>6</v>
       </c>
@@ -3609,15 +3840,15 @@
         <v>2.7652600000000001</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9799999999999999E-4</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4279999999999866E-2</v>
       </c>
       <c r="AD65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35923568135.102371</v>
       </c>
       <c r="AE65">
@@ -3625,11 +3856,15 @@
         <v>2.7836878459265842E-11</v>
       </c>
       <c r="AF65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.304659411056708</v>
       </c>
-    </row>
-    <row r="66" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH65" s="3">
+        <f t="shared" si="12"/>
+        <v>19425096.128909171</v>
+      </c>
+    </row>
+    <row r="66" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y66">
         <v>7</v>
       </c>
@@ -3641,15 +3876,15 @@
         <v>2.7614000000000001</v>
       </c>
       <c r="AB66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="AC66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0419999999999892E-2</v>
       </c>
       <c r="AD66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26299761601.592667</v>
       </c>
       <c r="AE66">
@@ -3657,11 +3892,15 @@
         <v>3.8023158352106193E-11</v>
       </c>
       <c r="AF66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.992825711510822</v>
       </c>
-    </row>
-    <row r="67" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH66" s="3">
+        <f t="shared" si="12"/>
+        <v>17237789.505292218</v>
+      </c>
+    </row>
+    <row r="67" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y67">
         <v>8</v>
       </c>
@@ -3673,15 +3912,15 @@
         <v>2.7567900000000001</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.92E-4</v>
       </c>
       <c r="AC67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5809999999999889E-2</v>
       </c>
       <c r="AD67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18340408174.248367</v>
       </c>
       <c r="AE67">
@@ -3689,11 +3928,15 @@
         <v>5.4524413551716516E-11</v>
       </c>
       <c r="AF67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.632372559483905</v>
       </c>
-    </row>
-    <row r="68" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH67" s="3">
+        <f t="shared" si="12"/>
+        <v>14625488.071386974</v>
+      </c>
+    </row>
+    <row r="68" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y68">
         <v>9</v>
       </c>
@@ -3705,15 +3948,15 @@
         <v>2.7533300000000001</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5199999999999999E-4</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.234999999999987E-2</v>
       </c>
       <c r="AD68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13174638510.749393</v>
       </c>
       <c r="AE68">
@@ -3721,11 +3964,15 @@
         <v>7.590341087416435E-11</v>
       </c>
       <c r="AF68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.301559493483143</v>
       </c>
-    </row>
-    <row r="69" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH68" s="3">
+        <f t="shared" si="12"/>
+        <v>12664845.346590409</v>
+      </c>
+    </row>
+    <row r="69" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y69">
         <v>10</v>
       </c>
@@ -3737,15 +3984,15 @@
         <v>2.7495500000000002</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2400000000000001E-4</v>
       </c>
       <c r="AC69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8569999999999975E-2</v>
       </c>
       <c r="AD69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9087614397.3349895</v>
       </c>
       <c r="AE69">
@@ -3753,11 +4000,15 @@
         <v>1.1003988024549737E-10</v>
       </c>
       <c r="AF69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.930178268154325</v>
       </c>
-    </row>
-    <row r="70" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH69" s="3">
+        <f t="shared" si="12"/>
+        <v>10522871.502737582</v>
+      </c>
+    </row>
+    <row r="70" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y70">
         <v>11</v>
       </c>
@@ -3769,27 +4020,31 @@
         <v>2.7464900000000001</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AC70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5509999999999913E-2</v>
       </c>
       <c r="AD70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6436438697.289176</v>
       </c>
       <c r="AE70">
-        <f t="shared" ref="AE70:AE128" si="9">1/AD70</f>
+        <f t="shared" ref="AE70:AE128" si="13">1/AD70</f>
         <v>1.5536541976561795E-10</v>
       </c>
       <c r="AF70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.585241226787918</v>
       </c>
-    </row>
-    <row r="71" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH70" s="3">
+        <f t="shared" si="12"/>
+        <v>8788892.6767614</v>
+      </c>
+    </row>
+    <row r="71" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y71">
         <v>12</v>
       </c>
@@ -3801,27 +4056,31 @@
         <v>2.74316</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="AC71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2179999999999858E-2</v>
       </c>
       <c r="AD71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4283503444.0864658</v>
       </c>
       <c r="AE71">
+        <f t="shared" si="13"/>
+        <v>2.3345376350298882E-10</v>
+      </c>
+      <c r="AF71">
         <f t="shared" si="9"/>
-        <v>2.3345376350298882E-10</v>
-      </c>
-      <c r="AF71">
-        <f t="shared" si="8"/>
         <v>22.178037073403644</v>
       </c>
-    </row>
-    <row r="72" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH71" s="3">
+        <f t="shared" si="12"/>
+        <v>6901915.7190814419</v>
+      </c>
+    </row>
+    <row r="72" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y72">
         <v>13</v>
       </c>
@@ -3833,27 +4092,31 @@
         <v>2.7406700000000002</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="AC72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.6899999999999764E-3</v>
       </c>
       <c r="AD72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2913926077.4597187</v>
       </c>
       <c r="AE72">
+        <f t="shared" si="13"/>
+        <v>3.4317960491014678E-10</v>
+      </c>
+      <c r="AF72">
         <f t="shared" si="9"/>
-        <v>3.4317960491014678E-10</v>
-      </c>
-      <c r="AF72">
-        <f t="shared" si="8"/>
         <v>21.792767176333037</v>
       </c>
-    </row>
-    <row r="73" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH72" s="3">
+        <f t="shared" si="12"/>
+        <v>5490932.9489244483</v>
+      </c>
+    </row>
+    <row r="73" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y73">
         <v>14</v>
       </c>
@@ -3865,27 +4128,31 @@
         <v>2.7385700000000002</v>
       </c>
       <c r="AB73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="AC73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5899999999999856E-3</v>
       </c>
       <c r="AD73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1968591622.8411114</v>
       </c>
       <c r="AE73">
+        <f t="shared" si="13"/>
+        <v>5.079773724510621E-10</v>
+      </c>
+      <c r="AF73">
         <f t="shared" si="9"/>
-        <v>5.079773724510621E-10</v>
-      </c>
-      <c r="AF73">
-        <f t="shared" si="8"/>
         <v>21.400584211761277</v>
       </c>
-    </row>
-    <row r="74" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH73" s="3">
+        <f t="shared" si="12"/>
+        <v>4300947.4801172959</v>
+      </c>
+    </row>
+    <row r="74" spans="21:34" ht="15" x14ac:dyDescent="0.25">
       <c r="Y74">
         <v>15</v>
       </c>
@@ -3897,27 +4164,31 @@
         <v>2.7365400000000002</v>
       </c>
       <c r="AB74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="AC74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.5600000000000094E-3</v>
       </c>
       <c r="AD74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1253980572.0337536</v>
       </c>
       <c r="AE74">
+        <f t="shared" si="13"/>
+        <v>7.9746052076242436E-10</v>
+      </c>
+      <c r="AF74">
         <f t="shared" si="9"/>
-        <v>7.9746052076242436E-10</v>
-      </c>
-      <c r="AF74">
-        <f t="shared" si="8"/>
         <v>20.949588786241076</v>
       </c>
-    </row>
-    <row r="77" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH74" s="3">
+        <f t="shared" si="12"/>
+        <v>3150628.1936037214</v>
+      </c>
+    </row>
+    <row r="77" spans="21:34" x14ac:dyDescent="0.3">
       <c r="U77" t="s">
         <v>1</v>
       </c>
@@ -3951,8 +4222,11 @@
       <c r="AF77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="21:34" x14ac:dyDescent="0.3">
       <c r="U78" s="1">
         <v>200</v>
       </c>
@@ -3976,27 +4250,31 @@
         <v>2.7715999999999998</v>
       </c>
       <c r="AB78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="AC78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0619999999999656E-2</v>
       </c>
       <c r="AD78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42141866519.001541</v>
       </c>
       <c r="AE78">
+        <f t="shared" si="13"/>
+        <v>2.3729371349726651E-11</v>
+      </c>
+      <c r="AF78">
         <f t="shared" si="9"/>
-        <v>2.3729371349726651E-11</v>
-      </c>
-      <c r="AF78">
-        <f t="shared" si="8"/>
         <v>24.464307537625864</v>
       </c>
-    </row>
-    <row r="79" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH78" s="3">
+        <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>23017718.925212566</v>
+      </c>
+    </row>
+    <row r="79" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y79">
         <v>2</v>
       </c>
@@ -4008,27 +4286,31 @@
         <v>2.7696999999999998</v>
       </c>
       <c r="AB79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.12E-4</v>
       </c>
       <c r="AC79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8719999999999644E-2</v>
       </c>
       <c r="AD79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37896869086.139793</v>
       </c>
       <c r="AE79">
+        <f t="shared" si="13"/>
+        <v>2.638740413428335E-11</v>
+      </c>
+      <c r="AF79">
         <f t="shared" si="9"/>
-        <v>2.638740413428335E-11</v>
-      </c>
-      <c r="AF79">
-        <f t="shared" si="8"/>
         <v>24.358134335758024</v>
       </c>
-    </row>
-    <row r="80" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH79" s="3">
+        <f t="shared" ref="AH79:AH92" si="14">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>21941065.405815609</v>
+      </c>
+    </row>
+    <row r="80" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y80">
         <v>3</v>
       </c>
@@ -4040,27 +4322,31 @@
         <v>2.7667999999999999</v>
       </c>
       <c r="AB80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.32E-4</v>
       </c>
       <c r="AC80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5819999999999741E-2</v>
       </c>
       <c r="AD80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32036232760.968712</v>
       </c>
       <c r="AE80">
+        <f t="shared" si="13"/>
+        <v>3.1214656462926823E-11</v>
+      </c>
+      <c r="AF80">
         <f t="shared" si="9"/>
-        <v>3.1214656462926823E-11</v>
-      </c>
-      <c r="AF80">
-        <f t="shared" si="8"/>
         <v>24.190133372987919</v>
       </c>
-    </row>
-    <row r="81" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH80" s="3">
+        <f t="shared" si="14"/>
+        <v>20297752.139367681</v>
+      </c>
+    </row>
+    <row r="81" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y81">
         <v>4</v>
       </c>
@@ -4072,27 +4358,31 @@
         <v>2.76491</v>
       </c>
       <c r="AB81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6400000000000002E-4</v>
       </c>
       <c r="AC81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3929999999999794E-2</v>
       </c>
       <c r="AD81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26667590435.181313</v>
       </c>
       <c r="AE81">
+        <f t="shared" si="13"/>
+        <v>3.7498700995525508E-11</v>
+      </c>
+      <c r="AF81">
         <f t="shared" si="9"/>
-        <v>3.7498700995525508E-11</v>
-      </c>
-      <c r="AF81">
-        <f t="shared" si="8"/>
         <v>24.006714823671487</v>
       </c>
-    </row>
-    <row r="82" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH81" s="3">
+        <f t="shared" si="14"/>
+        <v>19226765.217441272</v>
+      </c>
+    </row>
+    <row r="82" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y82">
         <v>5</v>
       </c>
@@ -4104,27 +4394,31 @@
         <v>2.7613699999999999</v>
       </c>
       <c r="AB82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1199999999999999E-4</v>
       </c>
       <c r="AC82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0389999999999695E-2</v>
       </c>
       <c r="AD82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20210634579.28479</v>
       </c>
       <c r="AE82">
+        <f t="shared" si="13"/>
+        <v>4.9478901618703542E-11</v>
+      </c>
+      <c r="AF82">
         <f t="shared" si="9"/>
-        <v>4.9478901618703542E-11</v>
-      </c>
-      <c r="AF82">
-        <f t="shared" si="8"/>
         <v>23.729474767140879</v>
       </c>
-    </row>
-    <row r="83" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH82" s="3">
+        <f t="shared" si="14"/>
+        <v>17220789.712880574</v>
+      </c>
+    </row>
+    <row r="83" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y83">
         <v>6</v>
       </c>
@@ -4136,27 +4430,31 @@
         <v>2.7570100000000002</v>
       </c>
       <c r="AB83">
-        <f t="shared" ref="AB83:AB128" si="10">Z83/1000000</f>
+        <f t="shared" ref="AB83:AB128" si="15">Z83/1000000</f>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="AC83">
-        <f t="shared" ref="AC83:AC128" si="11">AA83-$X$5</f>
+        <f t="shared" ref="AC83:AC128" si="16">AA83-$X$5</f>
         <v>2.6029999999999998E-2</v>
       </c>
       <c r="AD83">
-        <f t="shared" ref="AD83:AD128" si="12">(0.271*0.04^2*AC83*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z83/1000000))</f>
+        <f t="shared" ref="AD83:AD128" si="17">(0.271*0.04^2*AC83*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z83/1000000))</f>
         <v>14213283390.209896</v>
       </c>
       <c r="AE83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7.0356720016488214E-11</v>
       </c>
       <c r="AF83">
-        <f t="shared" ref="AF83:AF128" si="13">LN(AD83)</f>
+        <f t="shared" ref="AF83:AF128" si="18">LN(AD83)</f>
         <v>23.377442814307713</v>
       </c>
-    </row>
-    <row r="84" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH83" s="3">
+        <f t="shared" si="14"/>
+        <v>14750153.215738263</v>
+      </c>
+    </row>
+    <row r="84" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y84">
         <v>7</v>
       </c>
@@ -4168,27 +4466,31 @@
         <v>2.7521599999999999</v>
       </c>
       <c r="AB84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.7600000000000002E-4</v>
       </c>
       <c r="AC84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.1179999999999755E-2</v>
       </c>
       <c r="AD84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>9232575053.8134747</v>
       </c>
       <c r="AE84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.0831214413869881E-10</v>
       </c>
       <c r="AF84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22.946003833963498</v>
       </c>
-    </row>
-    <row r="85" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH84" s="3">
+        <f t="shared" si="14"/>
+        <v>12001853.44254064</v>
+      </c>
+    </row>
+    <row r="85" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y85">
         <v>8</v>
       </c>
@@ -4200,27 +4502,31 @@
         <v>2.7478699999999998</v>
       </c>
       <c r="AB85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AC85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.6889999999999628E-2</v>
       </c>
       <c r="AD85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5840933247.217515</v>
       </c>
       <c r="AE85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.712055176244955E-10</v>
       </c>
       <c r="AF85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22.48815642362521</v>
       </c>
-    </row>
-    <row r="86" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH85" s="3">
+        <f t="shared" si="14"/>
+        <v>9570883.1276916545</v>
+      </c>
+    </row>
+    <row r="86" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y86">
         <v>9</v>
       </c>
@@ -4232,27 +4538,31 @@
         <v>2.7444999999999999</v>
       </c>
       <c r="AB86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="AC86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.3519999999999754E-2</v>
       </c>
       <c r="AD86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3896260978.0136719</v>
       </c>
       <c r="AE86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.5665631887672054E-10</v>
       </c>
       <c r="AF86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22.083283206626369</v>
       </c>
-    </row>
-    <row r="87" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH86" s="3">
+        <f t="shared" si="14"/>
+        <v>7661239.7801297624</v>
+      </c>
+    </row>
+    <row r="87" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y87">
         <v>10</v>
       </c>
@@ -4264,27 +4574,31 @@
         <v>2.7416999999999998</v>
       </c>
       <c r="AB87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="AC87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.0719999999999619E-2</v>
       </c>
       <c r="AD87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2586426717.7566571</v>
       </c>
       <c r="AE87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.8663380374733839E-10</v>
       </c>
       <c r="AF87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21.673543114416734</v>
       </c>
-    </row>
-    <row r="88" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH87" s="3">
+        <f t="shared" si="14"/>
+        <v>6074592.4883868061</v>
+      </c>
+    </row>
+    <row r="88" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y88">
         <v>11</v>
       </c>
@@ -4296,27 +4610,31 @@
         <v>2.7394699999999998</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="AC88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8.4899999999996645E-3</v>
       </c>
       <c r="AD88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1677730635.8411851</v>
       </c>
       <c r="AE88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.9604323759553764E-10</v>
       </c>
       <c r="AF88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21.240707905193318</v>
       </c>
-    </row>
-    <row r="89" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH88" s="3">
+        <f t="shared" si="14"/>
+        <v>4810941.252463039</v>
+      </c>
+    </row>
+    <row r="89" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y89">
         <v>12</v>
       </c>
@@ -4328,27 +4646,31 @@
         <v>2.7374800000000001</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.24E-3</v>
       </c>
       <c r="AC89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.4999999999999503E-3</v>
       </c>
       <c r="AD89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1087665905.7730587</v>
       </c>
       <c r="AE89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.193999689539316E-10</v>
       </c>
       <c r="AF89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20.807299866324168</v>
       </c>
-    </row>
-    <row r="90" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH89" s="3">
+        <f t="shared" si="14"/>
+        <v>3683288.3558316547</v>
+      </c>
+    </row>
+    <row r="90" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y90">
         <v>13</v>
       </c>
@@ -4360,27 +4682,31 @@
         <v>2.7359100000000001</v>
       </c>
       <c r="AB90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.4E-3</v>
       </c>
       <c r="AC90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.9299999999998789E-3</v>
       </c>
       <c r="AD90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>730672441.22766495</v>
       </c>
       <c r="AE90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3686023224303011E-9</v>
       </c>
       <c r="AF90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20.409475820472892</v>
       </c>
-    </row>
-    <row r="91" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH90" s="3">
+        <f t="shared" si="14"/>
+        <v>2793632.5529615004</v>
+      </c>
+    </row>
+    <row r="91" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y91">
         <v>14</v>
       </c>
@@ -4392,27 +4718,31 @@
         <v>2.7353999999999998</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.5E-3</v>
       </c>
       <c r="AC91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.4199999999996464E-3</v>
       </c>
       <c r="AD91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>611413261.16518462</v>
       </c>
       <c r="AE91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6355549732341044E-9</v>
       </c>
       <c r="AF91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20.231283657020896</v>
       </c>
-    </row>
-    <row r="92" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH91" s="3">
+        <f t="shared" si="14"/>
+        <v>2504636.081965344</v>
+      </c>
+    </row>
+    <row r="92" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y92">
         <v>15</v>
       </c>
@@ -4424,27 +4754,31 @@
         <v>2.7348300000000001</v>
       </c>
       <c r="AB92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="AC92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.8499999999999091E-3</v>
       </c>
       <c r="AD92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>499280484.05389428</v>
       </c>
       <c r="AE92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0028822113785165E-9</v>
       </c>
       <c r="AF92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20.028678588093467</v>
       </c>
-    </row>
-    <row r="95" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH92" s="3">
+        <f t="shared" si="14"/>
+        <v>2181640.0261464068</v>
+      </c>
+    </row>
+    <row r="95" spans="21:34" x14ac:dyDescent="0.3">
       <c r="U95" t="s">
         <v>1</v>
       </c>
@@ -4478,8 +4812,11 @@
       <c r="AF95" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="21:34" x14ac:dyDescent="0.3">
       <c r="U96" s="1">
         <v>450</v>
       </c>
@@ -4503,27 +4840,31 @@
         <v>2.7692899999999998</v>
       </c>
       <c r="AB96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.7999999999999998E-4</v>
       </c>
       <c r="AC96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.8309999999999622E-2</v>
       </c>
       <c r="AD96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>28389514425.387684</v>
       </c>
       <c r="AE96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.5224272772546515E-11</v>
       </c>
       <c r="AF96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>24.069285703564969</v>
       </c>
-    </row>
-    <row r="97" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH96" s="3">
+        <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>21708734.909524668</v>
+      </c>
+    </row>
+    <row r="97" spans="21:34" x14ac:dyDescent="0.3">
       <c r="U97" t="s">
         <v>7</v>
       </c>
@@ -4538,27 +4879,31 @@
         <v>2.7662800000000001</v>
       </c>
       <c r="AB97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="AC97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.5299999999999887E-2</v>
       </c>
       <c r="AD97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>24415031808.973614</v>
       </c>
       <c r="AE97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.0958373833961398E-11</v>
       </c>
       <c r="AF97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>23.918464837304715</v>
       </c>
-    </row>
-    <row r="98" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH97" s="3">
+        <f t="shared" ref="AH97:AH110" si="19">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>20003089.070901226</v>
+      </c>
+    </row>
+    <row r="98" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y98">
         <v>3</v>
       </c>
@@ -4570,27 +4915,31 @@
         <v>2.7647300000000001</v>
       </c>
       <c r="AB98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.3E-4</v>
       </c>
       <c r="AC98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.3749999999999947E-2</v>
       </c>
       <c r="AD98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>21220894245.50246</v>
       </c>
       <c r="AE98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.7123367584376859E-11</v>
       </c>
       <c r="AF98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>23.778252110879681</v>
       </c>
-    </row>
-    <row r="99" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH98" s="3">
+        <f t="shared" si="19"/>
+        <v>19124766.462972172</v>
+      </c>
+    </row>
+    <row r="99" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y99">
         <v>4</v>
       </c>
@@ -4602,27 +4951,31 @@
         <v>2.7596799999999999</v>
       </c>
       <c r="AB99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="AC99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.8699999999999726E-2</v>
       </c>
       <c r="AD99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>15671196054.514793</v>
       </c>
       <c r="AE99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.3811338746662226E-11</v>
       </c>
       <c r="AF99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>23.475090218066804</v>
       </c>
-    </row>
-    <row r="100" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH99" s="3">
+        <f t="shared" si="19"/>
+        <v>16263134.740364349</v>
+      </c>
+    </row>
+    <row r="100" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y100">
         <v>5</v>
       </c>
@@ -4634,27 +4987,31 @@
         <v>2.7560899999999999</v>
       </c>
       <c r="AB100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.4000000000000002E-4</v>
       </c>
       <c r="AC100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.5109999999999744E-2</v>
       </c>
       <c r="AD100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>11841258988.990278</v>
       </c>
       <c r="AE100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.4450479541894681E-11</v>
       </c>
       <c r="AF100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>23.194855794278848</v>
       </c>
-    </row>
-    <row r="101" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH100" s="3">
+        <f t="shared" si="19"/>
+        <v>14228826.248451173</v>
+      </c>
+    </row>
+    <row r="101" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y101">
         <v>6</v>
       </c>
@@ -4666,27 +5023,31 @@
         <v>2.75359</v>
       </c>
       <c r="AB101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="AC101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.2609999999999797E-2</v>
       </c>
       <c r="AD101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>9198864675.9021854</v>
       </c>
       <c r="AE101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.0870906739389818E-10</v>
       </c>
       <c r="AF101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22.942345908593168</v>
       </c>
-    </row>
-    <row r="102" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH101" s="3">
+        <f t="shared" si="19"/>
+        <v>12812176.880823633</v>
+      </c>
+    </row>
+    <row r="102" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y102">
         <v>7</v>
       </c>
@@ -4698,27 +5059,31 @@
         <v>2.7495799999999999</v>
       </c>
       <c r="AB102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.2E-4</v>
       </c>
       <c r="AC102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.8599999999999728E-2</v>
       </c>
       <c r="AD102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6224795645.3473082</v>
       </c>
       <c r="AE102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6064784403765045E-10</v>
       </c>
       <c r="AF102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22.551806450701672</v>
       </c>
-    </row>
-    <row r="103" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH102" s="3">
+        <f t="shared" si="19"/>
+        <v>10539871.295148969</v>
+      </c>
+    </row>
+    <row r="103" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y103">
         <v>8</v>
       </c>
@@ -4730,27 +5095,31 @@
         <v>2.74593</v>
       </c>
       <c r="AB103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="AC103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.4949999999999797E-2</v>
       </c>
       <c r="AD103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4028601510.7334356</v>
       </c>
       <c r="AE103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.4822509680733918E-10</v>
       </c>
       <c r="AF103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22.11668513301062</v>
       </c>
-    </row>
-    <row r="104" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH103" s="3">
+        <f t="shared" si="19"/>
+        <v>8471563.2184127569</v>
+      </c>
+    </row>
+    <row r="104" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y104">
         <v>9</v>
       </c>
@@ -4762,27 +5131,31 @@
         <v>2.7421199999999999</v>
       </c>
       <c r="AB104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.7000000000000005E-4</v>
       </c>
       <c r="AC104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.1139999999999706E-2</v>
       </c>
       <c r="AD104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2382963006.5006251</v>
       </c>
       <c r="AE104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.1964562490984589E-10</v>
       </c>
       <c r="AF104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21.591610511023351</v>
       </c>
-    </row>
-    <row r="105" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH104" s="3">
+        <f t="shared" si="19"/>
+        <v>6312589.5821482884</v>
+      </c>
+    </row>
+    <row r="105" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y105">
         <v>10</v>
       </c>
@@ -4794,27 +5167,31 @@
         <v>2.7396400000000001</v>
       </c>
       <c r="AB105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.2199999999999999E-3</v>
       </c>
       <c r="AC105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8.65999999999989E-3</v>
       </c>
       <c r="AD105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1472861483.2980278</v>
       </c>
       <c r="AE105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.7895047249168498E-10</v>
       </c>
       <c r="AF105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21.110472932868699</v>
       </c>
-    </row>
-    <row r="106" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH105" s="3">
+        <f t="shared" si="19"/>
+        <v>4907273.4094618419</v>
+      </c>
+    </row>
+    <row r="106" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y106">
         <v>11</v>
       </c>
@@ -4826,27 +5203,31 @@
         <v>2.7378999999999998</v>
       </c>
       <c r="AB106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="AC106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.9199999999995931E-3</v>
       </c>
       <c r="AD106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>983460864.51601553</v>
       </c>
       <c r="AE106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.0168172787354622E-9</v>
       </c>
       <c r="AF106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20.706588402948807</v>
       </c>
-    </row>
-    <row r="107" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH106" s="3">
+        <f t="shared" si="19"/>
+        <v>3921285.4495928842</v>
+      </c>
+    </row>
+    <row r="107" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y107">
         <v>12</v>
       </c>
@@ -4858,27 +5239,31 @@
         <v>2.73672</v>
       </c>
       <c r="AB107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.7600000000000001E-3</v>
       </c>
       <c r="AC107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5.7399999999998563E-3</v>
       </c>
       <c r="AD107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>676710738.7176739</v>
       </c>
       <c r="AE107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4777362657122004E-9</v>
       </c>
       <c r="AF107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20.332754470320921</v>
       </c>
-    </row>
-    <row r="108" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH107" s="3">
+        <f t="shared" si="19"/>
+        <v>3252626.94807282</v>
+      </c>
+    </row>
+    <row r="108" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y108">
         <v>13</v>
       </c>
@@ -4890,27 +5275,31 @@
         <v>2.7351399999999999</v>
       </c>
       <c r="AB108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.0799999999999998E-3</v>
       </c>
       <c r="AC108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.1599999999997195E-3</v>
       </c>
       <c r="AD108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>414986376.3564654</v>
       </c>
       <c r="AE108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.4097176605648834E-9</v>
       </c>
       <c r="AF108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19.843756249599409</v>
       </c>
-    </row>
-    <row r="109" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH108" s="3">
+        <f t="shared" si="19"/>
+        <v>2357304.5477321181</v>
+      </c>
+    </row>
+    <row r="109" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y109">
         <v>14</v>
       </c>
@@ -4922,27 +5311,31 @@
         <v>2.73489</v>
       </c>
       <c r="AB109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="AC109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.909999999999858E-3</v>
       </c>
       <c r="AD109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>355832616.56882244</v>
       </c>
       <c r="AE109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.8103101105308248E-9</v>
       </c>
       <c r="AF109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19.689971000070422</v>
       </c>
-    </row>
-    <row r="110" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH109" s="3">
+        <f t="shared" si="19"/>
+        <v>2215639.6109694396</v>
+      </c>
+    </row>
+    <row r="110" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y110">
         <v>15</v>
       </c>
@@ -4954,27 +5347,31 @@
         <v>2.73448</v>
       </c>
       <c r="AB110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="AC110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.4999999999998366E-3</v>
       </c>
       <c r="AD110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>302594232.75992894</v>
       </c>
       <c r="AE110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.3047556487746286E-9</v>
       </c>
       <c r="AF110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19.527903300180952</v>
       </c>
-    </row>
-    <row r="113" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH110" s="3">
+        <f t="shared" si="19"/>
+        <v>1983309.114678506</v>
+      </c>
+    </row>
+    <row r="113" spans="21:34" x14ac:dyDescent="0.3">
       <c r="U113" t="s">
         <v>1</v>
       </c>
@@ -5008,8 +5405,11 @@
       <c r="AF113" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="21:34" x14ac:dyDescent="0.3">
       <c r="U114" s="1">
         <v>5</v>
       </c>
@@ -5033,27 +5433,31 @@
         <v>2.7519200000000001</v>
       </c>
       <c r="AB114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.3000000000000002E-5</v>
       </c>
       <c r="AC114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.0939999999999959E-2</v>
       </c>
       <c r="AD114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>101044357219.82504</v>
       </c>
       <c r="AE114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.8966436871330673E-12</v>
       </c>
       <c r="AF114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>25.338825437770495</v>
       </c>
-    </row>
-    <row r="115" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH114" s="3">
+        <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>11865855.103248507</v>
+      </c>
+    </row>
+    <row r="115" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y115">
         <v>2</v>
       </c>
@@ -5065,27 +5469,31 @@
         <v>2.7504200000000001</v>
       </c>
       <c r="AB115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="AC115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.9439999999999902E-2</v>
       </c>
       <c r="AD115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>80673351563.701904</v>
       </c>
       <c r="AE115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.2395666978213648E-11</v>
       </c>
       <c r="AF115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>25.113674141625811</v>
       </c>
-    </row>
-    <row r="116" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH115" s="3">
+        <f t="shared" ref="AH115:AH128" si="20">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <v>11015865.482671933</v>
+      </c>
+    </row>
+    <row r="116" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y116">
         <v>3</v>
       </c>
@@ -5097,27 +5505,31 @@
         <v>2.7496399999999999</v>
       </c>
       <c r="AB116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="AC116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.8659999999999677E-2</v>
       </c>
       <c r="AD116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>64530381523.433601</v>
       </c>
       <c r="AE116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5496576595271787E-11</v>
       </c>
       <c r="AF116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>24.890401981218748</v>
       </c>
-    </row>
-    <row r="117" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH116" s="3">
+        <f t="shared" si="20"/>
+        <v>10573870.879972002</v>
+      </c>
+    </row>
+    <row r="117" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y117">
         <v>4</v>
       </c>
@@ -5129,27 +5541,31 @@
         <v>2.7479499999999999</v>
       </c>
       <c r="AB117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.3999999999999996E-5</v>
       </c>
       <c r="AC117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.6969999999999708E-2</v>
       </c>
       <c r="AD117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>47583235180.875496</v>
       </c>
       <c r="AE117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.1015805171690319E-11</v>
       </c>
       <c r="AF117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>24.585746334063618</v>
       </c>
-    </row>
-    <row r="118" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH117" s="3">
+        <f t="shared" si="20"/>
+        <v>9616215.9074557815</v>
+      </c>
+    </row>
+    <row r="118" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y118">
         <v>5</v>
       </c>
@@ -5161,27 +5577,31 @@
         <v>2.7452899999999998</v>
       </c>
       <c r="AB118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.2E-5</v>
       </c>
       <c r="AC118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.4309999999999601E-2</v>
       </c>
       <c r="AD118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>32274212204.680729</v>
       </c>
       <c r="AE118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.0984489835354371E-11</v>
       </c>
       <c r="AF118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>24.19753436454096</v>
       </c>
-    </row>
-    <row r="119" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH118" s="3">
+        <f t="shared" si="20"/>
+        <v>8108900.9802999869</v>
+      </c>
+    </row>
+    <row r="119" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y119">
         <v>6</v>
       </c>
@@ -5193,27 +5613,31 @@
         <v>2.7431100000000002</v>
       </c>
       <c r="AB119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.15E-4</v>
       </c>
       <c r="AC119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.2129999999999974E-2</v>
       </c>
       <c r="AD119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>21886020631.322842</v>
       </c>
       <c r="AE119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.5691266441045917E-11</v>
       </c>
       <c r="AF119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>23.809113942614374</v>
       </c>
-    </row>
-    <row r="120" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH119" s="3">
+        <f t="shared" si="20"/>
+        <v>6873582.731728957</v>
+      </c>
+    </row>
+    <row r="120" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y120">
         <v>7</v>
       </c>
@@ -5225,27 +5649,31 @@
         <v>2.7412299999999998</v>
       </c>
       <c r="AB120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.44E-4</v>
       </c>
       <c r="AC120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.0249999999999648E-2</v>
       </c>
       <c r="AD120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>14769480408.520527</v>
       </c>
       <c r="AE120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.7707188901723257E-11</v>
       </c>
       <c r="AF120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>23.415828754030052</v>
       </c>
-    </row>
-    <row r="121" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH120" s="3">
+        <f t="shared" si="20"/>
+        <v>5808262.4072728399</v>
+      </c>
+    </row>
+    <row r="121" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y121">
         <v>8</v>
       </c>
@@ -5257,27 +5685,31 @@
         <v>2.7386599999999999</v>
       </c>
       <c r="AB121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="AC121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>7.6799999999996871E-3</v>
       </c>
       <c r="AD121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8387093080.0466805</v>
       </c>
       <c r="AE121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1923082174669681E-10</v>
       </c>
       <c r="AF121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22.849959823020722</v>
       </c>
-    </row>
-    <row r="122" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH121" s="3">
+        <f t="shared" si="20"/>
+        <v>4351946.8573517194</v>
+      </c>
+    </row>
+    <row r="122" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y122">
         <v>9</v>
       </c>
@@ -5289,27 +5721,31 @@
         <v>2.73672</v>
       </c>
       <c r="AB122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="AC122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5.7399999999998563E-3</v>
       </c>
       <c r="AD122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4802463307.0286531</v>
       </c>
       <c r="AE122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0822647380490098E-10</v>
       </c>
       <c r="AF122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22.292394812188135</v>
       </c>
-    </row>
-    <row r="123" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH122" s="3">
+        <f t="shared" si="20"/>
+        <v>3252626.94807282</v>
+      </c>
+    </row>
+    <row r="123" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y123">
         <v>10</v>
       </c>
@@ -5321,27 +5757,31 @@
         <v>2.7351100000000002</v>
       </c>
       <c r="AB123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.2400000000000001E-4</v>
       </c>
       <c r="AC123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.129999999999967E-3</v>
       </c>
       <c r="AD123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2644897738.198</v>
       </c>
       <c r="AE123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.7808645134284541E-10</v>
       </c>
       <c r="AF123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21.695898239202272</v>
       </c>
-    </row>
-    <row r="124" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH123" s="3">
+        <f t="shared" si="20"/>
+        <v>2340304.7553207269</v>
+      </c>
+    </row>
+    <row r="124" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y124">
         <v>11</v>
       </c>
@@ -5353,27 +5793,31 @@
         <v>2.7339000000000002</v>
       </c>
       <c r="AB124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.1599999999999997E-4</v>
       </c>
       <c r="AC124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.9200000000000337E-3</v>
       </c>
       <c r="AD124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1456442570.8665562</v>
       </c>
       <c r="AE124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.8660448410610428E-10</v>
       </c>
       <c r="AF124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21.099262704040608</v>
       </c>
-    </row>
-    <row r="125" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH124" s="3">
+        <f t="shared" si="20"/>
+        <v>1654646.461389021</v>
+      </c>
+    </row>
+    <row r="125" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y125">
         <v>12</v>
       </c>
@@ -5385,27 +5829,31 @@
         <v>2.73325</v>
       </c>
       <c r="AB125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AC125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.2699999999997722E-3</v>
       </c>
       <c r="AD125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>942019074.32914531</v>
       </c>
       <c r="AE125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.0615496302048295E-9</v>
       </c>
       <c r="AF125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20.663536081092687</v>
       </c>
-    </row>
-    <row r="126" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH125" s="3">
+        <f t="shared" si="20"/>
+        <v>1286317.6258057051</v>
+      </c>
+    </row>
+    <row r="126" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y126">
         <v>13</v>
       </c>
@@ -5417,27 +5865,31 @@
         <v>2.7326800000000002</v>
       </c>
       <c r="AB126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AC126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.7000000000000348E-3</v>
       </c>
       <c r="AD126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>587897366.50504434</v>
       </c>
       <c r="AE126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.7009771721632974E-9</v>
       </c>
       <c r="AF126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20.192062943867715</v>
       </c>
-    </row>
-    <row r="127" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH126" s="3">
+        <f t="shared" si="20"/>
+        <v>963321.5699867676</v>
+      </c>
+    </row>
+    <row r="127" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y127">
         <v>14</v>
       </c>
@@ -5449,27 +5901,31 @@
         <v>2.7322799999999998</v>
       </c>
       <c r="AB127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="AC127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.2999999999996348E-3</v>
       </c>
       <c r="AD127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>385344492.33092141</v>
       </c>
       <c r="AE127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.5950805575319661E-9</v>
       </c>
       <c r="AF127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19.769648277445476</v>
       </c>
-    </row>
-    <row r="128" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="AH127" s="3">
+        <f t="shared" si="20"/>
+        <v>736657.67116612964</v>
+      </c>
+    </row>
+    <row r="128" spans="21:34" x14ac:dyDescent="0.3">
       <c r="Y128">
         <v>15</v>
       </c>
@@ -5481,24 +5937,28 @@
         <v>2.7319900000000001</v>
       </c>
       <c r="AB128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="AC128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.0099999999999554E-3</v>
       </c>
       <c r="AD128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>261960150.07502484</v>
       </c>
       <c r="AE128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.8173745117858652E-9</v>
       </c>
       <c r="AF128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19.383702951206867</v>
+      </c>
+      <c r="AH128" s="3">
+        <f t="shared" si="20"/>
+        <v>572326.34452151321</v>
       </c>
     </row>
   </sheetData>
@@ -5508,24 +5968,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
+++ b/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
   <si>
     <t>RozpadPlazmatu</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>n (t) - f=1/t</t>
+  </si>
+  <si>
+    <t>n (t) f = f0</t>
+  </si>
+  <si>
+    <t>n (t) - f = f'</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH128"/>
+  <dimension ref="A1:AI128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ39" sqref="AJ39"/>
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,17 +466,19 @@
     <col min="27" max="27" width="18.33203125" customWidth="1"/>
     <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -475,7 +486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -510,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="AD4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s">
         <v>10</v>
@@ -519,10 +530,13 @@
         <v>12</v>
       </c>
       <c r="AH4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -575,8 +589,12 @@
         <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>23391714.358266436</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI5" s="3">
+        <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA5 /$U$13^2</f>
+        <v>23745290.718660593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -617,8 +635,12 @@
         <f t="shared" ref="AH6:AH19" si="4">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>22870387.390979342</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI6" s="3">
+        <f t="shared" ref="AI6:AI19" si="5">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA6 /$U$13^2</f>
+        <v>23208379.187001254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -683,7 +705,7 @@
         <v>3.8059999999999761E-2</v>
       </c>
       <c r="AD7">
-        <f t="shared" ref="AD7:AD18" si="5">(0.271*0.04^2*AC7*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z7/1000000))</f>
+        <f t="shared" ref="AD7:AD18" si="6">(0.271*0.04^2*AC7*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z7/1000000))</f>
         <v>75211340400.609711</v>
       </c>
       <c r="AE7">
@@ -698,8 +720,12 @@
         <f t="shared" si="4"/>
         <v>21567069.972761996</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI7" s="3">
+        <f t="shared" si="5"/>
+        <v>21867637.052404951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -788,7 +814,7 @@
         <v>3.5320000000000018E-2</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61072161720.463974</v>
       </c>
       <c r="AE8">
@@ -803,8 +829,12 @@
         <f t="shared" si="4"/>
         <v>20014422.265842322</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI8" s="3">
+        <f t="shared" si="5"/>
+        <v>20273270.516078338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -880,7 +910,7 @@
         <v>3.2429999999999737E-2</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48064314947.289185</v>
       </c>
       <c r="AE9">
@@ -895,8 +925,12 @@
         <f t="shared" si="4"/>
         <v>18376775.596864697</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI9" s="3">
+        <f t="shared" si="5"/>
+        <v>18594997.199588377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="U10" t="s">
         <v>15</v>
       </c>
@@ -925,7 +959,7 @@
         <v>2.8479999999999617E-2</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34761211760.684616</v>
       </c>
       <c r="AE10">
@@ -940,8 +974,12 @@
         <f t="shared" si="4"/>
         <v>16138469.596013067</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI10" s="3">
+        <f t="shared" si="5"/>
+        <v>16306769.478873594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -977,7 +1015,7 @@
         <v>2.3939999999999628E-2</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23654223452.319756</v>
       </c>
       <c r="AE11">
@@ -992,8 +1030,12 @@
         <f t="shared" si="4"/>
         <v>13565834.344401404</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI11" s="3">
+        <f t="shared" si="5"/>
+        <v>13684753.587385593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1064,7 @@
         <v>1.9649999999999945E-2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15681696721.932833</v>
       </c>
       <c r="AE12">
@@ -1037,8 +1079,12 @@
         <f t="shared" si="4"/>
         <v>11134864.029552674</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI12" s="3">
+        <f t="shared" si="5"/>
+        <v>11214981.818105029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1113,7 @@
         <v>1.5479999999999716E-2</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10037482978.122498</v>
       </c>
       <c r="AE13">
@@ -1082,8 +1128,12 @@
         <f t="shared" si="4"/>
         <v>8771892.8843497559</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI13" s="3">
+        <f t="shared" si="5"/>
+        <v>8821614.560030181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1159,7 @@
         <v>1.1529999999999596E-2</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6103052193.0997467</v>
       </c>
       <c r="AE14">
@@ -1124,8 +1174,12 @@
         <f t="shared" si="4"/>
         <v>6533586.8834981276</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI14" s="3">
+        <f t="shared" si="5"/>
+        <v>6561171.2146784114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1190,7 +1244,7 @@
         <v>8.6299999999996935E-3</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3793784351.6487403</v>
       </c>
       <c r="AE15">
@@ -1205,8 +1259,12 @@
         <f t="shared" si="4"/>
         <v>4890273.6170502007</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI15" s="3">
+        <f t="shared" si="5"/>
+        <v>4905727.0664768312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1347,7 @@
         <v>6.1599999999999433E-3</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2282425069.9606929</v>
       </c>
       <c r="AE16">
@@ -1304,8 +1362,12 @@
         <f t="shared" si="4"/>
         <v>3490624.0418343013</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI16" s="3">
+        <f t="shared" si="5"/>
+        <v>3498497.4953556373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1435,7 @@
         <v>4.269999999999996E-3</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1342418050.7895644</v>
       </c>
       <c r="AE17">
@@ -1388,8 +1450,12 @@
         <f t="shared" si="4"/>
         <v>2419637.1199078881</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI17" s="3">
+        <f t="shared" si="5"/>
+        <v>2423420.322458623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y18">
         <v>14</v>
       </c>
@@ -1409,7 +1475,7 @@
         <v>2.9499999999997861E-3</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>794941435.22828996</v>
       </c>
       <c r="AE18">
@@ -1424,8 +1490,12 @@
         <f t="shared" si="4"/>
         <v>1671646.2538004122</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI18" s="3">
+        <f t="shared" si="5"/>
+        <v>1673451.9632705331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y19">
         <v>15</v>
       </c>
@@ -1437,15 +1507,15 @@
         <v>2.7332399999999999</v>
       </c>
       <c r="AB19">
-        <f t="shared" ref="AB19:AB82" si="6">Z19/1000000</f>
+        <f t="shared" ref="AB19:AB82" si="7">Z19/1000000</f>
         <v>8.8999999999999995E-4</v>
       </c>
       <c r="AC19">
-        <f t="shared" ref="AC19:AC82" si="7">AA19-$X$5</f>
+        <f t="shared" ref="AC19:AC82" si="8">AA19-$X$5</f>
         <v>2.2599999999997067E-3</v>
       </c>
       <c r="AD19">
-        <f t="shared" ref="AD19:AD82" si="8">(0.271*0.04^2*AC19*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z19/1000000))</f>
+        <f t="shared" ref="AD19:AD82" si="9">(0.271*0.04^2*AC19*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z19/1000000))</f>
         <v>526892814.92446816</v>
       </c>
       <c r="AE19">
@@ -1453,15 +1523,19 @@
         <v>1.8979192193830794E-9</v>
       </c>
       <c r="AF19">
-        <f t="shared" ref="AF19:AF82" si="9">LN(AD19)</f>
+        <f t="shared" ref="AF19:AF82" si="10">LN(AD19)</f>
         <v>20.082507698579548</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="4"/>
         <v>1280651.0283351575</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI19" s="3">
+        <f t="shared" si="5"/>
+        <v>1281710.8205430964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1469,7 +1543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1521,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1551,15 +1625,15 @@
         <v>2.77251</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1529999999999845E-2</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>538574506565.15948</v>
       </c>
       <c r="AE23">
@@ -1567,15 +1641,19 @@
         <v>1.8567533141842371E-12</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.012191683424547</v>
       </c>
       <c r="AH23" s="3">
         <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>23533379.295029119</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI23" s="3">
+        <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA23 /$U$13^2</f>
+        <v>23891251.283151533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1635,15 +1713,15 @@
         <v>2.7698299999999998</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8849999999999607E-2</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>403055518036.24011</v>
       </c>
       <c r="AE24">
@@ -1651,15 +1729,19 @@
         <v>2.4810477843652461E-12</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.722340151281326</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" ref="AH24:AH37" si="10">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <f t="shared" ref="AH24:AH37" si="11">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>22014731.172932219</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI24" s="3">
+        <f t="shared" ref="AI24:AI37" si="12">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA24 /$U$13^2</f>
+        <v>22327905.310446374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1738,15 +1820,15 @@
         <v>2.7686199999999999</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7639999999999674E-2</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>260334786767.63788</v>
       </c>
       <c r="AE25">
@@ -1754,15 +1836,19 @@
         <v>3.8412077479778034E-12</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.285234281076683</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21329072.879000518</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI25" s="3">
+        <f t="shared" si="12"/>
+        <v>21623042.920218531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1825,15 +1911,15 @@
         <v>2.7656499999999999</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4669999999999757E-2</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>159861974091.99472</v>
       </c>
       <c r="AE26">
@@ -1841,15 +1927,19 @@
         <v>6.2553962922072797E-12</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.797576617948273</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19646093.430259012</v>
       </c>
-    </row>
-    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI26" s="3">
+        <f t="shared" si="12"/>
+        <v>19895502.089138635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y27">
         <v>5</v>
       </c>
@@ -1861,15 +1951,15 @@
         <v>2.7625600000000001</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1579999999999941E-2</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100809767425.67722</v>
       </c>
       <c r="AE27">
@@ -1877,15 +1967,19 @@
         <v>9.9196737135343328E-12</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.336501086953525</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17895114.811871435</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI27" s="3">
+        <f t="shared" si="12"/>
+        <v>18102047.021466125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y28">
         <v>6</v>
       </c>
@@ -1897,15 +1991,15 @@
         <v>2.7574800000000002</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6499999999999968E-2</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57879678807.616104</v>
       </c>
       <c r="AE28">
@@ -1913,15 +2007,19 @@
         <v>1.7277220962539532E-11</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.781632189413305</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15016483.296852231</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI28" s="3">
+        <f t="shared" si="12"/>
+        <v>15162195.388250407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1939,15 +2037,15 @@
         <v>2.75237</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.34E-4</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1389999999999798E-2</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33121487277.10936</v>
       </c>
       <c r="AE29">
@@ -1955,15 +2053,19 @@
         <v>3.0191880927131903E-11</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.223448071165063</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12120851.989421375</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI29" s="3">
+        <f t="shared" si="12"/>
+        <v>12215786.783544263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1981,15 +2083,15 @@
         <v>2.7461700000000002</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.84E-4</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5190000000000037E-2</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17129464828.410736</v>
       </c>
       <c r="AE30">
@@ -1997,15 +2099,19 @@
         <v>5.8378940032114219E-11</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.564065907020368</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8607561.5577051379</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI30" s="3">
+        <f t="shared" si="12"/>
+        <v>8655437.7267219536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2023,15 +2129,15 @@
         <v>2.7423600000000001</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4399999999999999E-4</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1379999999999946E-2</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9677346235.5263767</v>
       </c>
       <c r="AE31">
@@ -2039,15 +2145,19 @@
         <v>1.0333411409100083E-10</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.993053551426648</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6448587.9214406693</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI31" s="3">
+        <f t="shared" si="12"/>
+        <v>6475459.2022797801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2065,15 +2175,15 @@
         <v>2.73874</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1599999999999998E-4</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.7599999999997671E-3</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5095402342.6048899</v>
       </c>
       <c r="AE32">
@@ -2081,15 +2191,19 @@
         <v>1.9625535586043171E-10</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.351604468629855</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4397279.6371158464</v>
       </c>
-    </row>
-    <row r="33" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI32" s="3">
+        <f t="shared" si="12"/>
+        <v>4409774.3789242879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
@@ -2146,15 +2260,15 @@
         <v>2.7366700000000002</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9599999999999998E-4</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.6899999999999729E-3</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2981404648.3187323</v>
       </c>
       <c r="AE33">
@@ -2162,15 +2276,19 @@
         <v>3.3541237032816663E-10</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.815660384905424</v>
       </c>
       <c r="AH33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3224293.9607203347</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI33" s="3">
+        <f t="shared" si="12"/>
+        <v>3231011.7809301126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2245,15 +2363,15 @@
         <v>2.7353499999999999</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.84E-4</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.369999999999763E-3</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1873440562.6836548</v>
       </c>
       <c r="AE34">
@@ -2261,15 +2379,19 @@
         <v>5.3377727584136754E-10</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.351042450412482</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2476303.0946128592</v>
       </c>
-    </row>
-    <row r="35" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI34" s="3">
+        <f t="shared" si="12"/>
+        <v>2480265.5712781795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2329,15 +2451,15 @@
         <v>2.7343500000000001</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.8E-4</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3699999999998731E-3</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1205606972.6908014</v>
       </c>
       <c r="AE35">
@@ -2345,15 +2467,19 @@
         <v>8.2945771105495026E-10</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.910248988845435</v>
       </c>
       <c r="AH35" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1909643.3475618931</v>
       </c>
-    </row>
-    <row r="36" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI35" s="3">
+        <f t="shared" si="12"/>
+        <v>1911999.8269507145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y36">
         <v>14</v>
       </c>
@@ -2365,15 +2491,15 @@
         <v>2.7335799999999999</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5999999999997137E-3</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>781858390.23678553</v>
       </c>
       <c r="AE36">
@@ -2381,15 +2507,19 @@
         <v>1.2790039890691079E-9</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.477184195457692</v>
       </c>
       <c r="AH36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1473315.342332511</v>
       </c>
-    </row>
-    <row r="37" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI36" s="3">
+        <f t="shared" si="12"/>
+        <v>1474717.9962845957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y37">
         <v>15</v>
       </c>
@@ -2401,15 +2531,15 @@
         <v>2.7329400000000001</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0999999999999996E-4</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9599999999999618E-3</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>502082282.50537735</v>
       </c>
       <c r="AE37">
@@ -2417,15 +2547,19 @@
         <v>1.9917054133239405E-9</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.034274573597592</v>
       </c>
       <c r="AH37" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1110653.1042199936</v>
       </c>
-    </row>
-    <row r="38" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI37" s="3">
+        <f t="shared" si="12"/>
+        <v>1111450.2100516991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2433,7 +2567,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2441,7 +2575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2515,15 +2649,15 @@
         <v>2.7619600000000002</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0980000000000008E-2</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292188134989.18567</v>
       </c>
       <c r="AE41">
@@ -2531,15 +2665,19 @@
         <v>3.4224524552888212E-12</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.400663729652077</v>
       </c>
       <c r="AH41" s="3">
         <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>17555118.963640861</v>
       </c>
-    </row>
-    <row r="42" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI41" s="3">
+        <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA41 /$U$13^2</f>
+        <v>17754262.708924089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1</v>
       </c>
@@ -2596,15 +2734,15 @@
         <v>2.7546900000000001</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3709999999999898E-2</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>182209758952.08176</v>
       </c>
       <c r="AE42">
@@ -2612,15 +2750,19 @@
         <v>5.4881802475957615E-12</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.928424382094651</v>
       </c>
       <c r="AH42" s="3">
-        <f t="shared" ref="AH42:AH55" si="11">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <f t="shared" ref="AH42:AH55" si="13">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>13435502.602579821</v>
       </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI42" s="3">
+        <f t="shared" ref="AI42:AI55" si="14">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA42 /$U$13^2</f>
+        <v>13552147.823968176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2695,15 +2837,15 @@
         <v>2.7551899999999998</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4209999999999621E-2</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>135767840156.62904</v>
       </c>
       <c r="AE43">
@@ -2711,15 +2853,19 @@
         <v>7.3655145345639034E-12</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.634212206327398</v>
       </c>
       <c r="AH43" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13718832.476105176</v>
       </c>
-    </row>
-    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI43" s="3">
+        <f t="shared" si="14"/>
+        <v>13840449.234282278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2779,15 +2925,15 @@
         <v>2.7525200000000001</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1999999999999997E-5</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1539999999999893E-2</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>85950062949.219452</v>
       </c>
       <c r="AE44">
@@ -2795,15 +2941,19 @@
         <v>1.1634662799384039E-11</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.177032301168481</v>
       </c>
       <c r="AH44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12205850.951479087</v>
       </c>
-    </row>
-    <row r="45" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI44" s="3">
+        <f t="shared" si="14"/>
+        <v>12302121.897987247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y45">
         <v>5</v>
       </c>
@@ -2815,15 +2965,15 @@
         <v>2.7490000000000001</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2000000000000002E-5</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8019999999999925E-2</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>51930934041.277634</v>
       </c>
       <c r="AE45">
@@ -2831,15 +2981,19 @@
         <v>1.9256345345245351E-11</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.673180481185803</v>
       </c>
       <c r="AH45" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10211208.641859485</v>
       </c>
-    </row>
-    <row r="46" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI45" s="3">
+        <f t="shared" si="14"/>
+        <v>10278585.912922001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y46">
         <v>6</v>
       </c>
@@ -2851,15 +3005,15 @@
         <v>2.7454900000000002</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.02E-4</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4510000000000023E-2</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29516923141.827091</v>
       </c>
       <c r="AE46">
@@ -2867,15 +3021,19 @@
         <v>3.3878869934886453E-11</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.108229601633496</v>
       </c>
       <c r="AH46" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8222232.929710432</v>
       </c>
-    </row>
-    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI46" s="3">
+        <f t="shared" si="14"/>
+        <v>8265918.5662987996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2896,15 +3054,15 @@
         <v>2.7423299999999999</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4200000000000001E-4</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1349999999999749E-2</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16584842857.908787</v>
       </c>
       <c r="AE47">
@@ -2912,15 +3070,19 @@
         <v>6.0296018995629588E-11</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.5317550343478</v>
       </c>
       <c r="AH47" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6431588.12902903</v>
       </c>
-    </row>
-    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI47" s="3">
+        <f t="shared" si="14"/>
+        <v>6458317.9202631209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2938,15 +3100,15 @@
         <v>2.7395700000000001</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.92E-4</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5899999999998755E-3</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9283158783.5995483</v>
       </c>
       <c r="AE48">
@@ -2954,15 +3116,19 @@
         <v>1.0772195362710899E-10</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.951467711990038</v>
       </c>
       <c r="AH48" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4867607.227168262</v>
       </c>
-    </row>
-    <row r="49" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI48" s="3">
+        <f t="shared" si="14"/>
+        <v>4882917.755286877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2980,15 +3146,15 @@
         <v>2.7378200000000001</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.52E-4</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.8399999999999572E-3</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5631957964.838089</v>
       </c>
       <c r="AE49">
@@ -2996,15 +3162,19 @@
         <v>1.7755814341003317E-10</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.451722992144699</v>
       </c>
       <c r="AH49" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3875952.6698290082</v>
       </c>
-    </row>
-    <row r="50" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI49" s="3">
+        <f t="shared" si="14"/>
+        <v>3885660.3631338403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -3022,15 +3192,15 @@
         <v>2.7361800000000001</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2400000000000001E-4</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.1999999999998714E-3</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3330137588.0458527</v>
       </c>
       <c r="AE50">
@@ -3038,15 +3208,19 @@
         <v>3.0028789308576493E-10</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.926279457816698</v>
       </c>
       <c r="AH50" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2946630.6846652734</v>
       </c>
-    </row>
-    <row r="51" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI50" s="3">
+        <f t="shared" si="14"/>
+        <v>2952241.3004736132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
@@ -3103,15 +3277,15 @@
         <v>2.7351999999999999</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0400000000000001E-4</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2199999999996685E-3</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2167379341.8617129</v>
       </c>
       <c r="AE51">
@@ -3119,15 +3293,19 @@
         <v>4.6138669898967961E-10</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.496784598108359</v>
       </c>
       <c r="AH51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2391304.1325551514</v>
       </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI51" s="3">
+        <f t="shared" si="14"/>
+        <v>2394999.2542475043</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -3202,15 +3380,15 @@
         <v>2.7343000000000002</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8999999999999998E-4</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3199999999999896E-3</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1405872213.7791362</v>
       </c>
       <c r="AE52">
@@ -3218,15 +3396,19 @@
         <v>7.1130220101007055E-10</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.063923739845389</v>
       </c>
       <c r="AH52" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1881310.3602094075</v>
       </c>
-    </row>
-    <row r="53" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI52" s="3">
+        <f t="shared" si="14"/>
+        <v>1883597.4331267835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3286,15 +3468,15 @@
         <v>2.7336200000000002</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6399999999999757E-3</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>928444096.25519705</v>
       </c>
       <c r="AE53">
@@ -3302,15 +3484,19 @@
         <v>1.0770707725251502E-9</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.649020728280121</v>
       </c>
       <c r="AH53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1495981.7322147004</v>
       </c>
-    </row>
-    <row r="54" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI53" s="3">
+        <f t="shared" si="14"/>
+        <v>1497427.8767390274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y54">
         <v>14</v>
       </c>
@@ -3322,15 +3508,15 @@
         <v>2.7330399999999999</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0599999999997287E-3</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>610622810.92447412</v>
       </c>
       <c r="AE54">
@@ -3338,15 +3524,19 @@
         <v>1.6376721965005114E-9</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.229989995779622</v>
       </c>
       <c r="AH54" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1167319.0789249642</v>
       </c>
-    </row>
-    <row r="55" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI54" s="3">
+        <f t="shared" si="14"/>
+        <v>1168199.5970183173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y55">
         <v>15</v>
       </c>
@@ -3358,15 +3548,15 @@
         <v>2.7325699999999999</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1999999999999998E-4</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5899999999997583E-3</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>402334352.68702698</v>
       </c>
       <c r="AE55">
@@ -3374,15 +3564,19 @@
         <v>2.4854949454885174E-9</v>
       </c>
       <c r="AF55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.812794023995359</v>
       </c>
       <c r="AH55" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>900988.99781099788</v>
       </c>
-    </row>
-    <row r="56" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI55" s="3">
+        <f t="shared" si="14"/>
+        <v>901513.5613400311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -3400,15 +3594,15 @@
         <v>2.7322000000000002</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5E-4</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2199999999999989E-3</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>266464936.3973271</v>
       </c>
       <c r="AE56">
@@ -3416,11 +3610,11 @@
         <v>3.7528389795680108E-9</v>
       </c>
       <c r="AF56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.400753222172249</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3428,7 +3622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3436,7 +3630,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3480,7 +3674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1</v>
       </c>
@@ -3549,15 +3743,15 @@
         <v>2.7751399999999999</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.16E-4</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4159999999999755E-2</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>78990510258.20105</v>
       </c>
       <c r="AE60">
@@ -3565,15 +3759,19 @@
         <v>1.265974857905386E-11</v>
       </c>
       <c r="AF60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.09259355888414</v>
       </c>
       <c r="AH60" s="3">
         <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>25023694.429773264</v>
       </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI60" s="3">
+        <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA60 /$U$13^2</f>
+        <v>25428328.058001511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -3648,15 +3846,15 @@
         <v>2.77413</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.22E-4</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.31499999999998E-2</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73387959589.27298</v>
       </c>
       <c r="AE61">
@@ -3664,15 +3862,19 @@
         <v>1.3626213422428612E-11</v>
       </c>
       <c r="AF61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.019025720817844</v>
       </c>
       <c r="AH61" s="3">
-        <f t="shared" ref="AH61:AH74" si="12">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <f t="shared" ref="AH61:AH74" si="15">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>24451368.085251752</v>
       </c>
-    </row>
-    <row r="62" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI61" s="3">
+        <f t="shared" ref="AI61:AI74" si="16">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA61 /$U$13^2</f>
+        <v>24837704.320917558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -3732,15 +3934,15 @@
         <v>2.7735099999999999</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2529999999999735E-2</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66853676463.793755</v>
       </c>
       <c r="AE62">
@@ -3748,15 +3950,19 @@
         <v>1.495804049821515E-11</v>
       </c>
       <c r="AF62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.925772134700836</v>
       </c>
       <c r="AH62" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24100039.042080078</v>
       </c>
-    </row>
-    <row r="63" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI62" s="3">
+        <f t="shared" si="16"/>
+        <v>24475352.907600753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y63">
         <v>4</v>
       </c>
@@ -3768,15 +3974,15 @@
         <v>2.7711100000000002</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4799999999999999E-4</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0129999999999999E-2</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56261497578.331345</v>
       </c>
       <c r="AE63">
@@ -3784,15 +3990,19 @@
         <v>1.7774144717845936E-11</v>
       </c>
       <c r="AF63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.753276258536378</v>
       </c>
       <c r="AH63" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22740055.649157763</v>
       </c>
-    </row>
-    <row r="64" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI63" s="3">
+        <f t="shared" si="16"/>
+        <v>23074206.186034892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y64">
         <v>5</v>
       </c>
@@ -3804,15 +4014,15 @@
         <v>2.7686700000000002</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6799999999999999E-4</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7690000000000001E-2</v>
       </c>
       <c r="AD64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46550108704.9888</v>
       </c>
       <c r="AE64">
@@ -3820,15 +4030,19 @@
         <v>2.1482226955419107E-11</v>
       </c>
       <c r="AF64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.563795175897454</v>
       </c>
       <c r="AH64" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>21357405.866353251</v>
       </c>
-    </row>
-    <row r="65" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI64" s="3">
+        <f t="shared" si="16"/>
+        <v>21652157.430664543</v>
+      </c>
+    </row>
+    <row r="65" spans="21:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y65">
         <v>6</v>
       </c>
@@ -3840,15 +4054,15 @@
         <v>2.7652600000000001</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9799999999999999E-4</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4279999999999866E-2</v>
       </c>
       <c r="AD65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35923568135.102371</v>
       </c>
       <c r="AE65">
@@ -3856,15 +4070,19 @@
         <v>2.7836878459265842E-11</v>
       </c>
       <c r="AF65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.304659411056708</v>
       </c>
       <c r="AH65" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>19425096.128909171</v>
       </c>
-    </row>
-    <row r="66" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI65" s="3">
+        <f t="shared" si="16"/>
+        <v>19668925.19221209</v>
+      </c>
+    </row>
+    <row r="66" spans="21:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y66">
         <v>7</v>
       </c>
@@ -3876,15 +4094,15 @@
         <v>2.7614000000000001</v>
       </c>
       <c r="AB66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="AC66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0419999999999892E-2</v>
       </c>
       <c r="AD66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26299761601.592667</v>
       </c>
       <c r="AE66">
@@ -3892,15 +4110,19 @@
         <v>3.8023158352106193E-11</v>
       </c>
       <c r="AF66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.992825711510822</v>
       </c>
       <c r="AH66" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>17237789.505292218</v>
       </c>
-    </row>
-    <row r="67" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI66" s="3">
+        <f t="shared" si="16"/>
+        <v>17429798.804793123</v>
+      </c>
+    </row>
+    <row r="67" spans="21:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y67">
         <v>8</v>
       </c>
@@ -3912,15 +4134,15 @@
         <v>2.7567900000000001</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.92E-4</v>
       </c>
       <c r="AC67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5809999999999889E-2</v>
       </c>
       <c r="AD67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18340408174.248367</v>
       </c>
       <c r="AE67">
@@ -3928,15 +4150,19 @@
         <v>5.4524413551716516E-11</v>
       </c>
       <c r="AF67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.632372559483905</v>
       </c>
       <c r="AH67" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14625488.071386974</v>
       </c>
-    </row>
-    <row r="68" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI67" s="3">
+        <f t="shared" si="16"/>
+        <v>14763710.924400359</v>
+      </c>
+    </row>
+    <row r="68" spans="21:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y68">
         <v>9</v>
       </c>
@@ -3948,15 +4174,15 @@
         <v>2.7533300000000001</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5199999999999999E-4</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.234999999999987E-2</v>
       </c>
       <c r="AD68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13174638510.749393</v>
       </c>
       <c r="AE68">
@@ -3964,15 +4190,19 @@
         <v>7.590341087416435E-11</v>
       </c>
       <c r="AF68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.301559493483143</v>
       </c>
       <c r="AH68" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12664845.346590409</v>
       </c>
-    </row>
-    <row r="69" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI68" s="3">
+        <f t="shared" si="16"/>
+        <v>12768492.862682175</v>
+      </c>
+    </row>
+    <row r="69" spans="21:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y69">
         <v>10</v>
       </c>
@@ -3984,15 +4214,15 @@
         <v>2.7495500000000002</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2400000000000001E-4</v>
       </c>
       <c r="AC69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8569999999999975E-2</v>
       </c>
       <c r="AD69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9087614397.3349895</v>
       </c>
       <c r="AE69">
@@ -4000,15 +4230,19 @@
         <v>1.1003988024549737E-10</v>
       </c>
       <c r="AF69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.930178268154325</v>
       </c>
       <c r="AH69" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10522871.502737582</v>
       </c>
-    </row>
-    <row r="70" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI69" s="3">
+        <f t="shared" si="16"/>
+        <v>10594424.470465589</v>
+      </c>
+    </row>
+    <row r="70" spans="21:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y70">
         <v>11</v>
       </c>
@@ -4020,31 +4254,35 @@
         <v>2.7464900000000001</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AC70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5509999999999913E-2</v>
       </c>
       <c r="AD70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6436438697.289176</v>
       </c>
       <c r="AE70">
-        <f t="shared" ref="AE70:AE128" si="13">1/AD70</f>
+        <f t="shared" ref="AE70:AE128" si="17">1/AD70</f>
         <v>1.5536541976561795E-10</v>
       </c>
       <c r="AF70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.585241226787918</v>
       </c>
       <c r="AH70" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8788892.6767614</v>
       </c>
-    </row>
-    <row r="71" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI70" s="3">
+        <f t="shared" si="16"/>
+        <v>8838807.2588588763</v>
+      </c>
+    </row>
+    <row r="71" spans="21:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y71">
         <v>12</v>
       </c>
@@ -4056,31 +4294,35 @@
         <v>2.74316</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="AC71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2179999999999858E-2</v>
       </c>
       <c r="AD71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4283503444.0864658</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.3345376350298882E-10</v>
       </c>
       <c r="AF71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.178037073403644</v>
       </c>
       <c r="AH71" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6901915.7190814419</v>
       </c>
-    </row>
-    <row r="72" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI71" s="3">
+        <f t="shared" si="16"/>
+        <v>6932697.8315313356</v>
+      </c>
+    </row>
+    <row r="72" spans="21:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y72">
         <v>13</v>
       </c>
@@ -4092,31 +4334,35 @@
         <v>2.7406700000000002</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="AC72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6899999999999764E-3</v>
       </c>
       <c r="AD72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2913926077.4597187</v>
       </c>
       <c r="AE72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.4317960491014678E-10</v>
       </c>
       <c r="AF72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.792767176333037</v>
       </c>
       <c r="AH72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5490932.9489244483</v>
       </c>
-    </row>
-    <row r="73" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI72" s="3">
+        <f t="shared" si="16"/>
+        <v>5510415.7500709528</v>
+      </c>
+    </row>
+    <row r="73" spans="21:35" ht="15" x14ac:dyDescent="0.25">
       <c r="Y73">
         <v>14</v>
       </c>
@@ -4128,31 +4374,35 @@
         <v>2.7385700000000002</v>
       </c>
       <c r="AB73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="AC73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.5899999999999856E-3</v>
       </c>
       <c r="AD73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1968591622.8411114</v>
       </c>
       <c r="AE73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.079773724510621E-10</v>
       </c>
       <c r="AF73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.400584211761277</v>
       </c>
       <c r="AH73" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4300947.4801172959</v>
       </c>
-    </row>
-    <row r="74" spans="21:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="AI73" s="3">
+        <f t="shared" si="16"/>
+        <v>4312900.7684511878</v>
+      </c>
+    </row>
+    <row r="74" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y74">
         <v>15</v>
       </c>
@@ -4164,31 +4414,35 @@
         <v>2.7365400000000002</v>
       </c>
       <c r="AB74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="AC74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5600000000000094E-3</v>
       </c>
       <c r="AD74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1253980572.0337536</v>
       </c>
       <c r="AE74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9746052076242436E-10</v>
       </c>
       <c r="AF74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.949588786241076</v>
       </c>
       <c r="AH74" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3150628.1936037214</v>
       </c>
-    </row>
-    <row r="77" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI74" s="3">
+        <f t="shared" si="16"/>
+        <v>3157042.5550257885</v>
+      </c>
+    </row>
+    <row r="77" spans="21:35" x14ac:dyDescent="0.3">
       <c r="U77" t="s">
         <v>1</v>
       </c>
@@ -4226,7 +4480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="21:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="21:35" x14ac:dyDescent="0.3">
       <c r="U78" s="1">
         <v>200</v>
       </c>
@@ -4250,31 +4504,35 @@
         <v>2.7715999999999998</v>
       </c>
       <c r="AB78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="AC78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0619999999999656E-2</v>
       </c>
       <c r="AD78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42141866519.001541</v>
       </c>
       <c r="AE78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.3729371349726651E-11</v>
       </c>
       <c r="AF78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.464307537625864</v>
       </c>
       <c r="AH78" s="3">
         <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>23017718.925212566</v>
       </c>
-    </row>
-    <row r="79" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI78" s="3">
+        <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA78 /$U$13^2</f>
+        <v>23360079.448812932</v>
+      </c>
+    </row>
+    <row r="79" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y79">
         <v>2</v>
       </c>
@@ -4286,31 +4544,35 @@
         <v>2.7696999999999998</v>
       </c>
       <c r="AB79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.12E-4</v>
       </c>
       <c r="AC79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8719999999999644E-2</v>
       </c>
       <c r="AD79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37896869086.139793</v>
       </c>
       <c r="AE79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.638740413428335E-11</v>
       </c>
       <c r="AF79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.358134335758024</v>
       </c>
       <c r="AH79" s="3">
-        <f t="shared" ref="AH79:AH92" si="14">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <f t="shared" ref="AH79:AH92" si="18">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>21941065.405815609</v>
       </c>
-    </row>
-    <row r="80" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI79" s="3">
+        <f t="shared" ref="AI79:AI92" si="19">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA79 /$U$13^2</f>
+        <v>22252147.161270857</v>
+      </c>
+    </row>
+    <row r="80" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y80">
         <v>3</v>
       </c>
@@ -4322,31 +4584,35 @@
         <v>2.7667999999999999</v>
       </c>
       <c r="AB80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.32E-4</v>
       </c>
       <c r="AC80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5819999999999741E-2</v>
       </c>
       <c r="AD80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32036232760.968712</v>
       </c>
       <c r="AE80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.1214656462926823E-11</v>
       </c>
       <c r="AF80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.190133372987919</v>
       </c>
       <c r="AH80" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>20297752.139367681</v>
       </c>
-    </row>
-    <row r="81" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI80" s="3">
+        <f t="shared" si="19"/>
+        <v>20563980.922307193</v>
+      </c>
+    </row>
+    <row r="81" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y81">
         <v>4</v>
       </c>
@@ -4358,31 +4624,35 @@
         <v>2.76491</v>
       </c>
       <c r="AB81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6400000000000002E-4</v>
       </c>
       <c r="AC81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3929999999999794E-2</v>
       </c>
       <c r="AD81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26667590435.181313</v>
       </c>
       <c r="AE81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.7498700995525508E-11</v>
       </c>
       <c r="AF81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.006714823671487</v>
       </c>
       <c r="AH81" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19226765.217441272</v>
       </c>
-    </row>
-    <row r="82" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI81" s="3">
+        <f t="shared" si="19"/>
+        <v>19465640.692116216</v>
+      </c>
+    </row>
+    <row r="82" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y82">
         <v>5</v>
       </c>
@@ -4394,31 +4664,35 @@
         <v>2.7613699999999999</v>
       </c>
       <c r="AB82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1199999999999999E-4</v>
       </c>
       <c r="AC82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0389999999999695E-2</v>
       </c>
       <c r="AD82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20210634579.28479</v>
       </c>
       <c r="AE82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.9478901618703542E-11</v>
       </c>
       <c r="AF82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.729474767140879</v>
       </c>
       <c r="AH82" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>17220789.712880574</v>
       </c>
-    </row>
-    <row r="83" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI82" s="3">
+        <f t="shared" si="19"/>
+        <v>17412420.482558284</v>
+      </c>
+    </row>
+    <row r="83" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y83">
         <v>6</v>
       </c>
@@ -4430,31 +4704,35 @@
         <v>2.7570100000000002</v>
       </c>
       <c r="AB83">
-        <f t="shared" ref="AB83:AB128" si="15">Z83/1000000</f>
+        <f t="shared" ref="AB83:AB128" si="20">Z83/1000000</f>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="AC83">
-        <f t="shared" ref="AC83:AC128" si="16">AA83-$X$5</f>
+        <f t="shared" ref="AC83:AC128" si="21">AA83-$X$5</f>
         <v>2.6029999999999998E-2</v>
       </c>
       <c r="AD83">
-        <f t="shared" ref="AD83:AD128" si="17">(0.271*0.04^2*AC83*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z83/1000000))</f>
+        <f t="shared" ref="AD83:AD128" si="22">(0.271*0.04^2*AC83*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z83/1000000))</f>
         <v>14213283390.209896</v>
       </c>
       <c r="AE83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.0356720016488214E-11</v>
       </c>
       <c r="AF83">
-        <f t="shared" ref="AF83:AF128" si="18">LN(AD83)</f>
+        <f t="shared" ref="AF83:AF128" si="23">LN(AD83)</f>
         <v>23.377442814307713</v>
       </c>
       <c r="AH83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>14750153.215738263</v>
       </c>
-    </row>
-    <row r="84" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI83" s="3">
+        <f t="shared" si="19"/>
+        <v>14890742.487064185</v>
+      </c>
+    </row>
+    <row r="84" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y84">
         <v>7</v>
       </c>
@@ -4466,31 +4744,35 @@
         <v>2.7521599999999999</v>
       </c>
       <c r="AB84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.7600000000000002E-4</v>
       </c>
       <c r="AC84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.1179999999999755E-2</v>
       </c>
       <c r="AD84">
+        <f t="shared" si="22"/>
+        <v>9232575053.8134747</v>
+      </c>
+      <c r="AE84">
         <f t="shared" si="17"/>
-        <v>9232575053.8134747</v>
-      </c>
-      <c r="AE84">
-        <f t="shared" si="13"/>
         <v>1.0831214413869881E-10</v>
       </c>
       <c r="AF84">
+        <f t="shared" si="23"/>
+        <v>22.946003833963498</v>
+      </c>
+      <c r="AH84" s="3">
         <f t="shared" si="18"/>
-        <v>22.946003833963498</v>
-      </c>
-      <c r="AH84" s="3">
-        <f t="shared" si="14"/>
         <v>12001853.44254064</v>
       </c>
-    </row>
-    <row r="85" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI84" s="3">
+        <f t="shared" si="19"/>
+        <v>12094933.309809167</v>
+      </c>
+    </row>
+    <row r="85" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y85">
         <v>8</v>
       </c>
@@ -4502,31 +4784,35 @@
         <v>2.7478699999999998</v>
       </c>
       <c r="AB85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AC85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.6889999999999628E-2</v>
       </c>
       <c r="AD85">
+        <f t="shared" si="22"/>
+        <v>5840933247.217515</v>
+      </c>
+      <c r="AE85">
         <f t="shared" si="17"/>
-        <v>5840933247.217515</v>
-      </c>
-      <c r="AE85">
-        <f t="shared" si="13"/>
         <v>1.712055176244955E-10</v>
       </c>
       <c r="AF85">
+        <f t="shared" si="23"/>
+        <v>22.48815642362521</v>
+      </c>
+      <c r="AH85" s="3">
         <f t="shared" si="18"/>
-        <v>22.48815642362521</v>
-      </c>
-      <c r="AH85" s="3">
-        <f t="shared" si="14"/>
         <v>9570883.1276916545</v>
       </c>
-    </row>
-    <row r="86" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI85" s="3">
+        <f t="shared" si="19"/>
+        <v>9630075.1452189554</v>
+      </c>
+    </row>
+    <row r="86" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y86">
         <v>9</v>
       </c>
@@ -4538,31 +4824,35 @@
         <v>2.7444999999999999</v>
       </c>
       <c r="AB86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="AC86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.3519999999999754E-2</v>
       </c>
       <c r="AD86">
+        <f t="shared" si="22"/>
+        <v>3896260978.0136719</v>
+      </c>
+      <c r="AE86">
         <f t="shared" si="17"/>
-        <v>3896260978.0136719</v>
-      </c>
-      <c r="AE86">
-        <f t="shared" si="13"/>
         <v>2.5665631887672054E-10</v>
       </c>
       <c r="AF86">
+        <f t="shared" si="23"/>
+        <v>22.083283206626369</v>
+      </c>
+      <c r="AH86" s="3">
         <f t="shared" si="18"/>
-        <v>22.083283206626369</v>
-      </c>
-      <c r="AH86" s="3">
-        <f t="shared" si="14"/>
         <v>7661239.7801297624</v>
       </c>
-    </row>
-    <row r="87" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI86" s="3">
+        <f t="shared" si="19"/>
+        <v>7699167.5429941388</v>
+      </c>
+    </row>
+    <row r="87" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y87">
         <v>10</v>
       </c>
@@ -4574,31 +4864,35 @@
         <v>2.7416999999999998</v>
       </c>
       <c r="AB87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="AC87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.0719999999999619E-2</v>
       </c>
       <c r="AD87">
+        <f t="shared" si="22"/>
+        <v>2586426717.7566571</v>
+      </c>
+      <c r="AE87">
         <f t="shared" si="17"/>
-        <v>2586426717.7566571</v>
-      </c>
-      <c r="AE87">
-        <f t="shared" si="13"/>
         <v>3.8663380374733839E-10</v>
       </c>
       <c r="AF87">
+        <f t="shared" si="23"/>
+        <v>21.673543114416734</v>
+      </c>
+      <c r="AH87" s="3">
         <f t="shared" si="18"/>
-        <v>21.673543114416734</v>
-      </c>
-      <c r="AH87" s="3">
-        <f t="shared" si="14"/>
         <v>6074592.4883868061</v>
       </c>
-    </row>
-    <row r="88" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI87" s="3">
+        <f t="shared" si="19"/>
+        <v>6098437.2735831486</v>
+      </c>
+    </row>
+    <row r="88" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y88">
         <v>11</v>
       </c>
@@ -4610,31 +4904,35 @@
         <v>2.7394699999999998</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="AC88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>8.4899999999996645E-3</v>
       </c>
       <c r="AD88">
+        <f t="shared" si="22"/>
+        <v>1677730635.8411851</v>
+      </c>
+      <c r="AE88">
         <f t="shared" si="17"/>
-        <v>1677730635.8411851</v>
-      </c>
-      <c r="AE88">
-        <f t="shared" si="13"/>
         <v>5.9604323759553764E-10</v>
       </c>
       <c r="AF88">
+        <f t="shared" si="23"/>
+        <v>21.240707905193318</v>
+      </c>
+      <c r="AH88" s="3">
         <f t="shared" si="18"/>
-        <v>21.240707905193318</v>
-      </c>
-      <c r="AH88" s="3">
-        <f t="shared" si="14"/>
         <v>4810941.252463039</v>
       </c>
-    </row>
-    <row r="89" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI88" s="3">
+        <f t="shared" si="19"/>
+        <v>4825897.3822162449</v>
+      </c>
+    </row>
+    <row r="89" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y89">
         <v>12</v>
       </c>
@@ -4646,31 +4944,35 @@
         <v>2.7374800000000001</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.24E-3</v>
       </c>
       <c r="AC89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>6.4999999999999503E-3</v>
       </c>
       <c r="AD89">
+        <f t="shared" si="22"/>
+        <v>1087665905.7730587</v>
+      </c>
+      <c r="AE89">
         <f t="shared" si="17"/>
-        <v>1087665905.7730587</v>
-      </c>
-      <c r="AE89">
-        <f t="shared" si="13"/>
         <v>9.193999689539316E-10</v>
       </c>
       <c r="AF89">
+        <f t="shared" si="23"/>
+        <v>20.807299866324168</v>
+      </c>
+      <c r="AH89" s="3">
         <f t="shared" si="18"/>
-        <v>20.807299866324168</v>
-      </c>
-      <c r="AH89" s="3">
-        <f t="shared" si="14"/>
         <v>3683288.3558316547</v>
       </c>
-    </row>
-    <row r="90" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI89" s="3">
+        <f t="shared" si="19"/>
+        <v>3692054.943032186</v>
+      </c>
+    </row>
+    <row r="90" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y90">
         <v>13</v>
       </c>
@@ -4682,31 +4984,35 @@
         <v>2.7359100000000001</v>
       </c>
       <c r="AB90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.4E-3</v>
       </c>
       <c r="AC90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.9299999999998789E-3</v>
       </c>
       <c r="AD90">
+        <f t="shared" si="22"/>
+        <v>730672441.22766495</v>
+      </c>
+      <c r="AE90">
         <f t="shared" si="17"/>
-        <v>730672441.22766495</v>
-      </c>
-      <c r="AE90">
-        <f t="shared" si="13"/>
         <v>1.3686023224303011E-9</v>
       </c>
       <c r="AF90">
+        <f t="shared" si="23"/>
+        <v>20.409475820472892</v>
+      </c>
+      <c r="AH90" s="3">
         <f t="shared" si="18"/>
-        <v>20.409475820472892</v>
-      </c>
-      <c r="AH90" s="3">
-        <f t="shared" si="14"/>
         <v>2793632.5529615004</v>
       </c>
-    </row>
-    <row r="91" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI90" s="3">
+        <f t="shared" si="19"/>
+        <v>2798675.6541508539</v>
+      </c>
+    </row>
+    <row r="91" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y91">
         <v>14</v>
       </c>
@@ -4718,31 +5024,35 @@
         <v>2.7353999999999998</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.5E-3</v>
       </c>
       <c r="AC91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.4199999999996464E-3</v>
       </c>
       <c r="AD91">
+        <f t="shared" si="22"/>
+        <v>611413261.16518462</v>
+      </c>
+      <c r="AE91">
         <f t="shared" si="17"/>
-        <v>611413261.16518462</v>
-      </c>
-      <c r="AE91">
-        <f t="shared" si="13"/>
         <v>1.6355549732341044E-9</v>
       </c>
       <c r="AF91">
+        <f t="shared" si="23"/>
+        <v>20.231283657020896</v>
+      </c>
+      <c r="AH91" s="3">
         <f t="shared" si="18"/>
-        <v>20.231283657020896</v>
-      </c>
-      <c r="AH91" s="3">
-        <f t="shared" si="14"/>
         <v>2504636.081965344</v>
       </c>
-    </row>
-    <row r="92" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI91" s="3">
+        <f t="shared" si="19"/>
+        <v>2508689.7518868688</v>
+      </c>
+    </row>
+    <row r="92" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y92">
         <v>15</v>
       </c>
@@ -4754,31 +5064,35 @@
         <v>2.7348300000000001</v>
       </c>
       <c r="AB92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="AC92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.8499999999999091E-3</v>
       </c>
       <c r="AD92">
+        <f t="shared" si="22"/>
+        <v>499280484.05389428</v>
+      </c>
+      <c r="AE92">
         <f t="shared" si="17"/>
-        <v>499280484.05389428</v>
-      </c>
-      <c r="AE92">
-        <f t="shared" si="13"/>
         <v>2.0028822113785165E-9</v>
       </c>
       <c r="AF92">
+        <f t="shared" si="23"/>
+        <v>20.028678588093467</v>
+      </c>
+      <c r="AH92" s="3">
         <f t="shared" si="18"/>
-        <v>20.028678588093467</v>
-      </c>
-      <c r="AH92" s="3">
-        <f t="shared" si="14"/>
         <v>2181640.0261464068</v>
       </c>
-    </row>
-    <row r="95" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI92" s="3">
+        <f t="shared" si="19"/>
+        <v>2184715.5939281788</v>
+      </c>
+    </row>
+    <row r="95" spans="21:35" x14ac:dyDescent="0.3">
       <c r="U95" t="s">
         <v>1</v>
       </c>
@@ -4816,7 +5130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="21:34" x14ac:dyDescent="0.3">
+    <row r="96" spans="21:35" x14ac:dyDescent="0.3">
       <c r="U96" s="1">
         <v>450</v>
       </c>
@@ -4840,31 +5154,35 @@
         <v>2.7692899999999998</v>
       </c>
       <c r="AB96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.7999999999999998E-4</v>
       </c>
       <c r="AC96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.8309999999999622E-2</v>
       </c>
       <c r="AD96">
+        <f t="shared" si="22"/>
+        <v>28389514425.387684</v>
+      </c>
+      <c r="AE96">
         <f t="shared" si="17"/>
-        <v>28389514425.387684</v>
-      </c>
-      <c r="AE96">
-        <f t="shared" si="13"/>
         <v>3.5224272772546515E-11</v>
       </c>
       <c r="AF96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>24.069285703564969</v>
       </c>
       <c r="AH96" s="3">
         <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>21708734.909524668</v>
       </c>
-    </row>
-    <row r="97" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI96" s="3">
+        <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA96 /$U$13^2</f>
+        <v>22013263.552862916</v>
+      </c>
+    </row>
+    <row r="97" spans="21:35" x14ac:dyDescent="0.3">
       <c r="U97" t="s">
         <v>7</v>
       </c>
@@ -4879,31 +5197,35 @@
         <v>2.7662800000000001</v>
       </c>
       <c r="AB97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="AC97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.5299999999999887E-2</v>
       </c>
       <c r="AD97">
+        <f t="shared" si="22"/>
+        <v>24415031808.973614</v>
+      </c>
+      <c r="AE97">
         <f t="shared" si="17"/>
-        <v>24415031808.973614</v>
-      </c>
-      <c r="AE97">
-        <f t="shared" si="13"/>
         <v>4.0958373833961398E-11</v>
       </c>
       <c r="AF97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>23.918464837304715</v>
       </c>
       <c r="AH97" s="3">
-        <f t="shared" ref="AH97:AH110" si="19">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <f t="shared" ref="AH97:AH110" si="24">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>20003089.070901226</v>
       </c>
-    </row>
-    <row r="98" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI97" s="3">
+        <f t="shared" ref="AI97:AI110" si="25">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA97 /$U$13^2</f>
+        <v>20261644.257758256</v>
+      </c>
+    </row>
+    <row r="98" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y98">
         <v>3</v>
       </c>
@@ -4915,31 +5237,35 @@
         <v>2.7647300000000001</v>
       </c>
       <c r="AB98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.3E-4</v>
       </c>
       <c r="AC98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.3749999999999947E-2</v>
       </c>
       <c r="AD98">
+        <f t="shared" si="22"/>
+        <v>21220894245.50246</v>
+      </c>
+      <c r="AE98">
         <f t="shared" si="17"/>
-        <v>21220894245.50246</v>
-      </c>
-      <c r="AE98">
-        <f t="shared" si="13"/>
         <v>4.7123367584376859E-11</v>
       </c>
       <c r="AF98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>23.778252110879681</v>
       </c>
       <c r="AH98" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>19124766.462972172</v>
       </c>
-    </row>
-    <row r="99" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI98" s="3">
+        <f t="shared" si="25"/>
+        <v>19361114.172631454</v>
+      </c>
+    </row>
+    <row r="99" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y99">
         <v>4</v>
       </c>
@@ -4951,31 +5277,35 @@
         <v>2.7596799999999999</v>
       </c>
       <c r="AB99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="AC99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.8699999999999726E-2</v>
       </c>
       <c r="AD99">
+        <f t="shared" si="22"/>
+        <v>15671196054.514793</v>
+      </c>
+      <c r="AE99">
         <f t="shared" si="17"/>
-        <v>15671196054.514793</v>
-      </c>
-      <c r="AE99">
-        <f t="shared" si="13"/>
         <v>6.3811338746662226E-11</v>
       </c>
       <c r="AF99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>23.475090218066804</v>
       </c>
       <c r="AH99" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>16263134.740364349</v>
       </c>
-    </row>
-    <row r="100" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI99" s="3">
+        <f t="shared" si="25"/>
+        <v>16434044.804534886</v>
+      </c>
+    </row>
+    <row r="100" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y100">
         <v>5</v>
       </c>
@@ -4987,31 +5317,35 @@
         <v>2.7560899999999999</v>
       </c>
       <c r="AB100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.4000000000000002E-4</v>
       </c>
       <c r="AC100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.5109999999999744E-2</v>
       </c>
       <c r="AD100">
+        <f t="shared" si="22"/>
+        <v>11841258988.990278</v>
+      </c>
+      <c r="AE100">
         <f t="shared" si="17"/>
-        <v>11841258988.990278</v>
-      </c>
-      <c r="AE100">
-        <f t="shared" si="13"/>
         <v>8.4450479541894681E-11</v>
       </c>
       <c r="AF100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>23.194855794278848</v>
       </c>
       <c r="AH100" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>14228826.248451173</v>
       </c>
-    </row>
-    <row r="101" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI100" s="3">
+        <f t="shared" si="25"/>
+        <v>14359653.21426513</v>
+      </c>
+    </row>
+    <row r="101" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y101">
         <v>6</v>
       </c>
@@ -5023,31 +5357,35 @@
         <v>2.75359</v>
       </c>
       <c r="AB101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="AC101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.2609999999999797E-2</v>
       </c>
       <c r="AD101">
+        <f t="shared" si="22"/>
+        <v>9198864675.9021854</v>
+      </c>
+      <c r="AE101">
         <f t="shared" si="17"/>
-        <v>9198864675.9021854</v>
-      </c>
-      <c r="AE101">
-        <f t="shared" si="13"/>
         <v>1.0870906739389818E-10</v>
       </c>
       <c r="AF101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>22.942345908593168</v>
       </c>
       <c r="AH101" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>12812176.880823633</v>
       </c>
-    </row>
-    <row r="102" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI101" s="3">
+        <f t="shared" si="25"/>
+        <v>12918249.909287928</v>
+      </c>
+    </row>
+    <row r="102" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y102">
         <v>7</v>
       </c>
@@ -5059,31 +5397,35 @@
         <v>2.7495799999999999</v>
       </c>
       <c r="AB102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.2E-4</v>
       </c>
       <c r="AC102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.8599999999999728E-2</v>
       </c>
       <c r="AD102">
+        <f t="shared" si="22"/>
+        <v>6224795645.3473082</v>
+      </c>
+      <c r="AE102">
         <f t="shared" si="17"/>
-        <v>6224795645.3473082</v>
-      </c>
-      <c r="AE102">
-        <f t="shared" si="13"/>
         <v>1.6064784403765045E-10</v>
       </c>
       <c r="AF102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>22.551806450701672</v>
       </c>
       <c r="AH102" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>10539871.295148969</v>
       </c>
-    </row>
-    <row r="103" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI102" s="3">
+        <f t="shared" si="25"/>
+        <v>10611655.638531113</v>
+      </c>
+    </row>
+    <row r="103" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y103">
         <v>8</v>
       </c>
@@ -5095,31 +5437,35 @@
         <v>2.74593</v>
       </c>
       <c r="AB103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="AC103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.4949999999999797E-2</v>
       </c>
       <c r="AD103">
+        <f t="shared" si="22"/>
+        <v>4028601510.7334356</v>
+      </c>
+      <c r="AE103">
         <f t="shared" si="17"/>
-        <v>4028601510.7334356</v>
-      </c>
-      <c r="AE103">
-        <f t="shared" si="13"/>
         <v>2.4822509680733918E-10</v>
       </c>
       <c r="AF103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>22.11668513301062</v>
       </c>
       <c r="AH103" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>8471563.2184127569</v>
       </c>
-    </row>
-    <row r="104" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI103" s="3">
+        <f t="shared" si="25"/>
+        <v>8517938.4647035636</v>
+      </c>
+    </row>
+    <row r="104" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y104">
         <v>9</v>
       </c>
@@ -5131,31 +5477,35 @@
         <v>2.7421199999999999</v>
       </c>
       <c r="AB104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>9.7000000000000005E-4</v>
       </c>
       <c r="AC104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.1139999999999706E-2</v>
       </c>
       <c r="AD104">
+        <f t="shared" si="22"/>
+        <v>2382963006.5006251</v>
+      </c>
+      <c r="AE104">
         <f t="shared" si="17"/>
-        <v>2382963006.5006251</v>
-      </c>
-      <c r="AE104">
-        <f t="shared" si="13"/>
         <v>4.1964562490984589E-10</v>
       </c>
       <c r="AF104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>21.591610511023351</v>
       </c>
       <c r="AH104" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>6312589.5821482884</v>
       </c>
-    </row>
-    <row r="105" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI104" s="3">
+        <f t="shared" si="25"/>
+        <v>6338339.4038039315</v>
+      </c>
+    </row>
+    <row r="105" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y105">
         <v>10</v>
       </c>
@@ -5167,31 +5517,35 @@
         <v>2.7396400000000001</v>
       </c>
       <c r="AB105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.2199999999999999E-3</v>
       </c>
       <c r="AC105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>8.65999999999989E-3</v>
       </c>
       <c r="AD105">
+        <f t="shared" si="22"/>
+        <v>1472861483.2980278</v>
+      </c>
+      <c r="AE105">
         <f t="shared" si="17"/>
-        <v>1472861483.2980278</v>
-      </c>
-      <c r="AE105">
-        <f t="shared" si="13"/>
         <v>6.7895047249168498E-10</v>
       </c>
       <c r="AF105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>21.110472932868699</v>
       </c>
       <c r="AH105" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>4907273.4094618419</v>
       </c>
-    </row>
-    <row r="106" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI105" s="3">
+        <f t="shared" si="25"/>
+        <v>4922834.4856051831</v>
+      </c>
+    </row>
+    <row r="106" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y106">
         <v>11</v>
       </c>
@@ -5203,31 +5557,35 @@
         <v>2.7378999999999998</v>
       </c>
       <c r="AB106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="AC106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>6.9199999999995931E-3</v>
       </c>
       <c r="AD106">
+        <f t="shared" si="22"/>
+        <v>983460864.51601553</v>
+      </c>
+      <c r="AE106">
         <f t="shared" si="17"/>
-        <v>983460864.51601553</v>
-      </c>
-      <c r="AE106">
-        <f t="shared" si="13"/>
         <v>1.0168172787354622E-9</v>
       </c>
       <c r="AF106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>20.706588402948807</v>
       </c>
       <c r="AH106" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>3921285.4495928842</v>
       </c>
-    </row>
-    <row r="107" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI106" s="3">
+        <f t="shared" si="25"/>
+        <v>3931221.5513992622</v>
+      </c>
+    </row>
+    <row r="107" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y107">
         <v>12</v>
       </c>
@@ -5239,31 +5597,35 @@
         <v>2.73672</v>
       </c>
       <c r="AB107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.7600000000000001E-3</v>
       </c>
       <c r="AC107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>5.7399999999998563E-3</v>
       </c>
       <c r="AD107">
+        <f t="shared" si="22"/>
+        <v>676710738.7176739</v>
+      </c>
+      <c r="AE107">
         <f t="shared" si="17"/>
-        <v>676710738.7176739</v>
-      </c>
-      <c r="AE107">
-        <f t="shared" si="13"/>
         <v>1.4777362657122004E-9</v>
       </c>
       <c r="AF107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>20.332754470320921</v>
       </c>
       <c r="AH107" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>3252626.94807282</v>
       </c>
-    </row>
-    <row r="108" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI107" s="3">
+        <f t="shared" si="25"/>
+        <v>3259463.3506396413</v>
+      </c>
+    </row>
+    <row r="108" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y108">
         <v>13</v>
       </c>
@@ -5275,31 +5637,35 @@
         <v>2.7351399999999999</v>
       </c>
       <c r="AB108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.0799999999999998E-3</v>
       </c>
       <c r="AC108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.1599999999997195E-3</v>
       </c>
       <c r="AD108">
+        <f t="shared" si="22"/>
+        <v>414986376.3564654</v>
+      </c>
+      <c r="AE108">
         <f t="shared" si="17"/>
-        <v>414986376.3564654</v>
-      </c>
-      <c r="AE108">
-        <f t="shared" si="13"/>
         <v>2.4097176605648834E-9</v>
       </c>
       <c r="AF108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>19.843756249599409</v>
       </c>
       <c r="AH108" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>2357304.5477321181</v>
       </c>
-    </row>
-    <row r="109" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI108" s="3">
+        <f t="shared" si="25"/>
+        <v>2360895.3418494551</v>
+      </c>
+    </row>
+    <row r="109" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y109">
         <v>14</v>
       </c>
@@ -5311,31 +5677,35 @@
         <v>2.73489</v>
       </c>
       <c r="AB109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="AC109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.909999999999858E-3</v>
       </c>
       <c r="AD109">
+        <f t="shared" si="22"/>
+        <v>355832616.56882244</v>
+      </c>
+      <c r="AE109">
         <f t="shared" si="17"/>
-        <v>355832616.56882244</v>
-      </c>
-      <c r="AE109">
-        <f t="shared" si="13"/>
         <v>2.8103101105308248E-9</v>
       </c>
       <c r="AF109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>19.689971000070422</v>
       </c>
       <c r="AH109" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>2215639.6109694396</v>
       </c>
-    </row>
-    <row r="110" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI109" s="3">
+        <f t="shared" si="25"/>
+        <v>2218811.7875796272</v>
+      </c>
+    </row>
+    <row r="110" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y110">
         <v>15</v>
       </c>
@@ -5347,31 +5717,35 @@
         <v>2.73448</v>
       </c>
       <c r="AB110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="AC110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.4999999999998366E-3</v>
       </c>
       <c r="AD110">
+        <f t="shared" si="22"/>
+        <v>302594232.75992894</v>
+      </c>
+      <c r="AE110">
         <f t="shared" si="17"/>
-        <v>302594232.75992894</v>
-      </c>
-      <c r="AE110">
-        <f t="shared" si="13"/>
         <v>3.3047556487746286E-9</v>
       </c>
       <c r="AF110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>19.527903300180952</v>
       </c>
       <c r="AH110" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1983309.114678506</v>
       </c>
-    </row>
-    <row r="113" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI110" s="3">
+        <f t="shared" si="25"/>
+        <v>1985850.9062336893</v>
+      </c>
+    </row>
+    <row r="113" spans="21:35" x14ac:dyDescent="0.3">
       <c r="U113" t="s">
         <v>1</v>
       </c>
@@ -5409,7 +5783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="21:34" x14ac:dyDescent="0.3">
+    <row r="114" spans="21:35" x14ac:dyDescent="0.3">
       <c r="U114" s="1">
         <v>5</v>
       </c>
@@ -5433,31 +5807,35 @@
         <v>2.7519200000000001</v>
       </c>
       <c r="AB114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.3000000000000002E-5</v>
       </c>
       <c r="AC114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.0939999999999959E-2</v>
       </c>
       <c r="AD114">
+        <f t="shared" si="22"/>
+        <v>101044357219.82504</v>
+      </c>
+      <c r="AE114">
         <f t="shared" si="17"/>
-        <v>101044357219.82504</v>
-      </c>
-      <c r="AE114">
-        <f t="shared" si="13"/>
         <v>9.8966436871330673E-12</v>
       </c>
       <c r="AF114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>25.338825437770495</v>
       </c>
       <c r="AH114" s="3">
         <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>11865855.103248507</v>
       </c>
-    </row>
-    <row r="115" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI114" s="3">
+        <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA114 /$U$13^2</f>
+        <v>11956837.463376381</v>
+      </c>
+    </row>
+    <row r="115" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y115">
         <v>2</v>
       </c>
@@ -5469,31 +5847,35 @@
         <v>2.7504200000000001</v>
       </c>
       <c r="AB115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="AC115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.9439999999999902E-2</v>
       </c>
       <c r="AD115">
+        <f t="shared" si="22"/>
+        <v>80673351563.701904</v>
+      </c>
+      <c r="AE115">
         <f t="shared" si="17"/>
-        <v>80673351563.701904</v>
-      </c>
-      <c r="AE115">
-        <f t="shared" si="13"/>
         <v>1.2395666978213648E-11</v>
       </c>
       <c r="AF115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>25.113674141625811</v>
       </c>
       <c r="AH115" s="3">
-        <f t="shared" ref="AH115:AH128" si="20">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
+        <f t="shared" ref="AH115:AH128" si="26">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>11015865.482671933</v>
       </c>
-    </row>
-    <row r="116" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI115" s="3">
+        <f t="shared" ref="AI115:AI128" si="27">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA115 /$U$13^2</f>
+        <v>11094279.980391851</v>
+      </c>
+    </row>
+    <row r="116" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y116">
         <v>3</v>
       </c>
@@ -5505,31 +5887,35 @@
         <v>2.7496399999999999</v>
       </c>
       <c r="AB116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="AC116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.8659999999999677E-2</v>
       </c>
       <c r="AD116">
+        <f t="shared" si="22"/>
+        <v>64530381523.433601</v>
+      </c>
+      <c r="AE116">
         <f t="shared" si="17"/>
-        <v>64530381523.433601</v>
-      </c>
-      <c r="AE116">
-        <f t="shared" si="13"/>
         <v>1.5496576595271787E-11</v>
       </c>
       <c r="AF116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>24.890401981218748</v>
       </c>
       <c r="AH116" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>10573870.879972002</v>
       </c>
-    </row>
-    <row r="117" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI116" s="3">
+        <f t="shared" si="27"/>
+        <v>10646119.095125636</v>
+      </c>
+    </row>
+    <row r="117" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y117">
         <v>4</v>
       </c>
@@ -5541,31 +5927,35 @@
         <v>2.7479499999999999</v>
       </c>
       <c r="AB117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.3999999999999996E-5</v>
       </c>
       <c r="AC117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.6969999999999708E-2</v>
       </c>
       <c r="AD117">
+        <f t="shared" si="22"/>
+        <v>47583235180.875496</v>
+      </c>
+      <c r="AE117">
         <f t="shared" si="17"/>
-        <v>47583235180.875496</v>
-      </c>
-      <c r="AE117">
-        <f t="shared" si="13"/>
         <v>2.1015805171690319E-11</v>
       </c>
       <c r="AF117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>24.585746334063618</v>
       </c>
       <c r="AH117" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>9616215.9074557815</v>
       </c>
-    </row>
-    <row r="118" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI117" s="3">
+        <f t="shared" si="27"/>
+        <v>9675969.9825312216</v>
+      </c>
+    </row>
+    <row r="118" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y118">
         <v>5</v>
       </c>
@@ -5577,31 +5967,35 @@
         <v>2.7452899999999998</v>
       </c>
       <c r="AB118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>9.2E-5</v>
       </c>
       <c r="AC118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.4309999999999601E-2</v>
       </c>
       <c r="AD118">
+        <f t="shared" si="22"/>
+        <v>32274212204.680729</v>
+      </c>
+      <c r="AE118">
         <f t="shared" si="17"/>
-        <v>32274212204.680729</v>
-      </c>
-      <c r="AE118">
-        <f t="shared" si="13"/>
         <v>3.0984489835354371E-11</v>
       </c>
       <c r="AF118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>24.19753436454096</v>
       </c>
       <c r="AH118" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>8108900.9802999869</v>
       </c>
-    </row>
-    <row r="119" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI118" s="3">
+        <f t="shared" si="27"/>
+        <v>8151390.6261516921</v>
+      </c>
+    </row>
+    <row r="119" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y119">
         <v>6</v>
       </c>
@@ -5613,31 +6007,35 @@
         <v>2.7431100000000002</v>
       </c>
       <c r="AB119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.15E-4</v>
       </c>
       <c r="AC119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.2129999999999974E-2</v>
       </c>
       <c r="AD119">
+        <f t="shared" si="22"/>
+        <v>21886020631.322842</v>
+      </c>
+      <c r="AE119">
         <f t="shared" si="17"/>
-        <v>21886020631.322842</v>
-      </c>
-      <c r="AE119">
-        <f t="shared" si="13"/>
         <v>4.5691266441045917E-11</v>
       </c>
       <c r="AF119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>23.809113942614374</v>
       </c>
       <c r="AH119" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>6873582.731728957</v>
       </c>
-    </row>
-    <row r="120" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI119" s="3">
+        <f t="shared" si="27"/>
+        <v>6904112.6362086209</v>
+      </c>
+    </row>
+    <row r="120" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y120">
         <v>7</v>
       </c>
@@ -5649,31 +6047,35 @@
         <v>2.7412299999999998</v>
       </c>
       <c r="AB120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.44E-4</v>
       </c>
       <c r="AC120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.0249999999999648E-2</v>
       </c>
       <c r="AD120">
+        <f t="shared" si="22"/>
+        <v>14769480408.520527</v>
+      </c>
+      <c r="AE120">
         <f t="shared" si="17"/>
-        <v>14769480408.520527</v>
-      </c>
-      <c r="AE120">
-        <f t="shared" si="13"/>
         <v>6.7707188901723257E-11</v>
       </c>
       <c r="AF120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>23.415828754030052</v>
       </c>
       <c r="AH120" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5808262.4072728399</v>
       </c>
-    </row>
-    <row r="121" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI120" s="3">
+        <f t="shared" si="27"/>
+        <v>5830062.1603558157</v>
+      </c>
+    </row>
+    <row r="121" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y121">
         <v>8</v>
       </c>
@@ -5685,31 +6087,35 @@
         <v>2.7386599999999999</v>
       </c>
       <c r="AB121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="AC121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>7.6799999999996871E-3</v>
       </c>
       <c r="AD121">
+        <f t="shared" si="22"/>
+        <v>8387093080.0466805</v>
+      </c>
+      <c r="AE121">
         <f t="shared" si="17"/>
-        <v>8387093080.0466805</v>
-      </c>
-      <c r="AE121">
-        <f t="shared" si="13"/>
         <v>1.1923082174669681E-10</v>
       </c>
       <c r="AF121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>22.849959823020722</v>
       </c>
       <c r="AH121" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4351946.8573517194</v>
       </c>
-    </row>
-    <row r="122" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI121" s="3">
+        <f t="shared" si="27"/>
+        <v>4364185.3035741225</v>
+      </c>
+    </row>
+    <row r="122" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y122">
         <v>9</v>
       </c>
@@ -5721,31 +6127,35 @@
         <v>2.73672</v>
       </c>
       <c r="AB122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="AC122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>5.7399999999998563E-3</v>
       </c>
       <c r="AD122">
+        <f t="shared" si="22"/>
+        <v>4802463307.0286531</v>
+      </c>
+      <c r="AE122">
         <f t="shared" si="17"/>
-        <v>4802463307.0286531</v>
-      </c>
-      <c r="AE122">
-        <f t="shared" si="13"/>
         <v>2.0822647380490098E-10</v>
       </c>
       <c r="AF122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>22.292394812188135</v>
       </c>
       <c r="AH122" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3252626.94807282</v>
       </c>
-    </row>
-    <row r="123" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI122" s="3">
+        <f t="shared" si="27"/>
+        <v>3259463.3506396413</v>
+      </c>
+    </row>
+    <row r="123" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y123">
         <v>10</v>
       </c>
@@ -5757,31 +6167,35 @@
         <v>2.7351100000000002</v>
       </c>
       <c r="AB123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.2400000000000001E-4</v>
       </c>
       <c r="AC123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.129999999999967E-3</v>
       </c>
       <c r="AD123">
+        <f t="shared" si="22"/>
+        <v>2644897738.198</v>
+      </c>
+      <c r="AE123">
         <f t="shared" si="17"/>
-        <v>2644897738.198</v>
-      </c>
-      <c r="AE123">
-        <f t="shared" si="13"/>
         <v>3.7808645134284541E-10</v>
       </c>
       <c r="AF123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>21.695898239202272</v>
       </c>
       <c r="AH123" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2340304.7553207269</v>
       </c>
-    </row>
-    <row r="124" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI123" s="3">
+        <f t="shared" si="27"/>
+        <v>2343843.9458821649</v>
+      </c>
+    </row>
+    <row r="124" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y124">
         <v>11</v>
       </c>
@@ -5793,31 +6207,35 @@
         <v>2.7339000000000002</v>
       </c>
       <c r="AB124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.1599999999999997E-4</v>
       </c>
       <c r="AC124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.9200000000000337E-3</v>
       </c>
       <c r="AD124">
+        <f t="shared" si="22"/>
+        <v>1456442570.8665562</v>
+      </c>
+      <c r="AE124">
         <f t="shared" si="17"/>
-        <v>1456442570.8665562</v>
-      </c>
-      <c r="AE124">
-        <f t="shared" si="13"/>
         <v>6.8660448410610428E-10</v>
       </c>
       <c r="AF124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>21.099262704040608</v>
       </c>
       <c r="AH124" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1654646.461389021</v>
       </c>
-    </row>
-    <row r="125" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI124" s="3">
+        <f t="shared" si="27"/>
+        <v>1656415.6313087041</v>
+      </c>
+    </row>
+    <row r="125" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y125">
         <v>12</v>
       </c>
@@ -5829,31 +6247,35 @@
         <v>2.73325</v>
       </c>
       <c r="AB125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AC125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.2699999999997722E-3</v>
       </c>
       <c r="AD125">
+        <f t="shared" si="22"/>
+        <v>942019074.32914531</v>
+      </c>
+      <c r="AE125">
         <f t="shared" si="17"/>
-        <v>942019074.32914531</v>
-      </c>
-      <c r="AE125">
-        <f t="shared" si="13"/>
         <v>1.0615496302048295E-9</v>
       </c>
       <c r="AF125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>20.663536081092687</v>
       </c>
       <c r="AH125" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1286317.6258057051</v>
       </c>
-    </row>
-    <row r="126" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI125" s="3">
+        <f t="shared" si="27"/>
+        <v>1287386.8174550685</v>
+      </c>
+    </row>
+    <row r="126" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y126">
         <v>13</v>
       </c>
@@ -5865,31 +6287,35 @@
         <v>2.7326800000000002</v>
       </c>
       <c r="AB126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AC126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.7000000000000348E-3</v>
       </c>
       <c r="AD126">
+        <f t="shared" si="22"/>
+        <v>587897366.50504434</v>
+      </c>
+      <c r="AE126">
         <f t="shared" si="17"/>
-        <v>587897366.50504434</v>
-      </c>
-      <c r="AE126">
-        <f t="shared" si="13"/>
         <v>1.7009771721632974E-9</v>
       </c>
       <c r="AF126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>20.192062943867715</v>
       </c>
       <c r="AH126" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>963321.5699867676</v>
       </c>
-    </row>
-    <row r="127" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI126" s="3">
+        <f t="shared" si="27"/>
+        <v>963921.22530060285</v>
+      </c>
+    </row>
+    <row r="127" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y127">
         <v>14</v>
       </c>
@@ -5901,31 +6327,35 @@
         <v>2.7322799999999998</v>
       </c>
       <c r="AB127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="AC127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.2999999999996348E-3</v>
       </c>
       <c r="AD127">
+        <f t="shared" si="22"/>
+        <v>385344492.33092141</v>
+      </c>
+      <c r="AE127">
         <f t="shared" si="17"/>
-        <v>385344492.33092141</v>
-      </c>
-      <c r="AE127">
-        <f t="shared" si="13"/>
         <v>2.5950805575319661E-9</v>
       </c>
       <c r="AF127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>19.769648277445476</v>
       </c>
       <c r="AH127" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>736657.67116612964</v>
       </c>
-    </row>
-    <row r="128" spans="21:34" x14ac:dyDescent="0.3">
+      <c r="AI127" s="3">
+        <f t="shared" si="27"/>
+        <v>737008.33465415076</v>
+      </c>
+    </row>
+    <row r="128" spans="21:35" x14ac:dyDescent="0.3">
       <c r="Y128">
         <v>15</v>
       </c>
@@ -5937,28 +6367,32 @@
         <v>2.7319900000000001</v>
       </c>
       <c r="AB128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="AC128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.0099999999999554E-3</v>
       </c>
       <c r="AD128">
+        <f t="shared" si="22"/>
+        <v>261960150.07502484</v>
+      </c>
+      <c r="AE128">
         <f t="shared" si="17"/>
-        <v>261960150.07502484</v>
-      </c>
-      <c r="AE128">
-        <f t="shared" si="13"/>
         <v>3.8173745117858652E-9</v>
       </c>
       <c r="AF128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>19.383702951206867</v>
       </c>
       <c r="AH128" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>572326.34452151321</v>
+      </c>
+      <c r="AI128" s="3">
+        <f t="shared" si="27"/>
+        <v>572538.00832277373</v>
       </c>
     </row>
   </sheetData>

--- a/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
+++ b/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="22">
   <si>
     <t>RozpadPlazmatu</t>
   </si>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI128"/>
+  <dimension ref="A1:AM128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,18 +467,19 @@
     <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="12" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.44140625" customWidth="1"/>
+    <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -486,7 +487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -533,10 +534,22 @@
         <v>20</v>
       </c>
       <c r="AI4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -589,12 +602,28 @@
         <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>23391714.358266436</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5">
+        <f>1/AH5</f>
+        <v>4.2750180028878834E-8</v>
+      </c>
+      <c r="AJ5">
+        <f>LN(AH5)</f>
+        <v>16.967892430370664</v>
+      </c>
+      <c r="AK5" s="3">
         <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA5 /$U$13^2</f>
         <v>23745290.718660593</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL5">
+        <f>1/AK5</f>
+        <v>4.2113613678106495E-8</v>
+      </c>
+      <c r="AM5">
+        <f>LN(AK5)</f>
+        <v>16.98289478325367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -635,12 +664,28 @@
         <f t="shared" ref="AH6:AH19" si="4">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
         <v>22870387.390979342</v>
       </c>
-      <c r="AI6" s="3">
-        <f t="shared" ref="AI6:AI19" si="5">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA6 /$U$13^2</f>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AI19" si="5">1/AH6</f>
+        <v>4.372466381546406E-8</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:AJ19" si="6">LN(AH6)</f>
+        <v>16.94535350468276</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" ref="AK6:AK19" si="7">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA6 /$U$13^2</f>
         <v>23208379.187001254</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL6">
+        <f t="shared" ref="AL6:AL19" si="8">1/AK6</f>
+        <v>4.3087886144159884E-8</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ref="AM6:AM19" si="9">LN(AK6)</f>
+        <v>16.960023943283186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -705,7 +750,7 @@
         <v>3.8059999999999761E-2</v>
       </c>
       <c r="AD7">
-        <f t="shared" ref="AD7:AD18" si="6">(0.271*0.04^2*AC7*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z7/1000000))</f>
+        <f t="shared" ref="AD7:AD18" si="10">(0.271*0.04^2*AC7*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z7/1000000))</f>
         <v>75211340400.609711</v>
       </c>
       <c r="AE7">
@@ -720,12 +765,28 @@
         <f t="shared" si="4"/>
         <v>21567069.972761996</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI7">
         <f t="shared" si="5"/>
+        <v>4.6366984539992877E-8</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="6"/>
+        <v>16.886678171065356</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" si="7"/>
         <v>21867637.052404951</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AL7">
+        <f t="shared" si="8"/>
+        <v>4.5729677953019724E-8</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="9"/>
+        <v>16.900518341658127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -814,7 +875,7 @@
         <v>3.5320000000000018E-2</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>61072161720.463974</v>
       </c>
       <c r="AE8">
@@ -829,12 +890,28 @@
         <f t="shared" si="4"/>
         <v>20014422.265842322</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI8">
         <f t="shared" si="5"/>
+        <v>4.9963970316877607E-8</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="6"/>
+        <v>16.811963684933119</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" si="7"/>
         <v>20273270.516078338</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL8">
+        <f t="shared" si="8"/>
+        <v>4.9326032482372265E-8</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="9"/>
+        <v>16.824813853024224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -910,7 +987,7 @@
         <v>3.2429999999999737E-2</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>48064314947.289185</v>
       </c>
       <c r="AE9">
@@ -925,12 +1002,28 @@
         <f t="shared" si="4"/>
         <v>18376775.596864697</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9">
         <f t="shared" si="5"/>
+        <v>5.4416510379035822E-8</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="6"/>
+        <v>16.726598229516576</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" si="7"/>
         <v>18594997.199588377</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL9">
+        <f t="shared" si="8"/>
+        <v>5.3777905383182108E-8</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="9"/>
+        <v>16.738403134741048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="U10" t="s">
         <v>15</v>
       </c>
@@ -959,7 +1052,7 @@
         <v>2.8479999999999617E-2</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>34761211760.684616</v>
       </c>
       <c r="AE10">
@@ -974,12 +1067,28 @@
         <f t="shared" si="4"/>
         <v>16138469.596013067</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI10">
         <f t="shared" si="5"/>
+        <v>6.1963744086802715E-8</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="6"/>
+        <v>16.596716395741119</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="7"/>
         <v>16306769.478873594</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL10">
+        <f t="shared" si="8"/>
+        <v>6.1324224966542909E-8</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="9"/>
+        <v>16.607090885013918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1124,7 @@
         <v>2.3939999999999628E-2</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23654223452.319756</v>
       </c>
       <c r="AE11">
@@ -1030,12 +1139,28 @@
         <f t="shared" si="4"/>
         <v>13565834.344401404</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI11">
         <f t="shared" si="5"/>
+        <v>7.3714596140022764E-8</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="6"/>
+        <v>16.423065009327171</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="7"/>
         <v>13684753.587385593</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL11">
+        <f t="shared" si="8"/>
+        <v>7.307402311736073E-8</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="9"/>
+        <v>16.431792894257949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1189,7 @@
         <v>1.9649999999999945E-2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>15681696721.932833</v>
       </c>
       <c r="AE12">
@@ -1079,12 +1204,28 @@
         <f t="shared" si="4"/>
         <v>11134864.029552674</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AI12">
         <f t="shared" si="5"/>
+        <v>8.9808011785858646E-8</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="6"/>
+        <v>16.225591647512626</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="7"/>
         <v>11214981.818105029</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL12">
+        <f t="shared" si="8"/>
+        <v>8.9166439698157957E-8</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="9"/>
+        <v>16.232761104722918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1113,7 +1254,7 @@
         <v>1.5479999999999716E-2</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10037482978.122498</v>
       </c>
       <c r="AE13">
@@ -1128,12 +1269,28 @@
         <f t="shared" si="4"/>
         <v>8771892.8843497559</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AI13">
         <f t="shared" si="5"/>
+        <v>1.1400048007701226E-7</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="6"/>
+        <v>15.987063177358921</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="7"/>
         <v>8821614.560030181</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL13">
+        <f t="shared" si="8"/>
+        <v>1.1335793387878179E-7</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="9"/>
+        <v>15.992715467922906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1316,7 @@
         <v>1.1529999999999596E-2</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6103052193.0997467</v>
       </c>
       <c r="AE14">
@@ -1174,12 +1331,28 @@
         <f t="shared" si="4"/>
         <v>6533586.8834981276</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI14">
         <f t="shared" si="5"/>
+        <v>1.5305528461337199E-7</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="6"/>
+        <v>15.692466643478291</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="7"/>
         <v>6561171.2146784114</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL14">
+        <f t="shared" si="8"/>
+        <v>1.5241181296455679E-7</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="9"/>
+        <v>15.696679683807041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1244,7 +1417,7 @@
         <v>8.6299999999996935E-3</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3793784351.6487403</v>
       </c>
       <c r="AE15">
@@ -1259,12 +1432,28 @@
         <f t="shared" si="4"/>
         <v>4890273.6170502007</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AI15">
         <f t="shared" si="5"/>
+        <v>2.0448753552632444E-7</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="6"/>
+        <v>15.402758814292659</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="7"/>
         <v>4905727.0664768312</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AL15">
+        <f t="shared" si="8"/>
+        <v>2.0384338273392259E-7</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="9"/>
+        <v>15.405913869655555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1536,7 @@
         <v>6.1599999999999433E-3</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2282425069.9606929</v>
       </c>
       <c r="AE16">
@@ -1362,12 +1551,28 @@
         <f t="shared" si="4"/>
         <v>3490624.0418343013</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AI16">
         <f t="shared" si="5"/>
+        <v>2.8648172590781393E-7</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="6"/>
+        <v>15.065591086742778</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="7"/>
         <v>3498497.4953556373</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL16">
+        <f t="shared" si="8"/>
+        <v>2.8583699183078756E-7</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="9"/>
+        <v>15.067844147248335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1435,7 +1640,7 @@
         <v>4.269999999999996E-3</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1342418050.7895644</v>
       </c>
       <c r="AE17">
@@ -1450,12 +1655,28 @@
         <f t="shared" si="4"/>
         <v>2419637.1199078881</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI17">
         <f t="shared" si="5"/>
+        <v>4.1328511278503963E-7</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="6"/>
+        <v>14.69912813643789</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="7"/>
         <v>2423420.322458623</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL17">
+        <f t="shared" si="8"/>
+        <v>4.1263993321037846E-7</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="9"/>
+        <v>14.700690456672689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y18">
         <v>14</v>
       </c>
@@ -1475,7 +1696,7 @@
         <v>2.9499999999997861E-3</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>794941435.22828996</v>
       </c>
       <c r="AE18">
@@ -1490,12 +1711,28 @@
         <f t="shared" si="4"/>
         <v>1671646.2538004122</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI18">
         <f t="shared" si="5"/>
+        <v>5.9821268867533737E-7</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="6"/>
+        <v>14.329319479549014</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="7"/>
         <v>1673451.9632705331</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL18">
+        <f t="shared" si="8"/>
+        <v>5.9756719759414948E-7</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="9"/>
+        <v>14.330399094871694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y19">
         <v>15</v>
       </c>
@@ -1507,15 +1744,15 @@
         <v>2.7332399999999999</v>
       </c>
       <c r="AB19">
-        <f t="shared" ref="AB19:AB82" si="7">Z19/1000000</f>
+        <f t="shared" ref="AB19:AB82" si="11">Z19/1000000</f>
         <v>8.8999999999999995E-4</v>
       </c>
       <c r="AC19">
-        <f t="shared" ref="AC19:AC82" si="8">AA19-$X$5</f>
+        <f t="shared" ref="AC19:AC82" si="12">AA19-$X$5</f>
         <v>2.2599999999997067E-3</v>
       </c>
       <c r="AD19">
-        <f t="shared" ref="AD19:AD82" si="9">(0.271*0.04^2*AC19*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z19/1000000))</f>
+        <f t="shared" ref="AD19:AD82" si="13">(0.271*0.04^2*AC19*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z19/1000000))</f>
         <v>526892814.92446816</v>
       </c>
       <c r="AE19">
@@ -1523,19 +1760,35 @@
         <v>1.8979192193830794E-9</v>
       </c>
       <c r="AF19">
-        <f t="shared" ref="AF19:AF82" si="10">LN(AD19)</f>
+        <f t="shared" ref="AF19:AF82" si="14">LN(AD19)</f>
         <v>20.082507698579548</v>
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="4"/>
         <v>1280651.0283351575</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI19">
         <f t="shared" si="5"/>
+        <v>7.8085284583732145E-7</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="6"/>
+        <v>14.062879122481423</v>
+      </c>
+      <c r="AK19" s="3">
+        <f t="shared" si="7"/>
         <v>1281710.8205430964</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL19">
+        <f t="shared" si="8"/>
+        <v>7.8020719180343055E-7</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="9"/>
+        <v>14.063706322019094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1551,7 +1804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1592,10 +1845,25 @@
         <v>12</v>
       </c>
       <c r="AH22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1625,15 +1893,15 @@
         <v>2.77251</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.1529999999999845E-2</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>538574506565.15948</v>
       </c>
       <c r="AE23">
@@ -1641,19 +1909,35 @@
         <v>1.8567533141842371E-12</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>27.012191683424547</v>
       </c>
       <c r="AH23" s="3">
-        <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>23533379.295029119</v>
-      </c>
-      <c r="AI23" s="3">
+        <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$23 /$U$13^2</f>
+        <v>23536739.999950085</v>
+      </c>
+      <c r="AI23">
+        <f>1/AH23</f>
+        <v>4.248676749635339E-8</v>
+      </c>
+      <c r="AJ23">
+        <f>LN(AH23)</f>
+        <v>16.974073162523435</v>
+      </c>
+      <c r="AK23" s="3">
         <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA23 /$U$13^2</f>
         <v>23891251.283151533</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL23">
+        <f>1/AK23</f>
+        <v>4.1856325905592685E-8</v>
+      </c>
+      <c r="AM23">
+        <f>LN(AK23)</f>
+        <v>16.989022894788956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1713,15 +1997,15 @@
         <v>2.7698299999999998</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8849999999999607E-2</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>403055518036.24011</v>
       </c>
       <c r="AE24">
@@ -1729,19 +2013,35 @@
         <v>2.4810477843652461E-12</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>26.722340151281326</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" ref="AH24:AH37" si="11">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>22014731.172932219</v>
-      </c>
-      <c r="AI24" s="3">
-        <f t="shared" ref="AI24:AI37" si="12">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA24 /$U$13^2</f>
+        <f t="shared" ref="AH24:AH37" si="15">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$23 /$U$13^2</f>
+        <v>22017875.005972903</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" ref="AI24:AI37" si="16">1/AH24</f>
+        <v>4.5417643606784253E-8</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" ref="AJ24:AJ37" si="17">LN(AH24)</f>
+        <v>16.907365181694423</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" ref="AK24:AK37" si="18">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA24 /$U$13^2</f>
         <v>22327905.310446374</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AL24">
+        <f t="shared" ref="AL24:AL37" si="19">1/AK24</f>
+        <v>4.4787004696411812E-8</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" ref="AM24:AM37" si="20">LN(AK24)</f>
+        <v>16.921347813345804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1820,15 +2120,15 @@
         <v>2.7686199999999999</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.7639999999999674E-2</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>260334786767.63788</v>
       </c>
       <c r="AE25">
@@ -1836,19 +2136,35 @@
         <v>3.8412077479778034E-12</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>26.285234281076683</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="11"/>
-        <v>21329072.879000518</v>
-      </c>
-      <c r="AI25" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>21332118.7960057</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="16"/>
+        <v>4.6877668813059652E-8</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="17"/>
+        <v>16.875724419597947</v>
+      </c>
+      <c r="AK25" s="3">
+        <f t="shared" si="18"/>
         <v>21623042.920218531</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL25">
+        <f t="shared" si="19"/>
+        <v>4.6246959953307703E-8</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="20"/>
+        <v>16.889270105887629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1911,15 +2227,15 @@
         <v>2.7656499999999999</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.4669999999999757E-2</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>159861974091.99472</v>
       </c>
       <c r="AE26">
@@ -1927,19 +2243,35 @@
         <v>6.2553962922072797E-12</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25.797576617948273</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="11"/>
-        <v>19646093.430259012</v>
-      </c>
-      <c r="AI26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>19648899.007904325</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="16"/>
+        <v>5.0893436807717408E-8</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="17"/>
+        <v>16.793531864577702</v>
+      </c>
+      <c r="AK26" s="3">
+        <f t="shared" si="18"/>
         <v>19895502.089138635</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL26">
+        <f t="shared" si="19"/>
+        <v>5.0262616923144689E-8</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="20"/>
+        <v>16.806004238475644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y27">
         <v>5</v>
       </c>
@@ -1951,15 +2283,15 @@
         <v>2.7625600000000001</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.1579999999999941E-2</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100809767425.67722</v>
       </c>
       <c r="AE27">
@@ -1967,19 +2299,35 @@
         <v>9.9196737135343328E-12</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25.336501086953525</v>
       </c>
       <c r="AH27" s="3">
-        <f t="shared" si="11"/>
-        <v>17895114.811871435</v>
-      </c>
-      <c r="AI27" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>17897670.339475676</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="16"/>
+        <v>5.5873193607458948E-8</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="17"/>
+        <v>16.700181113708272</v>
+      </c>
+      <c r="AK27" s="3">
+        <f t="shared" si="18"/>
         <v>18102047.021466125</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL27">
+        <f t="shared" si="19"/>
+        <v>5.5242371142565275E-8</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="20"/>
+        <v>16.71153558494991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y28">
         <v>6</v>
       </c>
@@ -1991,15 +2339,15 @@
         <v>2.7574800000000002</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.6499999999999968E-2</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>57879678807.616104</v>
       </c>
       <c r="AE28">
@@ -2007,19 +2355,35 @@
         <v>1.7277220962539532E-11</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.781632189413305</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="11"/>
-        <v>15016483.296852231</v>
-      </c>
-      <c r="AI28" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>15018627.738952054</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="16"/>
+        <v>6.6583979400888755E-8</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="17"/>
+        <v>16.524801837872953</v>
+      </c>
+      <c r="AK28" s="3">
+        <f t="shared" si="18"/>
         <v>15162195.388250407</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL28">
+        <f t="shared" si="19"/>
+        <v>6.5953509659618744E-8</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="20"/>
+        <v>16.53431574222228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2037,15 +2401,15 @@
         <v>2.75237</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.34E-4</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.1389999999999798E-2</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>33121487277.10936</v>
       </c>
       <c r="AE29">
@@ -2053,19 +2417,35 @@
         <v>3.0191880927131903E-11</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.223448071165063</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" si="11"/>
-        <v>12120851.989421375</v>
-      </c>
-      <c r="AI29" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>12122582.918346478</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="16"/>
+        <v>8.2490671067020441E-8</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="17"/>
+        <v>16.310580627975082</v>
+      </c>
+      <c r="AK29" s="3">
+        <f t="shared" si="18"/>
         <v>12215786.783544263</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL29">
+        <f t="shared" si="19"/>
+        <v>8.1861284722739907E-8</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="20"/>
+        <v>16.318239671859939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2083,15 +2463,15 @@
         <v>2.7461700000000002</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.84E-4</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.5190000000000037E-2</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17129464828.410736</v>
       </c>
       <c r="AE30">
@@ -2099,19 +2479,35 @@
         <v>5.8378940032114219E-11</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>23.564065907020368</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" si="11"/>
-        <v>8607561.5577051379</v>
-      </c>
-      <c r="AI30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>8608790.7681012247</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="16"/>
+        <v>1.161603327270274E-7</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="17"/>
+        <v>15.96829442148846</v>
+      </c>
+      <c r="AK30" s="3">
+        <f t="shared" si="18"/>
         <v>8655437.7267219536</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL30">
+        <f t="shared" si="19"/>
+        <v>1.1553430705332182E-7</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="20"/>
+        <v>15.973698320324775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2129,15 +2525,15 @@
         <v>2.7423600000000001</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4399999999999999E-4</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1379999999999946E-2</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9677346235.5263767</v>
       </c>
       <c r="AE31">
@@ -2145,19 +2541,35 @@
         <v>1.0333411409100083E-10</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>22.993053551426648</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" si="11"/>
-        <v>6448587.9214406693</v>
-      </c>
-      <c r="AI31" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>6449508.817708442</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="16"/>
+        <v>1.5505056714618266E-7</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="17"/>
+        <v>15.679514533578958</v>
+      </c>
+      <c r="AK31" s="3">
+        <f t="shared" si="18"/>
         <v>6475459.2022797801</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL31">
+        <f t="shared" si="19"/>
+        <v>1.5442920243369541E-7</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="20"/>
+        <v>15.683530082306232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2175,15 +2587,15 @@
         <v>2.73874</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.1599999999999998E-4</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.7599999999997671E-3</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5095402342.6048899</v>
       </c>
       <c r="AE32">
@@ -2191,19 +2603,35 @@
         <v>1.9625535586043171E-10</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>22.351604468629855</v>
       </c>
       <c r="AH32" s="3">
-        <f t="shared" si="11"/>
-        <v>4397279.6371158464</v>
-      </c>
-      <c r="AI32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>4397907.5945005491</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="16"/>
+        <v>2.2738085749015507E-7</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="17"/>
+        <v>15.296639439075875</v>
+      </c>
+      <c r="AK32" s="3">
+        <f t="shared" si="18"/>
         <v>4409774.3789242879</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL32">
+        <f t="shared" si="19"/>
+        <v>2.2676897139665866E-7</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="20"/>
+        <v>15.299334084872589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -2260,15 +2688,15 @@
         <v>2.7366700000000002</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.9599999999999998E-4</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.6899999999999729E-3</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2981404648.3187323</v>
       </c>
       <c r="AE33">
@@ -2276,19 +2704,35 @@
         <v>3.3541237032816663E-10</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.815660384905424</v>
       </c>
       <c r="AH33" s="3">
-        <f t="shared" si="11"/>
-        <v>3224293.9607203347</v>
-      </c>
-      <c r="AI33" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>3224754.408854221</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="16"/>
+        <v>3.1010113429236532E-7</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="17"/>
+        <v>14.986367353019013</v>
+      </c>
+      <c r="AK33" s="3">
+        <f t="shared" si="18"/>
         <v>3231011.7809301126</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AL33">
+        <f t="shared" si="19"/>
+        <v>3.095005737528229E-7</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="20"/>
+        <v>14.988305891017912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2363,15 +2807,15 @@
         <v>2.7353499999999999</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.84E-4</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.369999999999763E-3</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1873440562.6836548</v>
       </c>
       <c r="AE34">
@@ -2379,19 +2823,35 @@
         <v>5.3377727584136754E-10</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.351042450412482</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" si="11"/>
-        <v>2476303.0946128592</v>
-      </c>
-      <c r="AI34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>2476656.7252534707</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="16"/>
+        <v>4.0377012680174967E-7</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="17"/>
+        <v>14.722420113988221</v>
+      </c>
+      <c r="AK34" s="3">
+        <f t="shared" si="18"/>
         <v>2480265.5712781795</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL34">
+        <f t="shared" si="19"/>
+        <v>4.0318263156177274E-7</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="20"/>
+        <v>14.72387619760077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2451,15 +2911,15 @@
         <v>2.7343500000000001</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8E-4</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.3699999999998731E-3</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1205606972.6908014</v>
       </c>
       <c r="AE35">
@@ -2467,19 +2927,35 @@
         <v>8.2945771105495026E-10</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.910248988845435</v>
       </c>
       <c r="AH35" s="3">
-        <f t="shared" si="11"/>
-        <v>1909643.3475618931</v>
-      </c>
-      <c r="AI35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>1909916.0558591157</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="16"/>
+        <v>5.2358322080819486E-7</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="17"/>
+        <v>14.462569849245011</v>
+      </c>
+      <c r="AK35" s="3">
+        <f t="shared" si="18"/>
         <v>1911999.8269507145</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL35">
+        <f t="shared" si="19"/>
+        <v>5.230125996375297E-7</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="20"/>
+        <v>14.463660282086531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y36">
         <v>14</v>
       </c>
@@ -2491,15 +2967,15 @@
         <v>2.7335799999999999</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5999999999997137E-3</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>781858390.23678553</v>
       </c>
       <c r="AE36">
@@ -2507,19 +2983,35 @@
         <v>1.2790039890691079E-9</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.477184195457692</v>
       </c>
       <c r="AH36" s="3">
-        <f t="shared" si="11"/>
-        <v>1473315.342332511</v>
-      </c>
-      <c r="AI36" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>1473525.7404253236</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="16"/>
+        <v>6.7864440543220945E-7</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="17"/>
+        <v>14.203168549908103</v>
+      </c>
+      <c r="AK36" s="3">
+        <f t="shared" si="18"/>
         <v>1474717.9962845957</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL36">
+        <f t="shared" si="19"/>
+        <v>6.7809574611512156E-7</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="20"/>
+        <v>14.203977340517522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y37">
         <v>15</v>
       </c>
@@ -2531,15 +3023,15 @@
         <v>2.7329400000000001</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.0999999999999996E-4</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9599999999999618E-3</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>502082282.50537735</v>
       </c>
       <c r="AE37">
@@ -2547,19 +3039,35 @@
         <v>1.9917054133239405E-9</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.034274573597592</v>
       </c>
       <c r="AH37" s="3">
-        <f t="shared" si="11"/>
-        <v>1110653.1042199936</v>
-      </c>
-      <c r="AI37" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>1110811.7120130369</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="16"/>
+        <v>9.0024257863448205E-7</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="17"/>
+        <v>13.920601578123184</v>
+      </c>
+      <c r="AK37" s="3">
+        <f t="shared" si="18"/>
         <v>1111450.2100516991</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL37">
+        <f t="shared" si="19"/>
+        <v>8.9972541365886734E-7</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="20"/>
+        <v>13.921176216107925</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2567,7 +3075,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2575,7 +3083,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2616,10 +3124,25 @@
         <v>12</v>
       </c>
       <c r="AH40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2649,15 +3172,15 @@
         <v>2.7619600000000002</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.0980000000000008E-2</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>292188134989.18567</v>
       </c>
       <c r="AE41">
@@ -2665,19 +3188,35 @@
         <v>3.4224524552888212E-12</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>26.400663729652077</v>
       </c>
       <c r="AH41" s="3">
-        <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>17555118.963640861</v>
-      </c>
-      <c r="AI41" s="3">
+        <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$41 /$U$13^2</f>
+        <v>17559168.691191807</v>
+      </c>
+      <c r="AI41">
+        <f>1/AH41</f>
+        <v>5.6950304287561705E-8</v>
+      </c>
+      <c r="AJ41">
+        <f>LN(AH41)</f>
+        <v>16.681086804002319</v>
+      </c>
+      <c r="AK41" s="3">
         <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA41 /$U$13^2</f>
         <v>17754262.708924089</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL41">
+        <f>1/AK41</f>
+        <v>5.6324501692619158E-8</v>
+      </c>
+      <c r="AM41">
+        <f>LN(AK41)</f>
+        <v>16.692136197669118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1</v>
       </c>
@@ -2734,15 +3273,15 @@
         <v>2.7546900000000001</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.3709999999999898E-2</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>182209758952.08176</v>
       </c>
       <c r="AE42">
@@ -2750,19 +3289,35 @@
         <v>5.4881802475957615E-12</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25.928424382094651</v>
       </c>
       <c r="AH42" s="3">
-        <f t="shared" ref="AH42:AH55" si="13">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>13435502.602579821</v>
-      </c>
-      <c r="AI42" s="3">
-        <f t="shared" ref="AI42:AI55" si="14">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA42 /$U$13^2</f>
+        <f t="shared" ref="AH42:AH56" si="21">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$41 /$U$13^2</f>
+        <v>13438601.990579594</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" ref="AI42:AI56" si="22">1/AH42</f>
+        <v>7.441250218594136E-8</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" ref="AJ42:AJ55" si="23">LN(AH42)</f>
+        <v>16.413641869090906</v>
+      </c>
+      <c r="AK42" s="3">
+        <f t="shared" ref="AK42:AK55" si="24">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA42 /$U$13^2</f>
         <v>13552147.823968176</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AL42">
+        <f t="shared" ref="AL42:AL56" si="25">1/AK42</f>
+        <v>7.3789041633047361E-8</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" ref="AM42:AM55" si="26">LN(AK42)</f>
+        <v>16.422055603722406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2837,15 +3392,15 @@
         <v>2.7551899999999998</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.6999999999999998E-5</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.4209999999999621E-2</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>135767840156.62904</v>
       </c>
       <c r="AE43">
@@ -2853,19 +3408,35 @@
         <v>7.3655145345639034E-12</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25.634212206327398</v>
       </c>
       <c r="AH43" s="3">
-        <f t="shared" si="13"/>
-        <v>13718832.476105176</v>
-      </c>
-      <c r="AI43" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>13721997.224459223</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="22"/>
+        <v>7.2875688840507647E-8</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="23"/>
+        <v>16.434510739963546</v>
+      </c>
+      <c r="AK43" s="3">
+        <f t="shared" si="24"/>
         <v>13840449.234282278</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL43">
+        <f t="shared" si="25"/>
+        <v>7.2251990023780246E-8</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="26"/>
+        <v>16.443105966751453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2925,15 +3496,15 @@
         <v>2.7525200000000001</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.1999999999999997E-5</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.1539999999999893E-2</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>85950062949.219452</v>
       </c>
       <c r="AE44">
@@ -2941,19 +3512,35 @@
         <v>1.1634662799384039E-11</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25.177032301168481</v>
       </c>
       <c r="AH44" s="3">
-        <f t="shared" si="13"/>
-        <v>12205850.951479087</v>
-      </c>
-      <c r="AI44" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>12208666.675541302</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="22"/>
+        <v>8.1909026315165777E-8</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="23"/>
+        <v>16.317656640741834</v>
+      </c>
+      <c r="AK44" s="3">
+        <f t="shared" si="24"/>
         <v>12302121.897987247</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL44">
+        <f t="shared" si="25"/>
+        <v>8.1286790058844263E-8</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="26"/>
+        <v>16.325282317495638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y45">
         <v>5</v>
       </c>
@@ -2965,15 +3552,15 @@
         <v>2.7490000000000001</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.2000000000000002E-5</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.8019999999999925E-2</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>51930934041.277634</v>
       </c>
       <c r="AE45">
@@ -2981,19 +3568,35 @@
         <v>1.9256345345245351E-11</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.673180481185803</v>
       </c>
       <c r="AH45" s="3">
-        <f t="shared" si="13"/>
-        <v>10211208.641859485</v>
-      </c>
-      <c r="AI45" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>10213564.229027597</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="22"/>
+        <v>9.7909013697484424E-8</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="23"/>
+        <v>16.139227221193785</v>
+      </c>
+      <c r="AK45" s="3">
+        <f t="shared" si="24"/>
         <v>10278585.912922001</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL45">
+        <f t="shared" si="25"/>
+        <v>9.7289647474057999E-8</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="26"/>
+        <v>16.145573251420693</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y46">
         <v>6</v>
       </c>
@@ -3005,15 +3608,15 @@
         <v>2.7454900000000002</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.02E-4</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.4510000000000023E-2</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>29516923141.827091</v>
       </c>
       <c r="AE46">
@@ -3021,19 +3624,35 @@
         <v>3.3878869934886453E-11</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.108229601633496</v>
       </c>
       <c r="AH46" s="3">
-        <f t="shared" si="13"/>
-        <v>8222232.929710432</v>
-      </c>
-      <c r="AI46" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>8224129.6871915255</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="22"/>
+        <v>1.2159341328936314E-7</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="23"/>
+        <v>15.922583035909694</v>
+      </c>
+      <c r="AK46" s="3">
+        <f t="shared" si="24"/>
         <v>8265918.5662987996</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL46">
+        <f t="shared" si="25"/>
+        <v>1.2097869002449736E-7</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="26"/>
+        <v>15.927651422359848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3054,15 +3673,15 @@
         <v>2.7423299999999999</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.4200000000000001E-4</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1349999999999749E-2</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16584842857.908787</v>
       </c>
       <c r="AE47">
@@ -3070,19 +3689,35 @@
         <v>6.0296018995629588E-11</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>23.5317550343478</v>
       </c>
       <c r="AH47" s="3">
-        <f t="shared" si="13"/>
-        <v>6431588.12902903</v>
-      </c>
-      <c r="AI47" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>6433071.8090710975</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="22"/>
+        <v>1.554467336412952E-7</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="23"/>
+        <v>15.676962712940986</v>
+      </c>
+      <c r="AK47" s="3">
+        <f t="shared" si="24"/>
         <v>6458317.9202631209</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL47">
+        <f t="shared" si="25"/>
+        <v>1.5483907920706056E-7</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="26"/>
+        <v>15.680879457992823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -3100,15 +3735,15 @@
         <v>2.7395700000000001</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.92E-4</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.5899999999998755E-3</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9283158783.5995483</v>
       </c>
       <c r="AE48">
@@ -3116,19 +3751,35 @@
         <v>1.0772195362710899E-10</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>22.951467711990038</v>
       </c>
       <c r="AH48" s="3">
-        <f t="shared" si="13"/>
-        <v>4867607.227168262</v>
-      </c>
-      <c r="AI48" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>4868730.1180547262</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="22"/>
+        <v>2.0539236633628491E-7</v>
+      </c>
+      <c r="AJ48">
+        <f t="shared" si="23"/>
+        <v>15.398343705009745</v>
+      </c>
+      <c r="AK48" s="3">
+        <f t="shared" si="24"/>
         <v>4882917.755286877</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL48">
+        <f t="shared" si="25"/>
+        <v>2.0479558536845534E-7</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="26"/>
+        <v>15.401253499831478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -3146,15 +3797,15 @@
         <v>2.7378200000000001</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.52E-4</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.8399999999999572E-3</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5631957964.838089</v>
       </c>
       <c r="AE49">
@@ -3162,19 +3813,35 @@
         <v>1.7755814341003317E-10</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>22.451722992144699</v>
       </c>
       <c r="AH49" s="3">
-        <f t="shared" si="13"/>
-        <v>3875952.6698290082</v>
-      </c>
-      <c r="AI49" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>3876846.7994755055</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="22"/>
+        <v>2.5794158286968908E-7</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="23"/>
+        <v>15.170532700648049</v>
+      </c>
+      <c r="AK49" s="3">
+        <f t="shared" si="24"/>
         <v>3885660.3631338403</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL49">
+        <f t="shared" si="25"/>
+        <v>2.573565125474543E-7</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="26"/>
+        <v>15.172803504979951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -3192,15 +3859,15 @@
         <v>2.7361800000000001</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.2400000000000001E-4</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.1999999999998714E-3</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3330137588.0458527</v>
       </c>
       <c r="AE50">
@@ -3208,19 +3875,35 @@
         <v>3.0028789308576493E-10</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.926279457816698</v>
       </c>
       <c r="AH50" s="3">
-        <f t="shared" si="13"/>
-        <v>2946630.6846652734</v>
-      </c>
-      <c r="AI50" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>2947310.4323497452</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="22"/>
+        <v>3.3929238977475113E-7</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="23"/>
+        <v>14.896403594600953</v>
+      </c>
+      <c r="AK50" s="3">
+        <f t="shared" si="24"/>
         <v>2952241.3004736132</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL50">
+        <f t="shared" si="25"/>
+        <v>3.3872569963694197E-7</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="26"/>
+        <v>14.898075202714708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>1</v>
       </c>
@@ -3277,15 +3960,15 @@
         <v>2.7351999999999999</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.0400000000000001E-4</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.2199999999996685E-3</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2167379341.8617129</v>
       </c>
       <c r="AE51">
@@ -3293,19 +3976,35 @@
         <v>4.6138669898967961E-10</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.496784598108359</v>
       </c>
       <c r="AH51" s="3">
-        <f t="shared" si="13"/>
-        <v>2391304.1325551514</v>
-      </c>
-      <c r="AI51" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>2391855.7739452417</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="22"/>
+        <v>4.1808540920113758E-7</v>
+      </c>
+      <c r="AJ51">
+        <f t="shared" si="23"/>
+        <v>14.687580097061439</v>
+      </c>
+      <c r="AK51" s="3">
+        <f t="shared" si="24"/>
         <v>2394999.2542475043</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AL51">
+        <f t="shared" si="25"/>
+        <v>4.1753666445887665E-7</v>
+      </c>
+      <c r="AM51">
+        <f t="shared" si="26"/>
+        <v>14.688893477448191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -3380,15 +4079,15 @@
         <v>2.7343000000000002</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.8999999999999998E-4</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.3199999999999896E-3</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1405872213.7791362</v>
       </c>
       <c r="AE52">
@@ -3396,19 +4095,35 @@
         <v>7.1130220101007055E-10</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.063923739845389</v>
       </c>
       <c r="AH52" s="3">
-        <f t="shared" si="13"/>
-        <v>1881310.3602094075</v>
-      </c>
-      <c r="AI52" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>1881744.352961801</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="22"/>
+        <v>5.3142181530983972E-7</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" si="23"/>
+        <v>14.447709751941991</v>
+      </c>
+      <c r="AK52" s="3">
+        <f t="shared" si="24"/>
         <v>1883597.4331267835</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL52">
+        <f t="shared" si="25"/>
+        <v>5.3089900337143364E-7</v>
+      </c>
+      <c r="AM52">
+        <f t="shared" si="26"/>
+        <v>14.448694034602033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3468,15 +4183,15 @@
         <v>2.7336200000000002</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.6399999999999757E-3</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>928444096.25519705</v>
       </c>
       <c r="AE53">
@@ -3484,19 +4199,35 @@
         <v>1.0770707725251502E-9</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.649020728280121</v>
       </c>
       <c r="AH53" s="3">
-        <f t="shared" si="13"/>
-        <v>1495981.7322147004</v>
-      </c>
-      <c r="AI53" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>1496326.8348852783</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="22"/>
+        <v>6.6830319198056012E-7</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="23"/>
+        <v>14.218523886171813</v>
+      </c>
+      <c r="AK53" s="3">
+        <f t="shared" si="24"/>
         <v>1497427.8767390274</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL53">
+        <f t="shared" si="25"/>
+        <v>6.6781179616992031E-7</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" si="26"/>
+        <v>14.21925944536717</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y54">
         <v>14</v>
       </c>
@@ -3508,15 +4239,15 @@
         <v>2.7330399999999999</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.0599999999997287E-3</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>610622810.92447412</v>
       </c>
       <c r="AE54">
@@ -3524,19 +4255,35 @@
         <v>1.6376721965005114E-9</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.229989995779622</v>
       </c>
       <c r="AH54" s="3">
-        <f t="shared" si="13"/>
-        <v>1167319.0789249642</v>
-      </c>
-      <c r="AI54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>1167588.363584582</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="22"/>
+        <v>8.5646622661596814E-7</v>
+      </c>
+      <c r="AJ54">
+        <f t="shared" si="23"/>
+        <v>13.970450951814955</v>
+      </c>
+      <c r="AK54" s="3">
+        <f t="shared" si="24"/>
         <v>1168199.5970183173</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL54">
+        <f t="shared" si="25"/>
+        <v>8.5601810046191963E-7</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" si="26"/>
+        <v>13.970974315628791</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y55">
         <v>15</v>
       </c>
@@ -3548,15 +4295,15 @@
         <v>2.7325699999999999</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.1999999999999998E-4</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.5899999999997583E-3</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>402334352.68702698</v>
       </c>
       <c r="AE55">
@@ -3564,19 +4311,35 @@
         <v>2.4854949454885174E-9</v>
       </c>
       <c r="AF55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.812794023995359</v>
       </c>
       <c r="AH55" s="3">
-        <f t="shared" si="13"/>
-        <v>900988.99781099788</v>
-      </c>
-      <c r="AI55" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>901196.84373759583</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="22"/>
+        <v>1.1096354885716544E-6</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" si="23"/>
+        <v>13.711478985245584</v>
+      </c>
+      <c r="AK55" s="3">
+        <f t="shared" si="24"/>
         <v>901513.5613400311</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL55">
+        <f t="shared" si="25"/>
+        <v>1.1092456540682276E-6</v>
+      </c>
+      <c r="AM55">
+        <f t="shared" si="26"/>
+        <v>13.711830364596146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -3594,15 +4357,15 @@
         <v>2.7322000000000002</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.5E-4</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.2199999999999989E-3</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>266464936.3973271</v>
       </c>
       <c r="AE56">
@@ -3610,11 +4373,35 @@
         <v>3.7528389795680108E-9</v>
       </c>
       <c r="AF56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.400753222172249</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AH56" s="3">
+        <f t="shared" si="21"/>
+        <v>691484.37066668738</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="22"/>
+        <v>1.4461642842857902E-6</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" ref="AJ56" si="27">LN(AH56)</f>
+        <v>13.446595827758761</v>
+      </c>
+      <c r="AK56" s="3">
+        <f t="shared" ref="AK56" si="28">0.271/0.64 * $U$11 * AC56 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA56 /$U$13^2</f>
+        <v>691633.72426353814</v>
+      </c>
+      <c r="AL56">
+        <f t="shared" si="25"/>
+        <v>1.4458519949483592E-6</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" ref="AM56" si="29">LN(AK56)</f>
+        <v>13.44681179427381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3622,7 +4409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3630,7 +4417,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3671,10 +4458,25 @@
         <v>12</v>
       </c>
       <c r="AH59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>1</v>
       </c>
@@ -3743,15 +4545,15 @@
         <v>2.7751399999999999</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.16E-4</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.4159999999999755E-2</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>78990510258.20105</v>
       </c>
       <c r="AE60">
@@ -3759,19 +4561,35 @@
         <v>1.265974857905386E-11</v>
       </c>
       <c r="AF60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25.09259355888414</v>
       </c>
       <c r="AH60" s="3">
-        <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>25023694.429773264</v>
-      </c>
-      <c r="AI60" s="3">
+        <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$60 /$U$13^2</f>
+        <v>25024244.20372466</v>
+      </c>
+      <c r="AI60">
+        <f>1/AH60</f>
+        <v>3.9961246855605651E-8</v>
+      </c>
+      <c r="AJ60">
+        <f>LN(AH60)</f>
+        <v>17.035355681060114</v>
+      </c>
+      <c r="AK60" s="3">
         <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA60 /$U$13^2</f>
         <v>25428328.058001511</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AL60">
+        <f>1/AK60</f>
+        <v>3.9326219078148588E-8</v>
+      </c>
+      <c r="AM60">
+        <f>LN(AK60)</f>
+        <v>17.051374388402497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -3846,15 +4664,15 @@
         <v>2.77413</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.22E-4</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.31499999999998E-2</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>73387959589.27298</v>
       </c>
       <c r="AE61">
@@ -3862,19 +4680,35 @@
         <v>1.3626213422428612E-11</v>
       </c>
       <c r="AF61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25.019025720817844</v>
       </c>
       <c r="AH61" s="3">
-        <f t="shared" ref="AH61:AH74" si="15">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>24451368.085251752</v>
-      </c>
-      <c r="AI61" s="3">
-        <f t="shared" ref="AI61:AI74" si="16">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA61 /$U$13^2</f>
+        <f t="shared" ref="AH61:AH74" si="30">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$60 /$U$13^2</f>
+        <v>24451905.285115942</v>
+      </c>
+      <c r="AI61">
+        <f t="shared" ref="AI61:AI74" si="31">1/AH61</f>
+        <v>4.089660860124088E-8</v>
+      </c>
+      <c r="AJ61">
+        <f t="shared" ref="AJ61:AJ74" si="32">LN(AH61)</f>
+        <v>17.012218696620714</v>
+      </c>
+      <c r="AK61" s="3">
+        <f t="shared" ref="AK61:AK74" si="33">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA61 /$U$13^2</f>
         <v>24837704.320917558</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL61">
+        <f t="shared" ref="AL61:AL74" si="34">1/AK61</f>
+        <v>4.0261369854452712E-8</v>
+      </c>
+      <c r="AM61">
+        <f t="shared" ref="AM61:AM74" si="35">LN(AK61)</f>
+        <v>17.027873392116074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -3934,15 +4768,15 @@
         <v>2.7735099999999999</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.2529999999999735E-2</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>66853676463.793755</v>
       </c>
       <c r="AE62">
@@ -3950,19 +4784,35 @@
         <v>1.495804049821515E-11</v>
       </c>
       <c r="AF62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.925772134700836</v>
       </c>
       <c r="AH62" s="3">
-        <f t="shared" si="15"/>
-        <v>24100039.042080078</v>
-      </c>
-      <c r="AI62" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>24100568.523197673</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="31"/>
+        <v>4.1492797111299002E-8</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="32"/>
+        <v>16.997745988356819</v>
+      </c>
+      <c r="AK62" s="3">
+        <f t="shared" si="33"/>
         <v>24475352.907600753</v>
       </c>
-    </row>
-    <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL62">
+        <f t="shared" si="34"/>
+        <v>4.085742925853595E-8</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="35"/>
+        <v>17.013177165382135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y63">
         <v>4</v>
       </c>
@@ -3974,15 +4824,15 @@
         <v>2.7711100000000002</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.4799999999999999E-4</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.0129999999999999E-2</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>56261497578.331345</v>
       </c>
       <c r="AE63">
@@ -3990,19 +4840,35 @@
         <v>1.7774144717845936E-11</v>
       </c>
       <c r="AF63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.753276258536378</v>
       </c>
       <c r="AH63" s="3">
-        <f t="shared" si="15"/>
-        <v>22740055.649157763</v>
-      </c>
-      <c r="AI63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>22740555.251256257</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" si="31"/>
+        <v>4.3974300053414788E-8</v>
+      </c>
+      <c r="AJ63">
+        <f t="shared" si="32"/>
+        <v>16.939660463370107</v>
+      </c>
+      <c r="AK63" s="3">
+        <f t="shared" si="33"/>
         <v>23074206.186034892</v>
       </c>
-    </row>
-    <row r="64" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL63">
+        <f t="shared" si="34"/>
+        <v>4.3338435651373608E-8</v>
+      </c>
+      <c r="AM63">
+        <f t="shared" si="35"/>
+        <v>16.9542259362895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y64">
         <v>5</v>
       </c>
@@ -4014,15 +4880,15 @@
         <v>2.7686700000000002</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.6799999999999999E-4</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.7690000000000001E-2</v>
       </c>
       <c r="AD64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>46550108704.9888</v>
       </c>
       <c r="AE64">
@@ -4030,19 +4896,35 @@
         <v>2.1482226955419107E-11</v>
       </c>
       <c r="AF64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.563795175897454</v>
       </c>
       <c r="AH64" s="3">
-        <f t="shared" si="15"/>
-        <v>21357405.866353251</v>
-      </c>
-      <c r="AI64" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>21357875.091448996</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" si="31"/>
+        <v>4.682113720200413E-8</v>
+      </c>
+      <c r="AJ64">
+        <f t="shared" si="32"/>
+        <v>16.876931086370323</v>
+      </c>
+      <c r="AK64" s="3">
+        <f t="shared" si="33"/>
         <v>21652157.430664543</v>
       </c>
-    </row>
-    <row r="65" spans="21:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL64">
+        <f t="shared" si="34"/>
+        <v>4.6184774113260647E-8</v>
+      </c>
+      <c r="AM64">
+        <f t="shared" si="35"/>
+        <v>16.890615657825119</v>
+      </c>
+    </row>
+    <row r="65" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y65">
         <v>6</v>
       </c>
@@ -4054,15 +4936,15 @@
         <v>2.7652600000000001</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.9799999999999999E-4</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.4279999999999866E-2</v>
       </c>
       <c r="AD65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>35923568135.102371</v>
       </c>
       <c r="AE65">
@@ -4070,19 +4952,35 @@
         <v>2.7836878459265842E-11</v>
       </c>
       <c r="AF65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.304659411056708</v>
       </c>
       <c r="AH65" s="3">
-        <f t="shared" si="15"/>
-        <v>19425096.128909171</v>
-      </c>
-      <c r="AI65" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>19425522.900898617</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="31"/>
+        <v>5.1478665727641254E-8</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" si="32"/>
+        <v>16.782098372820855</v>
+      </c>
+      <c r="AK65" s="3">
+        <f t="shared" si="33"/>
         <v>19668925.19221209</v>
       </c>
-    </row>
-    <row r="66" spans="21:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL65">
+        <f t="shared" si="34"/>
+        <v>5.0841618961261286E-8</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" si="35"/>
+        <v>16.794550546890214</v>
+      </c>
+    </row>
+    <row r="66" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y66">
         <v>7</v>
       </c>
@@ -4094,15 +4992,15 @@
         <v>2.7614000000000001</v>
       </c>
       <c r="AB66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="AC66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.0419999999999892E-2</v>
       </c>
       <c r="AD66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26299761601.592667</v>
       </c>
       <c r="AE66">
@@ -4110,19 +5008,35 @@
         <v>3.8023158352106193E-11</v>
       </c>
       <c r="AF66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>23.992825711510822</v>
       </c>
       <c r="AH66" s="3">
-        <f t="shared" si="15"/>
-        <v>17237789.505292218</v>
-      </c>
-      <c r="AI66" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>17238168.221859276</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" si="31"/>
+        <v>5.8010804113857401E-8</v>
+      </c>
+      <c r="AJ66">
+        <f t="shared" si="32"/>
+        <v>16.662636565922423</v>
+      </c>
+      <c r="AK66" s="3">
+        <f t="shared" si="33"/>
         <v>17429798.804793123</v>
       </c>
-    </row>
-    <row r="67" spans="21:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL66">
+        <f t="shared" si="34"/>
+        <v>5.7373008787973161E-8</v>
+      </c>
+      <c r="AM66">
+        <f t="shared" si="35"/>
+        <v>16.673691874388453</v>
+      </c>
+    </row>
+    <row r="67" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y67">
         <v>8</v>
       </c>
@@ -4134,15 +5048,15 @@
         <v>2.7567900000000001</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.92E-4</v>
       </c>
       <c r="AC67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.5809999999999889E-2</v>
       </c>
       <c r="AD67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18340408174.248367</v>
       </c>
       <c r="AE67">
@@ -4150,19 +5064,35 @@
         <v>5.4524413551716516E-11</v>
       </c>
       <c r="AF67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>23.632372559483905</v>
       </c>
       <c r="AH67" s="3">
-        <f t="shared" si="15"/>
-        <v>14625488.071386974</v>
-      </c>
-      <c r="AI67" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>14625809.395338187</v>
+      </c>
+      <c r="AI67">
+        <f t="shared" si="31"/>
+        <v>6.8372284430203147E-8</v>
+      </c>
+      <c r="AJ67">
+        <f t="shared" si="32"/>
+        <v>16.498298292821801</v>
+      </c>
+      <c r="AK67" s="3">
+        <f t="shared" si="33"/>
         <v>14763710.924400359</v>
       </c>
-    </row>
-    <row r="68" spans="21:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL67">
+        <f t="shared" si="34"/>
+        <v>6.7733648072672207E-8</v>
+      </c>
+      <c r="AM67">
+        <f t="shared" si="35"/>
+        <v>16.507682763178781</v>
+      </c>
+    </row>
+    <row r="68" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y68">
         <v>9</v>
       </c>
@@ -4174,15 +5104,15 @@
         <v>2.7533300000000001</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.5199999999999999E-4</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.234999999999987E-2</v>
       </c>
       <c r="AD68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13174638510.749393</v>
       </c>
       <c r="AE68">
@@ -4190,19 +5120,35 @@
         <v>7.590341087416435E-11</v>
       </c>
       <c r="AF68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>23.301559493483143</v>
       </c>
       <c r="AH68" s="3">
-        <f t="shared" si="15"/>
-        <v>12664845.346590409</v>
-      </c>
-      <c r="AI68" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>12665123.594955755</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="31"/>
+        <v>7.895698707577385E-8</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" si="32"/>
+        <v>16.354362600150854</v>
+      </c>
+      <c r="AK68" s="3">
+        <f t="shared" si="33"/>
         <v>12768492.862682175</v>
       </c>
-    </row>
-    <row r="69" spans="21:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL68">
+        <f t="shared" si="34"/>
+        <v>7.831777882906206E-8</v>
+      </c>
+      <c r="AM68">
+        <f t="shared" si="35"/>
+        <v>16.362491199327259</v>
+      </c>
+    </row>
+    <row r="69" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y69">
         <v>10</v>
       </c>
@@ -4214,15 +5160,15 @@
         <v>2.7495500000000002</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.2400000000000001E-4</v>
       </c>
       <c r="AC69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.8569999999999975E-2</v>
       </c>
       <c r="AD69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9087614397.3349895</v>
       </c>
       <c r="AE69">
@@ -4230,19 +5176,35 @@
         <v>1.1003988024549737E-10</v>
       </c>
       <c r="AF69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>22.930178268154325</v>
       </c>
       <c r="AH69" s="3">
-        <f t="shared" si="15"/>
-        <v>10522871.502737582</v>
-      </c>
-      <c r="AI69" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>10523102.691647848</v>
+      </c>
+      <c r="AI69">
+        <f t="shared" si="31"/>
+        <v>9.5029007062118348E-8</v>
+      </c>
+      <c r="AJ69">
+        <f t="shared" si="32"/>
+        <v>16.169083654455893</v>
+      </c>
+      <c r="AK69" s="3">
+        <f t="shared" si="33"/>
         <v>10594424.470465589</v>
       </c>
-    </row>
-    <row r="70" spans="21:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL69">
+        <f t="shared" si="34"/>
+        <v>9.4389270770463418E-8</v>
+      </c>
+      <c r="AM69">
+        <f t="shared" si="35"/>
+        <v>16.17583842734696</v>
+      </c>
+    </row>
+    <row r="70" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y70">
         <v>11</v>
       </c>
@@ -4254,35 +5216,51 @@
         <v>2.7464900000000001</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AC70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.5509999999999913E-2</v>
       </c>
       <c r="AD70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6436438697.289176</v>
       </c>
       <c r="AE70">
-        <f t="shared" ref="AE70:AE128" si="17">1/AD70</f>
+        <f t="shared" ref="AE70:AE128" si="36">1/AD70</f>
         <v>1.5536541976561795E-10</v>
       </c>
       <c r="AF70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>22.585241226787918</v>
       </c>
       <c r="AH70" s="3">
-        <f t="shared" si="15"/>
-        <v>8788892.6767614</v>
-      </c>
-      <c r="AI70" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>8789085.7699223179</v>
+      </c>
+      <c r="AI70">
+        <f t="shared" si="31"/>
+        <v>1.1377747654052516E-7</v>
+      </c>
+      <c r="AJ70">
+        <f t="shared" si="32"/>
+        <v>15.989021256279724</v>
+      </c>
+      <c r="AK70" s="3">
+        <f t="shared" si="33"/>
         <v>8838807.2588588763</v>
       </c>
-    </row>
-    <row r="71" spans="21:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL70">
+        <f t="shared" si="34"/>
+        <v>1.1313743706739723E-7</v>
+      </c>
+      <c r="AM70">
+        <f t="shared" si="35"/>
+        <v>15.994662500042113</v>
+      </c>
+    </row>
+    <row r="71" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y71">
         <v>12</v>
       </c>
@@ -4294,35 +5272,51 @@
         <v>2.74316</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="AC71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.2179999999999858E-2</v>
       </c>
       <c r="AD71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4283503444.0864658</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.3345376350298882E-10</v>
       </c>
       <c r="AF71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>22.178037073403644</v>
       </c>
       <c r="AH71" s="3">
-        <f t="shared" si="15"/>
-        <v>6901915.7190814419</v>
-      </c>
-      <c r="AI71" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>6902067.3551033624</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" si="31"/>
+        <v>1.4488412653066966E-7</v>
+      </c>
+      <c r="AJ71">
+        <f t="shared" si="32"/>
+        <v>15.74733154137302</v>
+      </c>
+      <c r="AK71" s="3">
+        <f t="shared" si="33"/>
         <v>6932697.8315313356</v>
       </c>
-    </row>
-    <row r="72" spans="21:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL71">
+        <f t="shared" si="34"/>
+        <v>1.4424399047825139E-7</v>
+      </c>
+      <c r="AM71">
+        <f t="shared" si="35"/>
+        <v>15.751759592888751</v>
+      </c>
+    </row>
+    <row r="72" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y72">
         <v>13</v>
       </c>
@@ -4334,35 +5328,51 @@
         <v>2.7406700000000002</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="AC72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9.6899999999999764E-3</v>
       </c>
       <c r="AD72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2913926077.4597187</v>
       </c>
       <c r="AE72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3.4317960491014678E-10</v>
       </c>
       <c r="AF72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.792767176333037</v>
       </c>
       <c r="AH72" s="3">
-        <f t="shared" si="15"/>
-        <v>5490932.9489244483</v>
-      </c>
-      <c r="AI72" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>5491053.5854640556</v>
+      </c>
+      <c r="AI72">
+        <f t="shared" si="31"/>
+        <v>1.8211441291471003E-7</v>
+      </c>
+      <c r="AJ72">
+        <f t="shared" si="32"/>
+        <v>15.518630704993953</v>
+      </c>
+      <c r="AK72" s="3">
+        <f t="shared" si="33"/>
         <v>5510415.7500709528</v>
       </c>
-    </row>
-    <row r="73" spans="21:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="AL72">
+        <f t="shared" si="34"/>
+        <v>1.8147451033746843E-7</v>
+      </c>
+      <c r="AM72">
+        <f t="shared" si="35"/>
+        <v>15.522150632015993</v>
+      </c>
+    </row>
+    <row r="73" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y73">
         <v>14</v>
       </c>
@@ -4374,35 +5384,51 @@
         <v>2.7385700000000002</v>
       </c>
       <c r="AB73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="AC73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.5899999999999856E-3</v>
       </c>
       <c r="AD73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1968591622.8411114</v>
       </c>
       <c r="AE73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>5.079773724510621E-10</v>
       </c>
       <c r="AF73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21.400584211761277</v>
       </c>
       <c r="AH73" s="3">
-        <f t="shared" si="15"/>
-        <v>4300947.4801172959</v>
-      </c>
-      <c r="AI73" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>4301041.9725151928</v>
+      </c>
+      <c r="AI73">
+        <f t="shared" si="31"/>
+        <v>2.3250179988715924E-7</v>
+      </c>
+      <c r="AJ73">
+        <f t="shared" si="32"/>
+        <v>15.274367870498818</v>
+      </c>
+      <c r="AK73" s="3">
+        <f t="shared" si="33"/>
         <v>4312900.7684511878</v>
       </c>
-    </row>
-    <row r="74" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL73">
+        <f t="shared" si="34"/>
+        <v>2.3186251056713079E-7</v>
+      </c>
+      <c r="AM73">
+        <f t="shared" si="35"/>
+        <v>15.277121267818627</v>
+      </c>
+    </row>
+    <row r="74" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y74">
         <v>15</v>
       </c>
@@ -4414,35 +5440,51 @@
         <v>2.7365400000000002</v>
       </c>
       <c r="AB74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="AC74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.5600000000000094E-3</v>
       </c>
       <c r="AD74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1253980572.0337536</v>
       </c>
       <c r="AE74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>7.9746052076242436E-10</v>
       </c>
       <c r="AF74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20.949588786241076</v>
       </c>
       <c r="AH74" s="3">
-        <f t="shared" si="15"/>
-        <v>3150628.1936037214</v>
-      </c>
-      <c r="AI74" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
+        <v>3150697.4133312977</v>
+      </c>
+      <c r="AI74">
+        <f t="shared" si="31"/>
+        <v>3.1739004696826133E-7</v>
+      </c>
+      <c r="AJ74">
+        <f t="shared" si="32"/>
+        <v>14.963134387353774</v>
+      </c>
+      <c r="AK74" s="3">
+        <f t="shared" si="33"/>
         <v>3157042.5550257885</v>
       </c>
-    </row>
-    <row r="77" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL74">
+        <f t="shared" si="34"/>
+        <v>3.1675214463234612E-7</v>
+      </c>
+      <c r="AM74">
+        <f t="shared" si="35"/>
+        <v>14.965146247026659</v>
+      </c>
+    </row>
+    <row r="77" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U77" t="s">
         <v>1</v>
       </c>
@@ -4477,10 +5519,25 @@
         <v>12</v>
       </c>
       <c r="AH77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="21:35" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U78" s="1">
         <v>200</v>
       </c>
@@ -4504,35 +5561,51 @@
         <v>2.7715999999999998</v>
       </c>
       <c r="AB78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="AC78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.0619999999999656E-2</v>
       </c>
       <c r="AD78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>42141866519.001541</v>
       </c>
       <c r="AE78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.3729371349726651E-11</v>
       </c>
       <c r="AF78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.464307537625864</v>
       </c>
       <c r="AH78" s="3">
-        <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>23017718.925212566</v>
-      </c>
-      <c r="AI78" s="3">
+        <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$78 /$U$13^2</f>
+        <v>23018983.181208134</v>
+      </c>
+      <c r="AI78">
+        <f>1/AH78</f>
+        <v>4.344240543241562E-8</v>
+      </c>
+      <c r="AJ78">
+        <f>LN(AH78)</f>
+        <v>16.951829789179403</v>
+      </c>
+      <c r="AK78" s="3">
         <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA78 /$U$13^2</f>
         <v>23360079.448812932</v>
       </c>
-    </row>
-    <row r="79" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL78">
+        <f>1/AK78</f>
+        <v>4.2808073585161378E-8</v>
+      </c>
+      <c r="AM78">
+        <f>LN(AK78)</f>
+        <v>16.966539116980716</v>
+      </c>
+    </row>
+    <row r="79" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y79">
         <v>2</v>
       </c>
@@ -4544,35 +5617,51 @@
         <v>2.7696999999999998</v>
       </c>
       <c r="AB79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.12E-4</v>
       </c>
       <c r="AC79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8719999999999644E-2</v>
       </c>
       <c r="AD79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>37896869086.139793</v>
       </c>
       <c r="AE79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.638740413428335E-11</v>
       </c>
       <c r="AF79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.358134335758024</v>
       </c>
       <c r="AH79" s="3">
-        <f t="shared" ref="AH79:AH92" si="18">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>21941065.405815609</v>
-      </c>
-      <c r="AI79" s="3">
-        <f t="shared" ref="AI79:AI92" si="19">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA79 /$U$13^2</f>
+        <f t="shared" ref="AH79:AH92" si="37">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$78 /$U$13^2</f>
+        <v>21942270.526252542</v>
+      </c>
+      <c r="AI79">
+        <f t="shared" ref="AI79:AI92" si="38">1/AH79</f>
+        <v>4.5574135037828612E-8</v>
+      </c>
+      <c r="AJ79">
+        <f t="shared" ref="AJ79:AJ92" si="39">LN(AH79)</f>
+        <v>16.903925495435541</v>
+      </c>
+      <c r="AK79" s="3">
+        <f t="shared" ref="AK79:AK92" si="40">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA79 /$U$13^2</f>
         <v>22252147.161270857</v>
       </c>
-    </row>
-    <row r="80" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL79">
+        <f t="shared" ref="AL79:AL92" si="41">1/AK79</f>
+        <v>4.4939483491304052E-8</v>
+      </c>
+      <c r="AM79">
+        <f t="shared" ref="AM79:AM92" si="42">LN(AK79)</f>
+        <v>16.91794906355069</v>
+      </c>
+    </row>
+    <row r="80" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y80">
         <v>3</v>
       </c>
@@ -4584,35 +5673,51 @@
         <v>2.7667999999999999</v>
       </c>
       <c r="AB80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.32E-4</v>
       </c>
       <c r="AC80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.5819999999999741E-2</v>
       </c>
       <c r="AD80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>32036232760.968712</v>
       </c>
       <c r="AE80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3.1214656462926823E-11</v>
       </c>
       <c r="AF80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.190133372987919</v>
       </c>
       <c r="AH80" s="3">
-        <f t="shared" si="18"/>
-        <v>20297752.139367681</v>
-      </c>
-      <c r="AI80" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>20298867.000267759</v>
+      </c>
+      <c r="AI80">
+        <f t="shared" si="38"/>
+        <v>4.9263833296055842E-8</v>
+      </c>
+      <c r="AJ80">
+        <f t="shared" si="39"/>
+        <v>16.826075629659734</v>
+      </c>
+      <c r="AK80" s="3">
+        <f t="shared" si="40"/>
         <v>20563980.922307193</v>
       </c>
-    </row>
-    <row r="81" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL80">
+        <f t="shared" si="41"/>
+        <v>4.86287165786674E-8</v>
+      </c>
+      <c r="AM80">
+        <f t="shared" si="42"/>
+        <v>16.839051604434246</v>
+      </c>
+    </row>
+    <row r="81" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y81">
         <v>4</v>
       </c>
@@ -4624,35 +5729,51 @@
         <v>2.76491</v>
       </c>
       <c r="AB81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.6400000000000002E-4</v>
       </c>
       <c r="AC81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.3929999999999794E-2</v>
       </c>
       <c r="AD81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26667590435.181313</v>
       </c>
       <c r="AE81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3.7498700995525508E-11</v>
       </c>
       <c r="AF81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.006714823671487</v>
       </c>
       <c r="AH81" s="3">
-        <f t="shared" si="18"/>
-        <v>19226765.217441272</v>
-      </c>
-      <c r="AI81" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>19227821.254022501</v>
+      </c>
+      <c r="AI81">
+        <f t="shared" si="38"/>
+        <v>5.2007972551273734E-8</v>
+      </c>
+      <c r="AJ81">
+        <f t="shared" si="39"/>
+        <v>16.771868811823307</v>
+      </c>
+      <c r="AK81" s="3">
+        <f t="shared" si="40"/>
         <v>19465640.692116216</v>
       </c>
-    </row>
-    <row r="82" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL81">
+        <f t="shared" si="41"/>
+        <v>5.1372570562499401E-8</v>
+      </c>
+      <c r="AM81">
+        <f t="shared" si="42"/>
+        <v>16.784161453569318</v>
+      </c>
+    </row>
+    <row r="82" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y82">
         <v>5</v>
       </c>
@@ -4664,35 +5785,51 @@
         <v>2.7613699999999999</v>
       </c>
       <c r="AB82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.1199999999999999E-4</v>
       </c>
       <c r="AC82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.0389999999999695E-2</v>
       </c>
       <c r="AD82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>20210634579.28479</v>
       </c>
       <c r="AE82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>4.9478901618703542E-11</v>
       </c>
       <c r="AF82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>23.729474767140879</v>
       </c>
       <c r="AH82" s="3">
-        <f t="shared" si="18"/>
-        <v>17220789.712880574</v>
-      </c>
-      <c r="AI82" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>17221735.570578884</v>
+      </c>
+      <c r="AI82">
+        <f t="shared" si="38"/>
+        <v>5.8066156915588176E-8</v>
+      </c>
+      <c r="AJ82">
+        <f t="shared" si="39"/>
+        <v>16.661682839955866</v>
+      </c>
+      <c r="AK82" s="3">
+        <f t="shared" si="40"/>
         <v>17412420.482558284</v>
       </c>
-    </row>
-    <row r="83" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL82">
+        <f t="shared" si="41"/>
+        <v>5.7430269444830054E-8</v>
+      </c>
+      <c r="AM82">
+        <f t="shared" si="42"/>
+        <v>16.672694330372522</v>
+      </c>
+    </row>
+    <row r="83" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y83">
         <v>6</v>
       </c>
@@ -4704,35 +5841,51 @@
         <v>2.7570100000000002</v>
       </c>
       <c r="AB83">
-        <f t="shared" ref="AB83:AB128" si="20">Z83/1000000</f>
+        <f t="shared" ref="AB83:AB128" si="43">Z83/1000000</f>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="AC83">
-        <f t="shared" ref="AC83:AC128" si="21">AA83-$X$5</f>
+        <f t="shared" ref="AC83:AC128" si="44">AA83-$X$5</f>
         <v>2.6029999999999998E-2</v>
       </c>
       <c r="AD83">
-        <f t="shared" ref="AD83:AD128" si="22">(0.271*0.04^2*AC83*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z83/1000000))</f>
+        <f t="shared" ref="AD83:AD128" si="45">(0.271*0.04^2*AC83*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z83/1000000))</f>
         <v>14213283390.209896</v>
       </c>
       <c r="AE83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>7.0356720016488214E-11</v>
       </c>
       <c r="AF83">
-        <f t="shared" ref="AF83:AF128" si="23">LN(AD83)</f>
+        <f t="shared" ref="AF83:AF128" si="46">LN(AD83)</f>
         <v>23.377442814307713</v>
       </c>
       <c r="AH83" s="3">
-        <f t="shared" si="18"/>
-        <v>14750153.215738263</v>
-      </c>
-      <c r="AI83" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>14750963.372891502</v>
+      </c>
+      <c r="AI83">
+        <f t="shared" si="38"/>
+        <v>6.7792182430453608E-8</v>
+      </c>
+      <c r="AJ83">
+        <f t="shared" si="39"/>
+        <v>16.506818952033647</v>
+      </c>
+      <c r="AK83" s="3">
+        <f t="shared" si="40"/>
         <v>14890742.487064185</v>
       </c>
-    </row>
-    <row r="84" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL83">
+        <f t="shared" si="41"/>
+        <v>6.715581851400058E-8</v>
+      </c>
+      <c r="AM83">
+        <f t="shared" si="42"/>
+        <v>16.516250268229889</v>
+      </c>
+    </row>
+    <row r="84" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y84">
         <v>7</v>
       </c>
@@ -4744,35 +5897,51 @@
         <v>2.7521599999999999</v>
       </c>
       <c r="AB84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>4.7600000000000002E-4</v>
       </c>
       <c r="AC84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>2.1179999999999755E-2</v>
       </c>
       <c r="AD84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>9232575053.8134747</v>
       </c>
       <c r="AE84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.0831214413869881E-10</v>
       </c>
       <c r="AF84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>22.946003833963498</v>
       </c>
       <c r="AH84" s="3">
-        <f t="shared" si="18"/>
-        <v>12001853.44254064</v>
-      </c>
-      <c r="AI84" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>12002512.64839948</v>
+      </c>
+      <c r="AI84">
+        <f t="shared" si="38"/>
+        <v>8.3315888038938972E-8</v>
+      </c>
+      <c r="AJ84">
+        <f t="shared" si="39"/>
+        <v>16.300626573200422</v>
+      </c>
+      <c r="AK84" s="3">
+        <f t="shared" si="40"/>
         <v>12094933.309809167</v>
       </c>
-    </row>
-    <row r="85" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL84">
+        <f t="shared" si="41"/>
+        <v>8.2679248771796485E-8</v>
+      </c>
+      <c r="AM84">
+        <f t="shared" si="42"/>
+        <v>16.308297188146586</v>
+      </c>
+    </row>
+    <row r="85" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y85">
         <v>8</v>
       </c>
@@ -4784,35 +5953,51 @@
         <v>2.7478699999999998</v>
       </c>
       <c r="AB85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AC85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.6889999999999628E-2</v>
       </c>
       <c r="AD85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>5840933247.217515</v>
       </c>
       <c r="AE85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.712055176244955E-10</v>
       </c>
       <c r="AF85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>22.48815642362521</v>
       </c>
       <c r="AH85" s="3">
-        <f t="shared" si="18"/>
-        <v>9570883.1276916545</v>
-      </c>
-      <c r="AI85" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>9571408.8116839025</v>
+      </c>
+      <c r="AI85">
+        <f t="shared" si="38"/>
+        <v>1.044778276296475E-7</v>
+      </c>
+      <c r="AJ85">
+        <f t="shared" si="39"/>
+        <v>16.07429096384686</v>
+      </c>
+      <c r="AK85" s="3">
+        <f t="shared" si="40"/>
         <v>9630075.1452189554</v>
       </c>
-    </row>
-    <row r="86" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL85">
+        <f t="shared" si="41"/>
+        <v>1.0384134961776182E-7</v>
+      </c>
+      <c r="AM85">
+        <f t="shared" si="42"/>
+        <v>16.080401586985708</v>
+      </c>
+    </row>
+    <row r="86" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y86">
         <v>9</v>
       </c>
@@ -4824,35 +6009,51 @@
         <v>2.7444999999999999</v>
       </c>
       <c r="AB86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="AC86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.3519999999999754E-2</v>
       </c>
       <c r="AD86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>3896260978.0136719</v>
       </c>
       <c r="AE86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.5665631887672054E-10</v>
       </c>
       <c r="AF86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>22.083283206626369</v>
       </c>
       <c r="AH86" s="3">
-        <f t="shared" si="18"/>
-        <v>7661239.7801297624</v>
-      </c>
-      <c r="AI86" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>7661660.5763153872</v>
+      </c>
+      <c r="AI86">
+        <f t="shared" si="38"/>
+        <v>1.3052000803733277E-7</v>
+      </c>
+      <c r="AJ86">
+        <f t="shared" si="39"/>
+        <v>15.851739303641974</v>
+      </c>
+      <c r="AK86" s="3">
+        <f t="shared" si="40"/>
         <v>7699167.5429941388</v>
       </c>
-    </row>
-    <row r="87" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL86">
+        <f t="shared" si="41"/>
+        <v>1.2988417181672458E-7</v>
+      </c>
+      <c r="AM86">
+        <f t="shared" si="42"/>
+        <v>15.856622769680001</v>
+      </c>
+    </row>
+    <row r="87" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y87">
         <v>10</v>
       </c>
@@ -4864,35 +6065,51 @@
         <v>2.7416999999999998</v>
       </c>
       <c r="AB87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="AC87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.0719999999999619E-2</v>
       </c>
       <c r="AD87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>2586426717.7566571</v>
       </c>
       <c r="AE87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3.8663380374733839E-10</v>
       </c>
       <c r="AF87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>21.673543114416734</v>
       </c>
       <c r="AH87" s="3">
-        <f t="shared" si="18"/>
-        <v>6074592.4883868061</v>
-      </c>
-      <c r="AI87" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>6074926.1374333967</v>
+      </c>
+      <c r="AI87">
+        <f t="shared" si="38"/>
+        <v>1.6461105491275836E-7</v>
+      </c>
+      <c r="AJ87">
+        <f t="shared" si="39"/>
+        <v>15.619680388669794</v>
+      </c>
+      <c r="AK87" s="3">
+        <f t="shared" si="40"/>
         <v>6098437.2735831486</v>
       </c>
-    </row>
-    <row r="88" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL87">
+        <f t="shared" si="41"/>
+        <v>1.6397643447637662E-7</v>
+      </c>
+      <c r="AM87">
+        <f t="shared" si="42"/>
+        <v>15.623543111664144</v>
+      </c>
+    </row>
+    <row r="88" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y88">
         <v>11</v>
       </c>
@@ -4904,35 +6121,51 @@
         <v>2.7394699999999998</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="AC88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>8.4899999999996645E-3</v>
       </c>
       <c r="AD88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>1677730635.8411851</v>
       </c>
       <c r="AE88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>5.9604323759553764E-10</v>
       </c>
       <c r="AF88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>21.240707905193318</v>
       </c>
       <c r="AH88" s="3">
-        <f t="shared" si="18"/>
-        <v>4810941.252463039</v>
-      </c>
-      <c r="AI88" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>4811205.4950381834</v>
+      </c>
+      <c r="AI88">
+        <f t="shared" si="38"/>
+        <v>2.0784811645050378E-7</v>
+      </c>
+      <c r="AJ88">
+        <f t="shared" si="39"/>
+        <v>15.386458233350391</v>
+      </c>
+      <c r="AK88" s="3">
+        <f t="shared" si="40"/>
         <v>4825897.3822162449</v>
       </c>
-    </row>
-    <row r="89" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL88">
+        <f t="shared" si="41"/>
+        <v>2.0721534686689918E-7</v>
+      </c>
+      <c r="AM88">
+        <f t="shared" si="42"/>
+        <v>15.389507261413534</v>
+      </c>
+    </row>
+    <row r="89" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y89">
         <v>12</v>
       </c>
@@ -4944,35 +6177,51 @@
         <v>2.7374800000000001</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.24E-3</v>
       </c>
       <c r="AC89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>6.4999999999999503E-3</v>
       </c>
       <c r="AD89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>1087665905.7730587</v>
       </c>
       <c r="AE89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>9.193999689539316E-10</v>
       </c>
       <c r="AF89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>20.807299866324168</v>
       </c>
       <c r="AH89" s="3">
-        <f t="shared" si="18"/>
-        <v>3683288.3558316547</v>
-      </c>
-      <c r="AI89" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>3683490.6616901285</v>
+      </c>
+      <c r="AI89">
+        <f t="shared" si="38"/>
+        <v>2.7148161671764933E-7</v>
+      </c>
+      <c r="AJ89">
+        <f t="shared" si="39"/>
+        <v>15.119371409928757</v>
+      </c>
+      <c r="AK89" s="3">
+        <f t="shared" si="40"/>
         <v>3692054.943032186</v>
       </c>
-    </row>
-    <row r="90" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL89">
+        <f t="shared" si="41"/>
+        <v>2.7085187393737069E-7</v>
+      </c>
+      <c r="AM89">
+        <f t="shared" si="42"/>
+        <v>15.121693756138837</v>
+      </c>
+    </row>
+    <row r="90" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y90">
         <v>13</v>
       </c>
@@ -4984,35 +6233,51 @@
         <v>2.7359100000000001</v>
       </c>
       <c r="AB90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.4E-3</v>
       </c>
       <c r="AC90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>4.9299999999998789E-3</v>
       </c>
       <c r="AD90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>730672441.22766495</v>
       </c>
       <c r="AE90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.3686023224303011E-9</v>
       </c>
       <c r="AF90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>20.409475820472892</v>
       </c>
       <c r="AH90" s="3">
-        <f t="shared" si="18"/>
-        <v>2793632.5529615004</v>
-      </c>
-      <c r="AI90" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>2793785.9941741577</v>
+      </c>
+      <c r="AI90">
+        <f t="shared" si="38"/>
+        <v>3.5793722285289057E-7</v>
+      </c>
+      <c r="AJ90">
+        <f t="shared" si="39"/>
+        <v>14.842908221081748</v>
+      </c>
+      <c r="AK90" s="3">
+        <f t="shared" si="40"/>
         <v>2798675.6541508539</v>
       </c>
-    </row>
-    <row r="91" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL90">
+        <f t="shared" si="41"/>
+        <v>3.5731185874177691E-7</v>
+      </c>
+      <c r="AM90">
+        <f t="shared" si="42"/>
+        <v>14.844656882594387</v>
+      </c>
+    </row>
+    <row r="91" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y91">
         <v>14</v>
       </c>
@@ -5024,35 +6289,51 @@
         <v>2.7353999999999998</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.5E-3</v>
       </c>
       <c r="AC91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>4.4199999999996464E-3</v>
       </c>
       <c r="AD91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>611413261.16518462</v>
       </c>
       <c r="AE91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.6355549732341044E-9</v>
       </c>
       <c r="AF91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>20.231283657020896</v>
       </c>
       <c r="AH91" s="3">
-        <f t="shared" si="18"/>
-        <v>2504636.081965344</v>
-      </c>
-      <c r="AI91" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>2504773.6499491055</v>
+      </c>
+      <c r="AI91">
+        <f t="shared" si="38"/>
+        <v>3.9923767164363094E-7</v>
+      </c>
+      <c r="AJ91">
+        <f t="shared" si="39"/>
+        <v>14.7337089291167</v>
+      </c>
+      <c r="AK91" s="3">
+        <f t="shared" si="40"/>
         <v>2508689.7518868688</v>
       </c>
-    </row>
-    <row r="92" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL91">
+        <f t="shared" si="41"/>
+        <v>3.9861445571253551E-7</v>
+      </c>
+      <c r="AM91">
+        <f t="shared" si="42"/>
+        <v>14.735271163612236</v>
+      </c>
+    </row>
+    <row r="92" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y92">
         <v>15</v>
       </c>
@@ -5064,35 +6345,51 @@
         <v>2.7348300000000001</v>
       </c>
       <c r="AB92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="AC92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>3.8499999999999091E-3</v>
       </c>
       <c r="AD92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>499280484.05389428</v>
       </c>
       <c r="AE92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.0028822113785165E-9</v>
       </c>
       <c r="AF92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>20.028678588093467</v>
       </c>
       <c r="AH92" s="3">
-        <f t="shared" si="18"/>
-        <v>2181640.0261464068</v>
-      </c>
-      <c r="AI92" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="37"/>
+        <v>2181759.8534625792</v>
+      </c>
+      <c r="AI92">
+        <f t="shared" si="38"/>
+        <v>4.5834558666616865E-7</v>
+      </c>
+      <c r="AJ92">
+        <f t="shared" si="39"/>
+        <v>14.595642381326844</v>
+      </c>
+      <c r="AK92" s="3">
+        <f t="shared" si="40"/>
         <v>2184715.5939281788</v>
       </c>
-    </row>
-    <row r="95" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL92">
+        <f t="shared" si="41"/>
+        <v>4.5772548279475246E-7</v>
+      </c>
+      <c r="AM92">
+        <f t="shared" si="42"/>
+        <v>14.596996215077962</v>
+      </c>
+    </row>
+    <row r="95" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U95" t="s">
         <v>1</v>
       </c>
@@ -5127,10 +6424,25 @@
         <v>12</v>
       </c>
       <c r="AH95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="21:35" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U96" s="1">
         <v>450</v>
       </c>
@@ -5154,35 +6466,51 @@
         <v>2.7692899999999998</v>
       </c>
       <c r="AB96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>2.7999999999999998E-4</v>
       </c>
       <c r="AC96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>3.8309999999999622E-2</v>
       </c>
       <c r="AD96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>28389514425.387684</v>
       </c>
       <c r="AE96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3.5224272772546515E-11</v>
       </c>
       <c r="AF96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>24.069285703564969</v>
       </c>
       <c r="AH96" s="3">
-        <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>21708734.909524668</v>
-      </c>
-      <c r="AI96" s="3">
+        <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$96 /$U$13^2</f>
+        <v>21713027.404105786</v>
+      </c>
+      <c r="AI96">
+        <f>1/AH96</f>
+        <v>4.6055300414299055E-8</v>
+      </c>
+      <c r="AJ96">
+        <f>LN(AH96)</f>
+        <v>16.893422979581029</v>
+      </c>
+      <c r="AK96" s="3">
         <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA96 /$U$13^2</f>
         <v>22013263.552862916</v>
       </c>
-    </row>
-    <row r="97" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL96">
+        <f>1/AK96</f>
+        <v>4.5427157931334802E-8</v>
+      </c>
+      <c r="AM96">
+        <f>LN(AK96)</f>
+        <v>16.907155718424665</v>
+      </c>
+    </row>
+    <row r="97" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U97" t="s">
         <v>7</v>
       </c>
@@ -5197,35 +6525,51 @@
         <v>2.7662800000000001</v>
       </c>
       <c r="AB97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="AC97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>3.5299999999999887E-2</v>
       </c>
       <c r="AD97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>24415031808.973614</v>
       </c>
       <c r="AE97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>4.0958373833961398E-11</v>
       </c>
       <c r="AF97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>23.918464837304715</v>
       </c>
       <c r="AH97" s="3">
-        <f t="shared" ref="AH97:AH110" si="24">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>20003089.070901226</v>
-      </c>
-      <c r="AI97" s="3">
-        <f t="shared" ref="AI97:AI110" si="25">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA97 /$U$13^2</f>
+        <f t="shared" ref="AH97:AH110" si="47">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$96 /$U$13^2</f>
+        <v>20007044.306054279</v>
+      </c>
+      <c r="AI97">
+        <f t="shared" ref="AI97:AI110" si="48">1/AH97</f>
+        <v>4.9982395435461333E-8</v>
+      </c>
+      <c r="AJ97">
+        <f t="shared" ref="AJ97:AJ110" si="49">LN(AH97)</f>
+        <v>16.81159498480773</v>
+      </c>
+      <c r="AK97" s="3">
+        <f t="shared" ref="AK97:AK110" si="50">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA97 /$U$13^2</f>
         <v>20261644.257758256</v>
       </c>
-    </row>
-    <row r="98" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL97">
+        <f t="shared" ref="AL97:AL110" si="51">1/AK97</f>
+        <v>4.9354336068608862E-8</v>
+      </c>
+      <c r="AM97">
+        <f t="shared" ref="AM97:AM110" si="52">LN(AK97)</f>
+        <v>16.824240211327737</v>
+      </c>
+    </row>
+    <row r="98" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y98">
         <v>3</v>
       </c>
@@ -5237,35 +6581,51 @@
         <v>2.7647300000000001</v>
       </c>
       <c r="AB98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>3.3E-4</v>
       </c>
       <c r="AC98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>3.3749999999999947E-2</v>
       </c>
       <c r="AD98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>21220894245.50246</v>
       </c>
       <c r="AE98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>4.7123367584376859E-11</v>
       </c>
       <c r="AF98">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>23.778252110879681</v>
       </c>
       <c r="AH98" s="3">
-        <f t="shared" si="24"/>
-        <v>19124766.462972172</v>
-      </c>
-      <c r="AI98" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>19128548.026326716</v>
+      </c>
+      <c r="AI98">
+        <f t="shared" si="48"/>
+        <v>5.2277883225830577E-8</v>
+      </c>
+      <c r="AJ98">
+        <f t="shared" si="49"/>
+        <v>16.766692438187018</v>
+      </c>
+      <c r="AK98" s="3">
+        <f t="shared" si="50"/>
         <v>19361114.172631454</v>
       </c>
-    </row>
-    <row r="99" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL98">
+        <f t="shared" si="51"/>
+        <v>5.1649920096725799E-8</v>
+      </c>
+      <c r="AM98">
+        <f t="shared" si="52"/>
+        <v>16.778777188395981</v>
+      </c>
+    </row>
+    <row r="99" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y99">
         <v>4</v>
       </c>
@@ -5277,35 +6637,51 @@
         <v>2.7596799999999999</v>
       </c>
       <c r="AB99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="AC99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>2.8699999999999726E-2</v>
       </c>
       <c r="AD99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>15671196054.514793</v>
       </c>
       <c r="AE99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>6.3811338746662226E-11</v>
       </c>
       <c r="AF99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>23.475090218066804</v>
       </c>
       <c r="AH99" s="3">
-        <f t="shared" si="24"/>
-        <v>16263134.740364349</v>
-      </c>
-      <c r="AI99" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>16266350.469794735</v>
+      </c>
+      <c r="AI99">
+        <f t="shared" si="48"/>
+        <v>6.1476604838738544E-8</v>
+      </c>
+      <c r="AJ99">
+        <f t="shared" si="49"/>
+        <v>16.604609143634047</v>
+      </c>
+      <c r="AK99" s="3">
+        <f t="shared" si="50"/>
         <v>16434044.804534886</v>
       </c>
-    </row>
-    <row r="100" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL99">
+        <f t="shared" si="51"/>
+        <v>6.0849292544465703E-8</v>
+      </c>
+      <c r="AM99">
+        <f t="shared" si="52"/>
+        <v>16.614865643801238</v>
+      </c>
+    </row>
+    <row r="100" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y100">
         <v>5</v>
       </c>
@@ -5317,35 +6693,51 @@
         <v>2.7560899999999999</v>
       </c>
       <c r="AB100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>4.4000000000000002E-4</v>
       </c>
       <c r="AC100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>2.5109999999999744E-2</v>
       </c>
       <c r="AD100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>11841258988.990278</v>
       </c>
       <c r="AE100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>8.4450479541894681E-11</v>
       </c>
       <c r="AF100">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>23.194855794278848</v>
       </c>
       <c r="AH100" s="3">
-        <f t="shared" si="24"/>
-        <v>14228826.248451173</v>
-      </c>
-      <c r="AI100" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>14231639.731586957</v>
+      </c>
+      <c r="AI100">
+        <f t="shared" si="48"/>
+        <v>7.0265972077729864E-8</v>
+      </c>
+      <c r="AJ100">
+        <f t="shared" si="49"/>
+        <v>16.470978194037965</v>
+      </c>
+      <c r="AK100" s="3">
+        <f t="shared" si="50"/>
         <v>14359653.21426513</v>
       </c>
-    </row>
-    <row r="101" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL100">
+        <f t="shared" si="51"/>
+        <v>6.9639564763763415E-8</v>
+      </c>
+      <c r="AM100">
+        <f t="shared" si="52"/>
+        <v>16.479932971868315</v>
+      </c>
+    </row>
+    <row r="101" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y101">
         <v>6</v>
       </c>
@@ -5357,35 +6749,51 @@
         <v>2.75359</v>
       </c>
       <c r="AB101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>5.1000000000000004E-4</v>
       </c>
       <c r="AC101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>2.2609999999999797E-2</v>
       </c>
       <c r="AD101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>9198864675.9021854</v>
       </c>
       <c r="AE101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.0870906739389818E-10</v>
       </c>
       <c r="AF101">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>22.942345908593168</v>
       </c>
       <c r="AH101" s="3">
-        <f t="shared" si="24"/>
-        <v>12812176.880823633</v>
-      </c>
-      <c r="AI101" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>12814710.248155376</v>
+      </c>
+      <c r="AI101">
+        <f t="shared" si="48"/>
+        <v>7.8035318835550409E-8</v>
+      </c>
+      <c r="AJ101">
+        <f t="shared" si="49"/>
+        <v>16.366104307158352</v>
+      </c>
+      <c r="AK101" s="3">
+        <f t="shared" si="50"/>
         <v>12918249.909287928</v>
       </c>
-    </row>
-    <row r="102" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL101">
+        <f t="shared" si="51"/>
+        <v>7.7409866430980151E-8</v>
+      </c>
+      <c r="AM101">
+        <f t="shared" si="52"/>
+        <v>16.374151591206278</v>
+      </c>
+    </row>
+    <row r="102" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y102">
         <v>7</v>
       </c>
@@ -5397,35 +6805,51 @@
         <v>2.7495799999999999</v>
       </c>
       <c r="AB102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.2E-4</v>
       </c>
       <c r="AC102">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.8599999999999728E-2</v>
       </c>
       <c r="AD102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>6224795645.3473082</v>
       </c>
       <c r="AE102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.6064784403765045E-10</v>
       </c>
       <c r="AF102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>22.551806450701672</v>
       </c>
       <c r="AH102" s="3">
-        <f t="shared" si="24"/>
-        <v>10539871.295148969</v>
-      </c>
-      <c r="AI102" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>10541955.356731031</v>
+      </c>
+      <c r="AI102">
+        <f t="shared" si="48"/>
+        <v>9.4859062304935741E-8</v>
+      </c>
+      <c r="AJ102">
+        <f t="shared" si="49"/>
+        <v>16.170873601587623</v>
+      </c>
+      <c r="AK102" s="3">
+        <f t="shared" si="50"/>
         <v>10611655.638531113</v>
       </c>
-    </row>
-    <row r="103" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL102">
+        <f t="shared" si="51"/>
+        <v>9.4236001813796329E-8</v>
+      </c>
+      <c r="AM102">
+        <f t="shared" si="52"/>
+        <v>16.177463543518289</v>
+      </c>
+    </row>
+    <row r="103" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y103">
         <v>8</v>
       </c>
@@ -5437,35 +6861,51 @@
         <v>2.74593</v>
       </c>
       <c r="AB103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="AC103">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.4949999999999797E-2</v>
       </c>
       <c r="AD103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>4028601510.7334356</v>
       </c>
       <c r="AE103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.4822509680733918E-10</v>
       </c>
       <c r="AF103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>22.11668513301062</v>
       </c>
       <c r="AH103" s="3">
-        <f t="shared" si="24"/>
-        <v>8471563.2184127569</v>
-      </c>
-      <c r="AI103" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>8473238.3109209202</v>
+      </c>
+      <c r="AI103">
+        <f t="shared" si="48"/>
+        <v>1.1801863270045503E-7</v>
+      </c>
+      <c r="AJ103">
+        <f t="shared" si="49"/>
+        <v>15.952423320705165</v>
+      </c>
+      <c r="AK103" s="3">
+        <f t="shared" si="50"/>
         <v>8517938.4647035636</v>
       </c>
-    </row>
-    <row r="104" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL103">
+        <f t="shared" si="51"/>
+        <v>1.173992984504146E-7</v>
+      </c>
+      <c r="AM103">
+        <f t="shared" si="52"/>
+        <v>15.957684905290758</v>
+      </c>
+    </row>
+    <row r="104" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y104">
         <v>9</v>
       </c>
@@ -5477,35 +6917,51 @@
         <v>2.7421199999999999</v>
       </c>
       <c r="AB104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>9.7000000000000005E-4</v>
       </c>
       <c r="AC104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.1139999999999706E-2</v>
       </c>
       <c r="AD104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>2382963006.5006251</v>
       </c>
       <c r="AE104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>4.1964562490984589E-10</v>
       </c>
       <c r="AF104">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>21.591610511023351</v>
       </c>
       <c r="AH104" s="3">
-        <f t="shared" si="24"/>
-        <v>6312589.5821482884</v>
-      </c>
-      <c r="AI104" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>6313837.7781710932</v>
+      </c>
+      <c r="AI104">
+        <f t="shared" si="48"/>
+        <v>1.5838227637987659E-7</v>
+      </c>
+      <c r="AJ104">
+        <f t="shared" si="49"/>
+        <v>15.658254255367595</v>
+      </c>
+      <c r="AK104" s="3">
+        <f t="shared" si="50"/>
         <v>6338339.4038039315</v>
       </c>
-    </row>
-    <row r="105" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL104">
+        <f t="shared" si="51"/>
+        <v>1.5777003033315849E-7</v>
+      </c>
+      <c r="AM104">
+        <f t="shared" si="52"/>
+        <v>15.662127368415176</v>
+      </c>
+    </row>
+    <row r="105" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y105">
         <v>10</v>
       </c>
@@ -5517,35 +6973,51 @@
         <v>2.7396400000000001</v>
       </c>
       <c r="AB105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.2199999999999999E-3</v>
       </c>
       <c r="AC105">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>8.65999999999989E-3</v>
       </c>
       <c r="AD105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>1472861483.2980278</v>
       </c>
       <c r="AE105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>6.7895047249168498E-10</v>
       </c>
       <c r="AF105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>21.110472932868699</v>
       </c>
       <c r="AH105" s="3">
-        <f t="shared" si="24"/>
-        <v>4907273.4094618419</v>
-      </c>
-      <c r="AI105" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>4908243.7306070393</v>
+      </c>
+      <c r="AI105">
+        <f t="shared" si="48"/>
+        <v>2.0373886361106246E-7</v>
+      </c>
+      <c r="AJ105">
+        <f t="shared" si="49"/>
+        <v>15.406426743442815</v>
+      </c>
+      <c r="AK105" s="3">
+        <f t="shared" si="50"/>
         <v>4922834.4856051831</v>
       </c>
-    </row>
-    <row r="106" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL105">
+        <f t="shared" si="51"/>
+        <v>2.0313500340588155E-7</v>
+      </c>
+      <c r="AM105">
+        <f t="shared" si="52"/>
+        <v>15.409395037538381</v>
+      </c>
+    </row>
+    <row r="106" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y106">
         <v>11</v>
       </c>
@@ -5557,35 +7029,51 @@
         <v>2.7378999999999998</v>
       </c>
       <c r="AB106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.4599999999999999E-3</v>
       </c>
       <c r="AC106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>6.9199999999995931E-3</v>
       </c>
       <c r="AD106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>983460864.51601553</v>
       </c>
       <c r="AE106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.0168172787354622E-9</v>
       </c>
       <c r="AF106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>20.706588402948807</v>
       </c>
       <c r="AH106" s="3">
-        <f t="shared" si="24"/>
-        <v>3921285.4495928842</v>
-      </c>
-      <c r="AI106" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>3922060.8101384686</v>
+      </c>
+      <c r="AI106">
+        <f t="shared" si="48"/>
+        <v>2.5496799983697724E-7</v>
+      </c>
+      <c r="AJ106">
+        <f t="shared" si="49"/>
+        <v>15.182127790498003</v>
+      </c>
+      <c r="AK106" s="3">
+        <f t="shared" si="50"/>
         <v>3931221.5513992622</v>
       </c>
-    </row>
-    <row r="107" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL106">
+        <f t="shared" si="51"/>
+        <v>2.5437385986146326E-7</v>
+      </c>
+      <c r="AM106">
+        <f t="shared" si="52"/>
+        <v>15.184460762876695</v>
+      </c>
+    </row>
+    <row r="107" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y107">
         <v>12</v>
       </c>
@@ -5597,35 +7085,51 @@
         <v>2.73672</v>
       </c>
       <c r="AB107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.7600000000000001E-3</v>
       </c>
       <c r="AC107">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>5.7399999999998563E-3</v>
       </c>
       <c r="AD107">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>676710738.7176739</v>
       </c>
       <c r="AE107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.4777362657122004E-9</v>
       </c>
       <c r="AF107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>20.332754470320921</v>
       </c>
       <c r="AH107" s="3">
-        <f t="shared" si="24"/>
-        <v>3252626.94807282</v>
-      </c>
-      <c r="AI107" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>3253270.0939588975</v>
+      </c>
+      <c r="AI107">
+        <f t="shared" si="48"/>
+        <v>3.0738302419369738E-7</v>
+      </c>
+      <c r="AJ107">
+        <f t="shared" si="49"/>
+        <v>14.995171231199933</v>
+      </c>
+      <c r="AK107" s="3">
+        <f t="shared" si="50"/>
         <v>3259463.3506396413</v>
       </c>
-    </row>
-    <row r="108" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL107">
+        <f t="shared" si="51"/>
+        <v>3.0679897038994431E-7</v>
+      </c>
+      <c r="AM107">
+        <f t="shared" si="52"/>
+        <v>14.99707312342392</v>
+      </c>
+    </row>
+    <row r="108" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y108">
         <v>13</v>
       </c>
@@ -5637,35 +7141,51 @@
         <v>2.7351399999999999</v>
       </c>
       <c r="AB108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>2.0799999999999998E-3</v>
       </c>
       <c r="AC108">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>4.1599999999997195E-3</v>
       </c>
       <c r="AD108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>414986376.3564654</v>
       </c>
       <c r="AE108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.4097176605648834E-9</v>
       </c>
       <c r="AF108">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>19.843756249599409</v>
       </c>
       <c r="AH108" s="3">
-        <f t="shared" si="24"/>
-        <v>2357304.5477321181</v>
-      </c>
-      <c r="AI108" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>2357770.6604300421</v>
+      </c>
+      <c r="AI108">
+        <f t="shared" si="48"/>
+        <v>4.2412946126728308E-7</v>
+      </c>
+      <c r="AJ108">
+        <f t="shared" si="49"/>
+        <v>14.673227095141588</v>
+      </c>
+      <c r="AK108" s="3">
+        <f t="shared" si="50"/>
         <v>2360895.3418494551</v>
       </c>
-    </row>
-    <row r="109" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL108">
+        <f t="shared" si="51"/>
+        <v>4.2356811937992549E-7</v>
+      </c>
+      <c r="AM108">
+        <f t="shared" si="52"/>
+        <v>14.674551487194185</v>
+      </c>
+    </row>
+    <row r="109" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y109">
         <v>14</v>
       </c>
@@ -5677,35 +7197,51 @@
         <v>2.73489</v>
       </c>
       <c r="AB109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="AC109">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>3.909999999999858E-3</v>
       </c>
       <c r="AD109">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>355832616.56882244</v>
       </c>
       <c r="AE109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.8103101105308248E-9</v>
       </c>
       <c r="AF109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>19.689971000070422</v>
       </c>
       <c r="AH109" s="3">
-        <f t="shared" si="24"/>
-        <v>2215639.6109694396</v>
-      </c>
-      <c r="AI109" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>2216077.7120869593</v>
+      </c>
+      <c r="AI109">
+        <f t="shared" si="48"/>
+        <v>4.5124771326645601E-7</v>
+      </c>
+      <c r="AJ109">
+        <f t="shared" si="49"/>
+        <v>14.611249394865721</v>
+      </c>
+      <c r="AK109" s="3">
+        <f t="shared" si="50"/>
         <v>2218811.7875796272</v>
       </c>
-    </row>
-    <row r="110" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL109">
+        <f t="shared" si="51"/>
+        <v>4.506916745249681E-7</v>
+      </c>
+      <c r="AM109">
+        <f t="shared" si="52"/>
+        <v>14.61248237974133</v>
+      </c>
+    </row>
+    <row r="110" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y110">
         <v>15</v>
       </c>
@@ -5717,35 +7253,51 @@
         <v>2.73448</v>
       </c>
       <c r="AB110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="AC110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>3.4999999999998366E-3</v>
       </c>
       <c r="AD110">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>302594232.75992894</v>
       </c>
       <c r="AE110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3.3047556487746286E-9</v>
       </c>
       <c r="AF110">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>19.527903300180952</v>
       </c>
       <c r="AH110" s="3">
-        <f t="shared" si="24"/>
-        <v>1983309.114678506</v>
-      </c>
-      <c r="AI110" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
+        <v>1983701.2768041629</v>
+      </c>
+      <c r="AI110">
+        <f t="shared" si="48"/>
+        <v>5.0410815967767466E-7</v>
+      </c>
+      <c r="AJ110">
+        <f t="shared" si="49"/>
+        <v>14.500474989363804</v>
+      </c>
+      <c r="AK110" s="3">
+        <f t="shared" si="50"/>
         <v>1985850.9062336893</v>
       </c>
-    </row>
-    <row r="113" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL110">
+        <f t="shared" si="51"/>
+        <v>5.0356247634751832E-7</v>
+      </c>
+      <c r="AM110">
+        <f t="shared" si="52"/>
+        <v>14.501558048379298</v>
+      </c>
+    </row>
+    <row r="113" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U113" t="s">
         <v>1</v>
       </c>
@@ -5780,10 +7332,25 @@
         <v>12</v>
       </c>
       <c r="AH113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="21:35" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U114" s="1">
         <v>5</v>
       </c>
@@ -5807,35 +7374,51 @@
         <v>2.7519200000000001</v>
       </c>
       <c r="AB114">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>4.3000000000000002E-5</v>
       </c>
       <c r="AC114">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>2.0939999999999959E-2</v>
       </c>
       <c r="AD114">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>101044357219.82504</v>
       </c>
       <c r="AE114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>9.8966436871330673E-12</v>
       </c>
       <c r="AF114">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>25.338825437770495</v>
       </c>
       <c r="AH114" s="3">
-        <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>11865855.103248507</v>
-      </c>
-      <c r="AI114" s="3">
+        <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 *$X$114 /$U$13^2</f>
+        <v>11867984.107855126</v>
+      </c>
+      <c r="AI114">
+        <f>1/AH114</f>
+        <v>8.4260308314545573E-8</v>
+      </c>
+      <c r="AJ114">
+        <f>LN(AH114)</f>
+        <v>16.289354921316718</v>
+      </c>
+      <c r="AK114" s="3">
         <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA114 /$U$13^2</f>
         <v>11956837.463376381</v>
       </c>
-    </row>
-    <row r="115" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL114">
+        <f>1/AK114</f>
+        <v>8.3634155190533073E-8</v>
+      </c>
+      <c r="AM114">
+        <f>LN(AK114)</f>
+        <v>16.296813845380907</v>
+      </c>
+    </row>
+    <row r="115" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y115">
         <v>2</v>
       </c>
@@ -5847,35 +7430,51 @@
         <v>2.7504200000000001</v>
       </c>
       <c r="AB115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="AC115">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.9439999999999902E-2</v>
       </c>
       <c r="AD115">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>80673351563.701904</v>
       </c>
       <c r="AE115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.2395666978213648E-11</v>
       </c>
       <c r="AF115">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>25.113674141625811</v>
       </c>
       <c r="AH115" s="3">
-        <f t="shared" ref="AH115:AH128" si="26">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>11015865.482671933</v>
-      </c>
-      <c r="AI115" s="3">
-        <f t="shared" ref="AI115:AI128" si="27">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA115 /$U$13^2</f>
+        <f t="shared" ref="AH115:AH128" si="53">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 *$X$114 /$U$13^2</f>
+        <v>11017841.979785243</v>
+      </c>
+      <c r="AI115">
+        <f t="shared" ref="AI115:AI128" si="54">1/AH115</f>
+        <v>9.076187531412496E-8</v>
+      </c>
+      <c r="AJ115">
+        <f t="shared" ref="AJ115:AJ128" si="55">LN(AH115)</f>
+        <v>16.215026514906619</v>
+      </c>
+      <c r="AK115" s="3">
+        <f t="shared" ref="AK115:AK128" si="56">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA115 /$U$13^2</f>
         <v>11094279.980391851</v>
       </c>
-    </row>
-    <row r="116" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL115">
+        <f t="shared" ref="AL115:AL128" si="57">1/AK115</f>
+        <v>9.0136538988326487E-8</v>
+      </c>
+      <c r="AM115">
+        <f t="shared" ref="AM115:AM128" si="58">LN(AK115)</f>
+        <v>16.221940216379267</v>
+      </c>
+    </row>
+    <row r="116" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y116">
         <v>3</v>
       </c>
@@ -5887,35 +7486,51 @@
         <v>2.7496399999999999</v>
       </c>
       <c r="AB116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="AC116">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.8659999999999677E-2</v>
       </c>
       <c r="AD116">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>64530381523.433601</v>
       </c>
       <c r="AE116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.5496576595271787E-11</v>
       </c>
       <c r="AF116">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>24.890401981218748</v>
       </c>
       <c r="AH116" s="3">
-        <f t="shared" si="26"/>
-        <v>10573870.879972002</v>
-      </c>
-      <c r="AI116" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>10575768.073188789</v>
+      </c>
+      <c r="AI116">
+        <f t="shared" si="54"/>
+        <v>9.4555780070022056E-8</v>
+      </c>
+      <c r="AJ116">
+        <f t="shared" si="55"/>
+        <v>16.17407591129351</v>
+      </c>
+      <c r="AK116" s="3">
+        <f t="shared" si="56"/>
         <v>10646119.095125636</v>
       </c>
-    </row>
-    <row r="117" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL116">
+        <f t="shared" si="57"/>
+        <v>9.3930942446234106E-8</v>
+      </c>
+      <c r="AM116">
+        <f t="shared" si="58"/>
+        <v>16.180705979494803</v>
+      </c>
+    </row>
+    <row r="117" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y117">
         <v>4</v>
       </c>
@@ -5927,35 +7542,51 @@
         <v>2.7479499999999999</v>
       </c>
       <c r="AB117">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>7.3999999999999996E-5</v>
       </c>
       <c r="AC117">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.6969999999999708E-2</v>
       </c>
       <c r="AD117">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>47583235180.875496</v>
       </c>
       <c r="AE117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.1015805171690319E-11</v>
       </c>
       <c r="AF117">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>24.585746334063618</v>
       </c>
       <c r="AH117" s="3">
-        <f t="shared" si="26"/>
-        <v>9616215.9074557815</v>
-      </c>
-      <c r="AI117" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>9617941.2755634394</v>
+      </c>
+      <c r="AI117">
+        <f t="shared" si="54"/>
+        <v>1.0397235451423755E-7</v>
+      </c>
+      <c r="AJ117">
+        <f t="shared" si="55"/>
+        <v>16.079140795120448</v>
+      </c>
+      <c r="AK117" s="3">
+        <f t="shared" si="56"/>
         <v>9675969.9825312216</v>
       </c>
-    </row>
-    <row r="118" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL117">
+        <f t="shared" si="57"/>
+        <v>1.0334881172692531E-7</v>
+      </c>
+      <c r="AM117">
+        <f t="shared" si="58"/>
+        <v>16.085156048447139</v>
+      </c>
+    </row>
+    <row r="118" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y118">
         <v>5</v>
       </c>
@@ -5967,35 +7598,51 @@
         <v>2.7452899999999998</v>
       </c>
       <c r="AB118">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>9.2E-5</v>
       </c>
       <c r="AC118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.4309999999999601E-2</v>
       </c>
       <c r="AD118">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>32274212204.680729</v>
       </c>
       <c r="AE118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3.0984489835354371E-11</v>
       </c>
       <c r="AF118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>24.19753436454096</v>
       </c>
       <c r="AH118" s="3">
-        <f t="shared" si="26"/>
-        <v>8108900.9802999869</v>
-      </c>
-      <c r="AI118" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>8110355.9017861728</v>
+      </c>
+      <c r="AI118">
+        <f t="shared" si="54"/>
+        <v>1.2329915137013486E-7</v>
+      </c>
+      <c r="AJ118">
+        <f t="shared" si="55"/>
+        <v>15.908652309442662</v>
+      </c>
+      <c r="AK118" s="3">
+        <f t="shared" si="56"/>
         <v>8151390.6261516921</v>
       </c>
-    </row>
-    <row r="119" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL118">
+        <f t="shared" si="57"/>
+        <v>1.2267845400412427E-7</v>
+      </c>
+      <c r="AM118">
+        <f t="shared" si="58"/>
+        <v>15.913699099637245</v>
+      </c>
+    </row>
+    <row r="119" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y119">
         <v>6</v>
       </c>
@@ -6007,35 +7654,51 @@
         <v>2.7431100000000002</v>
       </c>
       <c r="AB119">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.15E-4</v>
       </c>
       <c r="AC119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.2129999999999974E-2</v>
       </c>
       <c r="AD119">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>21886020631.322842</v>
       </c>
       <c r="AE119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>4.5691266441045917E-11</v>
       </c>
       <c r="AF119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>23.809113942614374</v>
       </c>
       <c r="AH119" s="3">
-        <f t="shared" si="26"/>
-        <v>6873582.731728957</v>
-      </c>
-      <c r="AI119" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>6874816.0089915311</v>
+      </c>
+      <c r="AI119">
+        <f t="shared" si="54"/>
+        <v>1.4545843826105397E-7</v>
+      </c>
+      <c r="AJ119">
+        <f t="shared" si="55"/>
+        <v>15.743375438830286</v>
+      </c>
+      <c r="AK119" s="3">
+        <f t="shared" si="56"/>
         <v>6904112.6362086209</v>
       </c>
-    </row>
-    <row r="120" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL119">
+        <f t="shared" si="57"/>
+        <v>1.4484120591479052E-7</v>
+      </c>
+      <c r="AM119">
+        <f t="shared" si="58"/>
+        <v>15.747627826242768</v>
+      </c>
+    </row>
+    <row r="120" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y120">
         <v>7</v>
       </c>
@@ -6047,35 +7710,51 @@
         <v>2.7412299999999998</v>
       </c>
       <c r="AB120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.44E-4</v>
       </c>
       <c r="AC120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.0249999999999648E-2</v>
       </c>
       <c r="AD120">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>14769480408.520527</v>
       </c>
       <c r="AE120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>6.7707188901723257E-11</v>
       </c>
       <c r="AF120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>23.415828754030052</v>
       </c>
       <c r="AH120" s="3">
-        <f t="shared" si="26"/>
-        <v>5808262.4072728399</v>
-      </c>
-      <c r="AI120" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>5809304.5418104641</v>
+      </c>
+      <c r="AI120">
+        <f t="shared" si="54"/>
+        <v>1.7213764449820891E-7</v>
+      </c>
+      <c r="AJ120">
+        <f t="shared" si="55"/>
+        <v>15.574971421458713</v>
+      </c>
+      <c r="AK120" s="3">
+        <f t="shared" si="56"/>
         <v>5830062.1603558157</v>
       </c>
-    </row>
-    <row r="121" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL120">
+        <f t="shared" si="57"/>
+        <v>1.7152475779760277E-7</v>
+      </c>
+      <c r="AM120">
+        <f t="shared" si="58"/>
+        <v>15.578538220423491</v>
+      </c>
+    </row>
+    <row r="121" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y121">
         <v>8</v>
       </c>
@@ -6087,35 +7766,51 @@
         <v>2.7386599999999999</v>
       </c>
       <c r="AB121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="AC121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>7.6799999999996871E-3</v>
       </c>
       <c r="AD121">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>8387093080.0466805</v>
       </c>
       <c r="AE121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.1923082174669681E-10</v>
       </c>
       <c r="AF121">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>22.849959823020722</v>
       </c>
       <c r="AH121" s="3">
-        <f t="shared" si="26"/>
-        <v>4351946.8573517194</v>
-      </c>
-      <c r="AI121" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>4352727.6957174707</v>
+      </c>
+      <c r="AI121">
+        <f t="shared" si="54"/>
+        <v>2.2974099688888707E-7</v>
+      </c>
+      <c r="AJ121">
+        <f t="shared" si="55"/>
+        <v>15.28631326303387</v>
+      </c>
+      <c r="AK121" s="3">
+        <f t="shared" si="56"/>
         <v>4364185.3035741225</v>
       </c>
-    </row>
-    <row r="122" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL121">
+        <f t="shared" si="57"/>
+        <v>2.2913784141590718E-7</v>
+      </c>
+      <c r="AM121">
+        <f t="shared" si="58"/>
+        <v>15.288942086897533</v>
+      </c>
+    </row>
+    <row r="122" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y122">
         <v>9</v>
       </c>
@@ -6127,35 +7822,51 @@
         <v>2.73672</v>
       </c>
       <c r="AB122">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>2.4800000000000001E-4</v>
       </c>
       <c r="AC122">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>5.7399999999998563E-3</v>
       </c>
       <c r="AD122">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>4802463307.0286531</v>
       </c>
       <c r="AE122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.0822647380490098E-10</v>
       </c>
       <c r="AF122">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>22.292394812188135</v>
       </c>
       <c r="AH122" s="3">
-        <f t="shared" si="26"/>
-        <v>3252626.94807282</v>
-      </c>
-      <c r="AI122" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>3253210.5434138896</v>
+      </c>
+      <c r="AI122">
+        <f t="shared" si="54"/>
+        <v>3.0738865088965594E-7</v>
+      </c>
+      <c r="AJ122">
+        <f t="shared" si="55"/>
+        <v>14.99515292620578</v>
+      </c>
+      <c r="AK122" s="3">
+        <f t="shared" si="56"/>
         <v>3259463.3506396413</v>
       </c>
-    </row>
-    <row r="123" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL122">
+        <f t="shared" si="57"/>
+        <v>3.0679897038994431E-7</v>
+      </c>
+      <c r="AM122">
+        <f t="shared" si="58"/>
+        <v>14.99707312342392</v>
+      </c>
+    </row>
+    <row r="123" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y123">
         <v>10</v>
       </c>
@@ -6167,35 +7878,51 @@
         <v>2.7351100000000002</v>
       </c>
       <c r="AB123">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>3.2400000000000001E-4</v>
       </c>
       <c r="AC123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>4.129999999999967E-3</v>
       </c>
       <c r="AD123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>2644897738.198</v>
       </c>
       <c r="AE123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3.7808645134284541E-10</v>
       </c>
       <c r="AF123">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>21.695898239202272</v>
       </c>
       <c r="AH123" s="3">
-        <f t="shared" si="26"/>
-        <v>2340304.7553207269</v>
-      </c>
-      <c r="AI123" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>2340724.6592856431</v>
+      </c>
+      <c r="AI123">
+        <f t="shared" si="54"/>
+        <v>4.2721812496527727E-7</v>
+      </c>
+      <c r="AJ123">
+        <f t="shared" si="55"/>
+        <v>14.665971122847264</v>
+      </c>
+      <c r="AK123" s="3">
+        <f t="shared" si="56"/>
         <v>2343843.9458821649</v>
       </c>
-    </row>
-    <row r="124" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL123">
+        <f t="shared" si="57"/>
+        <v>4.2664956502623503E-7</v>
+      </c>
+      <c r="AM123">
+        <f t="shared" si="58"/>
+        <v>14.667302851473924</v>
+      </c>
+    </row>
+    <row r="124" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y124">
         <v>11</v>
       </c>
@@ -6207,35 +7934,51 @@
         <v>2.7339000000000002</v>
       </c>
       <c r="AB124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>4.1599999999999997E-4</v>
       </c>
       <c r="AC124">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>2.9200000000000337E-3</v>
       </c>
       <c r="AD124">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>1456442570.8665562</v>
       </c>
       <c r="AE124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>6.8660448410610428E-10</v>
       </c>
       <c r="AF124">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>21.099262704040608</v>
       </c>
       <c r="AH124" s="3">
-        <f t="shared" si="26"/>
-        <v>1654646.461389021</v>
-      </c>
-      <c r="AI124" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>1654943.3426426663</v>
+      </c>
+      <c r="AI124">
+        <f t="shared" si="54"/>
+        <v>6.0425029318717827E-7</v>
+      </c>
+      <c r="AJ124">
+        <f t="shared" si="55"/>
+        <v>14.319277332154533</v>
+      </c>
+      <c r="AK124" s="3">
+        <f t="shared" si="56"/>
         <v>1656415.6313087041</v>
       </c>
-    </row>
-    <row r="125" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL124">
+        <f t="shared" si="57"/>
+        <v>6.0371321128497079E-7</v>
+      </c>
+      <c r="AM124">
+        <f t="shared" si="58"/>
+        <v>14.32016656752565</v>
+      </c>
+    </row>
+    <row r="125" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y125">
         <v>12</v>
       </c>
@@ -6247,35 +7990,51 @@
         <v>2.73325</v>
       </c>
       <c r="AB125">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AC125">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>2.2699999999997722E-3</v>
       </c>
       <c r="AD125">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>942019074.32914531</v>
       </c>
       <c r="AE125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.0615496302048295E-9</v>
       </c>
       <c r="AF125">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>20.663536081092687</v>
       </c>
       <c r="AH125" s="3">
-        <f t="shared" si="26"/>
-        <v>1286317.6258057051</v>
-      </c>
-      <c r="AI125" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>1286548.4204789156</v>
+      </c>
+      <c r="AI125">
+        <f t="shared" si="54"/>
+        <v>7.772735048928447E-7</v>
+      </c>
+      <c r="AJ125">
+        <f t="shared" si="55"/>
+        <v>14.067473547367541</v>
+      </c>
+      <c r="AK125" s="3">
+        <f t="shared" si="56"/>
         <v>1287386.8174550685</v>
       </c>
-    </row>
-    <row r="126" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL125">
+        <f t="shared" si="57"/>
+        <v>7.7676731378749059E-7</v>
+      </c>
+      <c r="AM125">
+        <f t="shared" si="58"/>
+        <v>14.068124998883063</v>
+      </c>
+    </row>
+    <row r="126" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y126">
         <v>13</v>
       </c>
@@ -6287,35 +8046,51 @@
         <v>2.7326800000000002</v>
       </c>
       <c r="AB126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AC126">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.7000000000000348E-3</v>
       </c>
       <c r="AD126">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>587897366.50504434</v>
       </c>
       <c r="AE126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.7009771721632974E-9</v>
       </c>
       <c r="AF126">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>20.192062943867715</v>
       </c>
       <c r="AH126" s="3">
-        <f t="shared" si="26"/>
-        <v>963321.5699867676</v>
-      </c>
-      <c r="AI126" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>963494.41181252</v>
+      </c>
+      <c r="AI126">
+        <f t="shared" si="54"/>
+        <v>1.0378887388862026E-6</v>
+      </c>
+      <c r="AJ126">
+        <f t="shared" si="55"/>
+        <v>13.778321966936522</v>
+      </c>
+      <c r="AK126" s="3">
+        <f t="shared" si="56"/>
         <v>963921.22530060285</v>
       </c>
-    </row>
-    <row r="127" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL126">
+        <f t="shared" si="57"/>
+        <v>1.0374291734141924E-6</v>
+      </c>
+      <c r="AM126">
+        <f t="shared" si="58"/>
+        <v>13.778764853760558</v>
+      </c>
+    </row>
+    <row r="127" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y127">
         <v>14</v>
       </c>
@@ -6327,35 +8102,51 @@
         <v>2.7322799999999998</v>
       </c>
       <c r="AB127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="AC127">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.2999999999996348E-3</v>
       </c>
       <c r="AD127">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>385344492.33092141</v>
       </c>
       <c r="AE127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.5950805575319661E-9</v>
       </c>
       <c r="AF127">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>19.769648277445476</v>
       </c>
       <c r="AH127" s="3">
-        <f t="shared" si="26"/>
-        <v>736657.67116612964</v>
-      </c>
-      <c r="AI127" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>736789.84432699904</v>
+      </c>
+      <c r="AI127">
+        <f t="shared" si="54"/>
+        <v>1.3572391200823665E-6</v>
+      </c>
+      <c r="AJ127">
+        <f t="shared" si="55"/>
+        <v>13.510057980341541</v>
+      </c>
+      <c r="AK127" s="3">
+        <f t="shared" si="56"/>
         <v>737008.33465415076</v>
       </c>
-    </row>
-    <row r="128" spans="21:35" x14ac:dyDescent="0.3">
+      <c r="AL127">
+        <f t="shared" si="57"/>
+        <v>1.356836758799018E-6</v>
+      </c>
+      <c r="AM127">
+        <f t="shared" si="58"/>
+        <v>13.510354480000542</v>
+      </c>
+    </row>
+    <row r="128" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y128">
         <v>15</v>
       </c>
@@ -6367,32 +8158,48 @@
         <v>2.7319900000000001</v>
       </c>
       <c r="AB128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="AC128">
-        <f t="shared" si="21"/>
+        <f t="shared" si="44"/>
         <v>1.0099999999999554E-3</v>
       </c>
       <c r="AD128">
-        <f t="shared" si="22"/>
+        <f t="shared" si="45"/>
         <v>261960150.07502484</v>
       </c>
       <c r="AE128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3.8173745117858652E-9</v>
       </c>
       <c r="AF128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>19.383702951206867</v>
       </c>
       <c r="AH128" s="3">
-        <f t="shared" si="26"/>
-        <v>572326.34452151321</v>
-      </c>
-      <c r="AI128" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
+        <v>572429.03290034248</v>
+      </c>
+      <c r="AI128">
+        <f t="shared" si="54"/>
+        <v>1.7469414416897612E-6</v>
+      </c>
+      <c r="AJ128">
+        <f t="shared" si="55"/>
+        <v>13.257644046727455</v>
+      </c>
+      <c r="AK128" s="3">
+        <f t="shared" si="56"/>
         <v>572538.00832277373</v>
+      </c>
+      <c r="AL128">
+        <f t="shared" si="57"/>
+        <v>1.7466089333168611E-6</v>
+      </c>
+      <c r="AM128">
+        <f t="shared" si="58"/>
+        <v>13.257834402290255</v>
       </c>
     </row>
   </sheetData>

--- a/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
+++ b/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
+++ b/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PraktikumPlazma\04_RozpadPlazmatu\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF6D32-3328-4927-B841-41EFDA5374CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -99,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
@@ -149,7 +155,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -207,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +246,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,6 +298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,36 +490,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.44140625" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.42578125" customWidth="1"/>
     <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -487,7 +527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -549,7 +589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -611,19 +651,19 @@
         <v>16.967892430370664</v>
       </c>
       <c r="AK5" s="3">
-        <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA5 /$U$13^2</f>
-        <v>23745290.718660593</v>
+        <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA5*1000000000 /$U$13^2</f>
+        <v>2.3745290718660596E+16</v>
       </c>
       <c r="AL5">
         <f>1/AK5</f>
-        <v>4.2113613678106495E-8</v>
+        <v>4.2113613678106494E-17</v>
       </c>
       <c r="AM5">
         <f>LN(AK5)</f>
-        <v>16.98289478325367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+        <v>37.70616062020008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -673,19 +713,19 @@
         <v>16.94535350468276</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" ref="AK6:AK19" si="7">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA6 /$U$13^2</f>
-        <v>23208379.187001254</v>
+        <f t="shared" ref="AK6:AK19" si="7">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA6*1000000000 /$U$13^2</f>
+        <v>2.3208379187001256E+16</v>
       </c>
       <c r="AL6">
         <f t="shared" ref="AL6:AL19" si="8">1/AK6</f>
-        <v>4.3087886144159884E-8</v>
+        <v>4.3087886144159882E-17</v>
       </c>
       <c r="AM6">
         <f t="shared" ref="AM6:AM19" si="9">LN(AK6)</f>
-        <v>16.960023943283186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+        <v>37.6832897802296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -775,18 +815,18 @@
       </c>
       <c r="AK7" s="3">
         <f t="shared" si="7"/>
-        <v>21867637.052404951</v>
+        <v>2.1867637052404948E+16</v>
       </c>
       <c r="AL7">
         <f t="shared" si="8"/>
-        <v>4.5729677953019724E-8</v>
+        <v>4.5729677953019733E-17</v>
       </c>
       <c r="AM7">
         <f t="shared" si="9"/>
-        <v>16.900518341658127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+        <v>37.623784178604538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -900,18 +940,18 @@
       </c>
       <c r="AK8" s="3">
         <f t="shared" si="7"/>
-        <v>20273270.516078338</v>
+        <v>2.0273270516078336E+16</v>
       </c>
       <c r="AL8">
         <f t="shared" si="8"/>
-        <v>4.9326032482372265E-8</v>
+        <v>4.9326032482372266E-17</v>
       </c>
       <c r="AM8">
         <f t="shared" si="9"/>
-        <v>16.824813853024224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+        <v>37.548079689970635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1012,18 +1052,18 @@
       </c>
       <c r="AK9" s="3">
         <f t="shared" si="7"/>
-        <v>18594997.199588377</v>
+        <v>1.8594997199588376E+16</v>
       </c>
       <c r="AL9">
         <f t="shared" si="8"/>
-        <v>5.3777905383182108E-8</v>
+        <v>5.3777905383182113E-17</v>
       </c>
       <c r="AM9">
         <f t="shared" si="9"/>
-        <v>16.738403134741048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+        <v>37.461668971687459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="U10" t="s">
         <v>15</v>
       </c>
@@ -1077,18 +1117,18 @@
       </c>
       <c r="AK10" s="3">
         <f t="shared" si="7"/>
-        <v>16306769.478873594</v>
+        <v>1.6306769478873594E+16</v>
       </c>
       <c r="AL10">
         <f t="shared" si="8"/>
-        <v>6.1324224966542909E-8</v>
+        <v>6.1324224966542912E-17</v>
       </c>
       <c r="AM10">
         <f t="shared" si="9"/>
-        <v>16.607090885013918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+        <v>37.330356721960328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1149,18 +1189,18 @@
       </c>
       <c r="AK11" s="3">
         <f t="shared" si="7"/>
-        <v>13684753.587385593</v>
+        <v>1.3684753587385594E+16</v>
       </c>
       <c r="AL11">
         <f t="shared" si="8"/>
-        <v>7.307402311736073E-8</v>
+        <v>7.307402311736072E-17</v>
       </c>
       <c r="AM11">
         <f t="shared" si="9"/>
-        <v>16.431792894257949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+        <v>37.155058731204356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1214,18 +1254,18 @@
       </c>
       <c r="AK12" s="3">
         <f t="shared" si="7"/>
-        <v>11214981.818105029</v>
+        <v>1.1214981818105028E+16</v>
       </c>
       <c r="AL12">
         <f t="shared" si="8"/>
-        <v>8.9166439698157957E-8</v>
+        <v>8.9166439698157969E-17</v>
       </c>
       <c r="AM12">
         <f t="shared" si="9"/>
-        <v>16.232761104722918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+        <v>36.956026941669329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1279,18 +1319,18 @@
       </c>
       <c r="AK13" s="3">
         <f t="shared" si="7"/>
-        <v>8821614.560030181</v>
+        <v>8821614560030181</v>
       </c>
       <c r="AL13">
         <f t="shared" si="8"/>
-        <v>1.1335793387878179E-7</v>
+        <v>1.133579338787818E-16</v>
       </c>
       <c r="AM13">
         <f t="shared" si="9"/>
-        <v>15.992715467922906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+        <v>36.715981304869317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1341,18 +1381,18 @@
       </c>
       <c r="AK14" s="3">
         <f t="shared" si="7"/>
-        <v>6561171.2146784114</v>
+        <v>6561171214678411</v>
       </c>
       <c r="AL14">
         <f t="shared" si="8"/>
-        <v>1.5241181296455679E-7</v>
+        <v>1.524118129645568E-16</v>
       </c>
       <c r="AM14">
         <f t="shared" si="9"/>
-        <v>15.696679683807041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+        <v>36.419945520753451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1442,18 +1482,18 @@
       </c>
       <c r="AK15" s="3">
         <f t="shared" si="7"/>
-        <v>4905727.0664768312</v>
+        <v>4905727066476831</v>
       </c>
       <c r="AL15">
         <f t="shared" si="8"/>
-        <v>2.0384338273392259E-7</v>
+        <v>2.0384338273392261E-16</v>
       </c>
       <c r="AM15">
         <f t="shared" si="9"/>
-        <v>15.405913869655555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+        <v>36.129179706601967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1561,18 +1601,18 @@
       </c>
       <c r="AK16" s="3">
         <f t="shared" si="7"/>
-        <v>3498497.4953556373</v>
+        <v>3498497495355637</v>
       </c>
       <c r="AL16">
         <f t="shared" si="8"/>
-        <v>2.8583699183078756E-7</v>
+        <v>2.8583699183078758E-16</v>
       </c>
       <c r="AM16">
         <f t="shared" si="9"/>
-        <v>15.067844147248335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+        <v>35.791109984194748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1665,18 +1705,18 @@
       </c>
       <c r="AK17" s="3">
         <f t="shared" si="7"/>
-        <v>2423420.322458623</v>
+        <v>2423420322458623</v>
       </c>
       <c r="AL17">
         <f t="shared" si="8"/>
-        <v>4.1263993321037846E-7</v>
+        <v>4.1263993321037846E-16</v>
       </c>
       <c r="AM17">
         <f t="shared" si="9"/>
-        <v>14.700690456672689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+        <v>35.423956293619099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y18">
         <v>14</v>
       </c>
@@ -1721,18 +1761,18 @@
       </c>
       <c r="AK18" s="3">
         <f t="shared" si="7"/>
-        <v>1673451.9632705331</v>
+        <v>1673451963270533</v>
       </c>
       <c r="AL18">
         <f t="shared" si="8"/>
-        <v>5.9756719759414948E-7</v>
+        <v>5.9756719759414954E-16</v>
       </c>
       <c r="AM18">
         <f t="shared" si="9"/>
-        <v>14.330399094871694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+        <v>35.053664931818105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y19">
         <v>15</v>
       </c>
@@ -1777,18 +1817,18 @@
       </c>
       <c r="AK19" s="3">
         <f t="shared" si="7"/>
-        <v>1281710.8205430964</v>
+        <v>1281710820543096.5</v>
       </c>
       <c r="AL19">
         <f t="shared" si="8"/>
-        <v>7.8020719180343055E-7</v>
+        <v>7.8020719180343052E-16</v>
       </c>
       <c r="AM19">
         <f t="shared" si="9"/>
-        <v>14.063706322019094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+        <v>34.786972158965504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1796,7 +1836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1804,7 +1844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1863,7 +1903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1937,7 +1977,7 @@
         <v>16.989022894788956</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -2041,7 +2081,7 @@
         <v>16.921347813345804</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2204,7 @@
         <v>16.889270105887629</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2271,7 +2311,7 @@
         <v>16.806004238475644</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y27">
         <v>5</v>
       </c>
@@ -2327,7 +2367,7 @@
         <v>16.71153558494991</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y28">
         <v>6</v>
       </c>
@@ -2383,7 +2423,7 @@
         <v>16.53431574222228</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2445,7 +2485,7 @@
         <v>16.318239671859939</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2547,7 @@
         <v>15.973698320324775</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2569,7 +2609,7 @@
         <v>15.683530082306232</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2631,7 +2671,7 @@
         <v>15.299334084872589</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
@@ -2732,7 +2772,7 @@
         <v>14.988305891017912</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2851,7 +2891,7 @@
         <v>14.72387619760077</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2955,7 +2995,7 @@
         <v>14.463660282086531</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y36">
         <v>14</v>
       </c>
@@ -3011,7 +3051,7 @@
         <v>14.203977340517522</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y37">
         <v>15</v>
       </c>
@@ -3067,7 +3107,7 @@
         <v>13.921176216107925</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3075,7 +3115,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -3083,7 +3123,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3142,7 +3182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3216,7 +3256,7 @@
         <v>16.692136197669118</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1</v>
       </c>
@@ -3317,7 +3357,7 @@
         <v>16.422055603722406</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -3436,7 +3476,7 @@
         <v>16.443105966751453</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3540,7 +3580,7 @@
         <v>16.325282317495638</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y45">
         <v>5</v>
       </c>
@@ -3596,7 +3636,7 @@
         <v>16.145573251420693</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y46">
         <v>6</v>
       </c>
@@ -3652,7 +3692,7 @@
         <v>15.927651422359848</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3717,7 +3757,7 @@
         <v>15.680879457992823</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -3779,7 +3819,7 @@
         <v>15.401253499831478</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -3841,7 +3881,7 @@
         <v>15.172803504979951</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -3903,7 +3943,7 @@
         <v>14.898075202714708</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
@@ -4004,7 +4044,7 @@
         <v>14.688893477448191</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -4123,7 +4163,7 @@
         <v>14.448694034602033</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -4227,7 +4267,7 @@
         <v>14.21925944536717</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y54">
         <v>14</v>
       </c>
@@ -4283,7 +4323,7 @@
         <v>13.970974315628791</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y55">
         <v>15</v>
       </c>
@@ -4339,7 +4379,7 @@
         <v>13.711830364596146</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -4401,7 +4441,7 @@
         <v>13.44681179427381</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -4409,7 +4449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -4417,7 +4457,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4476,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1</v>
       </c>
@@ -4589,7 +4629,7 @@
         <v>17.051374388402497</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -4708,7 +4748,7 @@
         <v>17.027873392116074</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -4812,7 +4852,7 @@
         <v>17.013177165382135</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y63">
         <v>4</v>
       </c>
@@ -4868,7 +4908,7 @@
         <v>16.9542259362895</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y64">
         <v>5</v>
       </c>
@@ -4924,7 +4964,7 @@
         <v>16.890615657825119</v>
       </c>
     </row>
-    <row r="65" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y65">
         <v>6</v>
       </c>
@@ -4980,7 +5020,7 @@
         <v>16.794550546890214</v>
       </c>
     </row>
-    <row r="66" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y66">
         <v>7</v>
       </c>
@@ -5036,7 +5076,7 @@
         <v>16.673691874388453</v>
       </c>
     </row>
-    <row r="67" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y67">
         <v>8</v>
       </c>
@@ -5092,7 +5132,7 @@
         <v>16.507682763178781</v>
       </c>
     </row>
-    <row r="68" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y68">
         <v>9</v>
       </c>
@@ -5148,7 +5188,7 @@
         <v>16.362491199327259</v>
       </c>
     </row>
-    <row r="69" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y69">
         <v>10</v>
       </c>
@@ -5204,7 +5244,7 @@
         <v>16.17583842734696</v>
       </c>
     </row>
-    <row r="70" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y70">
         <v>11</v>
       </c>
@@ -5260,7 +5300,7 @@
         <v>15.994662500042113</v>
       </c>
     </row>
-    <row r="71" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y71">
         <v>12</v>
       </c>
@@ -5316,7 +5356,7 @@
         <v>15.751759592888751</v>
       </c>
     </row>
-    <row r="72" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y72">
         <v>13</v>
       </c>
@@ -5372,7 +5412,7 @@
         <v>15.522150632015993</v>
       </c>
     </row>
-    <row r="73" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y73">
         <v>14</v>
       </c>
@@ -5428,7 +5468,7 @@
         <v>15.277121267818627</v>
       </c>
     </row>
-    <row r="74" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y74">
         <v>15</v>
       </c>
@@ -5484,7 +5524,7 @@
         <v>14.965146247026659</v>
       </c>
     </row>
-    <row r="77" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="21:39" x14ac:dyDescent="0.25">
       <c r="U77" t="s">
         <v>1</v>
       </c>
@@ -5537,7 +5577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="21:39" x14ac:dyDescent="0.25">
       <c r="U78" s="1">
         <v>200</v>
       </c>
@@ -5605,7 +5645,7 @@
         <v>16.966539116980716</v>
       </c>
     </row>
-    <row r="79" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y79">
         <v>2</v>
       </c>
@@ -5661,7 +5701,7 @@
         <v>16.91794906355069</v>
       </c>
     </row>
-    <row r="80" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y80">
         <v>3</v>
       </c>
@@ -5717,7 +5757,7 @@
         <v>16.839051604434246</v>
       </c>
     </row>
-    <row r="81" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="81" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y81">
         <v>4</v>
       </c>
@@ -5773,7 +5813,7 @@
         <v>16.784161453569318</v>
       </c>
     </row>
-    <row r="82" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="82" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y82">
         <v>5</v>
       </c>
@@ -5829,7 +5869,7 @@
         <v>16.672694330372522</v>
       </c>
     </row>
-    <row r="83" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="83" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y83">
         <v>6</v>
       </c>
@@ -5885,7 +5925,7 @@
         <v>16.516250268229889</v>
       </c>
     </row>
-    <row r="84" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="84" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y84">
         <v>7</v>
       </c>
@@ -5941,7 +5981,7 @@
         <v>16.308297188146586</v>
       </c>
     </row>
-    <row r="85" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="85" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y85">
         <v>8</v>
       </c>
@@ -5997,7 +6037,7 @@
         <v>16.080401586985708</v>
       </c>
     </row>
-    <row r="86" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="86" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y86">
         <v>9</v>
       </c>
@@ -6053,7 +6093,7 @@
         <v>15.856622769680001</v>
       </c>
     </row>
-    <row r="87" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="87" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y87">
         <v>10</v>
       </c>
@@ -6109,7 +6149,7 @@
         <v>15.623543111664144</v>
       </c>
     </row>
-    <row r="88" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="88" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y88">
         <v>11</v>
       </c>
@@ -6165,7 +6205,7 @@
         <v>15.389507261413534</v>
       </c>
     </row>
-    <row r="89" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="89" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y89">
         <v>12</v>
       </c>
@@ -6221,7 +6261,7 @@
         <v>15.121693756138837</v>
       </c>
     </row>
-    <row r="90" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="90" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y90">
         <v>13</v>
       </c>
@@ -6277,7 +6317,7 @@
         <v>14.844656882594387</v>
       </c>
     </row>
-    <row r="91" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="91" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y91">
         <v>14</v>
       </c>
@@ -6333,7 +6373,7 @@
         <v>14.735271163612236</v>
       </c>
     </row>
-    <row r="92" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="92" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y92">
         <v>15</v>
       </c>
@@ -6389,7 +6429,7 @@
         <v>14.596996215077962</v>
       </c>
     </row>
-    <row r="95" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="95" spans="21:39" x14ac:dyDescent="0.25">
       <c r="U95" t="s">
         <v>1</v>
       </c>
@@ -6442,7 +6482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="96" spans="21:39" x14ac:dyDescent="0.25">
       <c r="U96" s="1">
         <v>450</v>
       </c>
@@ -6510,7 +6550,7 @@
         <v>16.907155718424665</v>
       </c>
     </row>
-    <row r="97" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="97" spans="21:39" x14ac:dyDescent="0.25">
       <c r="U97" t="s">
         <v>7</v>
       </c>
@@ -6569,7 +6609,7 @@
         <v>16.824240211327737</v>
       </c>
     </row>
-    <row r="98" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="98" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y98">
         <v>3</v>
       </c>
@@ -6625,7 +6665,7 @@
         <v>16.778777188395981</v>
       </c>
     </row>
-    <row r="99" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="99" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y99">
         <v>4</v>
       </c>
@@ -6681,7 +6721,7 @@
         <v>16.614865643801238</v>
       </c>
     </row>
-    <row r="100" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="100" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y100">
         <v>5</v>
       </c>
@@ -6737,7 +6777,7 @@
         <v>16.479932971868315</v>
       </c>
     </row>
-    <row r="101" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="101" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y101">
         <v>6</v>
       </c>
@@ -6793,7 +6833,7 @@
         <v>16.374151591206278</v>
       </c>
     </row>
-    <row r="102" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="102" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y102">
         <v>7</v>
       </c>
@@ -6849,7 +6889,7 @@
         <v>16.177463543518289</v>
       </c>
     </row>
-    <row r="103" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="103" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y103">
         <v>8</v>
       </c>
@@ -6905,7 +6945,7 @@
         <v>15.957684905290758</v>
       </c>
     </row>
-    <row r="104" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="104" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y104">
         <v>9</v>
       </c>
@@ -6961,7 +7001,7 @@
         <v>15.662127368415176</v>
       </c>
     </row>
-    <row r="105" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="105" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y105">
         <v>10</v>
       </c>
@@ -7017,7 +7057,7 @@
         <v>15.409395037538381</v>
       </c>
     </row>
-    <row r="106" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="106" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y106">
         <v>11</v>
       </c>
@@ -7073,7 +7113,7 @@
         <v>15.184460762876695</v>
       </c>
     </row>
-    <row r="107" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="107" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y107">
         <v>12</v>
       </c>
@@ -7129,7 +7169,7 @@
         <v>14.99707312342392</v>
       </c>
     </row>
-    <row r="108" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="108" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y108">
         <v>13</v>
       </c>
@@ -7185,7 +7225,7 @@
         <v>14.674551487194185</v>
       </c>
     </row>
-    <row r="109" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="109" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y109">
         <v>14</v>
       </c>
@@ -7241,7 +7281,7 @@
         <v>14.61248237974133</v>
       </c>
     </row>
-    <row r="110" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="110" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y110">
         <v>15</v>
       </c>
@@ -7297,7 +7337,7 @@
         <v>14.501558048379298</v>
       </c>
     </row>
-    <row r="113" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="113" spans="21:39" x14ac:dyDescent="0.25">
       <c r="U113" t="s">
         <v>1</v>
       </c>
@@ -7350,7 +7390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="114" spans="21:39" x14ac:dyDescent="0.25">
       <c r="U114" s="1">
         <v>5</v>
       </c>
@@ -7418,7 +7458,7 @@
         <v>16.296813845380907</v>
       </c>
     </row>
-    <row r="115" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="115" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y115">
         <v>2</v>
       </c>
@@ -7474,7 +7514,7 @@
         <v>16.221940216379267</v>
       </c>
     </row>
-    <row r="116" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="116" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y116">
         <v>3</v>
       </c>
@@ -7530,7 +7570,7 @@
         <v>16.180705979494803</v>
       </c>
     </row>
-    <row r="117" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="117" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y117">
         <v>4</v>
       </c>
@@ -7586,7 +7626,7 @@
         <v>16.085156048447139</v>
       </c>
     </row>
-    <row r="118" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="118" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y118">
         <v>5</v>
       </c>
@@ -7642,7 +7682,7 @@
         <v>15.913699099637245</v>
       </c>
     </row>
-    <row r="119" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="119" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y119">
         <v>6</v>
       </c>
@@ -7698,7 +7738,7 @@
         <v>15.747627826242768</v>
       </c>
     </row>
-    <row r="120" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="120" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y120">
         <v>7</v>
       </c>
@@ -7754,7 +7794,7 @@
         <v>15.578538220423491</v>
       </c>
     </row>
-    <row r="121" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="121" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y121">
         <v>8</v>
       </c>
@@ -7810,7 +7850,7 @@
         <v>15.288942086897533</v>
       </c>
     </row>
-    <row r="122" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="122" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y122">
         <v>9</v>
       </c>
@@ -7866,7 +7906,7 @@
         <v>14.99707312342392</v>
       </c>
     </row>
-    <row r="123" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="123" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y123">
         <v>10</v>
       </c>
@@ -7922,7 +7962,7 @@
         <v>14.667302851473924</v>
       </c>
     </row>
-    <row r="124" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="124" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y124">
         <v>11</v>
       </c>
@@ -7978,7 +8018,7 @@
         <v>14.32016656752565</v>
       </c>
     </row>
-    <row r="125" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="125" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y125">
         <v>12</v>
       </c>
@@ -8034,7 +8074,7 @@
         <v>14.068124998883063</v>
       </c>
     </row>
-    <row r="126" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="126" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y126">
         <v>13</v>
       </c>
@@ -8090,7 +8130,7 @@
         <v>13.778764853760558</v>
       </c>
     </row>
-    <row r="127" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="127" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y127">
         <v>14</v>
       </c>
@@ -8146,7 +8186,7 @@
         <v>13.510354480000542</v>
       </c>
     </row>
-    <row r="128" spans="21:39" x14ac:dyDescent="0.3">
+    <row r="128" spans="21:39" x14ac:dyDescent="0.25">
       <c r="Y128">
         <v>15</v>
       </c>
@@ -8209,24 +8249,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
+++ b/04_RozpadPlazmatu/data/RozpadPlazmatu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PraktikumPlazma\04_RozpadPlazmatu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF6D32-3328-4927-B841-41EFDA5374CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33A53A3-D451-40AC-B505-887FDE63D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,32 +494,32 @@
   <dimension ref="A1:AM128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.42578125" customWidth="1"/>
+    <col min="34" max="34" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.44140625" customWidth="1"/>
     <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -527,7 +527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -589,7 +589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -639,16 +639,16 @@
         <v>25.278932798864712</v>
       </c>
       <c r="AH5" s="3">
-        <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>23391714.358266436</v>
+        <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 * 1000000000 /$U$13^2</f>
+        <v>2.3391714358266436E+16</v>
       </c>
       <c r="AI5">
         <f>1/AH5</f>
-        <v>4.2750180028878834E-8</v>
+        <v>4.2750180028878832E-17</v>
       </c>
       <c r="AJ5">
         <f>LN(AH5)</f>
-        <v>16.967892430370664</v>
+        <v>37.691158267317078</v>
       </c>
       <c r="AK5" s="3">
         <f>0.271/0.64 * $U$11 * AC5 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA5*1000000000 /$U$13^2</f>
@@ -663,7 +663,7 @@
         <v>37.70616062020008</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -701,16 +701,16 @@
         <v>25.202326651906528</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" ref="AH6:AH19" si="4">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 /$U$13^2</f>
-        <v>22870387.390979342</v>
+        <f t="shared" ref="AH6:AH19" si="4">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$5 * 1000000000 /$U$13^2</f>
+        <v>2.2870387390979344E+16</v>
       </c>
       <c r="AI6">
         <f t="shared" ref="AI6:AI19" si="5">1/AH6</f>
-        <v>4.372466381546406E-8</v>
+        <v>4.3724663815464057E-17</v>
       </c>
       <c r="AJ6">
         <f t="shared" ref="AJ6:AJ19" si="6">LN(AH6)</f>
-        <v>16.94535350468276</v>
+        <v>37.668619341629167</v>
       </c>
       <c r="AK6" s="3">
         <f t="shared" ref="AK6:AK19" si="7">0.271/0.64 * $U$11 * AC6 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA6*1000000000 /$U$13^2</f>
@@ -725,7 +725,7 @@
         <v>37.6832897802296</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -803,15 +803,15 @@
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="4"/>
-        <v>21567069.972761996</v>
+        <v>2.1567069972761996E+16</v>
       </c>
       <c r="AI7">
         <f t="shared" si="5"/>
-        <v>4.6366984539992877E-8</v>
+        <v>4.6366984539992874E-17</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="6"/>
-        <v>16.886678171065356</v>
+        <v>37.609944008011766</v>
       </c>
       <c r="AK7" s="3">
         <f t="shared" si="7"/>
@@ -826,7 +826,7 @@
         <v>37.623784178604538</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -928,15 +928,15 @@
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="4"/>
-        <v>20014422.265842322</v>
+        <v>2.0014422265842324E+16</v>
       </c>
       <c r="AI8">
         <f t="shared" si="5"/>
-        <v>4.9963970316877607E-8</v>
+        <v>4.9963970316877601E-17</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="6"/>
-        <v>16.811963684933119</v>
+        <v>37.535229521879529</v>
       </c>
       <c r="AK8" s="3">
         <f t="shared" si="7"/>
@@ -951,7 +951,7 @@
         <v>37.548079689970635</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1040,15 +1040,15 @@
       </c>
       <c r="AH9" s="3">
         <f t="shared" si="4"/>
-        <v>18376775.596864697</v>
+        <v>1.83767755968647E+16</v>
       </c>
       <c r="AI9">
         <f t="shared" si="5"/>
-        <v>5.4416510379035822E-8</v>
+        <v>5.4416510379035812E-17</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="6"/>
-        <v>16.726598229516576</v>
+        <v>37.449864066462986</v>
       </c>
       <c r="AK9" s="3">
         <f t="shared" si="7"/>
@@ -1063,7 +1063,7 @@
         <v>37.461668971687459</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="U10" t="s">
         <v>15</v>
       </c>
@@ -1105,15 +1105,15 @@
       </c>
       <c r="AH10" s="3">
         <f t="shared" si="4"/>
-        <v>16138469.596013067</v>
+        <v>1.6138469596013066E+16</v>
       </c>
       <c r="AI10">
         <f t="shared" si="5"/>
-        <v>6.1963744086802715E-8</v>
+        <v>6.1963744086802713E-17</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="6"/>
-        <v>16.596716395741119</v>
+        <v>37.319982232687529</v>
       </c>
       <c r="AK10" s="3">
         <f t="shared" si="7"/>
@@ -1128,7 +1128,7 @@
         <v>37.330356721960328</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1177,15 +1177,15 @@
       </c>
       <c r="AH11" s="3">
         <f t="shared" si="4"/>
-        <v>13565834.344401404</v>
+        <v>1.3565834344401404E+16</v>
       </c>
       <c r="AI11">
         <f t="shared" si="5"/>
-        <v>7.3714596140022764E-8</v>
+        <v>7.3714596140022761E-17</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="6"/>
-        <v>16.423065009327171</v>
+        <v>37.146330846273578</v>
       </c>
       <c r="AK11" s="3">
         <f t="shared" si="7"/>
@@ -1200,7 +1200,7 @@
         <v>37.155058731204356</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1242,15 +1242,15 @@
       </c>
       <c r="AH12" s="3">
         <f t="shared" si="4"/>
-        <v>11134864.029552674</v>
+        <v>1.1134864029552676E+16</v>
       </c>
       <c r="AI12">
         <f t="shared" si="5"/>
-        <v>8.9808011785858646E-8</v>
+        <v>8.9808011785858631E-17</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="6"/>
-        <v>16.225591647512626</v>
+        <v>36.94885748445904</v>
       </c>
       <c r="AK12" s="3">
         <f t="shared" si="7"/>
@@ -1265,7 +1265,7 @@
         <v>36.956026941669329</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1307,15 +1307,15 @@
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>8771892.8843497559</v>
+        <v>8771892884349757</v>
       </c>
       <c r="AI13">
         <f t="shared" si="5"/>
-        <v>1.1400048007701226E-7</v>
+        <v>1.1400048007701224E-16</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="6"/>
-        <v>15.987063177358921</v>
+        <v>36.71032901430533</v>
       </c>
       <c r="AK13" s="3">
         <f t="shared" si="7"/>
@@ -1330,7 +1330,7 @@
         <v>36.715981304869317</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1369,15 +1369,15 @@
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
-        <v>6533586.8834981276</v>
+        <v>6533586883498127</v>
       </c>
       <c r="AI14">
         <f t="shared" si="5"/>
-        <v>1.5305528461337199E-7</v>
+        <v>1.53055284613372E-16</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="6"/>
-        <v>15.692466643478291</v>
+        <v>36.415732480424701</v>
       </c>
       <c r="AK14" s="3">
         <f t="shared" si="7"/>
@@ -1392,7 +1392,7 @@
         <v>36.419945520753451</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1470,15 +1470,15 @@
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>4890273.6170502007</v>
+        <v>4890273617050201</v>
       </c>
       <c r="AI15">
         <f t="shared" si="5"/>
-        <v>2.0448753552632444E-7</v>
+        <v>2.0448753552632442E-16</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="6"/>
-        <v>15.402758814292659</v>
+        <v>36.126024651239071</v>
       </c>
       <c r="AK15" s="3">
         <f t="shared" si="7"/>
@@ -1493,7 +1493,7 @@
         <v>36.129179706601967</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1589,15 +1589,15 @@
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="4"/>
-        <v>3490624.0418343013</v>
+        <v>3490624041834301.5</v>
       </c>
       <c r="AI16">
         <f t="shared" si="5"/>
-        <v>2.8648172590781393E-7</v>
+        <v>2.8648172590781394E-16</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="6"/>
-        <v>15.065591086742778</v>
+        <v>35.788856923689188</v>
       </c>
       <c r="AK16" s="3">
         <f t="shared" si="7"/>
@@ -1612,7 +1612,7 @@
         <v>35.791109984194748</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1693,15 +1693,15 @@
       </c>
       <c r="AH17" s="3">
         <f t="shared" si="4"/>
-        <v>2419637.1199078881</v>
+        <v>2419637119907888</v>
       </c>
       <c r="AI17">
         <f t="shared" si="5"/>
-        <v>4.1328511278503963E-7</v>
+        <v>4.1328511278503965E-16</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="6"/>
-        <v>14.69912813643789</v>
+        <v>35.422393973384303</v>
       </c>
       <c r="AK17" s="3">
         <f t="shared" si="7"/>
@@ -1716,7 +1716,7 @@
         <v>35.423956293619099</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y18">
         <v>14</v>
       </c>
@@ -1749,15 +1749,15 @@
       </c>
       <c r="AH18" s="3">
         <f t="shared" si="4"/>
-        <v>1671646.2538004122</v>
+        <v>1671646253800412.3</v>
       </c>
       <c r="AI18">
         <f t="shared" si="5"/>
-        <v>5.9821268867533737E-7</v>
+        <v>5.9821268867533739E-16</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="6"/>
-        <v>14.329319479549014</v>
+        <v>35.052585316495424</v>
       </c>
       <c r="AK18" s="3">
         <f t="shared" si="7"/>
@@ -1772,7 +1772,7 @@
         <v>35.053664931818105</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y19">
         <v>15</v>
       </c>
@@ -1805,15 +1805,15 @@
       </c>
       <c r="AH19" s="3">
         <f t="shared" si="4"/>
-        <v>1280651.0283351575</v>
+        <v>1280651028335157.5</v>
       </c>
       <c r="AI19">
         <f t="shared" si="5"/>
-        <v>7.8085284583732145E-7</v>
+        <v>7.8085284583732156E-16</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="6"/>
-        <v>14.062879122481423</v>
+        <v>34.786144959427837</v>
       </c>
       <c r="AK19" s="3">
         <f t="shared" si="7"/>
@@ -1828,7 +1828,7 @@
         <v>34.786972158965504</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1953,31 +1953,31 @@
         <v>27.012191683424547</v>
       </c>
       <c r="AH23" s="3">
-        <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$23 /$U$13^2</f>
-        <v>23536739.999950085</v>
+        <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$23 * 1000000000 /$U$13^2</f>
+        <v>2.353673999995008E+16</v>
       </c>
       <c r="AI23">
         <f>1/AH23</f>
-        <v>4.248676749635339E-8</v>
+        <v>4.2486767496353402E-17</v>
       </c>
       <c r="AJ23">
         <f>LN(AH23)</f>
-        <v>16.974073162523435</v>
+        <v>37.697338999469849</v>
       </c>
       <c r="AK23" s="3">
-        <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA23 /$U$13^2</f>
-        <v>23891251.283151533</v>
+        <f>0.271/0.64 * $U$11 * AC23 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA23 * 1000000000 /$U$13^2</f>
+        <v>2.3891251283151536E+16</v>
       </c>
       <c r="AL23">
         <f>1/AK23</f>
-        <v>4.1856325905592685E-8</v>
+        <v>4.1856325905592678E-17</v>
       </c>
       <c r="AM23">
         <f>LN(AK23)</f>
-        <v>16.989022894788956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.712288731735363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -2057,31 +2057,31 @@
         <v>26.722340151281326</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" ref="AH24:AH37" si="15">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$23 /$U$13^2</f>
-        <v>22017875.005972903</v>
+        <f t="shared" ref="AH24:AH37" si="15">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$23 * 1000000000 /$U$13^2</f>
+        <v>2.2017875005972904E+16</v>
       </c>
       <c r="AI24">
         <f t="shared" ref="AI24:AI37" si="16">1/AH24</f>
-        <v>4.5417643606784253E-8</v>
+        <v>4.5417643606784249E-17</v>
       </c>
       <c r="AJ24">
         <f t="shared" ref="AJ24:AJ37" si="17">LN(AH24)</f>
-        <v>16.907365181694423</v>
+        <v>37.630631018640834</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" ref="AK24:AK37" si="18">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA24 /$U$13^2</f>
-        <v>22327905.310446374</v>
+        <f t="shared" ref="AK24:AK37" si="18">0.271/0.64 * $U$11 * AC24 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA24 * 1000000000 /$U$13^2</f>
+        <v>2.2327905310446376E+16</v>
       </c>
       <c r="AL24">
         <f t="shared" ref="AL24:AL37" si="19">1/AK24</f>
-        <v>4.4787004696411812E-8</v>
+        <v>4.4787004696411811E-17</v>
       </c>
       <c r="AM24">
         <f t="shared" ref="AM24:AM37" si="20">LN(AK24)</f>
-        <v>16.921347813345804</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.644613650292214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2181,30 +2181,30 @@
       </c>
       <c r="AH25" s="3">
         <f t="shared" si="15"/>
-        <v>21332118.7960057</v>
+        <v>2.13321187960057E+16</v>
       </c>
       <c r="AI25">
         <f t="shared" si="16"/>
-        <v>4.6877668813059652E-8</v>
+        <v>4.6877668813059653E-17</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="17"/>
-        <v>16.875724419597947</v>
+        <v>37.598990256544361</v>
       </c>
       <c r="AK25" s="3">
         <f t="shared" si="18"/>
-        <v>21623042.920218531</v>
+        <v>2.1623042920218532E+16</v>
       </c>
       <c r="AL25">
         <f t="shared" si="19"/>
-        <v>4.6246959953307703E-8</v>
+        <v>4.6246959953307697E-17</v>
       </c>
       <c r="AM25">
         <f t="shared" si="20"/>
-        <v>16.889270105887629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.612535942834043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2288,30 +2288,30 @@
       </c>
       <c r="AH26" s="3">
         <f t="shared" si="15"/>
-        <v>19648899.007904325</v>
+        <v>1.9648899007904324E+16</v>
       </c>
       <c r="AI26">
         <f t="shared" si="16"/>
-        <v>5.0893436807717408E-8</v>
+        <v>5.089343680771741E-17</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="17"/>
-        <v>16.793531864577702</v>
+        <v>37.516797701524112</v>
       </c>
       <c r="AK26" s="3">
         <f t="shared" si="18"/>
-        <v>19895502.089138635</v>
+        <v>1.9895502089138632E+16</v>
       </c>
       <c r="AL26">
         <f t="shared" si="19"/>
-        <v>5.0262616923144689E-8</v>
+        <v>5.0262616923144692E-17</v>
       </c>
       <c r="AM26">
         <f t="shared" si="20"/>
-        <v>16.806004238475644</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.529270075422055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y27">
         <v>5</v>
       </c>
@@ -2344,30 +2344,30 @@
       </c>
       <c r="AH27" s="3">
         <f t="shared" si="15"/>
-        <v>17897670.339475676</v>
+        <v>1.7897670339475674E+16</v>
       </c>
       <c r="AI27">
         <f t="shared" si="16"/>
-        <v>5.5873193607458948E-8</v>
+        <v>5.5873193607458961E-17</v>
       </c>
       <c r="AJ27">
         <f t="shared" si="17"/>
-        <v>16.700181113708272</v>
+        <v>37.423446950654686</v>
       </c>
       <c r="AK27" s="3">
         <f t="shared" si="18"/>
-        <v>18102047.021466125</v>
+        <v>1.8102047021466124E+16</v>
       </c>
       <c r="AL27">
         <f t="shared" si="19"/>
-        <v>5.5242371142565275E-8</v>
+        <v>5.5242371142565283E-17</v>
       </c>
       <c r="AM27">
         <f t="shared" si="20"/>
-        <v>16.71153558494991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.434801421896324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y28">
         <v>6</v>
       </c>
@@ -2400,30 +2400,30 @@
       </c>
       <c r="AH28" s="3">
         <f t="shared" si="15"/>
-        <v>15018627.738952054</v>
+        <v>1.5018627738952054E+16</v>
       </c>
       <c r="AI28">
         <f t="shared" si="16"/>
-        <v>6.6583979400888755E-8</v>
+        <v>6.6583979400888751E-17</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="17"/>
-        <v>16.524801837872953</v>
+        <v>37.248067674819367</v>
       </c>
       <c r="AK28" s="3">
         <f t="shared" si="18"/>
-        <v>15162195.388250407</v>
+        <v>1.5162195388250406E+16</v>
       </c>
       <c r="AL28">
         <f t="shared" si="19"/>
-        <v>6.5953509659618744E-8</v>
+        <v>6.5953509659618748E-17</v>
       </c>
       <c r="AM28">
         <f t="shared" si="20"/>
-        <v>16.53431574222228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.257581579168694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2462,30 +2462,30 @@
       </c>
       <c r="AH29" s="3">
         <f t="shared" si="15"/>
-        <v>12122582.918346478</v>
+        <v>1.2122582918346476E+16</v>
       </c>
       <c r="AI29">
         <f t="shared" si="16"/>
-        <v>8.2490671067020441E-8</v>
+        <v>8.2490671067020447E-17</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="17"/>
-        <v>16.310580627975082</v>
+        <v>37.033846464921496</v>
       </c>
       <c r="AK29" s="3">
         <f t="shared" si="18"/>
-        <v>12215786.783544263</v>
+        <v>1.2215786783544264E+16</v>
       </c>
       <c r="AL29">
         <f t="shared" si="19"/>
-        <v>8.1861284722739907E-8</v>
+        <v>8.1861284722739899E-17</v>
       </c>
       <c r="AM29">
         <f t="shared" si="20"/>
-        <v>16.318239671859939</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.041505508806345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2524,30 +2524,30 @@
       </c>
       <c r="AH30" s="3">
         <f t="shared" si="15"/>
-        <v>8608790.7681012247</v>
+        <v>8608790768101225</v>
       </c>
       <c r="AI30">
         <f t="shared" si="16"/>
-        <v>1.161603327270274E-7</v>
+        <v>1.161603327270274E-16</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="17"/>
-        <v>15.96829442148846</v>
+        <v>36.691560258434869</v>
       </c>
       <c r="AK30" s="3">
         <f t="shared" si="18"/>
-        <v>8655437.7267219536</v>
+        <v>8655437726721953</v>
       </c>
       <c r="AL30">
         <f t="shared" si="19"/>
-        <v>1.1553430705332182E-7</v>
+        <v>1.1553430705332182E-16</v>
       </c>
       <c r="AM30">
         <f t="shared" si="20"/>
-        <v>15.973698320324775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+        <v>36.696964157271189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2586,30 +2586,30 @@
       </c>
       <c r="AH31" s="3">
         <f t="shared" si="15"/>
-        <v>6449508.817708442</v>
+        <v>6449508817708442</v>
       </c>
       <c r="AI31">
         <f t="shared" si="16"/>
-        <v>1.5505056714618266E-7</v>
+        <v>1.5505056714618267E-16</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="17"/>
-        <v>15.679514533578958</v>
+        <v>36.40278037052537</v>
       </c>
       <c r="AK31" s="3">
         <f t="shared" si="18"/>
-        <v>6475459.2022797801</v>
+        <v>6475459202279780</v>
       </c>
       <c r="AL31">
         <f t="shared" si="19"/>
-        <v>1.5442920243369541E-7</v>
+        <v>1.5442920243369542E-16</v>
       </c>
       <c r="AM31">
         <f t="shared" si="20"/>
-        <v>15.683530082306232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+        <v>36.406795919252644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2648,30 +2648,30 @@
       </c>
       <c r="AH32" s="3">
         <f t="shared" si="15"/>
-        <v>4397907.5945005491</v>
+        <v>4397907594500549</v>
       </c>
       <c r="AI32">
         <f t="shared" si="16"/>
-        <v>2.2738085749015507E-7</v>
+        <v>2.2738085749015507E-16</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="17"/>
-        <v>15.296639439075875</v>
+        <v>36.019905276022286</v>
       </c>
       <c r="AK32" s="3">
         <f t="shared" si="18"/>
-        <v>4409774.3789242879</v>
+        <v>4409774378924287.5</v>
       </c>
       <c r="AL32">
         <f t="shared" si="19"/>
-        <v>2.2676897139665866E-7</v>
+        <v>2.2676897139665868E-16</v>
       </c>
       <c r="AM32">
         <f t="shared" si="20"/>
-        <v>15.299334084872589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+        <v>36.022599921819001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -2749,30 +2749,30 @@
       </c>
       <c r="AH33" s="3">
         <f t="shared" si="15"/>
-        <v>3224754.408854221</v>
+        <v>3224754408854221</v>
       </c>
       <c r="AI33">
         <f t="shared" si="16"/>
-        <v>3.1010113429236532E-7</v>
+        <v>3.1010113429236533E-16</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="17"/>
-        <v>14.986367353019013</v>
+        <v>35.709633189965423</v>
       </c>
       <c r="AK33" s="3">
         <f t="shared" si="18"/>
-        <v>3231011.7809301126</v>
+        <v>3231011780930112</v>
       </c>
       <c r="AL33">
         <f t="shared" si="19"/>
-        <v>3.095005737528229E-7</v>
+        <v>3.0950057375282298E-16</v>
       </c>
       <c r="AM33">
         <f t="shared" si="20"/>
-        <v>14.988305891017912</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+        <v>35.711571727964326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2868,30 +2868,30 @@
       </c>
       <c r="AH34" s="3">
         <f t="shared" si="15"/>
-        <v>2476656.7252534707</v>
+        <v>2476656725253470.5</v>
       </c>
       <c r="AI34">
         <f t="shared" si="16"/>
-        <v>4.0377012680174967E-7</v>
+        <v>4.0377012680174971E-16</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="17"/>
-        <v>14.722420113988221</v>
+        <v>35.445685950934632</v>
       </c>
       <c r="AK34" s="3">
         <f t="shared" si="18"/>
-        <v>2480265.5712781795</v>
+        <v>2480265571278180</v>
       </c>
       <c r="AL34">
         <f t="shared" si="19"/>
-        <v>4.0318263156177274E-7</v>
+        <v>4.0318263156177267E-16</v>
       </c>
       <c r="AM34">
         <f t="shared" si="20"/>
-        <v>14.72387619760077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+        <v>35.447142034547184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2972,30 +2972,30 @@
       </c>
       <c r="AH35" s="3">
         <f t="shared" si="15"/>
-        <v>1909916.0558591157</v>
+        <v>1909916055859115.8</v>
       </c>
       <c r="AI35">
         <f t="shared" si="16"/>
-        <v>5.2358322080819486E-7</v>
+        <v>5.2358322080819483E-16</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="17"/>
-        <v>14.462569849245011</v>
+        <v>35.185835686191425</v>
       </c>
       <c r="AK35" s="3">
         <f t="shared" si="18"/>
-        <v>1911999.8269507145</v>
+        <v>1911999826950714.5</v>
       </c>
       <c r="AL35">
         <f t="shared" si="19"/>
-        <v>5.230125996375297E-7</v>
+        <v>5.2301259963752967E-16</v>
       </c>
       <c r="AM35">
         <f t="shared" si="20"/>
-        <v>14.463660282086531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+        <v>35.18692611903294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y36">
         <v>14</v>
       </c>
@@ -3028,30 +3028,30 @@
       </c>
       <c r="AH36" s="3">
         <f t="shared" si="15"/>
-        <v>1473525.7404253236</v>
+        <v>1473525740425323.5</v>
       </c>
       <c r="AI36">
         <f t="shared" si="16"/>
-        <v>6.7864440543220945E-7</v>
+        <v>6.7864440543220951E-16</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="17"/>
-        <v>14.203168549908103</v>
+        <v>34.926434386854517</v>
       </c>
       <c r="AK36" s="3">
         <f t="shared" si="18"/>
-        <v>1474717.9962845957</v>
+        <v>1474717996284595.5</v>
       </c>
       <c r="AL36">
         <f t="shared" si="19"/>
-        <v>6.7809574611512156E-7</v>
+        <v>6.7809574611512164E-16</v>
       </c>
       <c r="AM36">
         <f t="shared" si="20"/>
-        <v>14.203977340517522</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+        <v>34.927243177463936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y37">
         <v>15</v>
       </c>
@@ -3084,30 +3084,30 @@
       </c>
       <c r="AH37" s="3">
         <f t="shared" si="15"/>
-        <v>1110811.7120130369</v>
+        <v>1110811712013037</v>
       </c>
       <c r="AI37">
         <f t="shared" si="16"/>
-        <v>9.0024257863448205E-7</v>
+        <v>9.0024257863448191E-16</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="17"/>
-        <v>13.920601578123184</v>
+        <v>34.643867415069593</v>
       </c>
       <c r="AK37" s="3">
         <f t="shared" si="18"/>
-        <v>1111450.2100516991</v>
+        <v>1111450210051699</v>
       </c>
       <c r="AL37">
         <f t="shared" si="19"/>
-        <v>8.9972541365886734E-7</v>
+        <v>8.997254136588674E-16</v>
       </c>
       <c r="AM37">
         <f t="shared" si="20"/>
-        <v>13.921176216107925</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+        <v>34.644442053054334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3232,31 +3232,31 @@
         <v>26.400663729652077</v>
       </c>
       <c r="AH41" s="3">
-        <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$41 /$U$13^2</f>
-        <v>17559168.691191807</v>
+        <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$41 * 1000000000 /$U$13^2</f>
+        <v>1.7559168691191806E+16</v>
       </c>
       <c r="AI41">
         <f>1/AH41</f>
-        <v>5.6950304287561705E-8</v>
+        <v>5.6950304287561709E-17</v>
       </c>
       <c r="AJ41">
         <f>LN(AH41)</f>
-        <v>16.681086804002319</v>
+        <v>37.40435264094873</v>
       </c>
       <c r="AK41" s="3">
-        <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA41 /$U$13^2</f>
-        <v>17754262.708924089</v>
+        <f>0.271/0.64 * $U$11 * AC41 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA41 * 1000000000 /$U$13^2</f>
+        <v>1.7754262708924088E+16</v>
       </c>
       <c r="AL41">
         <f>1/AK41</f>
-        <v>5.6324501692619158E-8</v>
+        <v>5.6324501692619154E-17</v>
       </c>
       <c r="AM41">
         <f>LN(AK41)</f>
-        <v>16.692136197669118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.415402034615525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1</v>
       </c>
@@ -3333,31 +3333,31 @@
         <v>25.928424382094651</v>
       </c>
       <c r="AH42" s="3">
-        <f t="shared" ref="AH42:AH56" si="21">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$41 /$U$13^2</f>
-        <v>13438601.990579594</v>
+        <f t="shared" ref="AH42:AH56" si="21">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$41 * 1000000000 /$U$13^2</f>
+        <v>1.3438601990579594E+16</v>
       </c>
       <c r="AI42">
         <f t="shared" ref="AI42:AI56" si="22">1/AH42</f>
-        <v>7.441250218594136E-8</v>
+        <v>7.4412502185941362E-17</v>
       </c>
       <c r="AJ42">
         <f t="shared" ref="AJ42:AJ55" si="23">LN(AH42)</f>
-        <v>16.413641869090906</v>
+        <v>37.13690770603732</v>
       </c>
       <c r="AK42" s="3">
-        <f t="shared" ref="AK42:AK55" si="24">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA42 /$U$13^2</f>
-        <v>13552147.823968176</v>
+        <f t="shared" ref="AK42:AK56" si="24">0.271/0.64 * $U$11 * AC42 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA42 * 1000000000 /$U$13^2</f>
+        <v>1.3552147823968176E+16</v>
       </c>
       <c r="AL42">
         <f t="shared" ref="AL42:AL56" si="25">1/AK42</f>
-        <v>7.3789041633047361E-8</v>
+        <v>7.3789041633047362E-17</v>
       </c>
       <c r="AM42">
         <f t="shared" ref="AM42:AM55" si="26">LN(AK42)</f>
-        <v>16.422055603722406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.145321440668816</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -3453,30 +3453,30 @@
       </c>
       <c r="AH43" s="3">
         <f t="shared" si="21"/>
-        <v>13721997.224459223</v>
+        <v>1.3721997224459224E+16</v>
       </c>
       <c r="AI43">
         <f t="shared" si="22"/>
-        <v>7.2875688840507647E-8</v>
+        <v>7.2875688840507651E-17</v>
       </c>
       <c r="AJ43">
         <f t="shared" si="23"/>
-        <v>16.434510739963546</v>
+        <v>37.15777657690996</v>
       </c>
       <c r="AK43" s="3">
         <f t="shared" si="24"/>
-        <v>13840449.234282278</v>
+        <v>1.3840449234282278E+16</v>
       </c>
       <c r="AL43">
         <f t="shared" si="25"/>
-        <v>7.2251990023780246E-8</v>
+        <v>7.2251990023780239E-17</v>
       </c>
       <c r="AM43">
         <f t="shared" si="26"/>
-        <v>16.443105966751453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.166371803697864</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3557,30 +3557,30 @@
       </c>
       <c r="AH44" s="3">
         <f t="shared" si="21"/>
-        <v>12208666.675541302</v>
+        <v>1.2208666675541304E+16</v>
       </c>
       <c r="AI44">
         <f t="shared" si="22"/>
-        <v>8.1909026315165777E-8</v>
+        <v>8.1909026315165765E-17</v>
       </c>
       <c r="AJ44">
         <f t="shared" si="23"/>
-        <v>16.317656640741834</v>
+        <v>37.040922477688248</v>
       </c>
       <c r="AK44" s="3">
         <f t="shared" si="24"/>
-        <v>12302121.897987247</v>
+        <v>1.2302121897987248E+16</v>
       </c>
       <c r="AL44">
         <f t="shared" si="25"/>
-        <v>8.1286790058844263E-8</v>
+        <v>8.128679005884425E-17</v>
       </c>
       <c r="AM44">
         <f t="shared" si="26"/>
-        <v>16.325282317495638</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.048548154442052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y45">
         <v>5</v>
       </c>
@@ -3613,30 +3613,30 @@
       </c>
       <c r="AH45" s="3">
         <f t="shared" si="21"/>
-        <v>10213564.229027597</v>
+        <v>1.0213564229027598E+16</v>
       </c>
       <c r="AI45">
         <f t="shared" si="22"/>
-        <v>9.7909013697484424E-8</v>
+        <v>9.7909013697484423E-17</v>
       </c>
       <c r="AJ45">
         <f t="shared" si="23"/>
-        <v>16.139227221193785</v>
+        <v>36.862493058140196</v>
       </c>
       <c r="AK45" s="3">
         <f t="shared" si="24"/>
-        <v>10278585.912922001</v>
+        <v>1.0278585912922E+16</v>
       </c>
       <c r="AL45">
         <f t="shared" si="25"/>
-        <v>9.7289647474057999E-8</v>
+        <v>9.7289647474058002E-17</v>
       </c>
       <c r="AM45">
         <f t="shared" si="26"/>
-        <v>16.145573251420693</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+        <v>36.868839088367103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y46">
         <v>6</v>
       </c>
@@ -3669,30 +3669,30 @@
       </c>
       <c r="AH46" s="3">
         <f t="shared" si="21"/>
-        <v>8224129.6871915255</v>
+        <v>8224129687191526</v>
       </c>
       <c r="AI46">
         <f t="shared" si="22"/>
-        <v>1.2159341328936314E-7</v>
+        <v>1.2159341328936314E-16</v>
       </c>
       <c r="AJ46">
         <f t="shared" si="23"/>
-        <v>15.922583035909694</v>
+        <v>36.645848872856106</v>
       </c>
       <c r="AK46" s="3">
         <f t="shared" si="24"/>
-        <v>8265918.5662987996</v>
+        <v>8265918566298799</v>
       </c>
       <c r="AL46">
         <f t="shared" si="25"/>
-        <v>1.2097869002449736E-7</v>
+        <v>1.2097869002449735E-16</v>
       </c>
       <c r="AM46">
         <f t="shared" si="26"/>
-        <v>15.927651422359848</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+        <v>36.650917259306262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3734,30 +3734,30 @@
       </c>
       <c r="AH47" s="3">
         <f t="shared" si="21"/>
-        <v>6433071.8090710975</v>
+        <v>6433071809071097</v>
       </c>
       <c r="AI47">
         <f t="shared" si="22"/>
-        <v>1.554467336412952E-7</v>
+        <v>1.5544673364129523E-16</v>
       </c>
       <c r="AJ47">
         <f t="shared" si="23"/>
-        <v>15.676962712940986</v>
+        <v>36.400228549887395</v>
       </c>
       <c r="AK47" s="3">
         <f t="shared" si="24"/>
-        <v>6458317.9202631209</v>
+        <v>6458317920263121</v>
       </c>
       <c r="AL47">
         <f t="shared" si="25"/>
-        <v>1.5483907920706056E-7</v>
+        <v>1.5483907920706055E-16</v>
       </c>
       <c r="AM47">
         <f t="shared" si="26"/>
-        <v>15.680879457992823</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+        <v>36.404145294939234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -3796,30 +3796,30 @@
       </c>
       <c r="AH48" s="3">
         <f t="shared" si="21"/>
-        <v>4868730.1180547262</v>
+        <v>4868730118054727</v>
       </c>
       <c r="AI48">
         <f t="shared" si="22"/>
-        <v>2.0539236633628491E-7</v>
+        <v>2.0539236633628488E-16</v>
       </c>
       <c r="AJ48">
         <f t="shared" si="23"/>
-        <v>15.398343705009745</v>
+        <v>36.121609541956154</v>
       </c>
       <c r="AK48" s="3">
         <f t="shared" si="24"/>
-        <v>4882917.755286877</v>
+        <v>4882917755286876</v>
       </c>
       <c r="AL48">
         <f t="shared" si="25"/>
-        <v>2.0479558536845534E-7</v>
+        <v>2.0479558536845538E-16</v>
       </c>
       <c r="AM48">
         <f t="shared" si="26"/>
-        <v>15.401253499831478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+        <v>36.124519336777887</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -3858,30 +3858,30 @@
       </c>
       <c r="AH49" s="3">
         <f t="shared" si="21"/>
-        <v>3876846.7994755055</v>
+        <v>3876846799475505.5</v>
       </c>
       <c r="AI49">
         <f t="shared" si="22"/>
-        <v>2.5794158286968908E-7</v>
+        <v>2.5794158286968908E-16</v>
       </c>
       <c r="AJ49">
         <f t="shared" si="23"/>
-        <v>15.170532700648049</v>
+        <v>35.893798537594463</v>
       </c>
       <c r="AK49" s="3">
         <f t="shared" si="24"/>
-        <v>3885660.3631338403</v>
+        <v>3885660363133840</v>
       </c>
       <c r="AL49">
         <f t="shared" si="25"/>
-        <v>2.573565125474543E-7</v>
+        <v>2.5735651254745431E-16</v>
       </c>
       <c r="AM49">
         <f t="shared" si="26"/>
-        <v>15.172803504979951</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+        <v>35.896069341926363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -3920,30 +3920,30 @@
       </c>
       <c r="AH50" s="3">
         <f t="shared" si="21"/>
-        <v>2947310.4323497452</v>
+        <v>2947310432349745</v>
       </c>
       <c r="AI50">
         <f t="shared" si="22"/>
-        <v>3.3929238977475113E-7</v>
+        <v>3.3929238977475112E-16</v>
       </c>
       <c r="AJ50">
         <f t="shared" si="23"/>
-        <v>14.896403594600953</v>
+        <v>35.619669431547365</v>
       </c>
       <c r="AK50" s="3">
         <f t="shared" si="24"/>
-        <v>2952241.3004736132</v>
+        <v>2952241300473613</v>
       </c>
       <c r="AL50">
         <f t="shared" si="25"/>
-        <v>3.3872569963694197E-7</v>
+        <v>3.3872569963694197E-16</v>
       </c>
       <c r="AM50">
         <f t="shared" si="26"/>
-        <v>14.898075202714708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+        <v>35.621341039661118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>1</v>
       </c>
@@ -4021,30 +4021,30 @@
       </c>
       <c r="AH51" s="3">
         <f t="shared" si="21"/>
-        <v>2391855.7739452417</v>
+        <v>2391855773945242</v>
       </c>
       <c r="AI51">
         <f t="shared" si="22"/>
-        <v>4.1808540920113758E-7</v>
+        <v>4.1808540920113752E-16</v>
       </c>
       <c r="AJ51">
         <f t="shared" si="23"/>
-        <v>14.687580097061439</v>
+        <v>35.410845934007853</v>
       </c>
       <c r="AK51" s="3">
         <f t="shared" si="24"/>
-        <v>2394999.2542475043</v>
+        <v>2394999254247504</v>
       </c>
       <c r="AL51">
         <f t="shared" si="25"/>
-        <v>4.1753666445887665E-7</v>
+        <v>4.1753666445887671E-16</v>
       </c>
       <c r="AM51">
         <f t="shared" si="26"/>
-        <v>14.688893477448191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+        <v>35.4121593143946</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -4140,30 +4140,30 @@
       </c>
       <c r="AH52" s="3">
         <f t="shared" si="21"/>
-        <v>1881744.352961801</v>
+        <v>1881744352961801</v>
       </c>
       <c r="AI52">
         <f t="shared" si="22"/>
-        <v>5.3142181530983972E-7</v>
+        <v>5.3142181530983965E-16</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="23"/>
-        <v>14.447709751941991</v>
+        <v>35.170975588888403</v>
       </c>
       <c r="AK52" s="3">
         <f t="shared" si="24"/>
-        <v>1883597.4331267835</v>
+        <v>1883597433126783.5</v>
       </c>
       <c r="AL52">
         <f t="shared" si="25"/>
-        <v>5.3089900337143364E-7</v>
+        <v>5.3089900337143363E-16</v>
       </c>
       <c r="AM52">
         <f t="shared" si="26"/>
-        <v>14.448694034602033</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+        <v>35.171959871548445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -4244,30 +4244,30 @@
       </c>
       <c r="AH53" s="3">
         <f t="shared" si="21"/>
-        <v>1496326.8348852783</v>
+        <v>1496326834885278.3</v>
       </c>
       <c r="AI53">
         <f t="shared" si="22"/>
-        <v>6.6830319198056012E-7</v>
+        <v>6.6830319198056009E-16</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="23"/>
-        <v>14.218523886171813</v>
+        <v>34.94178972311822</v>
       </c>
       <c r="AK53" s="3">
         <f t="shared" si="24"/>
-        <v>1497427.8767390274</v>
+        <v>1497427876739027.5</v>
       </c>
       <c r="AL53">
         <f t="shared" si="25"/>
-        <v>6.6781179616992031E-7</v>
+        <v>6.6781179616992033E-16</v>
       </c>
       <c r="AM53">
         <f t="shared" si="26"/>
-        <v>14.21925944536717</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+        <v>34.942525282313582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y54">
         <v>14</v>
       </c>
@@ -4300,30 +4300,30 @@
       </c>
       <c r="AH54" s="3">
         <f t="shared" si="21"/>
-        <v>1167588.363584582</v>
+        <v>1167588363584581.8</v>
       </c>
       <c r="AI54">
         <f t="shared" si="22"/>
-        <v>8.5646622661596814E-7</v>
+        <v>8.5646622661596833E-16</v>
       </c>
       <c r="AJ54">
         <f t="shared" si="23"/>
-        <v>13.970450951814955</v>
+        <v>34.693716788761364</v>
       </c>
       <c r="AK54" s="3">
         <f t="shared" si="24"/>
-        <v>1168199.5970183173</v>
+        <v>1168199597018317.3</v>
       </c>
       <c r="AL54">
         <f t="shared" si="25"/>
-        <v>8.5601810046191963E-7</v>
+        <v>8.5601810046191967E-16</v>
       </c>
       <c r="AM54">
         <f t="shared" si="26"/>
-        <v>13.970974315628791</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+        <v>34.694240152575205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y55">
         <v>15</v>
       </c>
@@ -4356,30 +4356,30 @@
       </c>
       <c r="AH55" s="3">
         <f t="shared" si="21"/>
-        <v>901196.84373759583</v>
+        <v>901196843737595.88</v>
       </c>
       <c r="AI55">
         <f t="shared" si="22"/>
-        <v>1.1096354885716544E-6</v>
+        <v>1.1096354885716544E-15</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="23"/>
-        <v>13.711478985245584</v>
+        <v>34.434744822191995</v>
       </c>
       <c r="AK55" s="3">
         <f t="shared" si="24"/>
-        <v>901513.5613400311</v>
+        <v>901513561340031.13</v>
       </c>
       <c r="AL55">
         <f t="shared" si="25"/>
-        <v>1.1092456540682276E-6</v>
+        <v>1.1092456540682275E-15</v>
       </c>
       <c r="AM55">
         <f t="shared" si="26"/>
-        <v>13.711830364596146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+        <v>34.435096201542557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -4418,30 +4418,30 @@
       </c>
       <c r="AH56" s="3">
         <f t="shared" si="21"/>
-        <v>691484.37066668738</v>
+        <v>691484370666687.25</v>
       </c>
       <c r="AI56">
         <f t="shared" si="22"/>
-        <v>1.4461642842857902E-6</v>
+        <v>1.4461642842857904E-15</v>
       </c>
       <c r="AJ56">
         <f t="shared" ref="AJ56" si="27">LN(AH56)</f>
-        <v>13.446595827758761</v>
+        <v>34.169861664705174</v>
       </c>
       <c r="AK56" s="3">
-        <f t="shared" ref="AK56" si="28">0.271/0.64 * $U$11 * AC56 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA56 /$U$13^2</f>
-        <v>691633.72426353814</v>
+        <f t="shared" si="24"/>
+        <v>691633724263538</v>
       </c>
       <c r="AL56">
         <f t="shared" si="25"/>
-        <v>1.4458519949483592E-6</v>
+        <v>1.4458519949483594E-15</v>
       </c>
       <c r="AM56">
-        <f t="shared" ref="AM56" si="29">LN(AK56)</f>
-        <v>13.44681179427381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM56" si="28">LN(AK56)</f>
+        <v>34.170077631220217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>1</v>
       </c>
@@ -4605,31 +4605,31 @@
         <v>25.09259355888414</v>
       </c>
       <c r="AH60" s="3">
-        <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$60 /$U$13^2</f>
-        <v>25024244.20372466</v>
+        <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$60 * 1000000000 /$U$13^2</f>
+        <v>2.502424420372466E+16</v>
       </c>
       <c r="AI60">
         <f>1/AH60</f>
-        <v>3.9961246855605651E-8</v>
+        <v>3.9961246855605649E-17</v>
       </c>
       <c r="AJ60">
         <f>LN(AH60)</f>
-        <v>17.035355681060114</v>
+        <v>37.758621518006528</v>
       </c>
       <c r="AK60" s="3">
-        <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA60 /$U$13^2</f>
-        <v>25428328.058001511</v>
+        <f>0.271/0.64 * $U$11 * AC60 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA60 * 1000000000 /$U$13^2</f>
+        <v>2.5428328058001512E+16</v>
       </c>
       <c r="AL60">
         <f>1/AK60</f>
-        <v>3.9326219078148588E-8</v>
+        <v>3.9326219078148584E-17</v>
       </c>
       <c r="AM60">
         <f>LN(AK60)</f>
-        <v>17.051374388402497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.774640225348911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -4724,31 +4724,31 @@
         <v>25.019025720817844</v>
       </c>
       <c r="AH61" s="3">
-        <f t="shared" ref="AH61:AH74" si="30">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$60 /$U$13^2</f>
-        <v>24451905.285115942</v>
+        <f t="shared" ref="AH61:AH74" si="29">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$60 * 1000000000 /$U$13^2</f>
+        <v>2.4451905285115944E+16</v>
       </c>
       <c r="AI61">
-        <f t="shared" ref="AI61:AI74" si="31">1/AH61</f>
-        <v>4.089660860124088E-8</v>
+        <f t="shared" ref="AI61:AI74" si="30">1/AH61</f>
+        <v>4.0896608601240878E-17</v>
       </c>
       <c r="AJ61">
-        <f t="shared" ref="AJ61:AJ74" si="32">LN(AH61)</f>
-        <v>17.012218696620714</v>
+        <f t="shared" ref="AJ61:AJ74" si="31">LN(AH61)</f>
+        <v>37.735484533567124</v>
       </c>
       <c r="AK61" s="3">
-        <f t="shared" ref="AK61:AK74" si="33">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA61 /$U$13^2</f>
-        <v>24837704.320917558</v>
+        <f t="shared" ref="AK61:AK74" si="32">0.271/0.64 * $U$11 * AC61 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA61 * 1000000000 /$U$13^2</f>
+        <v>2.483770432091756E+16</v>
       </c>
       <c r="AL61">
-        <f t="shared" ref="AL61:AL74" si="34">1/AK61</f>
-        <v>4.0261369854452712E-8</v>
+        <f t="shared" ref="AL61:AL74" si="33">1/AK61</f>
+        <v>4.026136985445271E-17</v>
       </c>
       <c r="AM61">
-        <f t="shared" ref="AM61:AM74" si="35">LN(AK61)</f>
-        <v>17.027873392116074</v>
-      </c>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM61:AM74" si="34">LN(AK61)</f>
+        <v>37.751139229062488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -4828,31 +4828,31 @@
         <v>24.925772134700836</v>
       </c>
       <c r="AH62" s="3">
+        <f t="shared" si="29"/>
+        <v>2.4100568523197672E+16</v>
+      </c>
+      <c r="AI62">
         <f t="shared" si="30"/>
-        <v>24100568.523197673</v>
-      </c>
-      <c r="AI62">
+        <v>4.1492797111299E-17</v>
+      </c>
+      <c r="AJ62">
         <f t="shared" si="31"/>
-        <v>4.1492797111299002E-8</v>
-      </c>
-      <c r="AJ62">
+        <v>37.721011825303229</v>
+      </c>
+      <c r="AK62" s="3">
         <f t="shared" si="32"/>
-        <v>16.997745988356819</v>
-      </c>
-      <c r="AK62" s="3">
+        <v>2.4475352907600752E+16</v>
+      </c>
+      <c r="AL62">
         <f t="shared" si="33"/>
-        <v>24475352.907600753</v>
-      </c>
-      <c r="AL62">
+        <v>4.0857429258535954E-17</v>
+      </c>
+      <c r="AM62">
         <f t="shared" si="34"/>
-        <v>4.085742925853595E-8</v>
-      </c>
-      <c r="AM62">
-        <f t="shared" si="35"/>
-        <v>17.013177165382135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.736443002328542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y63">
         <v>4</v>
       </c>
@@ -4884,31 +4884,31 @@
         <v>24.753276258536378</v>
       </c>
       <c r="AH63" s="3">
+        <f t="shared" si="29"/>
+        <v>2.2740555251256256E+16</v>
+      </c>
+      <c r="AI63">
         <f t="shared" si="30"/>
-        <v>22740555.251256257</v>
-      </c>
-      <c r="AI63">
+        <v>4.3974300053414794E-17</v>
+      </c>
+      <c r="AJ63">
         <f t="shared" si="31"/>
-        <v>4.3974300053414788E-8</v>
-      </c>
-      <c r="AJ63">
+        <v>37.662926300316521</v>
+      </c>
+      <c r="AK63" s="3">
         <f t="shared" si="32"/>
-        <v>16.939660463370107</v>
-      </c>
-      <c r="AK63" s="3">
+        <v>2.3074206186034892E+16</v>
+      </c>
+      <c r="AL63">
         <f t="shared" si="33"/>
-        <v>23074206.186034892</v>
-      </c>
-      <c r="AL63">
+        <v>4.3338435651373608E-17</v>
+      </c>
+      <c r="AM63">
         <f t="shared" si="34"/>
-        <v>4.3338435651373608E-8</v>
-      </c>
-      <c r="AM63">
-        <f t="shared" si="35"/>
-        <v>16.9542259362895</v>
-      </c>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+        <v>37.677491773235914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y64">
         <v>5</v>
       </c>
@@ -4940,31 +4940,31 @@
         <v>24.563795175897454</v>
       </c>
       <c r="AH64" s="3">
+        <f t="shared" si="29"/>
+        <v>2.1357875091448996E+16</v>
+      </c>
+      <c r="AI64">
         <f t="shared" si="30"/>
-        <v>21357875.091448996</v>
-      </c>
-      <c r="AI64">
+        <v>4.6821137202004133E-17</v>
+      </c>
+      <c r="AJ64">
         <f t="shared" si="31"/>
-        <v>4.682113720200413E-8</v>
-      </c>
-      <c r="AJ64">
+        <v>37.600196923316737</v>
+      </c>
+      <c r="AK64" s="3">
         <f t="shared" si="32"/>
-        <v>16.876931086370323</v>
-      </c>
-      <c r="AK64" s="3">
+        <v>2.1652157430664544E+16</v>
+      </c>
+      <c r="AL64">
         <f t="shared" si="33"/>
-        <v>21652157.430664543</v>
-      </c>
-      <c r="AL64">
+        <v>4.618477411326065E-17</v>
+      </c>
+      <c r="AM64">
         <f t="shared" si="34"/>
-        <v>4.6184774113260647E-8</v>
-      </c>
-      <c r="AM64">
-        <f t="shared" si="35"/>
-        <v>16.890615657825119</v>
-      </c>
-    </row>
-    <row r="65" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.613881494771533</v>
+      </c>
+    </row>
+    <row r="65" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y65">
         <v>6</v>
       </c>
@@ -4996,31 +4996,31 @@
         <v>24.304659411056708</v>
       </c>
       <c r="AH65" s="3">
+        <f t="shared" si="29"/>
+        <v>1.9425522900898616E+16</v>
+      </c>
+      <c r="AI65">
         <f t="shared" si="30"/>
-        <v>19425522.900898617</v>
-      </c>
-      <c r="AI65">
+        <v>5.1478665727641256E-17</v>
+      </c>
+      <c r="AJ65">
         <f t="shared" si="31"/>
-        <v>5.1478665727641254E-8</v>
-      </c>
-      <c r="AJ65">
+        <v>37.505364209767265</v>
+      </c>
+      <c r="AK65" s="3">
         <f t="shared" si="32"/>
-        <v>16.782098372820855</v>
-      </c>
-      <c r="AK65" s="3">
+        <v>1.9668925192212088E+16</v>
+      </c>
+      <c r="AL65">
         <f t="shared" si="33"/>
-        <v>19668925.19221209</v>
-      </c>
-      <c r="AL65">
+        <v>5.0841618961261291E-17</v>
+      </c>
+      <c r="AM65">
         <f t="shared" si="34"/>
-        <v>5.0841618961261286E-8</v>
-      </c>
-      <c r="AM65">
-        <f t="shared" si="35"/>
-        <v>16.794550546890214</v>
-      </c>
-    </row>
-    <row r="66" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.517816383836625</v>
+      </c>
+    </row>
+    <row r="66" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y66">
         <v>7</v>
       </c>
@@ -5052,31 +5052,31 @@
         <v>23.992825711510822</v>
       </c>
       <c r="AH66" s="3">
+        <f t="shared" si="29"/>
+        <v>1.7238168221859276E+16</v>
+      </c>
+      <c r="AI66">
         <f t="shared" si="30"/>
-        <v>17238168.221859276</v>
-      </c>
-      <c r="AI66">
+        <v>5.8010804113857404E-17</v>
+      </c>
+      <c r="AJ66">
         <f t="shared" si="31"/>
-        <v>5.8010804113857401E-8</v>
-      </c>
-      <c r="AJ66">
+        <v>37.385902402868837</v>
+      </c>
+      <c r="AK66" s="3">
         <f t="shared" si="32"/>
-        <v>16.662636565922423</v>
-      </c>
-      <c r="AK66" s="3">
+        <v>1.7429798804793124E+16</v>
+      </c>
+      <c r="AL66">
         <f t="shared" si="33"/>
-        <v>17429798.804793123</v>
-      </c>
-      <c r="AL66">
+        <v>5.737300878797316E-17</v>
+      </c>
+      <c r="AM66">
         <f t="shared" si="34"/>
-        <v>5.7373008787973161E-8</v>
-      </c>
-      <c r="AM66">
-        <f t="shared" si="35"/>
-        <v>16.673691874388453</v>
-      </c>
-    </row>
-    <row r="67" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.396957711334863</v>
+      </c>
+    </row>
+    <row r="67" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y67">
         <v>8</v>
       </c>
@@ -5108,31 +5108,31 @@
         <v>23.632372559483905</v>
       </c>
       <c r="AH67" s="3">
+        <f t="shared" si="29"/>
+        <v>1.4625809395338188E+16</v>
+      </c>
+      <c r="AI67">
         <f t="shared" si="30"/>
-        <v>14625809.395338187</v>
-      </c>
-      <c r="AI67">
+        <v>6.837228443020314E-17</v>
+      </c>
+      <c r="AJ67">
         <f t="shared" si="31"/>
-        <v>6.8372284430203147E-8</v>
-      </c>
-      <c r="AJ67">
+        <v>37.221564129768211</v>
+      </c>
+      <c r="AK67" s="3">
         <f t="shared" si="32"/>
-        <v>16.498298292821801</v>
-      </c>
-      <c r="AK67" s="3">
+        <v>1.476371092440036E+16</v>
+      </c>
+      <c r="AL67">
         <f t="shared" si="33"/>
-        <v>14763710.924400359</v>
-      </c>
-      <c r="AL67">
+        <v>6.7733648072672208E-17</v>
+      </c>
+      <c r="AM67">
         <f t="shared" si="34"/>
-        <v>6.7733648072672207E-8</v>
-      </c>
-      <c r="AM67">
-        <f t="shared" si="35"/>
-        <v>16.507682763178781</v>
-      </c>
-    </row>
-    <row r="68" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.230948600125195</v>
+      </c>
+    </row>
+    <row r="68" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y68">
         <v>9</v>
       </c>
@@ -5164,31 +5164,31 @@
         <v>23.301559493483143</v>
       </c>
       <c r="AH68" s="3">
+        <f t="shared" si="29"/>
+        <v>1.2665123594955754E+16</v>
+      </c>
+      <c r="AI68">
         <f t="shared" si="30"/>
-        <v>12665123.594955755</v>
-      </c>
-      <c r="AI68">
+        <v>7.8956987075773857E-17</v>
+      </c>
+      <c r="AJ68">
         <f t="shared" si="31"/>
-        <v>7.895698707577385E-8</v>
-      </c>
-      <c r="AJ68">
+        <v>37.077628437097268</v>
+      </c>
+      <c r="AK68" s="3">
         <f t="shared" si="32"/>
-        <v>16.354362600150854</v>
-      </c>
-      <c r="AK68" s="3">
+        <v>1.2768492862682176E+16</v>
+      </c>
+      <c r="AL68">
         <f t="shared" si="33"/>
-        <v>12768492.862682175</v>
-      </c>
-      <c r="AL68">
+        <v>7.8317778829062045E-17</v>
+      </c>
+      <c r="AM68">
         <f t="shared" si="34"/>
-        <v>7.831777882906206E-8</v>
-      </c>
-      <c r="AM68">
-        <f t="shared" si="35"/>
-        <v>16.362491199327259</v>
-      </c>
-    </row>
-    <row r="69" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.085757036273669</v>
+      </c>
+    </row>
+    <row r="69" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y69">
         <v>10</v>
       </c>
@@ -5220,31 +5220,31 @@
         <v>22.930178268154325</v>
       </c>
       <c r="AH69" s="3">
+        <f t="shared" si="29"/>
+        <v>1.0523102691647848E+16</v>
+      </c>
+      <c r="AI69">
         <f t="shared" si="30"/>
-        <v>10523102.691647848</v>
-      </c>
-      <c r="AI69">
+        <v>9.5029007062118356E-17</v>
+      </c>
+      <c r="AJ69">
         <f t="shared" si="31"/>
-        <v>9.5029007062118348E-8</v>
-      </c>
-      <c r="AJ69">
+        <v>36.892349491402307</v>
+      </c>
+      <c r="AK69" s="3">
         <f t="shared" si="32"/>
-        <v>16.169083654455893</v>
-      </c>
-      <c r="AK69" s="3">
+        <v>1.0594424470465588E+16</v>
+      </c>
+      <c r="AL69">
         <f t="shared" si="33"/>
-        <v>10594424.470465589</v>
-      </c>
-      <c r="AL69">
+        <v>9.4389270770463424E-17</v>
+      </c>
+      <c r="AM69">
         <f t="shared" si="34"/>
-        <v>9.4389270770463418E-8</v>
-      </c>
-      <c r="AM69">
-        <f t="shared" si="35"/>
-        <v>16.17583842734696</v>
-      </c>
-    </row>
-    <row r="70" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.899104264293371</v>
+      </c>
+    </row>
+    <row r="70" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y70">
         <v>11</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>6436438697.289176</v>
       </c>
       <c r="AE70">
-        <f t="shared" ref="AE70:AE128" si="36">1/AD70</f>
+        <f t="shared" ref="AE70:AE128" si="35">1/AD70</f>
         <v>1.5536541976561795E-10</v>
       </c>
       <c r="AF70">
@@ -5276,31 +5276,31 @@
         <v>22.585241226787918</v>
       </c>
       <c r="AH70" s="3">
+        <f t="shared" si="29"/>
+        <v>8789085769922317</v>
+      </c>
+      <c r="AI70">
         <f t="shared" si="30"/>
-        <v>8789085.7699223179</v>
-      </c>
-      <c r="AI70">
+        <v>1.1377747654052518E-16</v>
+      </c>
+      <c r="AJ70">
         <f t="shared" si="31"/>
-        <v>1.1377747654052516E-7</v>
-      </c>
-      <c r="AJ70">
+        <v>36.712287093226131</v>
+      </c>
+      <c r="AK70" s="3">
         <f t="shared" si="32"/>
-        <v>15.989021256279724</v>
-      </c>
-      <c r="AK70" s="3">
+        <v>8838807258858877</v>
+      </c>
+      <c r="AL70">
         <f t="shared" si="33"/>
-        <v>8838807.2588588763</v>
-      </c>
-      <c r="AL70">
+        <v>1.1313743706739723E-16</v>
+      </c>
+      <c r="AM70">
         <f t="shared" si="34"/>
-        <v>1.1313743706739723E-7</v>
-      </c>
-      <c r="AM70">
-        <f t="shared" si="35"/>
-        <v>15.994662500042113</v>
-      </c>
-    </row>
-    <row r="71" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.717928336988521</v>
+      </c>
+    </row>
+    <row r="71" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y71">
         <v>12</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>4283503444.0864658</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.3345376350298882E-10</v>
       </c>
       <c r="AF71">
@@ -5332,31 +5332,31 @@
         <v>22.178037073403644</v>
       </c>
       <c r="AH71" s="3">
+        <f t="shared" si="29"/>
+        <v>6902067355103362</v>
+      </c>
+      <c r="AI71">
         <f t="shared" si="30"/>
-        <v>6902067.3551033624</v>
-      </c>
-      <c r="AI71">
+        <v>1.4488412653066966E-16</v>
+      </c>
+      <c r="AJ71">
         <f t="shared" si="31"/>
-        <v>1.4488412653066966E-7</v>
-      </c>
-      <c r="AJ71">
+        <v>36.470597378319432</v>
+      </c>
+      <c r="AK71" s="3">
         <f t="shared" si="32"/>
-        <v>15.74733154137302</v>
-      </c>
-      <c r="AK71" s="3">
+        <v>6932697831531336</v>
+      </c>
+      <c r="AL71">
         <f t="shared" si="33"/>
-        <v>6932697.8315313356</v>
-      </c>
-      <c r="AL71">
+        <v>1.4424399047825139E-16</v>
+      </c>
+      <c r="AM71">
         <f t="shared" si="34"/>
-        <v>1.4424399047825139E-7</v>
-      </c>
-      <c r="AM71">
-        <f t="shared" si="35"/>
-        <v>15.751759592888751</v>
-      </c>
-    </row>
-    <row r="72" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.475025429835163</v>
+      </c>
+    </row>
+    <row r="72" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y72">
         <v>13</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>2913926077.4597187</v>
       </c>
       <c r="AE72">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.4317960491014678E-10</v>
       </c>
       <c r="AF72">
@@ -5388,31 +5388,31 @@
         <v>21.792767176333037</v>
       </c>
       <c r="AH72" s="3">
+        <f t="shared" si="29"/>
+        <v>5491053585464055</v>
+      </c>
+      <c r="AI72">
         <f t="shared" si="30"/>
-        <v>5491053.5854640556</v>
-      </c>
-      <c r="AI72">
+        <v>1.8211441291471005E-16</v>
+      </c>
+      <c r="AJ72">
         <f t="shared" si="31"/>
-        <v>1.8211441291471003E-7</v>
-      </c>
-      <c r="AJ72">
+        <v>36.241896541940363</v>
+      </c>
+      <c r="AK72" s="3">
         <f t="shared" si="32"/>
-        <v>15.518630704993953</v>
-      </c>
-      <c r="AK72" s="3">
+        <v>5510415750070952</v>
+      </c>
+      <c r="AL72">
         <f t="shared" si="33"/>
-        <v>5510415.7500709528</v>
-      </c>
-      <c r="AL72">
+        <v>1.8147451033746845E-16</v>
+      </c>
+      <c r="AM72">
         <f t="shared" si="34"/>
-        <v>1.8147451033746843E-7</v>
-      </c>
-      <c r="AM72">
-        <f t="shared" si="35"/>
-        <v>15.522150632015993</v>
-      </c>
-    </row>
-    <row r="73" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.245416468962404</v>
+      </c>
+    </row>
+    <row r="73" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y73">
         <v>14</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>1968591622.8411114</v>
       </c>
       <c r="AE73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5.079773724510621E-10</v>
       </c>
       <c r="AF73">
@@ -5444,31 +5444,31 @@
         <v>21.400584211761277</v>
       </c>
       <c r="AH73" s="3">
+        <f t="shared" si="29"/>
+        <v>4301041972515192.5</v>
+      </c>
+      <c r="AI73">
         <f t="shared" si="30"/>
-        <v>4301041.9725151928</v>
-      </c>
-      <c r="AI73">
+        <v>2.3250179988715927E-16</v>
+      </c>
+      <c r="AJ73">
         <f t="shared" si="31"/>
-        <v>2.3250179988715924E-7</v>
-      </c>
-      <c r="AJ73">
+        <v>35.997633707445232</v>
+      </c>
+      <c r="AK73" s="3">
         <f t="shared" si="32"/>
-        <v>15.274367870498818</v>
-      </c>
-      <c r="AK73" s="3">
+        <v>4312900768451187.5</v>
+      </c>
+      <c r="AL73">
         <f t="shared" si="33"/>
-        <v>4312900.7684511878</v>
-      </c>
-      <c r="AL73">
+        <v>2.3186251056713082E-16</v>
+      </c>
+      <c r="AM73">
         <f t="shared" si="34"/>
-        <v>2.3186251056713079E-7</v>
-      </c>
-      <c r="AM73">
-        <f t="shared" si="35"/>
-        <v>15.277121267818627</v>
-      </c>
-    </row>
-    <row r="74" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.000387104765039</v>
+      </c>
+    </row>
+    <row r="74" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y74">
         <v>15</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>1253980572.0337536</v>
       </c>
       <c r="AE74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>7.9746052076242436E-10</v>
       </c>
       <c r="AF74">
@@ -5500,31 +5500,31 @@
         <v>20.949588786241076</v>
       </c>
       <c r="AH74" s="3">
+        <f t="shared" si="29"/>
+        <v>3150697413331298</v>
+      </c>
+      <c r="AI74">
         <f t="shared" si="30"/>
-        <v>3150697.4133312977</v>
-      </c>
-      <c r="AI74">
+        <v>3.1739004696826126E-16</v>
+      </c>
+      <c r="AJ74">
         <f t="shared" si="31"/>
-        <v>3.1739004696826133E-7</v>
-      </c>
-      <c r="AJ74">
+        <v>35.686400224300186</v>
+      </c>
+      <c r="AK74" s="3">
         <f t="shared" si="32"/>
-        <v>14.963134387353774</v>
-      </c>
-      <c r="AK74" s="3">
+        <v>3157042555025788.5</v>
+      </c>
+      <c r="AL74">
         <f t="shared" si="33"/>
-        <v>3157042.5550257885</v>
-      </c>
-      <c r="AL74">
+        <v>3.1675214463234608E-16</v>
+      </c>
+      <c r="AM74">
         <f t="shared" si="34"/>
-        <v>3.1675214463234612E-7</v>
-      </c>
-      <c r="AM74">
-        <f t="shared" si="35"/>
-        <v>14.965146247026659</v>
-      </c>
-    </row>
-    <row r="77" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.68841208397307</v>
+      </c>
+    </row>
+    <row r="77" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U77" t="s">
         <v>1</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="21:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U78" s="1">
         <v>200</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>42141866519.001541</v>
       </c>
       <c r="AE78">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.3729371349726651E-11</v>
       </c>
       <c r="AF78">
@@ -5621,31 +5621,31 @@
         <v>24.464307537625864</v>
       </c>
       <c r="AH78" s="3">
-        <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$78 /$U$13^2</f>
-        <v>23018983.181208134</v>
+        <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$78 * 1000000000 /$U$13^2</f>
+        <v>2.3018983181208132E+16</v>
       </c>
       <c r="AI78">
         <f>1/AH78</f>
-        <v>4.344240543241562E-8</v>
+        <v>4.3442405432415623E-17</v>
       </c>
       <c r="AJ78">
         <f>LN(AH78)</f>
-        <v>16.951829789179403</v>
+        <v>37.675095626125817</v>
       </c>
       <c r="AK78" s="3">
-        <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA78 /$U$13^2</f>
-        <v>23360079.448812932</v>
+        <f>0.271/0.64 * $U$11 * AC78 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA78 * 1000000000 /$U$13^2</f>
+        <v>2.3360079448812932E+16</v>
       </c>
       <c r="AL78">
         <f>1/AK78</f>
-        <v>4.2808073585161378E-8</v>
+        <v>4.2808073585161377E-17</v>
       </c>
       <c r="AM78">
         <f>LN(AK78)</f>
-        <v>16.966539116980716</v>
-      </c>
-    </row>
-    <row r="79" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.689804953927123</v>
+      </c>
+    </row>
+    <row r="79" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y79">
         <v>2</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>37896869086.139793</v>
       </c>
       <c r="AE79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.638740413428335E-11</v>
       </c>
       <c r="AF79">
@@ -5677,31 +5677,31 @@
         <v>24.358134335758024</v>
       </c>
       <c r="AH79" s="3">
-        <f t="shared" ref="AH79:AH92" si="37">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$78 /$U$13^2</f>
-        <v>21942270.526252542</v>
+        <f t="shared" ref="AH79:AH92" si="36">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$78 * 1000000000 /$U$13^2</f>
+        <v>2.1942270526252544E+16</v>
       </c>
       <c r="AI79">
-        <f t="shared" ref="AI79:AI92" si="38">1/AH79</f>
-        <v>4.5574135037828612E-8</v>
+        <f t="shared" ref="AI79:AI92" si="37">1/AH79</f>
+        <v>4.5574135037828606E-17</v>
       </c>
       <c r="AJ79">
-        <f t="shared" ref="AJ79:AJ92" si="39">LN(AH79)</f>
-        <v>16.903925495435541</v>
+        <f t="shared" ref="AJ79:AJ92" si="38">LN(AH79)</f>
+        <v>37.627191332381955</v>
       </c>
       <c r="AK79" s="3">
-        <f t="shared" ref="AK79:AK92" si="40">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA79 /$U$13^2</f>
-        <v>22252147.161270857</v>
+        <f t="shared" ref="AK79:AK92" si="39">0.271/0.64 * $U$11 * AC79 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA79 * 1000000000 /$U$13^2</f>
+        <v>2.2252147161270856E+16</v>
       </c>
       <c r="AL79">
-        <f t="shared" ref="AL79:AL92" si="41">1/AK79</f>
-        <v>4.4939483491304052E-8</v>
+        <f t="shared" ref="AL79:AL92" si="40">1/AK79</f>
+        <v>4.4939483491304052E-17</v>
       </c>
       <c r="AM79">
-        <f t="shared" ref="AM79:AM92" si="42">LN(AK79)</f>
-        <v>16.91794906355069</v>
-      </c>
-    </row>
-    <row r="80" spans="21:39" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM79:AM92" si="41">LN(AK79)</f>
+        <v>37.641214900497104</v>
+      </c>
+    </row>
+    <row r="80" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y80">
         <v>3</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>32036232760.968712</v>
       </c>
       <c r="AE80">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.1214656462926823E-11</v>
       </c>
       <c r="AF80">
@@ -5733,31 +5733,31 @@
         <v>24.190133372987919</v>
       </c>
       <c r="AH80" s="3">
+        <f t="shared" si="36"/>
+        <v>2.029886700026776E+16</v>
+      </c>
+      <c r="AI80">
         <f t="shared" si="37"/>
-        <v>20298867.000267759</v>
-      </c>
-      <c r="AI80">
+        <v>4.9263833296055839E-17</v>
+      </c>
+      <c r="AJ80">
         <f t="shared" si="38"/>
-        <v>4.9263833296055842E-8</v>
-      </c>
-      <c r="AJ80">
+        <v>37.549341466606144</v>
+      </c>
+      <c r="AK80" s="3">
         <f t="shared" si="39"/>
-        <v>16.826075629659734</v>
-      </c>
-      <c r="AK80" s="3">
+        <v>2.0563980922307192E+16</v>
+      </c>
+      <c r="AL80">
         <f t="shared" si="40"/>
-        <v>20563980.922307193</v>
-      </c>
-      <c r="AL80">
+        <v>4.8628716578667406E-17</v>
+      </c>
+      <c r="AM80">
         <f t="shared" si="41"/>
-        <v>4.86287165786674E-8</v>
-      </c>
-      <c r="AM80">
-        <f t="shared" si="42"/>
-        <v>16.839051604434246</v>
-      </c>
-    </row>
-    <row r="81" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.562317441380657</v>
+      </c>
+    </row>
+    <row r="81" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y81">
         <v>4</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>26667590435.181313</v>
       </c>
       <c r="AE81">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.7498700995525508E-11</v>
       </c>
       <c r="AF81">
@@ -5789,31 +5789,31 @@
         <v>24.006714823671487</v>
       </c>
       <c r="AH81" s="3">
+        <f t="shared" si="36"/>
+        <v>1.92278212540225E+16</v>
+      </c>
+      <c r="AI81">
         <f t="shared" si="37"/>
-        <v>19227821.254022501</v>
-      </c>
-      <c r="AI81">
+        <v>5.2007972551273741E-17</v>
+      </c>
+      <c r="AJ81">
         <f t="shared" si="38"/>
-        <v>5.2007972551273734E-8</v>
-      </c>
-      <c r="AJ81">
+        <v>37.495134648769721</v>
+      </c>
+      <c r="AK81" s="3">
         <f t="shared" si="39"/>
-        <v>16.771868811823307</v>
-      </c>
-      <c r="AK81" s="3">
+        <v>1.9465640692116216E+16</v>
+      </c>
+      <c r="AL81">
         <f t="shared" si="40"/>
-        <v>19465640.692116216</v>
-      </c>
-      <c r="AL81">
+        <v>5.1372570562499404E-17</v>
+      </c>
+      <c r="AM81">
         <f t="shared" si="41"/>
-        <v>5.1372570562499401E-8</v>
-      </c>
-      <c r="AM81">
-        <f t="shared" si="42"/>
-        <v>16.784161453569318</v>
-      </c>
-    </row>
-    <row r="82" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.507427290515729</v>
+      </c>
+    </row>
+    <row r="82" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y82">
         <v>5</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>20210634579.28479</v>
       </c>
       <c r="AE82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4.9478901618703542E-11</v>
       </c>
       <c r="AF82">
@@ -5845,31 +5845,31 @@
         <v>23.729474767140879</v>
       </c>
       <c r="AH82" s="3">
+        <f t="shared" si="36"/>
+        <v>1.7221735570578882E+16</v>
+      </c>
+      <c r="AI82">
         <f t="shared" si="37"/>
-        <v>17221735.570578884</v>
-      </c>
-      <c r="AI82">
+        <v>5.8066156915588189E-17</v>
+      </c>
+      <c r="AJ82">
         <f t="shared" si="38"/>
-        <v>5.8066156915588176E-8</v>
-      </c>
-      <c r="AJ82">
+        <v>37.384948676902276</v>
+      </c>
+      <c r="AK82" s="3">
         <f t="shared" si="39"/>
-        <v>16.661682839955866</v>
-      </c>
-      <c r="AK82" s="3">
+        <v>1.7412420482558284E+16</v>
+      </c>
+      <c r="AL82">
         <f t="shared" si="40"/>
-        <v>17412420.482558284</v>
-      </c>
-      <c r="AL82">
+        <v>5.7430269444830058E-17</v>
+      </c>
+      <c r="AM82">
         <f t="shared" si="41"/>
-        <v>5.7430269444830054E-8</v>
-      </c>
-      <c r="AM82">
-        <f t="shared" si="42"/>
-        <v>16.672694330372522</v>
-      </c>
-    </row>
-    <row r="83" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.395960167318933</v>
+      </c>
+    </row>
+    <row r="83" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y83">
         <v>6</v>
       </c>
@@ -5881,51 +5881,51 @@
         <v>2.7570100000000002</v>
       </c>
       <c r="AB83">
-        <f t="shared" ref="AB83:AB128" si="43">Z83/1000000</f>
+        <f t="shared" ref="AB83:AB128" si="42">Z83/1000000</f>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="AC83">
-        <f t="shared" ref="AC83:AC128" si="44">AA83-$X$5</f>
+        <f t="shared" ref="AC83:AC128" si="43">AA83-$X$5</f>
         <v>2.6029999999999998E-2</v>
       </c>
       <c r="AD83">
-        <f t="shared" ref="AD83:AD128" si="45">(0.271*0.04^2*AC83*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z83/1000000))</f>
+        <f t="shared" ref="AD83:AD128" si="44">(0.271*0.04^2*AC83*1000000000*8*PI()^2*8.854*0.000000000001*9.107*1E-31)/(0.64*0.009^2*(1.602*0.0000000000000000001)^2*(Z83/1000000))</f>
         <v>14213283390.209896</v>
       </c>
       <c r="AE83">
+        <f t="shared" si="35"/>
+        <v>7.0356720016488214E-11</v>
+      </c>
+      <c r="AF83">
+        <f t="shared" ref="AF83:AF128" si="45">LN(AD83)</f>
+        <v>23.377442814307713</v>
+      </c>
+      <c r="AH83" s="3">
         <f t="shared" si="36"/>
-        <v>7.0356720016488214E-11</v>
-      </c>
-      <c r="AF83">
-        <f t="shared" ref="AF83:AF128" si="46">LN(AD83)</f>
-        <v>23.377442814307713</v>
-      </c>
-      <c r="AH83" s="3">
+        <v>1.4750963372891502E+16</v>
+      </c>
+      <c r="AI83">
         <f t="shared" si="37"/>
-        <v>14750963.372891502</v>
-      </c>
-      <c r="AI83">
+        <v>6.7792182430453606E-17</v>
+      </c>
+      <c r="AJ83">
         <f t="shared" si="38"/>
-        <v>6.7792182430453608E-8</v>
-      </c>
-      <c r="AJ83">
+        <v>37.230084788980058</v>
+      </c>
+      <c r="AK83" s="3">
         <f t="shared" si="39"/>
-        <v>16.506818952033647</v>
-      </c>
-      <c r="AK83" s="3">
+        <v>1.4890742487064184E+16</v>
+      </c>
+      <c r="AL83">
         <f t="shared" si="40"/>
-        <v>14890742.487064185</v>
-      </c>
-      <c r="AL83">
+        <v>6.7155818514000579E-17</v>
+      </c>
+      <c r="AM83">
         <f t="shared" si="41"/>
-        <v>6.715581851400058E-8</v>
-      </c>
-      <c r="AM83">
-        <f t="shared" si="42"/>
-        <v>16.516250268229889</v>
-      </c>
-    </row>
-    <row r="84" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.2395161051763</v>
+      </c>
+    </row>
+    <row r="84" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y84">
         <v>7</v>
       </c>
@@ -5937,51 +5937,51 @@
         <v>2.7521599999999999</v>
       </c>
       <c r="AB84">
+        <f t="shared" si="42"/>
+        <v>4.7600000000000002E-4</v>
+      </c>
+      <c r="AC84">
         <f t="shared" si="43"/>
-        <v>4.7600000000000002E-4</v>
-      </c>
-      <c r="AC84">
+        <v>2.1179999999999755E-2</v>
+      </c>
+      <c r="AD84">
         <f t="shared" si="44"/>
-        <v>2.1179999999999755E-2</v>
-      </c>
-      <c r="AD84">
+        <v>9232575053.8134747</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="35"/>
+        <v>1.0831214413869881E-10</v>
+      </c>
+      <c r="AF84">
         <f t="shared" si="45"/>
-        <v>9232575053.8134747</v>
-      </c>
-      <c r="AE84">
+        <v>22.946003833963498</v>
+      </c>
+      <c r="AH84" s="3">
         <f t="shared" si="36"/>
-        <v>1.0831214413869881E-10</v>
-      </c>
-      <c r="AF84">
-        <f t="shared" si="46"/>
-        <v>22.946003833963498</v>
-      </c>
-      <c r="AH84" s="3">
+        <v>1.2002512648399478E+16</v>
+      </c>
+      <c r="AI84">
         <f t="shared" si="37"/>
-        <v>12002512.64839948</v>
-      </c>
-      <c r="AI84">
+        <v>8.331588803893899E-17</v>
+      </c>
+      <c r="AJ84">
         <f t="shared" si="38"/>
-        <v>8.3315888038938972E-8</v>
-      </c>
-      <c r="AJ84">
+        <v>37.023892410146836</v>
+      </c>
+      <c r="AK84" s="3">
         <f t="shared" si="39"/>
-        <v>16.300626573200422</v>
-      </c>
-      <c r="AK84" s="3">
+        <v>1.2094933309809168E+16</v>
+      </c>
+      <c r="AL84">
         <f t="shared" si="40"/>
-        <v>12094933.309809167</v>
-      </c>
-      <c r="AL84">
+        <v>8.267924877179648E-17</v>
+      </c>
+      <c r="AM84">
         <f t="shared" si="41"/>
-        <v>8.2679248771796485E-8</v>
-      </c>
-      <c r="AM84">
-        <f t="shared" si="42"/>
-        <v>16.308297188146586</v>
-      </c>
-    </row>
-    <row r="85" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.031563025093</v>
+      </c>
+    </row>
+    <row r="85" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y85">
         <v>8</v>
       </c>
@@ -5993,51 +5993,51 @@
         <v>2.7478699999999998</v>
       </c>
       <c r="AB85">
+        <f t="shared" si="42"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AC85">
         <f t="shared" si="43"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="AC85">
+        <v>1.6889999999999628E-2</v>
+      </c>
+      <c r="AD85">
         <f t="shared" si="44"/>
-        <v>1.6889999999999628E-2</v>
-      </c>
-      <c r="AD85">
+        <v>5840933247.217515</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="35"/>
+        <v>1.712055176244955E-10</v>
+      </c>
+      <c r="AF85">
         <f t="shared" si="45"/>
-        <v>5840933247.217515</v>
-      </c>
-      <c r="AE85">
+        <v>22.48815642362521</v>
+      </c>
+      <c r="AH85" s="3">
         <f t="shared" si="36"/>
-        <v>1.712055176244955E-10</v>
-      </c>
-      <c r="AF85">
-        <f t="shared" si="46"/>
-        <v>22.48815642362521</v>
-      </c>
-      <c r="AH85" s="3">
+        <v>9571408811683904</v>
+      </c>
+      <c r="AI85">
         <f t="shared" si="37"/>
-        <v>9571408.8116839025</v>
-      </c>
-      <c r="AI85">
+        <v>1.0447782762964749E-16</v>
+      </c>
+      <c r="AJ85">
         <f t="shared" si="38"/>
-        <v>1.044778276296475E-7</v>
-      </c>
-      <c r="AJ85">
+        <v>36.797556800793274</v>
+      </c>
+      <c r="AK85" s="3">
         <f t="shared" si="39"/>
-        <v>16.07429096384686</v>
-      </c>
-      <c r="AK85" s="3">
+        <v>9630075145218956</v>
+      </c>
+      <c r="AL85">
         <f t="shared" si="40"/>
-        <v>9630075.1452189554</v>
-      </c>
-      <c r="AL85">
+        <v>1.0384134961776182E-16</v>
+      </c>
+      <c r="AM85">
         <f t="shared" si="41"/>
-        <v>1.0384134961776182E-7</v>
-      </c>
-      <c r="AM85">
-        <f t="shared" si="42"/>
-        <v>16.080401586985708</v>
-      </c>
-    </row>
-    <row r="86" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.803667423932119</v>
+      </c>
+    </row>
+    <row r="86" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y86">
         <v>9</v>
       </c>
@@ -6049,51 +6049,51 @@
         <v>2.7444999999999999</v>
       </c>
       <c r="AB86">
+        <f t="shared" si="42"/>
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="AC86">
         <f t="shared" si="43"/>
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="AC86">
+        <v>1.3519999999999754E-2</v>
+      </c>
+      <c r="AD86">
         <f t="shared" si="44"/>
-        <v>1.3519999999999754E-2</v>
-      </c>
-      <c r="AD86">
+        <v>3896260978.0136719</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="35"/>
+        <v>2.5665631887672054E-10</v>
+      </c>
+      <c r="AF86">
         <f t="shared" si="45"/>
-        <v>3896260978.0136719</v>
-      </c>
-      <c r="AE86">
+        <v>22.083283206626369</v>
+      </c>
+      <c r="AH86" s="3">
         <f t="shared" si="36"/>
-        <v>2.5665631887672054E-10</v>
-      </c>
-      <c r="AF86">
-        <f t="shared" si="46"/>
-        <v>22.083283206626369</v>
-      </c>
-      <c r="AH86" s="3">
+        <v>7661660576315387</v>
+      </c>
+      <c r="AI86">
         <f t="shared" si="37"/>
-        <v>7661660.5763153872</v>
-      </c>
-      <c r="AI86">
+        <v>1.3052000803733278E-16</v>
+      </c>
+      <c r="AJ86">
         <f t="shared" si="38"/>
-        <v>1.3052000803733277E-7</v>
-      </c>
-      <c r="AJ86">
+        <v>36.575005140588388</v>
+      </c>
+      <c r="AK86" s="3">
         <f t="shared" si="39"/>
-        <v>15.851739303641974</v>
-      </c>
-      <c r="AK86" s="3">
+        <v>7699167542994139</v>
+      </c>
+      <c r="AL86">
         <f t="shared" si="40"/>
-        <v>7699167.5429941388</v>
-      </c>
-      <c r="AL86">
+        <v>1.2988417181672459E-16</v>
+      </c>
+      <c r="AM86">
         <f t="shared" si="41"/>
-        <v>1.2988417181672458E-7</v>
-      </c>
-      <c r="AM86">
-        <f t="shared" si="42"/>
-        <v>15.856622769680001</v>
-      </c>
-    </row>
-    <row r="87" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.579888606626412</v>
+      </c>
+    </row>
+    <row r="87" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y87">
         <v>10</v>
       </c>
@@ -6105,51 +6105,51 @@
         <v>2.7416999999999998</v>
       </c>
       <c r="AB87">
+        <f t="shared" si="42"/>
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="AC87">
         <f t="shared" si="43"/>
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="AC87">
+        <v>1.0719999999999619E-2</v>
+      </c>
+      <c r="AD87">
         <f t="shared" si="44"/>
-        <v>1.0719999999999619E-2</v>
-      </c>
-      <c r="AD87">
+        <v>2586426717.7566571</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="35"/>
+        <v>3.8663380374733839E-10</v>
+      </c>
+      <c r="AF87">
         <f t="shared" si="45"/>
-        <v>2586426717.7566571</v>
-      </c>
-      <c r="AE87">
+        <v>21.673543114416734</v>
+      </c>
+      <c r="AH87" s="3">
         <f t="shared" si="36"/>
-        <v>3.8663380374733839E-10</v>
-      </c>
-      <c r="AF87">
-        <f t="shared" si="46"/>
-        <v>21.673543114416734</v>
-      </c>
-      <c r="AH87" s="3">
+        <v>6074926137433396</v>
+      </c>
+      <c r="AI87">
         <f t="shared" si="37"/>
-        <v>6074926.1374333967</v>
-      </c>
-      <c r="AI87">
+        <v>1.646110549127584E-16</v>
+      </c>
+      <c r="AJ87">
         <f t="shared" si="38"/>
-        <v>1.6461105491275836E-7</v>
-      </c>
-      <c r="AJ87">
+        <v>36.342946225616203</v>
+      </c>
+      <c r="AK87" s="3">
         <f t="shared" si="39"/>
-        <v>15.619680388669794</v>
-      </c>
-      <c r="AK87" s="3">
+        <v>6098437273583148</v>
+      </c>
+      <c r="AL87">
         <f t="shared" si="40"/>
-        <v>6098437.2735831486</v>
-      </c>
-      <c r="AL87">
+        <v>1.6397643447637662E-16</v>
+      </c>
+      <c r="AM87">
         <f t="shared" si="41"/>
-        <v>1.6397643447637662E-7</v>
-      </c>
-      <c r="AM87">
-        <f t="shared" si="42"/>
-        <v>15.623543111664144</v>
-      </c>
-    </row>
-    <row r="88" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.346808948610558</v>
+      </c>
+    </row>
+    <row r="88" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y88">
         <v>11</v>
       </c>
@@ -6161,51 +6161,51 @@
         <v>2.7394699999999998</v>
       </c>
       <c r="AB88">
+        <f t="shared" si="42"/>
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="AC88">
         <f t="shared" si="43"/>
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="AC88">
+        <v>8.4899999999996645E-3</v>
+      </c>
+      <c r="AD88">
         <f t="shared" si="44"/>
-        <v>8.4899999999996645E-3</v>
-      </c>
-      <c r="AD88">
+        <v>1677730635.8411851</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="35"/>
+        <v>5.9604323759553764E-10</v>
+      </c>
+      <c r="AF88">
         <f t="shared" si="45"/>
-        <v>1677730635.8411851</v>
-      </c>
-      <c r="AE88">
+        <v>21.240707905193318</v>
+      </c>
+      <c r="AH88" s="3">
         <f t="shared" si="36"/>
-        <v>5.9604323759553764E-10</v>
-      </c>
-      <c r="AF88">
-        <f t="shared" si="46"/>
-        <v>21.240707905193318</v>
-      </c>
-      <c r="AH88" s="3">
+        <v>4811205495038183</v>
+      </c>
+      <c r="AI88">
         <f t="shared" si="37"/>
-        <v>4811205.4950381834</v>
-      </c>
-      <c r="AI88">
+        <v>2.078481164505038E-16</v>
+      </c>
+      <c r="AJ88">
         <f t="shared" si="38"/>
-        <v>2.0784811645050378E-7</v>
-      </c>
-      <c r="AJ88">
+        <v>36.109724070296799</v>
+      </c>
+      <c r="AK88" s="3">
         <f t="shared" si="39"/>
-        <v>15.386458233350391</v>
-      </c>
-      <c r="AK88" s="3">
+        <v>4825897382216244</v>
+      </c>
+      <c r="AL88">
         <f t="shared" si="40"/>
-        <v>4825897.3822162449</v>
-      </c>
-      <c r="AL88">
+        <v>2.0721534686689923E-16</v>
+      </c>
+      <c r="AM88">
         <f t="shared" si="41"/>
-        <v>2.0721534686689918E-7</v>
-      </c>
-      <c r="AM88">
-        <f t="shared" si="42"/>
-        <v>15.389507261413534</v>
-      </c>
-    </row>
-    <row r="89" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.112773098359945</v>
+      </c>
+    </row>
+    <row r="89" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y89">
         <v>12</v>
       </c>
@@ -6217,51 +6217,51 @@
         <v>2.7374800000000001</v>
       </c>
       <c r="AB89">
+        <f t="shared" si="42"/>
+        <v>1.24E-3</v>
+      </c>
+      <c r="AC89">
         <f t="shared" si="43"/>
-        <v>1.24E-3</v>
-      </c>
-      <c r="AC89">
+        <v>6.4999999999999503E-3</v>
+      </c>
+      <c r="AD89">
         <f t="shared" si="44"/>
-        <v>6.4999999999999503E-3</v>
-      </c>
-      <c r="AD89">
+        <v>1087665905.7730587</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="35"/>
+        <v>9.193999689539316E-10</v>
+      </c>
+      <c r="AF89">
         <f t="shared" si="45"/>
-        <v>1087665905.7730587</v>
-      </c>
-      <c r="AE89">
+        <v>20.807299866324168</v>
+      </c>
+      <c r="AH89" s="3">
         <f t="shared" si="36"/>
-        <v>9.193999689539316E-10</v>
-      </c>
-      <c r="AF89">
-        <f t="shared" si="46"/>
-        <v>20.807299866324168</v>
-      </c>
-      <c r="AH89" s="3">
+        <v>3683490661690128.5</v>
+      </c>
+      <c r="AI89">
         <f t="shared" si="37"/>
-        <v>3683490.6616901285</v>
-      </c>
-      <c r="AI89">
+        <v>2.7148161671764935E-16</v>
+      </c>
+      <c r="AJ89">
         <f t="shared" si="38"/>
-        <v>2.7148161671764933E-7</v>
-      </c>
-      <c r="AJ89">
+        <v>35.842637246875171</v>
+      </c>
+      <c r="AK89" s="3">
         <f t="shared" si="39"/>
-        <v>15.119371409928757</v>
-      </c>
-      <c r="AK89" s="3">
+        <v>3692054943032186</v>
+      </c>
+      <c r="AL89">
         <f t="shared" si="40"/>
-        <v>3692054.943032186</v>
-      </c>
-      <c r="AL89">
+        <v>2.708518739373707E-16</v>
+      </c>
+      <c r="AM89">
         <f t="shared" si="41"/>
-        <v>2.7085187393737069E-7</v>
-      </c>
-      <c r="AM89">
-        <f t="shared" si="42"/>
-        <v>15.121693756138837</v>
-      </c>
-    </row>
-    <row r="90" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.84495959308525</v>
+      </c>
+    </row>
+    <row r="90" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y90">
         <v>13</v>
       </c>
@@ -6273,51 +6273,51 @@
         <v>2.7359100000000001</v>
       </c>
       <c r="AB90">
+        <f t="shared" si="42"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="AC90">
         <f t="shared" si="43"/>
-        <v>1.4E-3</v>
-      </c>
-      <c r="AC90">
+        <v>4.9299999999998789E-3</v>
+      </c>
+      <c r="AD90">
         <f t="shared" si="44"/>
-        <v>4.9299999999998789E-3</v>
-      </c>
-      <c r="AD90">
+        <v>730672441.22766495</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="35"/>
+        <v>1.3686023224303011E-9</v>
+      </c>
+      <c r="AF90">
         <f t="shared" si="45"/>
-        <v>730672441.22766495</v>
-      </c>
-      <c r="AE90">
+        <v>20.409475820472892</v>
+      </c>
+      <c r="AH90" s="3">
         <f t="shared" si="36"/>
-        <v>1.3686023224303011E-9</v>
-      </c>
-      <c r="AF90">
-        <f t="shared" si="46"/>
-        <v>20.409475820472892</v>
-      </c>
-      <c r="AH90" s="3">
+        <v>2793785994174158</v>
+      </c>
+      <c r="AI90">
         <f t="shared" si="37"/>
-        <v>2793785.9941741577</v>
-      </c>
-      <c r="AI90">
+        <v>3.5793722285289058E-16</v>
+      </c>
+      <c r="AJ90">
         <f t="shared" si="38"/>
-        <v>3.5793722285289057E-7</v>
-      </c>
-      <c r="AJ90">
+        <v>35.56617405802816</v>
+      </c>
+      <c r="AK90" s="3">
         <f t="shared" si="39"/>
-        <v>14.842908221081748</v>
-      </c>
-      <c r="AK90" s="3">
+        <v>2798675654150853.5</v>
+      </c>
+      <c r="AL90">
         <f t="shared" si="40"/>
-        <v>2798675.6541508539</v>
-      </c>
-      <c r="AL90">
+        <v>3.5731185874177696E-16</v>
+      </c>
+      <c r="AM90">
         <f t="shared" si="41"/>
-        <v>3.5731185874177691E-7</v>
-      </c>
-      <c r="AM90">
-        <f t="shared" si="42"/>
-        <v>14.844656882594387</v>
-      </c>
-    </row>
-    <row r="91" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.567922719540796</v>
+      </c>
+    </row>
+    <row r="91" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y91">
         <v>14</v>
       </c>
@@ -6329,51 +6329,51 @@
         <v>2.7353999999999998</v>
       </c>
       <c r="AB91">
+        <f t="shared" si="42"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC91">
         <f t="shared" si="43"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC91">
+        <v>4.4199999999996464E-3</v>
+      </c>
+      <c r="AD91">
         <f t="shared" si="44"/>
-        <v>4.4199999999996464E-3</v>
-      </c>
-      <c r="AD91">
+        <v>611413261.16518462</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="35"/>
+        <v>1.6355549732341044E-9</v>
+      </c>
+      <c r="AF91">
         <f t="shared" si="45"/>
-        <v>611413261.16518462</v>
-      </c>
-      <c r="AE91">
+        <v>20.231283657020896</v>
+      </c>
+      <c r="AH91" s="3">
         <f t="shared" si="36"/>
-        <v>1.6355549732341044E-9</v>
-      </c>
-      <c r="AF91">
-        <f t="shared" si="46"/>
-        <v>20.231283657020896</v>
-      </c>
-      <c r="AH91" s="3">
+        <v>2504773649949105.5</v>
+      </c>
+      <c r="AI91">
         <f t="shared" si="37"/>
-        <v>2504773.6499491055</v>
-      </c>
-      <c r="AI91">
+        <v>3.9923767164363097E-16</v>
+      </c>
+      <c r="AJ91">
         <f t="shared" si="38"/>
-        <v>3.9923767164363094E-7</v>
-      </c>
-      <c r="AJ91">
+        <v>35.456974766063112</v>
+      </c>
+      <c r="AK91" s="3">
         <f t="shared" si="39"/>
-        <v>14.7337089291167</v>
-      </c>
-      <c r="AK91" s="3">
+        <v>2508689751886868.5</v>
+      </c>
+      <c r="AL91">
         <f t="shared" si="40"/>
-        <v>2508689.7518868688</v>
-      </c>
-      <c r="AL91">
+        <v>3.9861445571253557E-16</v>
+      </c>
+      <c r="AM91">
         <f t="shared" si="41"/>
-        <v>3.9861445571253551E-7</v>
-      </c>
-      <c r="AM91">
-        <f t="shared" si="42"/>
-        <v>14.735271163612236</v>
-      </c>
-    </row>
-    <row r="92" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.45853700055865</v>
+      </c>
+    </row>
+    <row r="92" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y92">
         <v>15</v>
       </c>
@@ -6385,51 +6385,51 @@
         <v>2.7348300000000001</v>
       </c>
       <c r="AB92">
+        <f t="shared" si="42"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AC92">
         <f t="shared" si="43"/>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="AC92">
+        <v>3.8499999999999091E-3</v>
+      </c>
+      <c r="AD92">
         <f t="shared" si="44"/>
-        <v>3.8499999999999091E-3</v>
-      </c>
-      <c r="AD92">
+        <v>499280484.05389428</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="35"/>
+        <v>2.0028822113785165E-9</v>
+      </c>
+      <c r="AF92">
         <f t="shared" si="45"/>
-        <v>499280484.05389428</v>
-      </c>
-      <c r="AE92">
+        <v>20.028678588093467</v>
+      </c>
+      <c r="AH92" s="3">
         <f t="shared" si="36"/>
-        <v>2.0028822113785165E-9</v>
-      </c>
-      <c r="AF92">
-        <f t="shared" si="46"/>
-        <v>20.028678588093467</v>
-      </c>
-      <c r="AH92" s="3">
+        <v>2181759853462579.3</v>
+      </c>
+      <c r="AI92">
         <f t="shared" si="37"/>
-        <v>2181759.8534625792</v>
-      </c>
-      <c r="AI92">
+        <v>4.5834558666616865E-16</v>
+      </c>
+      <c r="AJ92">
         <f t="shared" si="38"/>
-        <v>4.5834558666616865E-7</v>
-      </c>
-      <c r="AJ92">
+        <v>35.318908218273251</v>
+      </c>
+      <c r="AK92" s="3">
         <f t="shared" si="39"/>
-        <v>14.595642381326844</v>
-      </c>
-      <c r="AK92" s="3">
+        <v>2184715593928178.8</v>
+      </c>
+      <c r="AL92">
         <f t="shared" si="40"/>
-        <v>2184715.5939281788</v>
-      </c>
-      <c r="AL92">
+        <v>4.5772548279475242E-16</v>
+      </c>
+      <c r="AM92">
         <f t="shared" si="41"/>
-        <v>4.5772548279475246E-7</v>
-      </c>
-      <c r="AM92">
-        <f t="shared" si="42"/>
-        <v>14.596996215077962</v>
-      </c>
-    </row>
-    <row r="95" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.320262052024376</v>
+      </c>
+    </row>
+    <row r="95" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U95" t="s">
         <v>1</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="21:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U96" s="1">
         <v>450</v>
       </c>
@@ -6506,51 +6506,51 @@
         <v>2.7692899999999998</v>
       </c>
       <c r="AB96">
+        <f t="shared" si="42"/>
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AC96">
         <f t="shared" si="43"/>
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="AC96">
+        <v>3.8309999999999622E-2</v>
+      </c>
+      <c r="AD96">
         <f t="shared" si="44"/>
-        <v>3.8309999999999622E-2</v>
-      </c>
-      <c r="AD96">
+        <v>28389514425.387684</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="35"/>
+        <v>3.5224272772546515E-11</v>
+      </c>
+      <c r="AF96">
         <f t="shared" si="45"/>
-        <v>28389514425.387684</v>
-      </c>
-      <c r="AE96">
-        <f t="shared" si="36"/>
-        <v>3.5224272772546515E-11</v>
-      </c>
-      <c r="AF96">
-        <f t="shared" si="46"/>
         <v>24.069285703564969</v>
       </c>
       <c r="AH96" s="3">
-        <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$96 /$U$13^2</f>
-        <v>21713027.404105786</v>
+        <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$96 * 1000000000 /$U$13^2</f>
+        <v>2.1713027404105784E+16</v>
       </c>
       <c r="AI96">
         <f>1/AH96</f>
-        <v>4.6055300414299055E-8</v>
+        <v>4.6055300414299059E-17</v>
       </c>
       <c r="AJ96">
         <f>LN(AH96)</f>
-        <v>16.893422979581029</v>
+        <v>37.616688816527443</v>
       </c>
       <c r="AK96" s="3">
-        <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA96 /$U$13^2</f>
-        <v>22013263.552862916</v>
+        <f>0.271/0.64 * $U$11 * AC96 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA96 * 1000000000/$U$13^2</f>
+        <v>2.2013263552862916E+16</v>
       </c>
       <c r="AL96">
         <f>1/AK96</f>
-        <v>4.5427157931334802E-8</v>
+        <v>4.5427157931334808E-17</v>
       </c>
       <c r="AM96">
         <f>LN(AK96)</f>
-        <v>16.907155718424665</v>
-      </c>
-    </row>
-    <row r="97" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.630421555371079</v>
+      </c>
+    </row>
+    <row r="97" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U97" t="s">
         <v>7</v>
       </c>
@@ -6565,51 +6565,51 @@
         <v>2.7662800000000001</v>
       </c>
       <c r="AB97">
+        <f t="shared" si="42"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AC97">
         <f t="shared" si="43"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="AC97">
+        <v>3.5299999999999887E-2</v>
+      </c>
+      <c r="AD97">
         <f t="shared" si="44"/>
-        <v>3.5299999999999887E-2</v>
-      </c>
-      <c r="AD97">
+        <v>24415031808.973614</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="35"/>
+        <v>4.0958373833961398E-11</v>
+      </c>
+      <c r="AF97">
         <f t="shared" si="45"/>
-        <v>24415031808.973614</v>
-      </c>
-      <c r="AE97">
-        <f t="shared" si="36"/>
-        <v>4.0958373833961398E-11</v>
-      </c>
-      <c r="AF97">
-        <f t="shared" si="46"/>
         <v>23.918464837304715</v>
       </c>
       <c r="AH97" s="3">
-        <f t="shared" ref="AH97:AH110" si="47">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$96 /$U$13^2</f>
-        <v>20007044.306054279</v>
+        <f t="shared" ref="AH97:AH110" si="46">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * $X$96 * 1000000000 /$U$13^2</f>
+        <v>2.000704430605428E+16</v>
       </c>
       <c r="AI97">
-        <f t="shared" ref="AI97:AI110" si="48">1/AH97</f>
-        <v>4.9982395435461333E-8</v>
+        <f t="shared" ref="AI97:AI110" si="47">1/AH97</f>
+        <v>4.9982395435461328E-17</v>
       </c>
       <c r="AJ97">
-        <f t="shared" ref="AJ97:AJ110" si="49">LN(AH97)</f>
-        <v>16.81159498480773</v>
+        <f t="shared" ref="AJ97:AJ110" si="48">LN(AH97)</f>
+        <v>37.534860821754144</v>
       </c>
       <c r="AK97" s="3">
-        <f t="shared" ref="AK97:AK110" si="50">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA97 /$U$13^2</f>
-        <v>20261644.257758256</v>
+        <f t="shared" ref="AK97:AK110" si="49">0.271/0.64 * $U$11 * AC97 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA97 * 1000000000/$U$13^2</f>
+        <v>2.0261644257758256E+16</v>
       </c>
       <c r="AL97">
-        <f t="shared" ref="AL97:AL110" si="51">1/AK97</f>
-        <v>4.9354336068608862E-8</v>
+        <f t="shared" ref="AL97:AL110" si="50">1/AK97</f>
+        <v>4.9354336068608866E-17</v>
       </c>
       <c r="AM97">
-        <f t="shared" ref="AM97:AM110" si="52">LN(AK97)</f>
-        <v>16.824240211327737</v>
-      </c>
-    </row>
-    <row r="98" spans="21:39" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM97:AM110" si="51">LN(AK97)</f>
+        <v>37.547506048274151</v>
+      </c>
+    </row>
+    <row r="98" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y98">
         <v>3</v>
       </c>
@@ -6621,51 +6621,51 @@
         <v>2.7647300000000001</v>
       </c>
       <c r="AB98">
+        <f t="shared" si="42"/>
+        <v>3.3E-4</v>
+      </c>
+      <c r="AC98">
         <f t="shared" si="43"/>
-        <v>3.3E-4</v>
-      </c>
-      <c r="AC98">
+        <v>3.3749999999999947E-2</v>
+      </c>
+      <c r="AD98">
         <f t="shared" si="44"/>
-        <v>3.3749999999999947E-2</v>
-      </c>
-      <c r="AD98">
+        <v>21220894245.50246</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="35"/>
+        <v>4.7123367584376859E-11</v>
+      </c>
+      <c r="AF98">
         <f t="shared" si="45"/>
-        <v>21220894245.50246</v>
-      </c>
-      <c r="AE98">
-        <f t="shared" si="36"/>
-        <v>4.7123367584376859E-11</v>
-      </c>
-      <c r="AF98">
+        <v>23.778252110879681</v>
+      </c>
+      <c r="AH98" s="3">
         <f t="shared" si="46"/>
-        <v>23.778252110879681</v>
-      </c>
-      <c r="AH98" s="3">
+        <v>1.912854802632672E+16</v>
+      </c>
+      <c r="AI98">
         <f t="shared" si="47"/>
-        <v>19128548.026326716</v>
-      </c>
-      <c r="AI98">
+        <v>5.2277883225830563E-17</v>
+      </c>
+      <c r="AJ98">
         <f t="shared" si="48"/>
-        <v>5.2277883225830577E-8</v>
-      </c>
-      <c r="AJ98">
+        <v>37.489958275133432</v>
+      </c>
+      <c r="AK98" s="3">
         <f t="shared" si="49"/>
-        <v>16.766692438187018</v>
-      </c>
-      <c r="AK98" s="3">
+        <v>1.9361114172631452E+16</v>
+      </c>
+      <c r="AL98">
         <f t="shared" si="50"/>
-        <v>19361114.172631454</v>
-      </c>
-      <c r="AL98">
+        <v>5.1649920096725805E-17</v>
+      </c>
+      <c r="AM98">
         <f t="shared" si="51"/>
-        <v>5.1649920096725799E-8</v>
-      </c>
-      <c r="AM98">
-        <f t="shared" si="52"/>
-        <v>16.778777188395981</v>
-      </c>
-    </row>
-    <row r="99" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.502043025342395</v>
+      </c>
+    </row>
+    <row r="99" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y99">
         <v>4</v>
       </c>
@@ -6677,51 +6677,51 @@
         <v>2.7596799999999999</v>
       </c>
       <c r="AB99">
+        <f t="shared" si="42"/>
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="AC99">
         <f t="shared" si="43"/>
-        <v>3.8000000000000002E-4</v>
-      </c>
-      <c r="AC99">
+        <v>2.8699999999999726E-2</v>
+      </c>
+      <c r="AD99">
         <f t="shared" si="44"/>
-        <v>2.8699999999999726E-2</v>
-      </c>
-      <c r="AD99">
+        <v>15671196054.514793</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="35"/>
+        <v>6.3811338746662226E-11</v>
+      </c>
+      <c r="AF99">
         <f t="shared" si="45"/>
-        <v>15671196054.514793</v>
-      </c>
-      <c r="AE99">
-        <f t="shared" si="36"/>
-        <v>6.3811338746662226E-11</v>
-      </c>
-      <c r="AF99">
+        <v>23.475090218066804</v>
+      </c>
+      <c r="AH99" s="3">
         <f t="shared" si="46"/>
-        <v>23.475090218066804</v>
-      </c>
-      <c r="AH99" s="3">
+        <v>1.6266350469794736E+16</v>
+      </c>
+      <c r="AI99">
         <f t="shared" si="47"/>
-        <v>16266350.469794735</v>
-      </c>
-      <c r="AI99">
+        <v>6.1476604838738537E-17</v>
+      </c>
+      <c r="AJ99">
         <f t="shared" si="48"/>
-        <v>6.1476604838738544E-8</v>
-      </c>
-      <c r="AJ99">
+        <v>37.327874980580461</v>
+      </c>
+      <c r="AK99" s="3">
         <f t="shared" si="49"/>
-        <v>16.604609143634047</v>
-      </c>
-      <c r="AK99" s="3">
+        <v>1.6434044804534886E+16</v>
+      </c>
+      <c r="AL99">
         <f t="shared" si="50"/>
-        <v>16434044.804534886</v>
-      </c>
-      <c r="AL99">
+        <v>6.0849292544465707E-17</v>
+      </c>
+      <c r="AM99">
         <f t="shared" si="51"/>
-        <v>6.0849292544465703E-8</v>
-      </c>
-      <c r="AM99">
-        <f t="shared" si="52"/>
-        <v>16.614865643801238</v>
-      </c>
-    </row>
-    <row r="100" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.338131480747649</v>
+      </c>
+    </row>
+    <row r="100" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y100">
         <v>5</v>
       </c>
@@ -6733,51 +6733,51 @@
         <v>2.7560899999999999</v>
       </c>
       <c r="AB100">
+        <f t="shared" si="42"/>
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="AC100">
         <f t="shared" si="43"/>
-        <v>4.4000000000000002E-4</v>
-      </c>
-      <c r="AC100">
+        <v>2.5109999999999744E-2</v>
+      </c>
+      <c r="AD100">
         <f t="shared" si="44"/>
-        <v>2.5109999999999744E-2</v>
-      </c>
-      <c r="AD100">
+        <v>11841258988.990278</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="35"/>
+        <v>8.4450479541894681E-11</v>
+      </c>
+      <c r="AF100">
         <f t="shared" si="45"/>
-        <v>11841258988.990278</v>
-      </c>
-      <c r="AE100">
-        <f t="shared" si="36"/>
-        <v>8.4450479541894681E-11</v>
-      </c>
-      <c r="AF100">
+        <v>23.194855794278848</v>
+      </c>
+      <c r="AH100" s="3">
         <f t="shared" si="46"/>
-        <v>23.194855794278848</v>
-      </c>
-      <c r="AH100" s="3">
+        <v>1.4231639731586956E+16</v>
+      </c>
+      <c r="AI100">
         <f t="shared" si="47"/>
-        <v>14231639.731586957</v>
-      </c>
-      <c r="AI100">
+        <v>7.0265972077729861E-17</v>
+      </c>
+      <c r="AJ100">
         <f t="shared" si="48"/>
-        <v>7.0265972077729864E-8</v>
-      </c>
-      <c r="AJ100">
+        <v>37.194244030984379</v>
+      </c>
+      <c r="AK100" s="3">
         <f t="shared" si="49"/>
-        <v>16.470978194037965</v>
-      </c>
-      <c r="AK100" s="3">
+        <v>1.435965321426513E+16</v>
+      </c>
+      <c r="AL100">
         <f t="shared" si="50"/>
-        <v>14359653.21426513</v>
-      </c>
-      <c r="AL100">
+        <v>6.9639564763763412E-17</v>
+      </c>
+      <c r="AM100">
         <f t="shared" si="51"/>
-        <v>6.9639564763763415E-8</v>
-      </c>
-      <c r="AM100">
-        <f t="shared" si="52"/>
-        <v>16.479932971868315</v>
-      </c>
-    </row>
-    <row r="101" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.203198808814726</v>
+      </c>
+    </row>
+    <row r="101" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y101">
         <v>6</v>
       </c>
@@ -6789,51 +6789,51 @@
         <v>2.75359</v>
       </c>
       <c r="AB101">
+        <f t="shared" si="42"/>
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="AC101">
         <f t="shared" si="43"/>
-        <v>5.1000000000000004E-4</v>
-      </c>
-      <c r="AC101">
+        <v>2.2609999999999797E-2</v>
+      </c>
+      <c r="AD101">
         <f t="shared" si="44"/>
-        <v>2.2609999999999797E-2</v>
-      </c>
-      <c r="AD101">
+        <v>9198864675.9021854</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="35"/>
+        <v>1.0870906739389818E-10</v>
+      </c>
+      <c r="AF101">
         <f t="shared" si="45"/>
-        <v>9198864675.9021854</v>
-      </c>
-      <c r="AE101">
-        <f t="shared" si="36"/>
-        <v>1.0870906739389818E-10</v>
-      </c>
-      <c r="AF101">
+        <v>22.942345908593168</v>
+      </c>
+      <c r="AH101" s="3">
         <f t="shared" si="46"/>
-        <v>22.942345908593168</v>
-      </c>
-      <c r="AH101" s="3">
+        <v>1.2814710248155376E+16</v>
+      </c>
+      <c r="AI101">
         <f t="shared" si="47"/>
-        <v>12814710.248155376</v>
-      </c>
-      <c r="AI101">
+        <v>7.8035318835550399E-17</v>
+      </c>
+      <c r="AJ101">
         <f t="shared" si="48"/>
-        <v>7.8035318835550409E-8</v>
-      </c>
-      <c r="AJ101">
+        <v>37.089370144104763</v>
+      </c>
+      <c r="AK101" s="3">
         <f t="shared" si="49"/>
-        <v>16.366104307158352</v>
-      </c>
-      <c r="AK101" s="3">
+        <v>1.2918249909287926E+16</v>
+      </c>
+      <c r="AL101">
         <f t="shared" si="50"/>
-        <v>12918249.909287928</v>
-      </c>
-      <c r="AL101">
+        <v>7.740986643098017E-17</v>
+      </c>
+      <c r="AM101">
         <f t="shared" si="51"/>
-        <v>7.7409866430980151E-8</v>
-      </c>
-      <c r="AM101">
-        <f t="shared" si="52"/>
-        <v>16.374151591206278</v>
-      </c>
-    </row>
-    <row r="102" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.097417428152689</v>
+      </c>
+    </row>
+    <row r="102" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y102">
         <v>7</v>
       </c>
@@ -6845,51 +6845,51 @@
         <v>2.7495799999999999</v>
       </c>
       <c r="AB102">
+        <f t="shared" si="42"/>
+        <v>6.2E-4</v>
+      </c>
+      <c r="AC102">
         <f t="shared" si="43"/>
-        <v>6.2E-4</v>
-      </c>
-      <c r="AC102">
+        <v>1.8599999999999728E-2</v>
+      </c>
+      <c r="AD102">
         <f t="shared" si="44"/>
-        <v>1.8599999999999728E-2</v>
-      </c>
-      <c r="AD102">
+        <v>6224795645.3473082</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="35"/>
+        <v>1.6064784403765045E-10</v>
+      </c>
+      <c r="AF102">
         <f t="shared" si="45"/>
-        <v>6224795645.3473082</v>
-      </c>
-      <c r="AE102">
-        <f t="shared" si="36"/>
-        <v>1.6064784403765045E-10</v>
-      </c>
-      <c r="AF102">
+        <v>22.551806450701672</v>
+      </c>
+      <c r="AH102" s="3">
         <f t="shared" si="46"/>
-        <v>22.551806450701672</v>
-      </c>
-      <c r="AH102" s="3">
+        <v>1.0541955356731032E+16</v>
+      </c>
+      <c r="AI102">
         <f t="shared" si="47"/>
-        <v>10541955.356731031</v>
-      </c>
-      <c r="AI102">
+        <v>9.4859062304935737E-17</v>
+      </c>
+      <c r="AJ102">
         <f t="shared" si="48"/>
-        <v>9.4859062304935741E-8</v>
-      </c>
-      <c r="AJ102">
+        <v>36.894139438534033</v>
+      </c>
+      <c r="AK102" s="3">
         <f t="shared" si="49"/>
-        <v>16.170873601587623</v>
-      </c>
-      <c r="AK102" s="3">
+        <v>1.0611655638531112E+16</v>
+      </c>
+      <c r="AL102">
         <f t="shared" si="50"/>
-        <v>10611655.638531113</v>
-      </c>
-      <c r="AL102">
+        <v>9.4236001813796334E-17</v>
+      </c>
+      <c r="AM102">
         <f t="shared" si="51"/>
-        <v>9.4236001813796329E-8</v>
-      </c>
-      <c r="AM102">
-        <f t="shared" si="52"/>
-        <v>16.177463543518289</v>
-      </c>
-    </row>
-    <row r="103" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.900729380464703</v>
+      </c>
+    </row>
+    <row r="103" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y103">
         <v>8</v>
       </c>
@@ -6901,51 +6901,51 @@
         <v>2.74593</v>
       </c>
       <c r="AB103">
+        <f t="shared" si="42"/>
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="AC103">
         <f t="shared" si="43"/>
-        <v>7.6999999999999996E-4</v>
-      </c>
-      <c r="AC103">
+        <v>1.4949999999999797E-2</v>
+      </c>
+      <c r="AD103">
         <f t="shared" si="44"/>
-        <v>1.4949999999999797E-2</v>
-      </c>
-      <c r="AD103">
+        <v>4028601510.7334356</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="35"/>
+        <v>2.4822509680733918E-10</v>
+      </c>
+      <c r="AF103">
         <f t="shared" si="45"/>
-        <v>4028601510.7334356</v>
-      </c>
-      <c r="AE103">
-        <f t="shared" si="36"/>
-        <v>2.4822509680733918E-10</v>
-      </c>
-      <c r="AF103">
+        <v>22.11668513301062</v>
+      </c>
+      <c r="AH103" s="3">
         <f t="shared" si="46"/>
-        <v>22.11668513301062</v>
-      </c>
-      <c r="AH103" s="3">
+        <v>8473238310920920</v>
+      </c>
+      <c r="AI103">
         <f t="shared" si="47"/>
-        <v>8473238.3109209202</v>
-      </c>
-      <c r="AI103">
+        <v>1.1801863270045502E-16</v>
+      </c>
+      <c r="AJ103">
         <f t="shared" si="48"/>
-        <v>1.1801863270045503E-7</v>
-      </c>
-      <c r="AJ103">
+        <v>36.675689157651576</v>
+      </c>
+      <c r="AK103" s="3">
         <f t="shared" si="49"/>
-        <v>15.952423320705165</v>
-      </c>
-      <c r="AK103" s="3">
+        <v>8517938464703564</v>
+      </c>
+      <c r="AL103">
         <f t="shared" si="50"/>
-        <v>8517938.4647035636</v>
-      </c>
-      <c r="AL103">
+        <v>1.1739929845041459E-16</v>
+      </c>
+      <c r="AM103">
         <f t="shared" si="51"/>
-        <v>1.173992984504146E-7</v>
-      </c>
-      <c r="AM103">
-        <f t="shared" si="52"/>
-        <v>15.957684905290758</v>
-      </c>
-    </row>
-    <row r="104" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.680950742237172</v>
+      </c>
+    </row>
+    <row r="104" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y104">
         <v>9</v>
       </c>
@@ -6957,51 +6957,51 @@
         <v>2.7421199999999999</v>
       </c>
       <c r="AB104">
+        <f t="shared" si="42"/>
+        <v>9.7000000000000005E-4</v>
+      </c>
+      <c r="AC104">
         <f t="shared" si="43"/>
-        <v>9.7000000000000005E-4</v>
-      </c>
-      <c r="AC104">
+        <v>1.1139999999999706E-2</v>
+      </c>
+      <c r="AD104">
         <f t="shared" si="44"/>
-        <v>1.1139999999999706E-2</v>
-      </c>
-      <c r="AD104">
+        <v>2382963006.5006251</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="35"/>
+        <v>4.1964562490984589E-10</v>
+      </c>
+      <c r="AF104">
         <f t="shared" si="45"/>
-        <v>2382963006.5006251</v>
-      </c>
-      <c r="AE104">
-        <f t="shared" si="36"/>
-        <v>4.1964562490984589E-10</v>
-      </c>
-      <c r="AF104">
+        <v>21.591610511023351</v>
+      </c>
+      <c r="AH104" s="3">
         <f t="shared" si="46"/>
-        <v>21.591610511023351</v>
-      </c>
-      <c r="AH104" s="3">
+        <v>6313837778171093</v>
+      </c>
+      <c r="AI104">
         <f t="shared" si="47"/>
-        <v>6313837.7781710932</v>
-      </c>
-      <c r="AI104">
+        <v>1.5838227637987659E-16</v>
+      </c>
+      <c r="AJ104">
         <f t="shared" si="48"/>
-        <v>1.5838227637987659E-7</v>
-      </c>
-      <c r="AJ104">
+        <v>36.381520092314005</v>
+      </c>
+      <c r="AK104" s="3">
         <f t="shared" si="49"/>
-        <v>15.658254255367595</v>
-      </c>
-      <c r="AK104" s="3">
+        <v>6338339403803932</v>
+      </c>
+      <c r="AL104">
         <f t="shared" si="50"/>
-        <v>6338339.4038039315</v>
-      </c>
-      <c r="AL104">
+        <v>1.5777003033315848E-16</v>
+      </c>
+      <c r="AM104">
         <f t="shared" si="51"/>
-        <v>1.5777003033315849E-7</v>
-      </c>
-      <c r="AM104">
-        <f t="shared" si="52"/>
-        <v>15.662127368415176</v>
-      </c>
-    </row>
-    <row r="105" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.385393205361588</v>
+      </c>
+    </row>
+    <row r="105" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y105">
         <v>10</v>
       </c>
@@ -7013,51 +7013,51 @@
         <v>2.7396400000000001</v>
       </c>
       <c r="AB105">
+        <f t="shared" si="42"/>
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="AC105">
         <f t="shared" si="43"/>
-        <v>1.2199999999999999E-3</v>
-      </c>
-      <c r="AC105">
+        <v>8.65999999999989E-3</v>
+      </c>
+      <c r="AD105">
         <f t="shared" si="44"/>
-        <v>8.65999999999989E-3</v>
-      </c>
-      <c r="AD105">
+        <v>1472861483.2980278</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="35"/>
+        <v>6.7895047249168498E-10</v>
+      </c>
+      <c r="AF105">
         <f t="shared" si="45"/>
-        <v>1472861483.2980278</v>
-      </c>
-      <c r="AE105">
-        <f t="shared" si="36"/>
-        <v>6.7895047249168498E-10</v>
-      </c>
-      <c r="AF105">
+        <v>21.110472932868699</v>
+      </c>
+      <c r="AH105" s="3">
         <f t="shared" si="46"/>
-        <v>21.110472932868699</v>
-      </c>
-      <c r="AH105" s="3">
+        <v>4908243730607039</v>
+      </c>
+      <c r="AI105">
         <f t="shared" si="47"/>
-        <v>4908243.7306070393</v>
-      </c>
-      <c r="AI105">
+        <v>2.0373886361106248E-16</v>
+      </c>
+      <c r="AJ105">
         <f t="shared" si="48"/>
-        <v>2.0373886361106246E-7</v>
-      </c>
-      <c r="AJ105">
+        <v>36.129692580389225</v>
+      </c>
+      <c r="AK105" s="3">
         <f t="shared" si="49"/>
-        <v>15.406426743442815</v>
-      </c>
-      <c r="AK105" s="3">
+        <v>4922834485605183</v>
+      </c>
+      <c r="AL105">
         <f t="shared" si="50"/>
-        <v>4922834.4856051831</v>
-      </c>
-      <c r="AL105">
+        <v>2.0313500340588154E-16</v>
+      </c>
+      <c r="AM105">
         <f t="shared" si="51"/>
-        <v>2.0313500340588155E-7</v>
-      </c>
-      <c r="AM105">
-        <f t="shared" si="52"/>
-        <v>15.409395037538381</v>
-      </c>
-    </row>
-    <row r="106" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.132660874484792</v>
+      </c>
+    </row>
+    <row r="106" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y106">
         <v>11</v>
       </c>
@@ -7069,51 +7069,51 @@
         <v>2.7378999999999998</v>
       </c>
       <c r="AB106">
+        <f t="shared" si="42"/>
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="AC106">
         <f t="shared" si="43"/>
-        <v>1.4599999999999999E-3</v>
-      </c>
-      <c r="AC106">
+        <v>6.9199999999995931E-3</v>
+      </c>
+      <c r="AD106">
         <f t="shared" si="44"/>
-        <v>6.9199999999995931E-3</v>
-      </c>
-      <c r="AD106">
+        <v>983460864.51601553</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="35"/>
+        <v>1.0168172787354622E-9</v>
+      </c>
+      <c r="AF106">
         <f t="shared" si="45"/>
-        <v>983460864.51601553</v>
-      </c>
-      <c r="AE106">
-        <f t="shared" si="36"/>
-        <v>1.0168172787354622E-9</v>
-      </c>
-      <c r="AF106">
+        <v>20.706588402948807</v>
+      </c>
+      <c r="AH106" s="3">
         <f t="shared" si="46"/>
-        <v>20.706588402948807</v>
-      </c>
-      <c r="AH106" s="3">
+        <v>3922060810138469</v>
+      </c>
+      <c r="AI106">
         <f t="shared" si="47"/>
-        <v>3922060.8101384686</v>
-      </c>
-      <c r="AI106">
+        <v>2.5496799983697725E-16</v>
+      </c>
+      <c r="AJ106">
         <f t="shared" si="48"/>
-        <v>2.5496799983697724E-7</v>
-      </c>
-      <c r="AJ106">
+        <v>35.905393627444411</v>
+      </c>
+      <c r="AK106" s="3">
         <f t="shared" si="49"/>
-        <v>15.182127790498003</v>
-      </c>
-      <c r="AK106" s="3">
+        <v>3931221551399262</v>
+      </c>
+      <c r="AL106">
         <f t="shared" si="50"/>
-        <v>3931221.5513992622</v>
-      </c>
-      <c r="AL106">
+        <v>2.5437385986146323E-16</v>
+      </c>
+      <c r="AM106">
         <f t="shared" si="51"/>
-        <v>2.5437385986146326E-7</v>
-      </c>
-      <c r="AM106">
-        <f t="shared" si="52"/>
-        <v>15.184460762876695</v>
-      </c>
-    </row>
-    <row r="107" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.907726599823107</v>
+      </c>
+    </row>
+    <row r="107" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y107">
         <v>12</v>
       </c>
@@ -7125,51 +7125,51 @@
         <v>2.73672</v>
       </c>
       <c r="AB107">
+        <f t="shared" si="42"/>
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="AC107">
         <f t="shared" si="43"/>
-        <v>1.7600000000000001E-3</v>
-      </c>
-      <c r="AC107">
+        <v>5.7399999999998563E-3</v>
+      </c>
+      <c r="AD107">
         <f t="shared" si="44"/>
-        <v>5.7399999999998563E-3</v>
-      </c>
-      <c r="AD107">
+        <v>676710738.7176739</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="35"/>
+        <v>1.4777362657122004E-9</v>
+      </c>
+      <c r="AF107">
         <f t="shared" si="45"/>
-        <v>676710738.7176739</v>
-      </c>
-      <c r="AE107">
-        <f t="shared" si="36"/>
-        <v>1.4777362657122004E-9</v>
-      </c>
-      <c r="AF107">
+        <v>20.332754470320921</v>
+      </c>
+      <c r="AH107" s="3">
         <f t="shared" si="46"/>
-        <v>20.332754470320921</v>
-      </c>
-      <c r="AH107" s="3">
+        <v>3253270093958898</v>
+      </c>
+      <c r="AI107">
         <f t="shared" si="47"/>
-        <v>3253270.0939588975</v>
-      </c>
-      <c r="AI107">
+        <v>3.0738302419369736E-16</v>
+      </c>
+      <c r="AJ107">
         <f t="shared" si="48"/>
-        <v>3.0738302419369738E-7</v>
-      </c>
-      <c r="AJ107">
+        <v>35.718437068146343</v>
+      </c>
+      <c r="AK107" s="3">
         <f t="shared" si="49"/>
-        <v>14.995171231199933</v>
-      </c>
-      <c r="AK107" s="3">
+        <v>3259463350639641.5</v>
+      </c>
+      <c r="AL107">
         <f t="shared" si="50"/>
-        <v>3259463.3506396413</v>
-      </c>
-      <c r="AL107">
+        <v>3.0679897038994431E-16</v>
+      </c>
+      <c r="AM107">
         <f t="shared" si="51"/>
-        <v>3.0679897038994431E-7</v>
-      </c>
-      <c r="AM107">
-        <f t="shared" si="52"/>
-        <v>14.99707312342392</v>
-      </c>
-    </row>
-    <row r="108" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.720338960370334</v>
+      </c>
+    </row>
+    <row r="108" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y108">
         <v>13</v>
       </c>
@@ -7181,51 +7181,51 @@
         <v>2.7351399999999999</v>
       </c>
       <c r="AB108">
+        <f t="shared" si="42"/>
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="AC108">
         <f t="shared" si="43"/>
-        <v>2.0799999999999998E-3</v>
-      </c>
-      <c r="AC108">
+        <v>4.1599999999997195E-3</v>
+      </c>
+      <c r="AD108">
         <f t="shared" si="44"/>
-        <v>4.1599999999997195E-3</v>
-      </c>
-      <c r="AD108">
+        <v>414986376.3564654</v>
+      </c>
+      <c r="AE108">
+        <f t="shared" si="35"/>
+        <v>2.4097176605648834E-9</v>
+      </c>
+      <c r="AF108">
         <f t="shared" si="45"/>
-        <v>414986376.3564654</v>
-      </c>
-      <c r="AE108">
-        <f t="shared" si="36"/>
-        <v>2.4097176605648834E-9</v>
-      </c>
-      <c r="AF108">
+        <v>19.843756249599409</v>
+      </c>
+      <c r="AH108" s="3">
         <f t="shared" si="46"/>
-        <v>19.843756249599409</v>
-      </c>
-      <c r="AH108" s="3">
+        <v>2357770660430042</v>
+      </c>
+      <c r="AI108">
         <f t="shared" si="47"/>
-        <v>2357770.6604300421</v>
-      </c>
-      <c r="AI108">
+        <v>4.241294612672831E-16</v>
+      </c>
+      <c r="AJ108">
         <f t="shared" si="48"/>
-        <v>4.2412946126728308E-7</v>
-      </c>
-      <c r="AJ108">
+        <v>35.396492932088002</v>
+      </c>
+      <c r="AK108" s="3">
         <f t="shared" si="49"/>
-        <v>14.673227095141588</v>
-      </c>
-      <c r="AK108" s="3">
+        <v>2360895341849455</v>
+      </c>
+      <c r="AL108">
         <f t="shared" si="50"/>
-        <v>2360895.3418494551</v>
-      </c>
-      <c r="AL108">
+        <v>4.2356811937992549E-16</v>
+      </c>
+      <c r="AM108">
         <f t="shared" si="51"/>
-        <v>4.2356811937992549E-7</v>
-      </c>
-      <c r="AM108">
-        <f t="shared" si="52"/>
-        <v>14.674551487194185</v>
-      </c>
-    </row>
-    <row r="109" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.397817324140597</v>
+      </c>
+    </row>
+    <row r="109" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y109">
         <v>14</v>
       </c>
@@ -7237,51 +7237,51 @@
         <v>2.73489</v>
       </c>
       <c r="AB109">
+        <f t="shared" si="42"/>
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="AC109">
         <f t="shared" si="43"/>
-        <v>2.2799999999999999E-3</v>
-      </c>
-      <c r="AC109">
+        <v>3.909999999999858E-3</v>
+      </c>
+      <c r="AD109">
         <f t="shared" si="44"/>
-        <v>3.909999999999858E-3</v>
-      </c>
-      <c r="AD109">
+        <v>355832616.56882244</v>
+      </c>
+      <c r="AE109">
+        <f t="shared" si="35"/>
+        <v>2.8103101105308248E-9</v>
+      </c>
+      <c r="AF109">
         <f t="shared" si="45"/>
-        <v>355832616.56882244</v>
-      </c>
-      <c r="AE109">
-        <f t="shared" si="36"/>
-        <v>2.8103101105308248E-9</v>
-      </c>
-      <c r="AF109">
+        <v>19.689971000070422</v>
+      </c>
+      <c r="AH109" s="3">
         <f t="shared" si="46"/>
-        <v>19.689971000070422</v>
-      </c>
-      <c r="AH109" s="3">
+        <v>2216077712086959.3</v>
+      </c>
+      <c r="AI109">
         <f t="shared" si="47"/>
-        <v>2216077.7120869593</v>
-      </c>
-      <c r="AI109">
+        <v>4.5124771326645598E-16</v>
+      </c>
+      <c r="AJ109">
         <f t="shared" si="48"/>
-        <v>4.5124771326645601E-7</v>
-      </c>
-      <c r="AJ109">
+        <v>35.334515231812134</v>
+      </c>
+      <c r="AK109" s="3">
         <f t="shared" si="49"/>
-        <v>14.611249394865721</v>
-      </c>
-      <c r="AK109" s="3">
+        <v>2218811787579627.5</v>
+      </c>
+      <c r="AL109">
         <f t="shared" si="50"/>
-        <v>2218811.7875796272</v>
-      </c>
-      <c r="AL109">
+        <v>4.5069167452496801E-16</v>
+      </c>
+      <c r="AM109">
         <f t="shared" si="51"/>
-        <v>4.506916745249681E-7</v>
-      </c>
-      <c r="AM109">
-        <f t="shared" si="52"/>
-        <v>14.61248237974133</v>
-      </c>
-    </row>
-    <row r="110" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.33574821668774</v>
+      </c>
+    </row>
+    <row r="110" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y110">
         <v>15</v>
       </c>
@@ -7293,51 +7293,51 @@
         <v>2.73448</v>
       </c>
       <c r="AB110">
+        <f t="shared" si="42"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC110">
         <f t="shared" si="43"/>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="AC110">
+        <v>3.4999999999998366E-3</v>
+      </c>
+      <c r="AD110">
         <f t="shared" si="44"/>
-        <v>3.4999999999998366E-3</v>
-      </c>
-      <c r="AD110">
+        <v>302594232.75992894</v>
+      </c>
+      <c r="AE110">
+        <f t="shared" si="35"/>
+        <v>3.3047556487746286E-9</v>
+      </c>
+      <c r="AF110">
         <f t="shared" si="45"/>
-        <v>302594232.75992894</v>
-      </c>
-      <c r="AE110">
-        <f t="shared" si="36"/>
-        <v>3.3047556487746286E-9</v>
-      </c>
-      <c r="AF110">
+        <v>19.527903300180952</v>
+      </c>
+      <c r="AH110" s="3">
         <f t="shared" si="46"/>
-        <v>19.527903300180952</v>
-      </c>
-      <c r="AH110" s="3">
+        <v>1983701276804163</v>
+      </c>
+      <c r="AI110">
         <f t="shared" si="47"/>
-        <v>1983701.2768041629</v>
-      </c>
-      <c r="AI110">
+        <v>5.0410815967767465E-16</v>
+      </c>
+      <c r="AJ110">
         <f t="shared" si="48"/>
-        <v>5.0410815967767466E-7</v>
-      </c>
-      <c r="AJ110">
+        <v>35.223740826310213</v>
+      </c>
+      <c r="AK110" s="3">
         <f t="shared" si="49"/>
-        <v>14.500474989363804</v>
-      </c>
-      <c r="AK110" s="3">
+        <v>1985850906233689.5</v>
+      </c>
+      <c r="AL110">
         <f t="shared" si="50"/>
-        <v>1985850.9062336893</v>
-      </c>
-      <c r="AL110">
+        <v>5.0356247634751828E-16</v>
+      </c>
+      <c r="AM110">
         <f t="shared" si="51"/>
-        <v>5.0356247634751832E-7</v>
-      </c>
-      <c r="AM110">
-        <f t="shared" si="52"/>
-        <v>14.501558048379298</v>
-      </c>
-    </row>
-    <row r="113" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.224823885325712</v>
+      </c>
+    </row>
+    <row r="113" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U113" t="s">
         <v>1</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="21:39" x14ac:dyDescent="0.25">
+    <row r="114" spans="21:39" x14ac:dyDescent="0.3">
       <c r="U114" s="1">
         <v>5</v>
       </c>
@@ -7414,51 +7414,51 @@
         <v>2.7519200000000001</v>
       </c>
       <c r="AB114">
+        <f t="shared" si="42"/>
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="AC114">
         <f t="shared" si="43"/>
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="AC114">
+        <v>2.0939999999999959E-2</v>
+      </c>
+      <c r="AD114">
         <f t="shared" si="44"/>
-        <v>2.0939999999999959E-2</v>
-      </c>
-      <c r="AD114">
+        <v>101044357219.82504</v>
+      </c>
+      <c r="AE114">
+        <f t="shared" si="35"/>
+        <v>9.8966436871330673E-12</v>
+      </c>
+      <c r="AF114">
         <f t="shared" si="45"/>
-        <v>101044357219.82504</v>
-      </c>
-      <c r="AE114">
-        <f t="shared" si="36"/>
-        <v>9.8966436871330673E-12</v>
-      </c>
-      <c r="AF114">
-        <f t="shared" si="46"/>
         <v>25.338825437770495</v>
       </c>
       <c r="AH114" s="3">
-        <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 *$X$114 /$U$13^2</f>
-        <v>11867984.107855126</v>
+        <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 *$X$114 * 1000000000 /$U$13^2</f>
+        <v>1.1867984107855126E+16</v>
       </c>
       <c r="AI114">
         <f>1/AH114</f>
-        <v>8.4260308314545573E-8</v>
+        <v>8.4260308314545569E-17</v>
       </c>
       <c r="AJ114">
         <f>LN(AH114)</f>
-        <v>16.289354921316718</v>
+        <v>37.012620758263132</v>
       </c>
       <c r="AK114" s="3">
-        <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA114 /$U$13^2</f>
-        <v>11956837.463376381</v>
+        <f>0.271/0.64 * $U$11 * AC114 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA114 * 1000000000 /$U$13^2</f>
+        <v>1.1956837463376382E+16</v>
       </c>
       <c r="AL114">
         <f>1/AK114</f>
-        <v>8.3634155190533073E-8</v>
+        <v>8.3634155190533063E-17</v>
       </c>
       <c r="AM114">
         <f>LN(AK114)</f>
-        <v>16.296813845380907</v>
-      </c>
-    </row>
-    <row r="115" spans="21:39" x14ac:dyDescent="0.25">
+        <v>37.020079682327314</v>
+      </c>
+    </row>
+    <row r="115" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y115">
         <v>2</v>
       </c>
@@ -7470,51 +7470,51 @@
         <v>2.7504200000000001</v>
       </c>
       <c r="AB115">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AC115">
         <f t="shared" si="43"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="AC115">
+        <v>1.9439999999999902E-2</v>
+      </c>
+      <c r="AD115">
         <f t="shared" si="44"/>
-        <v>1.9439999999999902E-2</v>
-      </c>
-      <c r="AD115">
+        <v>80673351563.701904</v>
+      </c>
+      <c r="AE115">
+        <f t="shared" si="35"/>
+        <v>1.2395666978213648E-11</v>
+      </c>
+      <c r="AF115">
         <f t="shared" si="45"/>
-        <v>80673351563.701904</v>
-      </c>
-      <c r="AE115">
-        <f t="shared" si="36"/>
-        <v>1.2395666978213648E-11</v>
-      </c>
-      <c r="AF115">
-        <f t="shared" si="46"/>
         <v>25.113674141625811</v>
       </c>
       <c r="AH115" s="3">
-        <f t="shared" ref="AH115:AH128" si="53">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 *$X$114 /$U$13^2</f>
-        <v>11017841.979785243</v>
+        <f t="shared" ref="AH115:AH128" si="52">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 *$X$114 * 1000000000 /$U$13^2</f>
+        <v>1.1017841979785244E+16</v>
       </c>
       <c r="AI115">
-        <f t="shared" ref="AI115:AI128" si="54">1/AH115</f>
-        <v>9.076187531412496E-8</v>
+        <f t="shared" ref="AI115:AI128" si="53">1/AH115</f>
+        <v>9.0761875314124957E-17</v>
       </c>
       <c r="AJ115">
-        <f t="shared" ref="AJ115:AJ128" si="55">LN(AH115)</f>
-        <v>16.215026514906619</v>
+        <f t="shared" ref="AJ115:AJ128" si="54">LN(AH115)</f>
+        <v>36.938292351853029</v>
       </c>
       <c r="AK115" s="3">
-        <f t="shared" ref="AK115:AK128" si="56">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA115 /$U$13^2</f>
-        <v>11094279.980391851</v>
+        <f t="shared" ref="AK115:AK128" si="55">0.271/0.64 * $U$11 * AC115 * 1000000000 * 8 * PI()^2 * $V$11 *$W$11 * AA115 * 1000000000 /$U$13^2</f>
+        <v>1.1094279980391852E+16</v>
       </c>
       <c r="AL115">
-        <f t="shared" ref="AL115:AL128" si="57">1/AK115</f>
-        <v>9.0136538988326487E-8</v>
+        <f t="shared" ref="AL115:AL128" si="56">1/AK115</f>
+        <v>9.0136538988326469E-17</v>
       </c>
       <c r="AM115">
-        <f t="shared" ref="AM115:AM128" si="58">LN(AK115)</f>
-        <v>16.221940216379267</v>
-      </c>
-    </row>
-    <row r="116" spans="21:39" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AM115:AM128" si="57">LN(AK115)</f>
+        <v>36.945206053325677</v>
+      </c>
+    </row>
+    <row r="116" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y116">
         <v>3</v>
       </c>
@@ -7526,51 +7526,51 @@
         <v>2.7496399999999999</v>
       </c>
       <c r="AB116">
+        <f t="shared" si="42"/>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="AC116">
         <f t="shared" si="43"/>
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="AC116">
+        <v>1.8659999999999677E-2</v>
+      </c>
+      <c r="AD116">
         <f t="shared" si="44"/>
-        <v>1.8659999999999677E-2</v>
-      </c>
-      <c r="AD116">
+        <v>64530381523.433601</v>
+      </c>
+      <c r="AE116">
+        <f t="shared" si="35"/>
+        <v>1.5496576595271787E-11</v>
+      </c>
+      <c r="AF116">
         <f t="shared" si="45"/>
-        <v>64530381523.433601</v>
-      </c>
-      <c r="AE116">
-        <f t="shared" si="36"/>
-        <v>1.5496576595271787E-11</v>
-      </c>
-      <c r="AF116">
-        <f t="shared" si="46"/>
         <v>24.890401981218748</v>
       </c>
       <c r="AH116" s="3">
+        <f t="shared" si="52"/>
+        <v>1.057576807318879E+16</v>
+      </c>
+      <c r="AI116">
         <f t="shared" si="53"/>
-        <v>10575768.073188789</v>
-      </c>
-      <c r="AI116">
+        <v>9.455578007002204E-17</v>
+      </c>
+      <c r="AJ116">
         <f t="shared" si="54"/>
-        <v>9.4555780070022056E-8</v>
-      </c>
-      <c r="AJ116">
+        <v>36.897341748239924</v>
+      </c>
+      <c r="AK116" s="3">
         <f t="shared" si="55"/>
-        <v>16.17407591129351</v>
-      </c>
-      <c r="AK116" s="3">
+        <v>1.0646119095125636E+16</v>
+      </c>
+      <c r="AL116">
         <f t="shared" si="56"/>
-        <v>10646119.095125636</v>
-      </c>
-      <c r="AL116">
+        <v>9.3930942446234108E-17</v>
+      </c>
+      <c r="AM116">
         <f t="shared" si="57"/>
-        <v>9.3930942446234106E-8</v>
-      </c>
-      <c r="AM116">
-        <f t="shared" si="58"/>
-        <v>16.180705979494803</v>
-      </c>
-    </row>
-    <row r="117" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.903971816441214</v>
+      </c>
+    </row>
+    <row r="117" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y117">
         <v>4</v>
       </c>
@@ -7582,51 +7582,51 @@
         <v>2.7479499999999999</v>
       </c>
       <c r="AB117">
+        <f t="shared" si="42"/>
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="AC117">
         <f t="shared" si="43"/>
-        <v>7.3999999999999996E-5</v>
-      </c>
-      <c r="AC117">
+        <v>1.6969999999999708E-2</v>
+      </c>
+      <c r="AD117">
         <f t="shared" si="44"/>
-        <v>1.6969999999999708E-2</v>
-      </c>
-      <c r="AD117">
+        <v>47583235180.875496</v>
+      </c>
+      <c r="AE117">
+        <f t="shared" si="35"/>
+        <v>2.1015805171690319E-11</v>
+      </c>
+      <c r="AF117">
         <f t="shared" si="45"/>
-        <v>47583235180.875496</v>
-      </c>
-      <c r="AE117">
-        <f t="shared" si="36"/>
-        <v>2.1015805171690319E-11</v>
-      </c>
-      <c r="AF117">
-        <f t="shared" si="46"/>
         <v>24.585746334063618</v>
       </c>
       <c r="AH117" s="3">
+        <f t="shared" si="52"/>
+        <v>9617941275563440</v>
+      </c>
+      <c r="AI117">
         <f t="shared" si="53"/>
-        <v>9617941.2755634394</v>
-      </c>
-      <c r="AI117">
+        <v>1.0397235451423754E-16</v>
+      </c>
+      <c r="AJ117">
         <f t="shared" si="54"/>
-        <v>1.0397235451423755E-7</v>
-      </c>
-      <c r="AJ117">
+        <v>36.802406632066862</v>
+      </c>
+      <c r="AK117" s="3">
         <f t="shared" si="55"/>
-        <v>16.079140795120448</v>
-      </c>
-      <c r="AK117" s="3">
+        <v>9675969982531220</v>
+      </c>
+      <c r="AL117">
         <f t="shared" si="56"/>
-        <v>9675969.9825312216</v>
-      </c>
-      <c r="AL117">
+        <v>1.0334881172692533E-16</v>
+      </c>
+      <c r="AM117">
         <f t="shared" si="57"/>
-        <v>1.0334881172692531E-7</v>
-      </c>
-      <c r="AM117">
-        <f t="shared" si="58"/>
-        <v>16.085156048447139</v>
-      </c>
-    </row>
-    <row r="118" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.80842188539355</v>
+      </c>
+    </row>
+    <row r="118" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y118">
         <v>5</v>
       </c>
@@ -7638,51 +7638,51 @@
         <v>2.7452899999999998</v>
       </c>
       <c r="AB118">
+        <f t="shared" si="42"/>
+        <v>9.2E-5</v>
+      </c>
+      <c r="AC118">
         <f t="shared" si="43"/>
-        <v>9.2E-5</v>
-      </c>
-      <c r="AC118">
+        <v>1.4309999999999601E-2</v>
+      </c>
+      <c r="AD118">
         <f t="shared" si="44"/>
-        <v>1.4309999999999601E-2</v>
-      </c>
-      <c r="AD118">
+        <v>32274212204.680729</v>
+      </c>
+      <c r="AE118">
+        <f t="shared" si="35"/>
+        <v>3.0984489835354371E-11</v>
+      </c>
+      <c r="AF118">
         <f t="shared" si="45"/>
-        <v>32274212204.680729</v>
-      </c>
-      <c r="AE118">
-        <f t="shared" si="36"/>
-        <v>3.0984489835354371E-11</v>
-      </c>
-      <c r="AF118">
-        <f t="shared" si="46"/>
         <v>24.19753436454096</v>
       </c>
       <c r="AH118" s="3">
+        <f t="shared" si="52"/>
+        <v>8110355901786173</v>
+      </c>
+      <c r="AI118">
         <f t="shared" si="53"/>
-        <v>8110355.9017861728</v>
-      </c>
-      <c r="AI118">
+        <v>1.2329915137013487E-16</v>
+      </c>
+      <c r="AJ118">
         <f t="shared" si="54"/>
-        <v>1.2329915137013486E-7</v>
-      </c>
-      <c r="AJ118">
+        <v>36.631918146389076</v>
+      </c>
+      <c r="AK118" s="3">
         <f t="shared" si="55"/>
-        <v>15.908652309442662</v>
-      </c>
-      <c r="AK118" s="3">
+        <v>8151390626151692</v>
+      </c>
+      <c r="AL118">
         <f t="shared" si="56"/>
-        <v>8151390.6261516921</v>
-      </c>
-      <c r="AL118">
+        <v>1.2267845400412425E-16</v>
+      </c>
+      <c r="AM118">
         <f t="shared" si="57"/>
-        <v>1.2267845400412427E-7</v>
-      </c>
-      <c r="AM118">
-        <f t="shared" si="58"/>
-        <v>15.913699099637245</v>
-      </c>
-    </row>
-    <row r="119" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.636964936583659</v>
+      </c>
+    </row>
+    <row r="119" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y119">
         <v>6</v>
       </c>
@@ -7694,51 +7694,51 @@
         <v>2.7431100000000002</v>
       </c>
       <c r="AB119">
+        <f t="shared" si="42"/>
+        <v>1.15E-4</v>
+      </c>
+      <c r="AC119">
         <f t="shared" si="43"/>
-        <v>1.15E-4</v>
-      </c>
-      <c r="AC119">
+        <v>1.2129999999999974E-2</v>
+      </c>
+      <c r="AD119">
         <f t="shared" si="44"/>
-        <v>1.2129999999999974E-2</v>
-      </c>
-      <c r="AD119">
+        <v>21886020631.322842</v>
+      </c>
+      <c r="AE119">
+        <f t="shared" si="35"/>
+        <v>4.5691266441045917E-11</v>
+      </c>
+      <c r="AF119">
         <f t="shared" si="45"/>
-        <v>21886020631.322842</v>
-      </c>
-      <c r="AE119">
-        <f t="shared" si="36"/>
-        <v>4.5691266441045917E-11</v>
-      </c>
-      <c r="AF119">
-        <f t="shared" si="46"/>
         <v>23.809113942614374</v>
       </c>
       <c r="AH119" s="3">
+        <f t="shared" si="52"/>
+        <v>6874816008991531</v>
+      </c>
+      <c r="AI119">
         <f t="shared" si="53"/>
-        <v>6874816.0089915311</v>
-      </c>
-      <c r="AI119">
+        <v>1.4545843826105396E-16</v>
+      </c>
+      <c r="AJ119">
         <f t="shared" si="54"/>
-        <v>1.4545843826105397E-7</v>
-      </c>
-      <c r="AJ119">
+        <v>36.466641275776695</v>
+      </c>
+      <c r="AK119" s="3">
         <f t="shared" si="55"/>
-        <v>15.743375438830286</v>
-      </c>
-      <c r="AK119" s="3">
+        <v>6904112636208620</v>
+      </c>
+      <c r="AL119">
         <f t="shared" si="56"/>
-        <v>6904112.6362086209</v>
-      </c>
-      <c r="AL119">
+        <v>1.4484120591479053E-16</v>
+      </c>
+      <c r="AM119">
         <f t="shared" si="57"/>
-        <v>1.4484120591479052E-7</v>
-      </c>
-      <c r="AM119">
-        <f t="shared" si="58"/>
-        <v>15.747627826242768</v>
-      </c>
-    </row>
-    <row r="120" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.47089366318918</v>
+      </c>
+    </row>
+    <row r="120" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y120">
         <v>7</v>
       </c>
@@ -7750,51 +7750,51 @@
         <v>2.7412299999999998</v>
       </c>
       <c r="AB120">
+        <f t="shared" si="42"/>
+        <v>1.44E-4</v>
+      </c>
+      <c r="AC120">
         <f t="shared" si="43"/>
-        <v>1.44E-4</v>
-      </c>
-      <c r="AC120">
+        <v>1.0249999999999648E-2</v>
+      </c>
+      <c r="AD120">
         <f t="shared" si="44"/>
-        <v>1.0249999999999648E-2</v>
-      </c>
-      <c r="AD120">
+        <v>14769480408.520527</v>
+      </c>
+      <c r="AE120">
+        <f t="shared" si="35"/>
+        <v>6.7707188901723257E-11</v>
+      </c>
+      <c r="AF120">
         <f t="shared" si="45"/>
-        <v>14769480408.520527</v>
-      </c>
-      <c r="AE120">
-        <f t="shared" si="36"/>
-        <v>6.7707188901723257E-11</v>
-      </c>
-      <c r="AF120">
-        <f t="shared" si="46"/>
         <v>23.415828754030052</v>
       </c>
       <c r="AH120" s="3">
+        <f t="shared" si="52"/>
+        <v>5809304541810464</v>
+      </c>
+      <c r="AI120">
         <f t="shared" si="53"/>
-        <v>5809304.5418104641</v>
-      </c>
-      <c r="AI120">
+        <v>1.7213764449820891E-16</v>
+      </c>
+      <c r="AJ120">
         <f t="shared" si="54"/>
-        <v>1.7213764449820891E-7</v>
-      </c>
-      <c r="AJ120">
+        <v>36.298237258405123</v>
+      </c>
+      <c r="AK120" s="3">
         <f t="shared" si="55"/>
-        <v>15.574971421458713</v>
-      </c>
-      <c r="AK120" s="3">
+        <v>5830062160355816</v>
+      </c>
+      <c r="AL120">
         <f t="shared" si="56"/>
-        <v>5830062.1603558157</v>
-      </c>
-      <c r="AL120">
+        <v>1.7152475779760276E-16</v>
+      </c>
+      <c r="AM120">
         <f t="shared" si="57"/>
-        <v>1.7152475779760277E-7</v>
-      </c>
-      <c r="AM120">
-        <f t="shared" si="58"/>
-        <v>15.578538220423491</v>
-      </c>
-    </row>
-    <row r="121" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.3018040573699</v>
+      </c>
+    </row>
+    <row r="121" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y121">
         <v>8</v>
       </c>
@@ -7806,51 +7806,51 @@
         <v>2.7386599999999999</v>
       </c>
       <c r="AB121">
+        <f t="shared" si="42"/>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="AC121">
         <f t="shared" si="43"/>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="AC121">
+        <v>7.6799999999996871E-3</v>
+      </c>
+      <c r="AD121">
         <f t="shared" si="44"/>
-        <v>7.6799999999996871E-3</v>
-      </c>
-      <c r="AD121">
+        <v>8387093080.0466805</v>
+      </c>
+      <c r="AE121">
+        <f t="shared" si="35"/>
+        <v>1.1923082174669681E-10</v>
+      </c>
+      <c r="AF121">
         <f t="shared" si="45"/>
-        <v>8387093080.0466805</v>
-      </c>
-      <c r="AE121">
-        <f t="shared" si="36"/>
-        <v>1.1923082174669681E-10</v>
-      </c>
-      <c r="AF121">
-        <f t="shared" si="46"/>
         <v>22.849959823020722</v>
       </c>
       <c r="AH121" s="3">
+        <f t="shared" si="52"/>
+        <v>4352727695717471</v>
+      </c>
+      <c r="AI121">
         <f t="shared" si="53"/>
-        <v>4352727.6957174707</v>
-      </c>
-      <c r="AI121">
+        <v>2.2974099688888704E-16</v>
+      </c>
+      <c r="AJ121">
         <f t="shared" si="54"/>
-        <v>2.2974099688888707E-7</v>
-      </c>
-      <c r="AJ121">
+        <v>36.009579099980279</v>
+      </c>
+      <c r="AK121" s="3">
         <f t="shared" si="55"/>
-        <v>15.28631326303387</v>
-      </c>
-      <c r="AK121" s="3">
+        <v>4364185303574122.5</v>
+      </c>
+      <c r="AL121">
         <f t="shared" si="56"/>
-        <v>4364185.3035741225</v>
-      </c>
-      <c r="AL121">
+        <v>2.2913784141590717E-16</v>
+      </c>
+      <c r="AM121">
         <f t="shared" si="57"/>
-        <v>2.2913784141590718E-7</v>
-      </c>
-      <c r="AM121">
-        <f t="shared" si="58"/>
-        <v>15.288942086897533</v>
-      </c>
-    </row>
-    <row r="122" spans="21:39" x14ac:dyDescent="0.25">
+        <v>36.012207923843945</v>
+      </c>
+    </row>
+    <row r="122" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y122">
         <v>9</v>
       </c>
@@ -7862,51 +7862,51 @@
         <v>2.73672</v>
       </c>
       <c r="AB122">
+        <f t="shared" si="42"/>
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="AC122">
         <f t="shared" si="43"/>
-        <v>2.4800000000000001E-4</v>
-      </c>
-      <c r="AC122">
+        <v>5.7399999999998563E-3</v>
+      </c>
+      <c r="AD122">
         <f t="shared" si="44"/>
-        <v>5.7399999999998563E-3</v>
-      </c>
-      <c r="AD122">
+        <v>4802463307.0286531</v>
+      </c>
+      <c r="AE122">
+        <f t="shared" si="35"/>
+        <v>2.0822647380490098E-10</v>
+      </c>
+      <c r="AF122">
         <f t="shared" si="45"/>
-        <v>4802463307.0286531</v>
-      </c>
-      <c r="AE122">
-        <f t="shared" si="36"/>
-        <v>2.0822647380490098E-10</v>
-      </c>
-      <c r="AF122">
-        <f t="shared" si="46"/>
         <v>22.292394812188135</v>
       </c>
       <c r="AH122" s="3">
+        <f t="shared" si="52"/>
+        <v>3253210543413889.5</v>
+      </c>
+      <c r="AI122">
         <f t="shared" si="53"/>
-        <v>3253210.5434138896</v>
-      </c>
-      <c r="AI122">
+        <v>3.0738865088965593E-16</v>
+      </c>
+      <c r="AJ122">
         <f t="shared" si="54"/>
-        <v>3.0738865088965594E-7</v>
-      </c>
-      <c r="AJ122">
+        <v>35.718418763152194</v>
+      </c>
+      <c r="AK122" s="3">
         <f t="shared" si="55"/>
-        <v>14.99515292620578</v>
-      </c>
-      <c r="AK122" s="3">
+        <v>3259463350639641.5</v>
+      </c>
+      <c r="AL122">
         <f t="shared" si="56"/>
-        <v>3259463.3506396413</v>
-      </c>
-      <c r="AL122">
+        <v>3.0679897038994431E-16</v>
+      </c>
+      <c r="AM122">
         <f t="shared" si="57"/>
-        <v>3.0679897038994431E-7</v>
-      </c>
-      <c r="AM122">
-        <f t="shared" si="58"/>
-        <v>14.99707312342392</v>
-      </c>
-    </row>
-    <row r="123" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.720338960370334</v>
+      </c>
+    </row>
+    <row r="123" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y123">
         <v>10</v>
       </c>
@@ -7918,51 +7918,51 @@
         <v>2.7351100000000002</v>
       </c>
       <c r="AB123">
+        <f t="shared" si="42"/>
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="AC123">
         <f t="shared" si="43"/>
-        <v>3.2400000000000001E-4</v>
-      </c>
-      <c r="AC123">
+        <v>4.129999999999967E-3</v>
+      </c>
+      <c r="AD123">
         <f t="shared" si="44"/>
-        <v>4.129999999999967E-3</v>
-      </c>
-      <c r="AD123">
+        <v>2644897738.198</v>
+      </c>
+      <c r="AE123">
+        <f t="shared" si="35"/>
+        <v>3.7808645134284541E-10</v>
+      </c>
+      <c r="AF123">
         <f t="shared" si="45"/>
-        <v>2644897738.198</v>
-      </c>
-      <c r="AE123">
-        <f t="shared" si="36"/>
-        <v>3.7808645134284541E-10</v>
-      </c>
-      <c r="AF123">
-        <f t="shared" si="46"/>
         <v>21.695898239202272</v>
       </c>
       <c r="AH123" s="3">
+        <f t="shared" si="52"/>
+        <v>2340724659285643</v>
+      </c>
+      <c r="AI123">
         <f t="shared" si="53"/>
-        <v>2340724.6592856431</v>
-      </c>
-      <c r="AI123">
+        <v>4.2721812496527731E-16</v>
+      </c>
+      <c r="AJ123">
         <f t="shared" si="54"/>
-        <v>4.2721812496527727E-7</v>
-      </c>
-      <c r="AJ123">
+        <v>35.389236959793678</v>
+      </c>
+      <c r="AK123" s="3">
         <f t="shared" si="55"/>
-        <v>14.665971122847264</v>
-      </c>
-      <c r="AK123" s="3">
+        <v>2343843945882165</v>
+      </c>
+      <c r="AL123">
         <f t="shared" si="56"/>
-        <v>2343843.9458821649</v>
-      </c>
-      <c r="AL123">
+        <v>4.2664956502623502E-16</v>
+      </c>
+      <c r="AM123">
         <f t="shared" si="57"/>
-        <v>4.2664956502623503E-7</v>
-      </c>
-      <c r="AM123">
-        <f t="shared" si="58"/>
-        <v>14.667302851473924</v>
-      </c>
-    </row>
-    <row r="124" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.390568688420338</v>
+      </c>
+    </row>
+    <row r="124" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y124">
         <v>11</v>
       </c>
@@ -7974,51 +7974,51 @@
         <v>2.7339000000000002</v>
       </c>
       <c r="AB124">
+        <f t="shared" si="42"/>
+        <v>4.1599999999999997E-4</v>
+      </c>
+      <c r="AC124">
         <f t="shared" si="43"/>
-        <v>4.1599999999999997E-4</v>
-      </c>
-      <c r="AC124">
+        <v>2.9200000000000337E-3</v>
+      </c>
+      <c r="AD124">
         <f t="shared" si="44"/>
-        <v>2.9200000000000337E-3</v>
-      </c>
-      <c r="AD124">
+        <v>1456442570.8665562</v>
+      </c>
+      <c r="AE124">
+        <f t="shared" si="35"/>
+        <v>6.8660448410610428E-10</v>
+      </c>
+      <c r="AF124">
         <f t="shared" si="45"/>
-        <v>1456442570.8665562</v>
-      </c>
-      <c r="AE124">
-        <f t="shared" si="36"/>
-        <v>6.8660448410610428E-10</v>
-      </c>
-      <c r="AF124">
-        <f t="shared" si="46"/>
         <v>21.099262704040608</v>
       </c>
       <c r="AH124" s="3">
+        <f t="shared" si="52"/>
+        <v>1654943342642666.3</v>
+      </c>
+      <c r="AI124">
         <f t="shared" si="53"/>
-        <v>1654943.3426426663</v>
-      </c>
-      <c r="AI124">
+        <v>6.0425029318717837E-16</v>
+      </c>
+      <c r="AJ124">
         <f t="shared" si="54"/>
-        <v>6.0425029318717827E-7</v>
-      </c>
-      <c r="AJ124">
+        <v>35.042543169100945</v>
+      </c>
+      <c r="AK124" s="3">
         <f t="shared" si="55"/>
-        <v>14.319277332154533</v>
-      </c>
-      <c r="AK124" s="3">
+        <v>1656415631308704</v>
+      </c>
+      <c r="AL124">
         <f t="shared" si="56"/>
-        <v>1656415.6313087041</v>
-      </c>
-      <c r="AL124">
+        <v>6.0371321128497081E-16</v>
+      </c>
+      <c r="AM124">
         <f t="shared" si="57"/>
-        <v>6.0371321128497079E-7</v>
-      </c>
-      <c r="AM124">
-        <f t="shared" si="58"/>
-        <v>14.32016656752565</v>
-      </c>
-    </row>
-    <row r="125" spans="21:39" x14ac:dyDescent="0.25">
+        <v>35.043432404472064</v>
+      </c>
+    </row>
+    <row r="125" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y125">
         <v>12</v>
       </c>
@@ -8030,51 +8030,51 @@
         <v>2.73325</v>
       </c>
       <c r="AB125">
+        <f t="shared" si="42"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AC125">
         <f t="shared" si="43"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AC125">
+        <v>2.2699999999997722E-3</v>
+      </c>
+      <c r="AD125">
         <f t="shared" si="44"/>
-        <v>2.2699999999997722E-3</v>
-      </c>
-      <c r="AD125">
+        <v>942019074.32914531</v>
+      </c>
+      <c r="AE125">
+        <f t="shared" si="35"/>
+        <v>1.0615496302048295E-9</v>
+      </c>
+      <c r="AF125">
         <f t="shared" si="45"/>
-        <v>942019074.32914531</v>
-      </c>
-      <c r="AE125">
-        <f t="shared" si="36"/>
-        <v>1.0615496302048295E-9</v>
-      </c>
-      <c r="AF125">
-        <f t="shared" si="46"/>
         <v>20.663536081092687</v>
       </c>
       <c r="AH125" s="3">
+        <f t="shared" si="52"/>
+        <v>1286548420478915.5</v>
+      </c>
+      <c r="AI125">
         <f t="shared" si="53"/>
-        <v>1286548.4204789156</v>
-      </c>
-      <c r="AI125">
+        <v>7.7727350489284475E-16</v>
+      </c>
+      <c r="AJ125">
         <f t="shared" si="54"/>
-        <v>7.772735048928447E-7</v>
-      </c>
-      <c r="AJ125">
+        <v>34.790739384313952</v>
+      </c>
+      <c r="AK125" s="3">
         <f t="shared" si="55"/>
-        <v>14.067473547367541</v>
-      </c>
-      <c r="AK125" s="3">
+        <v>1287386817455068.5</v>
+      </c>
+      <c r="AL125">
         <f t="shared" si="56"/>
-        <v>1287386.8174550685</v>
-      </c>
-      <c r="AL125">
+        <v>7.767673137874905E-16</v>
+      </c>
+      <c r="AM125">
         <f t="shared" si="57"/>
-        <v>7.7676731378749059E-7</v>
-      </c>
-      <c r="AM125">
-        <f t="shared" si="58"/>
-        <v>14.068124998883063</v>
-      </c>
-    </row>
-    <row r="126" spans="21:39" x14ac:dyDescent="0.25">
+        <v>34.791390835829475</v>
+      </c>
+    </row>
+    <row r="126" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y126">
         <v>13</v>
       </c>
@@ -8086,51 +8086,51 @@
         <v>2.7326800000000002</v>
       </c>
       <c r="AB126">
+        <f t="shared" si="42"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AC126">
         <f t="shared" si="43"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="AC126">
+        <v>1.7000000000000348E-3</v>
+      </c>
+      <c r="AD126">
         <f t="shared" si="44"/>
-        <v>1.7000000000000348E-3</v>
-      </c>
-      <c r="AD126">
+        <v>587897366.50504434</v>
+      </c>
+      <c r="AE126">
+        <f t="shared" si="35"/>
+        <v>1.7009771721632974E-9</v>
+      </c>
+      <c r="AF126">
         <f t="shared" si="45"/>
-        <v>587897366.50504434</v>
-      </c>
-      <c r="AE126">
-        <f t="shared" si="36"/>
-        <v>1.7009771721632974E-9</v>
-      </c>
-      <c r="AF126">
-        <f t="shared" si="46"/>
         <v>20.192062943867715</v>
       </c>
       <c r="AH126" s="3">
+        <f t="shared" si="52"/>
+        <v>963494411812520</v>
+      </c>
+      <c r="AI126">
         <f t="shared" si="53"/>
-        <v>963494.41181252</v>
-      </c>
-      <c r="AI126">
+        <v>1.0378887388862028E-15</v>
+      </c>
+      <c r="AJ126">
         <f t="shared" si="54"/>
-        <v>1.0378887388862026E-6</v>
-      </c>
-      <c r="AJ126">
+        <v>34.501587803882934</v>
+      </c>
+      <c r="AK126" s="3">
         <f t="shared" si="55"/>
-        <v>13.778321966936522</v>
-      </c>
-      <c r="AK126" s="3">
+        <v>963921225300602.75</v>
+      </c>
+      <c r="AL126">
         <f t="shared" si="56"/>
-        <v>963921.22530060285</v>
-      </c>
-      <c r="AL126">
+        <v>1.0374291734141925E-15</v>
+      </c>
+      <c r="AM126">
         <f t="shared" si="57"/>
-        <v>1.0374291734141924E-6</v>
-      </c>
-      <c r="AM126">
-        <f t="shared" si="58"/>
-        <v>13.778764853760558</v>
-      </c>
-    </row>
-    <row r="127" spans="21:39" x14ac:dyDescent="0.25">
+        <v>34.502030690706967</v>
+      </c>
+    </row>
+    <row r="127" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y127">
         <v>14</v>
       </c>
@@ -8142,51 +8142,51 @@
         <v>2.7322799999999998</v>
       </c>
       <c r="AB127">
+        <f t="shared" si="42"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AC127">
         <f t="shared" si="43"/>
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="AC127">
+        <v>1.2999999999996348E-3</v>
+      </c>
+      <c r="AD127">
         <f t="shared" si="44"/>
-        <v>1.2999999999996348E-3</v>
-      </c>
-      <c r="AD127">
+        <v>385344492.33092141</v>
+      </c>
+      <c r="AE127">
+        <f t="shared" si="35"/>
+        <v>2.5950805575319661E-9</v>
+      </c>
+      <c r="AF127">
         <f t="shared" si="45"/>
-        <v>385344492.33092141</v>
-      </c>
-      <c r="AE127">
-        <f t="shared" si="36"/>
-        <v>2.5950805575319661E-9</v>
-      </c>
-      <c r="AF127">
-        <f t="shared" si="46"/>
         <v>19.769648277445476</v>
       </c>
       <c r="AH127" s="3">
+        <f t="shared" si="52"/>
+        <v>736789844326999</v>
+      </c>
+      <c r="AI127">
         <f t="shared" si="53"/>
-        <v>736789.84432699904</v>
-      </c>
-      <c r="AI127">
+        <v>1.3572391200823666E-15</v>
+      </c>
+      <c r="AJ127">
         <f t="shared" si="54"/>
-        <v>1.3572391200823665E-6</v>
-      </c>
-      <c r="AJ127">
+        <v>34.233323817287953</v>
+      </c>
+      <c r="AK127" s="3">
         <f t="shared" si="55"/>
-        <v>13.510057980341541</v>
-      </c>
-      <c r="AK127" s="3">
+        <v>737008334654150.75</v>
+      </c>
+      <c r="AL127">
         <f t="shared" si="56"/>
-        <v>737008.33465415076</v>
-      </c>
-      <c r="AL127">
+        <v>1.3568367587990182E-15</v>
+      </c>
+      <c r="AM127">
         <f t="shared" si="57"/>
-        <v>1.356836758799018E-6</v>
-      </c>
-      <c r="AM127">
-        <f t="shared" si="58"/>
-        <v>13.510354480000542</v>
-      </c>
-    </row>
-    <row r="128" spans="21:39" x14ac:dyDescent="0.25">
+        <v>34.233620316946954</v>
+      </c>
+    </row>
+    <row r="128" spans="21:39" x14ac:dyDescent="0.3">
       <c r="Y128">
         <v>15</v>
       </c>
@@ -8198,48 +8198,48 @@
         <v>2.7319900000000001</v>
       </c>
       <c r="AB128">
+        <f t="shared" si="42"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AC128">
         <f t="shared" si="43"/>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="AC128">
+        <v>1.0099999999999554E-3</v>
+      </c>
+      <c r="AD128">
         <f t="shared" si="44"/>
-        <v>1.0099999999999554E-3</v>
-      </c>
-      <c r="AD128">
+        <v>261960150.07502484</v>
+      </c>
+      <c r="AE128">
+        <f t="shared" si="35"/>
+        <v>3.8173745117858652E-9</v>
+      </c>
+      <c r="AF128">
         <f t="shared" si="45"/>
-        <v>261960150.07502484</v>
-      </c>
-      <c r="AE128">
-        <f t="shared" si="36"/>
-        <v>3.8173745117858652E-9</v>
-      </c>
-      <c r="AF128">
-        <f t="shared" si="46"/>
         <v>19.383702951206867</v>
       </c>
       <c r="AH128" s="3">
+        <f t="shared" si="52"/>
+        <v>572429032900342.63</v>
+      </c>
+      <c r="AI128">
         <f t="shared" si="53"/>
-        <v>572429.03290034248</v>
-      </c>
-      <c r="AI128">
+        <v>1.7469414416897606E-15</v>
+      </c>
+      <c r="AJ128">
         <f t="shared" si="54"/>
-        <v>1.7469414416897612E-6</v>
-      </c>
-      <c r="AJ128">
+        <v>33.980909883673867</v>
+      </c>
+      <c r="AK128" s="3">
         <f t="shared" si="55"/>
-        <v>13.257644046727455</v>
-      </c>
-      <c r="AK128" s="3">
+        <v>572538008322773.75</v>
+      </c>
+      <c r="AL128">
         <f t="shared" si="56"/>
-        <v>572538.00832277373</v>
-      </c>
-      <c r="AL128">
+        <v>1.7466089333168611E-15</v>
+      </c>
+      <c r="AM128">
         <f t="shared" si="57"/>
-        <v>1.7466089333168611E-6</v>
-      </c>
-      <c r="AM128">
-        <f t="shared" si="58"/>
-        <v>13.257834402290255</v>
+        <v>33.981100239236667</v>
       </c>
     </row>
   </sheetData>
@@ -8254,7 +8254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8266,7 +8266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
